--- a/Tarea 03/Cubicaciones.xlsx
+++ b/Tarea 03/Cubicaciones.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5ADB6D16-1CD5-42DE-8A70-0FA7F4B5E17C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,15 +19,93 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Autor</author>
+  </authors>
+  <commentList>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{BD13D700-ADAE-46F7-8CAB-9A25E47FDE3D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Investigar</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>$\gamma_{Hormigon}$</t>
+  </si>
+  <si>
+    <t>Densidad [$T/m^3$]</t>
+  </si>
+  <si>
+    <t>$\gamma_{Sobrelosa}$</t>
+  </si>
+  <si>
+    <t>$\gamma_{Estuco}$</t>
+  </si>
+  <si>
+    <t>Elemento</t>
+  </si>
+  <si>
+    <t>Densidades de cada elemento</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +116,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +124,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +433,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Tarea 03/Cubicaciones.xlsx
+++ b/Tarea 03/Cubicaciones.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5ADB6D16-1CD5-42DE-8A70-0FA7F4B5E17C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8C7A70FD-FA58-4F66-816C-457593C4070D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Cubicaciones" sheetId="1" r:id="rId1"/>
+    <sheet name="Verificación corte muros" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -53,8 +54,48 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Autor</author>
+  </authors>
+  <commentList>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{944B7B9C-1073-47A8-8748-526885C832E9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Área losa</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+  <si>
+    <t>Estuco</t>
+  </si>
+  <si>
+    <t>Sobrelosa</t>
+  </si>
   <si>
     <t>$\gamma_{Hormigon}$</t>
   </si>
@@ -72,13 +113,113 @@
   </si>
   <si>
     <t>Densidades de cada elemento</t>
+  </si>
+  <si>
+    <t>N° piso</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Qacum</t>
+  </si>
+  <si>
+    <t>Largo muro x</t>
+  </si>
+  <si>
+    <t>Largo muro y</t>
+  </si>
+  <si>
+    <t>ex</t>
+  </si>
+  <si>
+    <t>ey</t>
+  </si>
+  <si>
+    <t>Taux</t>
+  </si>
+  <si>
+    <t>Tauy</t>
+  </si>
+  <si>
+    <t>% TauX</t>
+  </si>
+  <si>
+    <t>% TauY</t>
+  </si>
+  <si>
+    <t>Eval</t>
+  </si>
+  <si>
+    <t>Sobrado x</t>
+  </si>
+  <si>
+    <t>Sobrado y</t>
+  </si>
+  <si>
+    <t>Importancia (I)</t>
+  </si>
+  <si>
+    <t>[-]</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>[T/m2]</t>
+  </si>
+  <si>
+    <t>Coeficiente sísmico</t>
+  </si>
+  <si>
+    <t>[%]</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>[kgf/cm^2]</t>
+  </si>
+  <si>
+    <t>[T/cm^2]</t>
+  </si>
+  <si>
+    <t>Alosa</t>
+  </si>
+  <si>
+    <t>Espesores de elementos</t>
+  </si>
+  <si>
+    <t>Enlucido</t>
+  </si>
+  <si>
+    <t>Espesor</t>
+  </si>
+  <si>
+    <t>Piso</t>
+  </si>
+  <si>
+    <t>Altura libre (m)</t>
+  </si>
+  <si>
+    <t>Alturas libres de pisos (entre losas)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,15 +249,39 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -139,13 +304,219 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -154,11 +525,174 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -434,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C6"/>
+  <dimension ref="B2:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,43 +980,286 @@
     <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E4" s="3">
+        <v>24</v>
+      </c>
+      <c r="F4" s="55">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>23</v>
+      </c>
+      <c r="F5" s="55">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C6" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E6" s="3">
+        <v>22</v>
+      </c>
+      <c r="F6" s="55">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E7" s="3">
+        <v>21</v>
+      </c>
+      <c r="F7" s="55">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+      <c r="F8" s="55">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="3">
+        <v>19</v>
+      </c>
+      <c r="F9" s="55">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <f>2.5/100</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>18</v>
+      </c>
+      <c r="F10" s="55">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="52" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+      <c r="C11" s="3">
+        <f>5/100</f>
+        <v>0.05</v>
+      </c>
+      <c r="E11" s="3">
+        <v>17</v>
+      </c>
+      <c r="F11" s="55">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3">
+        <f>2/100</f>
+        <v>0.02</v>
+      </c>
+      <c r="E12" s="3">
+        <v>16</v>
+      </c>
+      <c r="F12" s="55">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E13" s="3">
+        <v>15</v>
+      </c>
+      <c r="F13" s="55">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E14" s="3">
+        <v>14</v>
+      </c>
+      <c r="F14" s="55">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E15" s="3">
+        <v>13</v>
+      </c>
+      <c r="F15" s="55">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E16" s="3">
+        <v>12</v>
+      </c>
+      <c r="F16" s="55">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E17" s="3">
+        <v>11</v>
+      </c>
+      <c r="F17" s="55">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E18" s="3">
+        <v>10</v>
+      </c>
+      <c r="F18" s="55">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E19" s="3">
+        <v>9</v>
+      </c>
+      <c r="F19" s="55">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E20" s="3">
+        <v>8</v>
+      </c>
+      <c r="F20" s="55">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E21" s="3">
+        <v>7</v>
+      </c>
+      <c r="F21" s="55">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E22" s="3">
+        <v>6</v>
+      </c>
+      <c r="F22" s="55">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E23" s="3">
+        <v>5</v>
+      </c>
+      <c r="F23" s="55">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E24" s="3">
+        <v>4</v>
+      </c>
+      <c r="F24" s="55">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E25" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="2">
+      <c r="F25" s="55">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E26" s="3">
+        <v>3</v>
+      </c>
+      <c r="F26" s="55">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E27" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1.5</v>
+      <c r="F27" s="55">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="55">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E29" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F29" s="55">
+        <v>2.2999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -490,4 +1267,1538 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A282A9DD-DDA8-407B-9F67-055CDE136535}">
+  <dimension ref="A1:U26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.109375" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="0" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="5.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="11">
+        <v>23</v>
+      </c>
+      <c r="G3" s="12">
+        <v>410.4</v>
+      </c>
+      <c r="H3" s="12">
+        <f>G3*$D$3*$D$4</f>
+        <v>41.04</v>
+      </c>
+      <c r="I3" s="13">
+        <f>H3</f>
+        <v>41.04</v>
+      </c>
+      <c r="J3" s="14">
+        <v>58.02</v>
+      </c>
+      <c r="K3" s="15">
+        <v>53.12</v>
+      </c>
+      <c r="L3" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="M3" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="N3" s="18">
+        <f>J3*L3*$D$6*100*100</f>
+        <v>812.2800000000002</v>
+      </c>
+      <c r="O3" s="14">
+        <f>K3*M3*$D$6*100*100</f>
+        <v>743.68000000000006</v>
+      </c>
+      <c r="P3" s="19">
+        <f>I3/N3</f>
+        <v>5.0524449697148754E-2</v>
+      </c>
+      <c r="Q3" s="20">
+        <f>I3/O3</f>
+        <v>5.5185025817555931E-2</v>
+      </c>
+      <c r="R3" s="21" t="str">
+        <f>IF(OR(N3&lt;I3,O3&lt;I3),"MALO","WENO")</f>
+        <v>WENO</v>
+      </c>
+      <c r="T3" s="22">
+        <f>N3-I3</f>
+        <v>771.24000000000024</v>
+      </c>
+      <c r="U3" s="23">
+        <f>O3-I3</f>
+        <v>702.6400000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="11">
+        <v>22</v>
+      </c>
+      <c r="G4" s="12">
+        <v>410.4</v>
+      </c>
+      <c r="H4" s="12">
+        <f>G4*$D$3*$D$4</f>
+        <v>41.04</v>
+      </c>
+      <c r="I4" s="13">
+        <f>I3+H4</f>
+        <v>82.08</v>
+      </c>
+      <c r="J4" s="14">
+        <v>58.02</v>
+      </c>
+      <c r="K4" s="15">
+        <v>53.12</v>
+      </c>
+      <c r="L4" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="M4" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="N4" s="18">
+        <f>J4*L4*$D$6*100*100</f>
+        <v>812.2800000000002</v>
+      </c>
+      <c r="O4" s="14">
+        <f>K4*M4*$D$6*100*100</f>
+        <v>743.68000000000006</v>
+      </c>
+      <c r="P4" s="19">
+        <f t="shared" ref="P4:P26" si="0">I4/N4</f>
+        <v>0.10104889939429751</v>
+      </c>
+      <c r="Q4" s="20">
+        <f t="shared" ref="Q4:Q26" si="1">I4/O4</f>
+        <v>0.11037005163511186</v>
+      </c>
+      <c r="R4" s="21" t="str">
+        <f t="shared" ref="R4:R26" si="2">IF(OR(N4&lt;I4,O4&lt;I4),"MALO","WENO")</f>
+        <v>WENO</v>
+      </c>
+      <c r="T4" s="24">
+        <f t="shared" ref="T4:T26" si="3">N4-I4</f>
+        <v>730.20000000000016</v>
+      </c>
+      <c r="U4" s="25">
+        <f t="shared" ref="U4:U26" si="4">O4-I4</f>
+        <v>661.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="11">
+        <v>21</v>
+      </c>
+      <c r="G5" s="12">
+        <v>410.4</v>
+      </c>
+      <c r="H5" s="12">
+        <f>G5*$D$3*$D$4</f>
+        <v>41.04</v>
+      </c>
+      <c r="I5" s="13">
+        <f t="shared" ref="I5:I26" si="5">I4+H5</f>
+        <v>123.12</v>
+      </c>
+      <c r="J5" s="14">
+        <v>58.02</v>
+      </c>
+      <c r="K5" s="15">
+        <v>53.12</v>
+      </c>
+      <c r="L5" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="M5" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="N5" s="18">
+        <f>J5*L5*$D$6*100*100</f>
+        <v>812.2800000000002</v>
+      </c>
+      <c r="O5" s="14">
+        <f>K5*M5*$D$6*100*100</f>
+        <v>743.68000000000006</v>
+      </c>
+      <c r="P5" s="19">
+        <f t="shared" si="0"/>
+        <v>0.15157334909144626</v>
+      </c>
+      <c r="Q5" s="20">
+        <f t="shared" si="1"/>
+        <v>0.16555507745266781</v>
+      </c>
+      <c r="R5" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>WENO</v>
+      </c>
+      <c r="T5" s="24">
+        <f t="shared" si="3"/>
+        <v>689.1600000000002</v>
+      </c>
+      <c r="U5" s="25">
+        <f t="shared" si="4"/>
+        <v>620.56000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3">
+        <f>D5/1000</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="11">
+        <v>20</v>
+      </c>
+      <c r="G6" s="12">
+        <v>410.4</v>
+      </c>
+      <c r="H6" s="12">
+        <f>G6*$D$3*$D$4</f>
+        <v>41.04</v>
+      </c>
+      <c r="I6" s="13">
+        <f t="shared" si="5"/>
+        <v>164.16</v>
+      </c>
+      <c r="J6" s="14">
+        <v>58.02</v>
+      </c>
+      <c r="K6" s="15">
+        <v>53.12</v>
+      </c>
+      <c r="L6" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="M6" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="N6" s="18">
+        <f>J6*L6*$D$6*100*100</f>
+        <v>812.2800000000002</v>
+      </c>
+      <c r="O6" s="14">
+        <f>K6*M6*$D$6*100*100</f>
+        <v>743.68000000000006</v>
+      </c>
+      <c r="P6" s="19">
+        <f t="shared" si="0"/>
+        <v>0.20209779878859502</v>
+      </c>
+      <c r="Q6" s="20">
+        <f t="shared" si="1"/>
+        <v>0.22074010327022373</v>
+      </c>
+      <c r="R6" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>WENO</v>
+      </c>
+      <c r="T6" s="24">
+        <f t="shared" si="3"/>
+        <v>648.12000000000023</v>
+      </c>
+      <c r="U6" s="25">
+        <f t="shared" si="4"/>
+        <v>579.5200000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="F7" s="11">
+        <v>19</v>
+      </c>
+      <c r="G7" s="12">
+        <v>410.4</v>
+      </c>
+      <c r="H7" s="12">
+        <f>G7*$D$3*$D$4</f>
+        <v>41.04</v>
+      </c>
+      <c r="I7" s="13">
+        <f t="shared" si="5"/>
+        <v>205.2</v>
+      </c>
+      <c r="J7" s="14">
+        <v>58.02</v>
+      </c>
+      <c r="K7" s="15">
+        <v>53.12</v>
+      </c>
+      <c r="L7" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="M7" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="N7" s="18">
+        <f>J7*L7*$D$6*100*100</f>
+        <v>812.2800000000002</v>
+      </c>
+      <c r="O7" s="14">
+        <f>K7*M7*$D$6*100*100</f>
+        <v>743.68000000000006</v>
+      </c>
+      <c r="P7" s="19">
+        <f t="shared" si="0"/>
+        <v>0.25262224848574377</v>
+      </c>
+      <c r="Q7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.27592512908777966</v>
+      </c>
+      <c r="R7" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>WENO</v>
+      </c>
+      <c r="T7" s="24">
+        <f t="shared" si="3"/>
+        <v>607.08000000000015</v>
+      </c>
+      <c r="U7" s="25">
+        <f t="shared" si="4"/>
+        <v>538.48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="27"/>
+      <c r="F8" s="11">
+        <v>18</v>
+      </c>
+      <c r="G8" s="12">
+        <v>410.4</v>
+      </c>
+      <c r="H8" s="12">
+        <f>G8*$D$3*$D$4</f>
+        <v>41.04</v>
+      </c>
+      <c r="I8" s="13">
+        <f t="shared" si="5"/>
+        <v>246.23999999999998</v>
+      </c>
+      <c r="J8" s="14">
+        <v>58.02</v>
+      </c>
+      <c r="K8" s="15">
+        <v>53.12</v>
+      </c>
+      <c r="L8" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="M8" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="N8" s="18">
+        <f>J8*L8*$D$6*100*100</f>
+        <v>812.2800000000002</v>
+      </c>
+      <c r="O8" s="14">
+        <f>K8*M8*$D$6*100*100</f>
+        <v>743.68000000000006</v>
+      </c>
+      <c r="P8" s="19">
+        <f t="shared" si="0"/>
+        <v>0.30314669818289253</v>
+      </c>
+      <c r="Q8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.33111015490533557</v>
+      </c>
+      <c r="R8" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>WENO</v>
+      </c>
+      <c r="T8" s="24">
+        <f t="shared" si="3"/>
+        <v>566.04000000000019</v>
+      </c>
+      <c r="U8" s="25">
+        <f t="shared" si="4"/>
+        <v>497.44000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="27"/>
+      <c r="F9" s="11">
+        <v>17</v>
+      </c>
+      <c r="G9" s="12">
+        <v>410.4</v>
+      </c>
+      <c r="H9" s="12">
+        <f>G9*$D$3*$D$4</f>
+        <v>41.04</v>
+      </c>
+      <c r="I9" s="13">
+        <f t="shared" si="5"/>
+        <v>287.27999999999997</v>
+      </c>
+      <c r="J9" s="14">
+        <v>58.02</v>
+      </c>
+      <c r="K9" s="15">
+        <v>53.12</v>
+      </c>
+      <c r="L9" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="M9" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="N9" s="18">
+        <f>J9*L9*$D$6*100*100</f>
+        <v>812.2800000000002</v>
+      </c>
+      <c r="O9" s="14">
+        <f>K9*M9*$D$6*100*100</f>
+        <v>743.68000000000006</v>
+      </c>
+      <c r="P9" s="19">
+        <f t="shared" si="0"/>
+        <v>0.35367114788004123</v>
+      </c>
+      <c r="Q9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.38629518072289148</v>
+      </c>
+      <c r="R9" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>WENO</v>
+      </c>
+      <c r="T9" s="24">
+        <f t="shared" si="3"/>
+        <v>525.00000000000023</v>
+      </c>
+      <c r="U9" s="25">
+        <f t="shared" si="4"/>
+        <v>456.40000000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="27"/>
+      <c r="F10" s="11">
+        <v>16</v>
+      </c>
+      <c r="G10" s="12">
+        <v>410.4</v>
+      </c>
+      <c r="H10" s="12">
+        <f>G10*$D$3*$D$4</f>
+        <v>41.04</v>
+      </c>
+      <c r="I10" s="13">
+        <f t="shared" si="5"/>
+        <v>328.32</v>
+      </c>
+      <c r="J10" s="14">
+        <v>58.02</v>
+      </c>
+      <c r="K10" s="15">
+        <v>53.12</v>
+      </c>
+      <c r="L10" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="M10" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="N10" s="18">
+        <f>J10*L10*$D$6*100*100</f>
+        <v>812.2800000000002</v>
+      </c>
+      <c r="O10" s="14">
+        <f>K10*M10*$D$6*100*100</f>
+        <v>743.68000000000006</v>
+      </c>
+      <c r="P10" s="19">
+        <f t="shared" si="0"/>
+        <v>0.40419559757719004</v>
+      </c>
+      <c r="Q10" s="20">
+        <f t="shared" si="1"/>
+        <v>0.44148020654044745</v>
+      </c>
+      <c r="R10" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>WENO</v>
+      </c>
+      <c r="T10" s="24">
+        <f t="shared" si="3"/>
+        <v>483.96000000000021</v>
+      </c>
+      <c r="U10" s="25">
+        <f t="shared" si="4"/>
+        <v>415.36000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="27"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="F11" s="11">
+        <v>15</v>
+      </c>
+      <c r="G11" s="12">
+        <v>410.4</v>
+      </c>
+      <c r="H11" s="12">
+        <f>G11*$D$3*$D$4</f>
+        <v>41.04</v>
+      </c>
+      <c r="I11" s="13">
+        <f t="shared" si="5"/>
+        <v>369.36</v>
+      </c>
+      <c r="J11" s="14">
+        <v>58.02</v>
+      </c>
+      <c r="K11" s="15">
+        <v>53.12</v>
+      </c>
+      <c r="L11" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="M11" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="N11" s="18">
+        <f>J11*L11*$D$6*100*100</f>
+        <v>812.2800000000002</v>
+      </c>
+      <c r="O11" s="14">
+        <f>K11*M11*$D$6*100*100</f>
+        <v>743.68000000000006</v>
+      </c>
+      <c r="P11" s="19">
+        <f t="shared" si="0"/>
+        <v>0.45472004727433879</v>
+      </c>
+      <c r="Q11" s="20">
+        <f t="shared" si="1"/>
+        <v>0.49666523235800342</v>
+      </c>
+      <c r="R11" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>WENO</v>
+      </c>
+      <c r="T11" s="24">
+        <f t="shared" si="3"/>
+        <v>442.92000000000019</v>
+      </c>
+      <c r="U11" s="25">
+        <f t="shared" si="4"/>
+        <v>374.32000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="27"/>
+      <c r="F12" s="11">
+        <v>14</v>
+      </c>
+      <c r="G12" s="12">
+        <v>410.4</v>
+      </c>
+      <c r="H12" s="12">
+        <f>G12*$D$3*$D$4</f>
+        <v>41.04</v>
+      </c>
+      <c r="I12" s="13">
+        <f t="shared" si="5"/>
+        <v>410.40000000000003</v>
+      </c>
+      <c r="J12" s="14">
+        <v>58.02</v>
+      </c>
+      <c r="K12" s="15">
+        <v>53.12</v>
+      </c>
+      <c r="L12" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="M12" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="N12" s="18">
+        <f>J12*L12*$D$6*100*100</f>
+        <v>812.2800000000002</v>
+      </c>
+      <c r="O12" s="14">
+        <f>K12*M12*$D$6*100*100</f>
+        <v>743.68000000000006</v>
+      </c>
+      <c r="P12" s="19">
+        <f t="shared" si="0"/>
+        <v>0.50524449697148754</v>
+      </c>
+      <c r="Q12" s="20">
+        <f t="shared" si="1"/>
+        <v>0.55185025817555933</v>
+      </c>
+      <c r="R12" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>WENO</v>
+      </c>
+      <c r="T12" s="24">
+        <f t="shared" si="3"/>
+        <v>401.88000000000017</v>
+      </c>
+      <c r="U12" s="25">
+        <f t="shared" si="4"/>
+        <v>333.28000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="27"/>
+      <c r="F13" s="11">
+        <v>13</v>
+      </c>
+      <c r="G13" s="12">
+        <v>410.4</v>
+      </c>
+      <c r="H13" s="12">
+        <f>G13*$D$3*$D$4</f>
+        <v>41.04</v>
+      </c>
+      <c r="I13" s="13">
+        <f t="shared" si="5"/>
+        <v>451.44000000000005</v>
+      </c>
+      <c r="J13" s="14">
+        <v>58.02</v>
+      </c>
+      <c r="K13" s="15">
+        <v>53.12</v>
+      </c>
+      <c r="L13" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="M13" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="N13" s="18">
+        <f>J13*L13*$D$6*100*100</f>
+        <v>812.2800000000002</v>
+      </c>
+      <c r="O13" s="14">
+        <f>K13*M13*$D$6*100*100</f>
+        <v>743.68000000000006</v>
+      </c>
+      <c r="P13" s="19">
+        <f t="shared" si="0"/>
+        <v>0.55576894666863641</v>
+      </c>
+      <c r="Q13" s="20">
+        <f t="shared" si="1"/>
+        <v>0.60703528399311535</v>
+      </c>
+      <c r="R13" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>WENO</v>
+      </c>
+      <c r="T13" s="24">
+        <f t="shared" si="3"/>
+        <v>360.84000000000015</v>
+      </c>
+      <c r="U13" s="25">
+        <f t="shared" si="4"/>
+        <v>292.24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="27"/>
+      <c r="F14" s="11">
+        <v>12</v>
+      </c>
+      <c r="G14" s="12">
+        <v>410.4</v>
+      </c>
+      <c r="H14" s="12">
+        <f>G14*$D$3*$D$4</f>
+        <v>41.04</v>
+      </c>
+      <c r="I14" s="13">
+        <f t="shared" si="5"/>
+        <v>492.48000000000008</v>
+      </c>
+      <c r="J14" s="14">
+        <v>58.02</v>
+      </c>
+      <c r="K14" s="15">
+        <v>53.12</v>
+      </c>
+      <c r="L14" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="M14" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="N14" s="18">
+        <f>J14*L14*$D$6*100*100</f>
+        <v>812.2800000000002</v>
+      </c>
+      <c r="O14" s="14">
+        <f>K14*M14*$D$6*100*100</f>
+        <v>743.68000000000006</v>
+      </c>
+      <c r="P14" s="19">
+        <f t="shared" si="0"/>
+        <v>0.60629339636578516</v>
+      </c>
+      <c r="Q14" s="20">
+        <f t="shared" si="1"/>
+        <v>0.66222030981067126</v>
+      </c>
+      <c r="R14" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>WENO</v>
+      </c>
+      <c r="T14" s="24">
+        <f t="shared" si="3"/>
+        <v>319.80000000000013</v>
+      </c>
+      <c r="U14" s="25">
+        <f t="shared" si="4"/>
+        <v>251.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="27"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="27"/>
+      <c r="F15" s="11">
+        <v>11</v>
+      </c>
+      <c r="G15" s="12">
+        <v>410.4</v>
+      </c>
+      <c r="H15" s="12">
+        <f>G15*$D$3*$D$4</f>
+        <v>41.04</v>
+      </c>
+      <c r="I15" s="13">
+        <f t="shared" si="5"/>
+        <v>533.5200000000001</v>
+      </c>
+      <c r="J15" s="14">
+        <v>58.02</v>
+      </c>
+      <c r="K15" s="15">
+        <v>53.12</v>
+      </c>
+      <c r="L15" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="M15" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="N15" s="18">
+        <f>J15*L15*$D$6*100*100</f>
+        <v>812.2800000000002</v>
+      </c>
+      <c r="O15" s="14">
+        <f>K15*M15*$D$6*100*100</f>
+        <v>743.68000000000006</v>
+      </c>
+      <c r="P15" s="19">
+        <f t="shared" si="0"/>
+        <v>0.65681784606293392</v>
+      </c>
+      <c r="Q15" s="20">
+        <f t="shared" si="1"/>
+        <v>0.71740533562822728</v>
+      </c>
+      <c r="R15" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>WENO</v>
+      </c>
+      <c r="T15" s="24">
+        <f t="shared" si="3"/>
+        <v>278.7600000000001</v>
+      </c>
+      <c r="U15" s="25">
+        <f t="shared" si="4"/>
+        <v>210.15999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="27"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="27"/>
+      <c r="F16" s="11">
+        <v>10</v>
+      </c>
+      <c r="G16" s="12">
+        <v>410.4</v>
+      </c>
+      <c r="H16" s="12">
+        <f>G16*$D$3*$D$4</f>
+        <v>41.04</v>
+      </c>
+      <c r="I16" s="13">
+        <f t="shared" si="5"/>
+        <v>574.56000000000006</v>
+      </c>
+      <c r="J16" s="14">
+        <v>58.02</v>
+      </c>
+      <c r="K16" s="15">
+        <v>53.12</v>
+      </c>
+      <c r="L16" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="M16" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="N16" s="18">
+        <f>J16*L16*$D$6*100*100</f>
+        <v>812.2800000000002</v>
+      </c>
+      <c r="O16" s="14">
+        <f>K16*M16*$D$6*100*100</f>
+        <v>743.68000000000006</v>
+      </c>
+      <c r="P16" s="19">
+        <f t="shared" si="0"/>
+        <v>0.70734229576008267</v>
+      </c>
+      <c r="Q16" s="20">
+        <f t="shared" si="1"/>
+        <v>0.77259036144578319</v>
+      </c>
+      <c r="R16" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>WENO</v>
+      </c>
+      <c r="T16" s="24">
+        <f t="shared" si="3"/>
+        <v>237.72000000000014</v>
+      </c>
+      <c r="U16" s="25">
+        <f t="shared" si="4"/>
+        <v>169.12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="27"/>
+      <c r="F17" s="11">
+        <v>9</v>
+      </c>
+      <c r="G17" s="12">
+        <v>410.4</v>
+      </c>
+      <c r="H17" s="12">
+        <f>G17*$D$3*$D$4</f>
+        <v>41.04</v>
+      </c>
+      <c r="I17" s="13">
+        <f t="shared" si="5"/>
+        <v>615.6</v>
+      </c>
+      <c r="J17" s="14">
+        <v>58.02</v>
+      </c>
+      <c r="K17" s="15">
+        <v>53.12</v>
+      </c>
+      <c r="L17" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="M17" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="N17" s="18">
+        <f>J17*L17*$D$6*100*100</f>
+        <v>812.2800000000002</v>
+      </c>
+      <c r="O17" s="14">
+        <f>K17*M17*$D$6*100*100</f>
+        <v>743.68000000000006</v>
+      </c>
+      <c r="P17" s="19">
+        <f t="shared" si="0"/>
+        <v>0.75786674545723132</v>
+      </c>
+      <c r="Q17" s="20">
+        <f t="shared" si="1"/>
+        <v>0.82777538726333899</v>
+      </c>
+      <c r="R17" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>WENO</v>
+      </c>
+      <c r="T17" s="24">
+        <f t="shared" si="3"/>
+        <v>196.68000000000018</v>
+      </c>
+      <c r="U17" s="25">
+        <f t="shared" si="4"/>
+        <v>128.08000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" s="27"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="27"/>
+      <c r="F18" s="11">
+        <v>8</v>
+      </c>
+      <c r="G18" s="12">
+        <v>410.4</v>
+      </c>
+      <c r="H18" s="12">
+        <f>G18*$D$3*$D$4</f>
+        <v>41.04</v>
+      </c>
+      <c r="I18" s="13">
+        <f t="shared" si="5"/>
+        <v>656.64</v>
+      </c>
+      <c r="J18" s="14">
+        <v>58.02</v>
+      </c>
+      <c r="K18" s="15">
+        <v>53.12</v>
+      </c>
+      <c r="L18" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="M18" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="N18" s="18">
+        <f>J18*L18*$D$6*100*100</f>
+        <v>812.2800000000002</v>
+      </c>
+      <c r="O18" s="14">
+        <f>K18*M18*$D$6*100*100</f>
+        <v>743.68000000000006</v>
+      </c>
+      <c r="P18" s="19">
+        <f t="shared" si="0"/>
+        <v>0.80839119515438007</v>
+      </c>
+      <c r="Q18" s="20">
+        <f t="shared" si="1"/>
+        <v>0.8829604130808949</v>
+      </c>
+      <c r="R18" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>WENO</v>
+      </c>
+      <c r="T18" s="24">
+        <f t="shared" si="3"/>
+        <v>155.64000000000021</v>
+      </c>
+      <c r="U18" s="25">
+        <f t="shared" si="4"/>
+        <v>87.040000000000077</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="27"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="27"/>
+      <c r="F19" s="11">
+        <v>7</v>
+      </c>
+      <c r="G19" s="12">
+        <v>410.4</v>
+      </c>
+      <c r="H19" s="12">
+        <f>G19*$D$3*$D$4</f>
+        <v>41.04</v>
+      </c>
+      <c r="I19" s="13">
+        <f t="shared" si="5"/>
+        <v>697.68</v>
+      </c>
+      <c r="J19" s="14">
+        <v>58.02</v>
+      </c>
+      <c r="K19" s="15">
+        <v>53.12</v>
+      </c>
+      <c r="L19" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="M19" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="N19" s="18">
+        <f>J19*L19*$D$6*100*100</f>
+        <v>812.2800000000002</v>
+      </c>
+      <c r="O19" s="14">
+        <f>K19*M19*$D$6*100*100</f>
+        <v>743.68000000000006</v>
+      </c>
+      <c r="P19" s="19">
+        <f t="shared" si="0"/>
+        <v>0.85891564485152871</v>
+      </c>
+      <c r="Q19" s="20">
+        <f t="shared" si="1"/>
+        <v>0.93814543889845081</v>
+      </c>
+      <c r="R19" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>WENO</v>
+      </c>
+      <c r="T19" s="24">
+        <f t="shared" si="3"/>
+        <v>114.60000000000025</v>
+      </c>
+      <c r="U19" s="25">
+        <f t="shared" si="4"/>
+        <v>46.000000000000114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20" s="27"/>
+      <c r="B20" s="28"/>
+      <c r="D20" s="29"/>
+      <c r="F20" s="11">
+        <v>6</v>
+      </c>
+      <c r="G20" s="12">
+        <v>410.4</v>
+      </c>
+      <c r="H20" s="12">
+        <f>G20*$D$3*$D$4</f>
+        <v>41.04</v>
+      </c>
+      <c r="I20" s="13">
+        <f t="shared" si="5"/>
+        <v>738.71999999999991</v>
+      </c>
+      <c r="J20" s="14">
+        <v>58.02</v>
+      </c>
+      <c r="K20" s="15">
+        <v>53.12</v>
+      </c>
+      <c r="L20" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="M20" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="N20" s="18">
+        <f>J20*L20*$D$6*100*100</f>
+        <v>812.2800000000002</v>
+      </c>
+      <c r="O20" s="14">
+        <f>K20*M20*$D$6*100*100</f>
+        <v>743.68000000000006</v>
+      </c>
+      <c r="P20" s="19">
+        <f t="shared" si="0"/>
+        <v>0.90944009454867747</v>
+      </c>
+      <c r="Q20" s="20">
+        <f t="shared" si="1"/>
+        <v>0.99333046471600672</v>
+      </c>
+      <c r="R20" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>WENO</v>
+      </c>
+      <c r="T20" s="24">
+        <f t="shared" si="3"/>
+        <v>73.560000000000286</v>
+      </c>
+      <c r="U20" s="25">
+        <f t="shared" si="4"/>
+        <v>4.9600000000001501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21" s="27"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="27"/>
+      <c r="F21" s="11">
+        <v>5</v>
+      </c>
+      <c r="G21" s="12">
+        <v>410.4</v>
+      </c>
+      <c r="H21" s="12">
+        <f>G21*$D$3*$D$4</f>
+        <v>41.04</v>
+      </c>
+      <c r="I21" s="13">
+        <f t="shared" si="5"/>
+        <v>779.75999999999988</v>
+      </c>
+      <c r="J21" s="14">
+        <v>58.02</v>
+      </c>
+      <c r="K21" s="15">
+        <v>53.12</v>
+      </c>
+      <c r="L21" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="M21" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="N21" s="18">
+        <f>J21*L21*$D$6*100*100</f>
+        <v>1015.3500000000001</v>
+      </c>
+      <c r="O21" s="14">
+        <f>K21*M21*$D$6*100*100</f>
+        <v>929.59999999999991</v>
+      </c>
+      <c r="P21" s="19">
+        <f t="shared" si="0"/>
+        <v>0.76797163539666102</v>
+      </c>
+      <c r="Q21" s="20">
+        <f t="shared" si="1"/>
+        <v>0.83881239242685024</v>
+      </c>
+      <c r="R21" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>WENO</v>
+      </c>
+      <c r="T21" s="24">
+        <f t="shared" si="3"/>
+        <v>235.59000000000026</v>
+      </c>
+      <c r="U21" s="25">
+        <f t="shared" si="4"/>
+        <v>149.84000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="F22" s="11">
+        <v>4</v>
+      </c>
+      <c r="G22" s="12">
+        <v>410.4</v>
+      </c>
+      <c r="H22" s="12">
+        <f>G22*$D$3*$D$4</f>
+        <v>41.04</v>
+      </c>
+      <c r="I22" s="13">
+        <f t="shared" si="5"/>
+        <v>820.79999999999984</v>
+      </c>
+      <c r="J22" s="14">
+        <v>58.02</v>
+      </c>
+      <c r="K22" s="15">
+        <v>53.12</v>
+      </c>
+      <c r="L22" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="M22" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="N22" s="18">
+        <f>J22*L22*$D$6*100*100</f>
+        <v>1015.3500000000001</v>
+      </c>
+      <c r="O22" s="14">
+        <f>K22*M22*$D$6*100*100</f>
+        <v>929.59999999999991</v>
+      </c>
+      <c r="P22" s="19">
+        <f t="shared" si="0"/>
+        <v>0.80839119515437996</v>
+      </c>
+      <c r="Q22" s="20">
+        <f t="shared" si="1"/>
+        <v>0.8829604130808949</v>
+      </c>
+      <c r="R22" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>WENO</v>
+      </c>
+      <c r="T22" s="24">
+        <f t="shared" si="3"/>
+        <v>194.5500000000003</v>
+      </c>
+      <c r="U22" s="25">
+        <f t="shared" si="4"/>
+        <v>108.80000000000007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="F23" s="11">
+        <v>3</v>
+      </c>
+      <c r="G23" s="12">
+        <v>410.4</v>
+      </c>
+      <c r="H23" s="12">
+        <f>G23*$D$3*$D$4</f>
+        <v>41.04</v>
+      </c>
+      <c r="I23" s="13">
+        <f t="shared" si="5"/>
+        <v>861.8399999999998</v>
+      </c>
+      <c r="J23" s="14">
+        <v>58.02</v>
+      </c>
+      <c r="K23" s="15">
+        <v>50.03</v>
+      </c>
+      <c r="L23" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="M23" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="N23" s="18">
+        <f>J23*L23*$D$6*100*100</f>
+        <v>1015.3500000000001</v>
+      </c>
+      <c r="O23" s="14">
+        <f>K23*M23*$D$6*100*100</f>
+        <v>875.52499999999998</v>
+      </c>
+      <c r="P23" s="19">
+        <f t="shared" si="0"/>
+        <v>0.84881075491209901</v>
+      </c>
+      <c r="Q23" s="20">
+        <f t="shared" si="1"/>
+        <v>0.984369378372976</v>
+      </c>
+      <c r="R23" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>WENO</v>
+      </c>
+      <c r="T23" s="24">
+        <f t="shared" si="3"/>
+        <v>153.51000000000033</v>
+      </c>
+      <c r="U23" s="25">
+        <f t="shared" si="4"/>
+        <v>13.685000000000173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C24" s="5"/>
+      <c r="F24" s="11">
+        <v>2</v>
+      </c>
+      <c r="G24" s="12">
+        <v>410.4</v>
+      </c>
+      <c r="H24" s="32">
+        <f>G24*$D$3*$D$4</f>
+        <v>41.04</v>
+      </c>
+      <c r="I24" s="13">
+        <f t="shared" si="5"/>
+        <v>902.87999999999977</v>
+      </c>
+      <c r="J24" s="14">
+        <v>57.05</v>
+      </c>
+      <c r="K24" s="15">
+        <v>45</v>
+      </c>
+      <c r="L24" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="M24" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="N24" s="18">
+        <f>J24*L24*$D$6*100*100</f>
+        <v>998.37499999999989</v>
+      </c>
+      <c r="O24" s="14">
+        <f>K24*M24*$D$6*100*100</f>
+        <v>944.99999999999989</v>
+      </c>
+      <c r="P24" s="19">
+        <f t="shared" si="0"/>
+        <v>0.90434956804807798</v>
+      </c>
+      <c r="Q24" s="20">
+        <f t="shared" si="1"/>
+        <v>0.95542857142857129</v>
+      </c>
+      <c r="R24" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>WENO</v>
+      </c>
+      <c r="T24" s="24">
+        <f t="shared" si="3"/>
+        <v>95.495000000000118</v>
+      </c>
+      <c r="U24" s="25">
+        <f t="shared" si="4"/>
+        <v>42.120000000000118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="F25" s="11">
+        <v>1</v>
+      </c>
+      <c r="G25" s="12">
+        <v>467.16049999999996</v>
+      </c>
+      <c r="H25" s="32">
+        <f>G25*$D$3*$D$4</f>
+        <v>46.716049999999996</v>
+      </c>
+      <c r="I25" s="35">
+        <f t="shared" si="5"/>
+        <v>949.59604999999976</v>
+      </c>
+      <c r="J25" s="14">
+        <v>67.650000000000006</v>
+      </c>
+      <c r="K25" s="15">
+        <v>48.88</v>
+      </c>
+      <c r="L25" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="M25" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="N25" s="18">
+        <f>J25*L25*$D$6*100*100</f>
+        <v>1183.875</v>
+      </c>
+      <c r="O25" s="14">
+        <f>K25*M25*$D$6*100*100</f>
+        <v>1026.48</v>
+      </c>
+      <c r="P25" s="19">
+        <f t="shared" si="0"/>
+        <v>0.80210837292788495</v>
+      </c>
+      <c r="Q25" s="20">
+        <f t="shared" si="1"/>
+        <v>0.92509941742654489</v>
+      </c>
+      <c r="R25" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>WENO</v>
+      </c>
+      <c r="T25" s="24">
+        <f t="shared" si="3"/>
+        <v>234.27895000000024</v>
+      </c>
+      <c r="U25" s="25">
+        <f t="shared" si="4"/>
+        <v>76.883950000000254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F26" s="36">
+        <v>-1</v>
+      </c>
+      <c r="G26" s="49">
+        <v>734.65999999999985</v>
+      </c>
+      <c r="H26" s="37">
+        <f>G26*$D$3*$D$4</f>
+        <v>73.465999999999994</v>
+      </c>
+      <c r="I26" s="38">
+        <f t="shared" si="5"/>
+        <v>1023.0620499999998</v>
+      </c>
+      <c r="J26" s="39">
+        <v>84.59</v>
+      </c>
+      <c r="K26" s="40">
+        <v>50.55</v>
+      </c>
+      <c r="L26" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="M26" s="42">
+        <v>0.3</v>
+      </c>
+      <c r="N26" s="43">
+        <f>J26*L26*$D$6*100*100</f>
+        <v>1480.3250000000003</v>
+      </c>
+      <c r="O26" s="39">
+        <f>K26*M26*$D$6*100*100</f>
+        <v>1061.5500000000002</v>
+      </c>
+      <c r="P26" s="44">
+        <f t="shared" si="0"/>
+        <v>0.69110637866684654</v>
+      </c>
+      <c r="Q26" s="45">
+        <f t="shared" si="1"/>
+        <v>0.96374362959822868</v>
+      </c>
+      <c r="R26" s="46" t="str">
+        <f t="shared" si="2"/>
+        <v>WENO</v>
+      </c>
+      <c r="T26" s="47">
+        <f t="shared" si="3"/>
+        <v>457.2629500000005</v>
+      </c>
+      <c r="U26" s="48">
+        <f t="shared" si="4"/>
+        <v>38.48795000000041</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="T3:U26">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Tarea 03/Cubicaciones.xlsx
+++ b/Tarea 03/Cubicaciones.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8C7A70FD-FA58-4F66-816C-457593C4070D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F56E787A-D088-43BE-9D78-923704147FA2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cubicaciones" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,103 @@
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{BD13D700-ADAE-46F7-8CAB-9A25E47FDE3D}">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{24553EEE-1DF4-469B-8DCD-AEC795EA3A2A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Área de losa que tiene sobrelosa+eslucido</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{4821EEAA-CF5D-4F0C-8992-F14CAE725CA2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Corrección muro+viga</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{EAB6CE26-8075-4BD5-90F8-3A2648A64422}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Descuento áreas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{48E05DE0-C362-4F50-9D77-F1CA451ECCA7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Área total estacionamiento</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{BD13D700-ADAE-46F7-8CAB-9A25E47FDE3D}">
       <text>
         <r>
           <rPr>
@@ -89,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>Estuco</t>
   </si>
@@ -184,6 +280,9 @@
     <t>[T/cm^2]</t>
   </si>
   <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
     <t>Alosa</t>
   </si>
   <si>
@@ -203,6 +302,54 @@
   </si>
   <si>
     <t>Alturas libres de pisos (entre losas)</t>
+  </si>
+  <si>
+    <t>Descuento muro/viga</t>
+  </si>
+  <si>
+    <t>Área losa interior</t>
+  </si>
+  <si>
+    <t>Área estacionamientos</t>
+  </si>
+  <si>
+    <t>Losas</t>
+  </si>
+  <si>
+    <t>Espesor (m)</t>
+  </si>
+  <si>
+    <t>Área losa interior final (m2)</t>
+  </si>
+  <si>
+    <t>Área losa estacionamiento final (m2)</t>
+  </si>
+  <si>
+    <t>Peso total (T)</t>
+  </si>
+  <si>
+    <t>Espesor (cm)</t>
+  </si>
+  <si>
+    <t>Piso 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piso 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piso 3 </t>
+  </si>
+  <si>
+    <t>Piso Tipo</t>
+  </si>
+  <si>
+    <t>Cubierta</t>
+  </si>
+  <si>
+    <t>Espesor losas</t>
+  </si>
+  <si>
+    <t>$\gamma_{Eslucido}$</t>
   </si>
 </sst>
 </file>
@@ -212,7 +359,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,8 +395,22 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,8 +441,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -446,6 +631,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -506,17 +702,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -616,65 +861,176 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -968,299 +1324,1178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F29"/>
+  <dimension ref="B2:P31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" style="52" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" style="52" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" style="52" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" style="52" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="52"/>
+    <col min="6" max="6" width="13.6640625" style="52" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="52"/>
+    <col min="9" max="9" width="7.6640625" style="52" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" style="52" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" style="52" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" style="52" customWidth="1"/>
+    <col min="13" max="13" width="15.5546875" style="52" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" style="52" customWidth="1"/>
+    <col min="15" max="15" width="14.88671875" style="52" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" style="52" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="52"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="51"/>
+    </row>
+    <row r="3" spans="2:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+      <c r="H3" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="87" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="85" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" s="89" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="55">
+        <v>2.5</v>
+      </c>
+      <c r="E4" s="56">
+        <v>24</v>
+      </c>
+      <c r="F4" s="57">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H4" s="58">
+        <f>E4</f>
+        <v>24</v>
+      </c>
+      <c r="I4" s="58">
+        <f>C21</f>
+        <v>0.16</v>
+      </c>
+      <c r="J4" s="70">
+        <v>68.697999999999993</v>
+      </c>
+      <c r="K4" s="70">
+        <v>0</v>
+      </c>
+      <c r="L4" s="71">
+        <f>J4-K4</f>
+        <v>68.697999999999993</v>
+      </c>
+      <c r="M4" s="70">
+        <v>0</v>
+      </c>
+      <c r="N4" s="70">
+        <v>0</v>
+      </c>
+      <c r="O4" s="72">
+        <f>M4-N4</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="73">
+        <f>L4*($C$4*I4+$C$6*$C$12+$C$7*$C$13)+I4*O4*$C$4</f>
+        <v>33.455925999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="59">
+        <v>2</v>
+      </c>
+      <c r="E5" s="60">
+        <v>23</v>
+      </c>
+      <c r="F5" s="61">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H5" s="81">
+        <f t="shared" ref="H5:H28" si="0">E5</f>
+        <v>23</v>
+      </c>
+      <c r="I5" s="81">
+        <f>$C$20</f>
+        <v>0.16</v>
+      </c>
+      <c r="J5" s="82">
+        <v>410.20299999999997</v>
+      </c>
+      <c r="K5" s="82">
+        <v>0</v>
+      </c>
+      <c r="L5" s="83">
+        <f>J5-K5</f>
+        <v>410.20299999999997</v>
+      </c>
+      <c r="M5" s="82">
+        <v>0</v>
+      </c>
+      <c r="N5" s="82">
+        <v>0</v>
+      </c>
+      <c r="O5" s="84">
+        <f t="shared" ref="O5:O27" si="1">M5-N5</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="73">
+        <f t="shared" ref="P5:P27" si="2">L5*($C$4*I5+$C$6*$C$12+$C$7*$C$13)+I5*O5*$C$4</f>
+        <v>199.76886100000002</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="59">
+        <v>1.5</v>
+      </c>
+      <c r="E6" s="60">
+        <v>22</v>
+      </c>
+      <c r="F6" s="61">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H6" s="81">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="I6" s="81">
+        <f>$C$20</f>
+        <v>0.16</v>
+      </c>
+      <c r="J6" s="82">
+        <v>410.20299999999997</v>
+      </c>
+      <c r="K6" s="82">
+        <v>0</v>
+      </c>
+      <c r="L6" s="83">
+        <f>J6-K6</f>
+        <v>410.20299999999997</v>
+      </c>
+      <c r="M6" s="82">
+        <v>0</v>
+      </c>
+      <c r="N6" s="82">
+        <v>0</v>
+      </c>
+      <c r="O6" s="84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="73">
+        <f t="shared" si="2"/>
+        <v>199.76886100000002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="62">
+        <v>0.4</v>
+      </c>
+      <c r="E7" s="60">
+        <v>21</v>
+      </c>
+      <c r="F7" s="61">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H7" s="81">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="I7" s="81">
+        <f>$C$20</f>
+        <v>0.16</v>
+      </c>
+      <c r="J7" s="82">
+        <v>410.20299999999997</v>
+      </c>
+      <c r="K7" s="82">
+        <v>0</v>
+      </c>
+      <c r="L7" s="83">
+        <f>J7-K7</f>
+        <v>410.20299999999997</v>
+      </c>
+      <c r="M7" s="82">
+        <v>0</v>
+      </c>
+      <c r="N7" s="82">
+        <v>0</v>
+      </c>
+      <c r="O7" s="84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="73">
+        <f t="shared" si="2"/>
+        <v>199.76886100000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="E8" s="60">
+        <v>20</v>
+      </c>
+      <c r="F8" s="61">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H8" s="81">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="I8" s="81">
+        <f>$C$20</f>
+        <v>0.16</v>
+      </c>
+      <c r="J8" s="82">
+        <v>410.20299999999997</v>
+      </c>
+      <c r="K8" s="82">
+        <v>0</v>
+      </c>
+      <c r="L8" s="83">
+        <f>J8-K8</f>
+        <v>410.20299999999997</v>
+      </c>
+      <c r="M8" s="82">
+        <v>0</v>
+      </c>
+      <c r="N8" s="82">
+        <v>0</v>
+      </c>
+      <c r="O8" s="84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="73">
+        <f t="shared" si="2"/>
+        <v>199.76886100000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="60">
+        <v>19</v>
+      </c>
+      <c r="F9" s="61">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H9" s="81">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="I9" s="81">
+        <f>$C$20</f>
+        <v>0.16</v>
+      </c>
+      <c r="J9" s="82">
+        <v>410.20299999999997</v>
+      </c>
+      <c r="K9" s="82">
+        <v>0</v>
+      </c>
+      <c r="L9" s="83">
+        <f>J9-K9</f>
+        <v>410.20299999999997</v>
+      </c>
+      <c r="M9" s="82">
+        <v>0</v>
+      </c>
+      <c r="N9" s="82">
+        <v>0</v>
+      </c>
+      <c r="O9" s="84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="73">
+        <f t="shared" si="2"/>
+        <v>199.76886100000002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C10" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="E4" s="3">
-        <v>24</v>
-      </c>
-      <c r="F4" s="55">
+      <c r="E10" s="60">
+        <v>18</v>
+      </c>
+      <c r="F10" s="61">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2</v>
-      </c>
-      <c r="E5" s="3">
-        <v>23</v>
-      </c>
-      <c r="F5" s="55">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="E6" s="3">
-        <v>22</v>
-      </c>
-      <c r="F6" s="55">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E7" s="3">
-        <v>21</v>
-      </c>
-      <c r="F7" s="55">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="3">
-        <v>20</v>
-      </c>
-      <c r="F8" s="55">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="3">
-        <v>19</v>
-      </c>
-      <c r="F9" s="55">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="H10" s="81">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="I10" s="81">
+        <f>$C$20</f>
+        <v>0.16</v>
+      </c>
+      <c r="J10" s="82">
+        <v>410.20299999999997</v>
+      </c>
+      <c r="K10" s="82">
+        <v>0</v>
+      </c>
+      <c r="L10" s="83">
+        <f>J10-K10</f>
+        <v>410.20299999999997</v>
+      </c>
+      <c r="M10" s="82">
+        <v>0</v>
+      </c>
+      <c r="N10" s="82">
+        <v>0</v>
+      </c>
+      <c r="O10" s="84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="73">
+        <f t="shared" si="2"/>
+        <v>199.76886100000002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="55">
         <f>2.5/100</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E10" s="3">
-        <v>18</v>
-      </c>
-      <c r="F10" s="55">
+      <c r="E11" s="60">
+        <v>17</v>
+      </c>
+      <c r="F11" s="61">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="52" t="s">
+      <c r="H11" s="81">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="I11" s="81">
+        <f>$C$20</f>
+        <v>0.16</v>
+      </c>
+      <c r="J11" s="82">
+        <v>410.20299999999997</v>
+      </c>
+      <c r="K11" s="82">
+        <v>0</v>
+      </c>
+      <c r="L11" s="83">
+        <f>J11-K11</f>
+        <v>410.20299999999997</v>
+      </c>
+      <c r="M11" s="82">
+        <v>0</v>
+      </c>
+      <c r="N11" s="82">
+        <v>0</v>
+      </c>
+      <c r="O11" s="84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="73">
+        <f t="shared" si="2"/>
+        <v>199.76886100000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C12" s="59">
         <f>5/100</f>
         <v>0.05</v>
       </c>
-      <c r="E11" s="3">
-        <v>17</v>
-      </c>
-      <c r="F11" s="55">
+      <c r="E12" s="60">
+        <v>16</v>
+      </c>
+      <c r="F12" s="61">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="3">
-        <f>2/100</f>
-        <v>0.02</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="H12" s="81">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="F12" s="55">
+      <c r="I12" s="81">
+        <f>$C$20</f>
+        <v>0.16</v>
+      </c>
+      <c r="J12" s="82">
+        <v>410.20299999999997</v>
+      </c>
+      <c r="K12" s="82">
+        <v>0</v>
+      </c>
+      <c r="L12" s="83">
+        <f>J12-K12</f>
+        <v>410.20299999999997</v>
+      </c>
+      <c r="M12" s="82">
+        <v>0</v>
+      </c>
+      <c r="N12" s="82">
+        <v>0</v>
+      </c>
+      <c r="O12" s="84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="73">
+        <f t="shared" si="2"/>
+        <v>199.76886100000002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="62">
+        <v>0.03</v>
+      </c>
+      <c r="E13" s="60">
+        <v>15</v>
+      </c>
+      <c r="F13" s="61">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E13" s="3">
+      <c r="H13" s="81">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F13" s="55">
+      <c r="I13" s="81">
+        <f>$C$20</f>
+        <v>0.16</v>
+      </c>
+      <c r="J13" s="82">
+        <v>410.20299999999997</v>
+      </c>
+      <c r="K13" s="82">
+        <v>0</v>
+      </c>
+      <c r="L13" s="83">
+        <f>J13-K13</f>
+        <v>410.20299999999997</v>
+      </c>
+      <c r="M13" s="82">
+        <v>0</v>
+      </c>
+      <c r="N13" s="82">
+        <v>0</v>
+      </c>
+      <c r="O13" s="84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="73">
+        <f t="shared" si="2"/>
+        <v>199.76886100000002</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="E14" s="60">
+        <v>14</v>
+      </c>
+      <c r="F14" s="61">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E14" s="3">
+      <c r="H14" s="81">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F14" s="55">
+      <c r="I14" s="81">
+        <f>$C$20</f>
+        <v>0.16</v>
+      </c>
+      <c r="J14" s="82">
+        <v>410.20299999999997</v>
+      </c>
+      <c r="K14" s="82">
+        <v>0</v>
+      </c>
+      <c r="L14" s="83">
+        <f>J14-K14</f>
+        <v>410.20299999999997</v>
+      </c>
+      <c r="M14" s="82">
+        <v>0</v>
+      </c>
+      <c r="N14" s="82">
+        <v>0</v>
+      </c>
+      <c r="O14" s="84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="73">
+        <f t="shared" si="2"/>
+        <v>199.76886100000002</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="60">
+        <v>13</v>
+      </c>
+      <c r="F15" s="61">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E15" s="3">
+      <c r="H15" s="81">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F15" s="55">
+      <c r="I15" s="81">
+        <f>$C$20</f>
+        <v>0.16</v>
+      </c>
+      <c r="J15" s="82">
+        <v>410.20299999999997</v>
+      </c>
+      <c r="K15" s="82">
+        <v>0</v>
+      </c>
+      <c r="L15" s="83">
+        <f>J15-K15</f>
+        <v>410.20299999999997</v>
+      </c>
+      <c r="M15" s="82">
+        <v>0</v>
+      </c>
+      <c r="N15" s="82">
+        <v>0</v>
+      </c>
+      <c r="O15" s="84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="73">
+        <f t="shared" si="2"/>
+        <v>199.76886100000002</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="60">
+        <v>12</v>
+      </c>
+      <c r="F16" s="61">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E16" s="3">
+      <c r="H16" s="81">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F16" s="55">
+      <c r="I16" s="81">
+        <f>$C$20</f>
+        <v>0.16</v>
+      </c>
+      <c r="J16" s="82">
+        <v>410.20299999999997</v>
+      </c>
+      <c r="K16" s="82">
+        <v>0</v>
+      </c>
+      <c r="L16" s="83">
+        <f>J16-K16</f>
+        <v>410.20299999999997</v>
+      </c>
+      <c r="M16" s="82">
+        <v>0</v>
+      </c>
+      <c r="N16" s="82">
+        <v>0</v>
+      </c>
+      <c r="O16" s="84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="73">
+        <f t="shared" si="2"/>
+        <v>199.76886100000002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="76">
+        <f>17/100</f>
+        <v>0.17</v>
+      </c>
+      <c r="E17" s="60">
+        <v>11</v>
+      </c>
+      <c r="F17" s="61">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E17" s="3">
+      <c r="H17" s="81">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F17" s="55">
+      <c r="I17" s="81">
+        <f>$C$20</f>
+        <v>0.16</v>
+      </c>
+      <c r="J17" s="82">
+        <v>410.20299999999997</v>
+      </c>
+      <c r="K17" s="82">
+        <v>0</v>
+      </c>
+      <c r="L17" s="83">
+        <f>J17-K17</f>
+        <v>410.20299999999997</v>
+      </c>
+      <c r="M17" s="82">
+        <v>0</v>
+      </c>
+      <c r="N17" s="82">
+        <v>0</v>
+      </c>
+      <c r="O17" s="84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="73">
+        <f t="shared" si="2"/>
+        <v>199.76886100000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="78">
+        <v>0.16</v>
+      </c>
+      <c r="E18" s="60">
+        <v>10</v>
+      </c>
+      <c r="F18" s="61">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E18" s="3">
+      <c r="H18" s="81">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F18" s="55">
+      <c r="I18" s="81">
+        <f>$C$20</f>
+        <v>0.16</v>
+      </c>
+      <c r="J18" s="82">
+        <v>410.20299999999997</v>
+      </c>
+      <c r="K18" s="82">
+        <v>0</v>
+      </c>
+      <c r="L18" s="83">
+        <f>J18-K18</f>
+        <v>410.20299999999997</v>
+      </c>
+      <c r="M18" s="82">
+        <v>0</v>
+      </c>
+      <c r="N18" s="82">
+        <v>0</v>
+      </c>
+      <c r="O18" s="84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="73">
+        <f t="shared" si="2"/>
+        <v>199.76886100000002</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="78">
+        <v>0.16</v>
+      </c>
+      <c r="E19" s="60">
+        <v>9</v>
+      </c>
+      <c r="F19" s="61">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E19" s="3">
+      <c r="H19" s="81">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F19" s="55">
+      <c r="I19" s="81">
+        <f>$C$20</f>
+        <v>0.16</v>
+      </c>
+      <c r="J19" s="82">
+        <v>410.20299999999997</v>
+      </c>
+      <c r="K19" s="82">
+        <v>0</v>
+      </c>
+      <c r="L19" s="83">
+        <f>J19-K19</f>
+        <v>410.20299999999997</v>
+      </c>
+      <c r="M19" s="82">
+        <v>0</v>
+      </c>
+      <c r="N19" s="82">
+        <v>0</v>
+      </c>
+      <c r="O19" s="84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="73">
+        <f t="shared" si="2"/>
+        <v>199.76886100000002</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="78">
+        <v>0.16</v>
+      </c>
+      <c r="E20" s="60">
+        <v>8</v>
+      </c>
+      <c r="F20" s="61">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E20" s="3">
+      <c r="H20" s="81">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F20" s="55">
+      <c r="I20" s="81">
+        <f>$C$20</f>
+        <v>0.16</v>
+      </c>
+      <c r="J20" s="82">
+        <v>410.20299999999997</v>
+      </c>
+      <c r="K20" s="82">
+        <v>0</v>
+      </c>
+      <c r="L20" s="83">
+        <f>J20-K20</f>
+        <v>410.20299999999997</v>
+      </c>
+      <c r="M20" s="82">
+        <v>0</v>
+      </c>
+      <c r="N20" s="82">
+        <v>0</v>
+      </c>
+      <c r="O20" s="84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="73">
+        <f t="shared" si="2"/>
+        <v>199.76886100000002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="80">
+        <v>0.16</v>
+      </c>
+      <c r="E21" s="60">
+        <v>7</v>
+      </c>
+      <c r="F21" s="61">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E21" s="3">
+      <c r="H21" s="81">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F21" s="55">
+      <c r="I21" s="81">
+        <f>$C$20</f>
+        <v>0.16</v>
+      </c>
+      <c r="J21" s="82">
+        <v>410.20299999999997</v>
+      </c>
+      <c r="K21" s="82">
+        <v>0</v>
+      </c>
+      <c r="L21" s="83">
+        <f>J21-K21</f>
+        <v>410.20299999999997</v>
+      </c>
+      <c r="M21" s="82">
+        <v>0</v>
+      </c>
+      <c r="N21" s="82">
+        <v>0</v>
+      </c>
+      <c r="O21" s="84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="73">
+        <f t="shared" si="2"/>
+        <v>199.76886100000002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="E22" s="60">
+        <v>6</v>
+      </c>
+      <c r="F22" s="61">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E22" s="3">
+      <c r="H22" s="81">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F22" s="55">
+      <c r="I22" s="81">
+        <f>$C$20</f>
+        <v>0.16</v>
+      </c>
+      <c r="J22" s="82">
+        <v>410.20299999999997</v>
+      </c>
+      <c r="K22" s="82">
+        <v>0</v>
+      </c>
+      <c r="L22" s="83">
+        <f>J22-K22</f>
+        <v>410.20299999999997</v>
+      </c>
+      <c r="M22" s="82">
+        <v>0</v>
+      </c>
+      <c r="N22" s="82">
+        <v>0</v>
+      </c>
+      <c r="O22" s="84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="73">
+        <f t="shared" si="2"/>
+        <v>199.76886100000002</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="E23" s="60">
+        <v>5</v>
+      </c>
+      <c r="F23" s="61">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E23" s="3">
+      <c r="H23" s="81">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F23" s="55">
+      <c r="I23" s="81">
+        <f>$C$20</f>
+        <v>0.16</v>
+      </c>
+      <c r="J23" s="82">
+        <v>410.20299999999997</v>
+      </c>
+      <c r="K23" s="82">
+        <v>0</v>
+      </c>
+      <c r="L23" s="83">
+        <f>J23-K23</f>
+        <v>410.20299999999997</v>
+      </c>
+      <c r="M23" s="82">
+        <v>0</v>
+      </c>
+      <c r="N23" s="82">
+        <v>0</v>
+      </c>
+      <c r="O23" s="84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="73">
+        <f t="shared" si="2"/>
+        <v>199.76886100000002</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="E24" s="60">
+        <v>4</v>
+      </c>
+      <c r="F24" s="61">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E24" s="3">
+      <c r="H24" s="81">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F24" s="55">
+      <c r="I24" s="81">
+        <f>$C$20</f>
+        <v>0.16</v>
+      </c>
+      <c r="J24" s="82">
+        <v>410.20299999999997</v>
+      </c>
+      <c r="K24" s="82">
+        <v>0</v>
+      </c>
+      <c r="L24" s="83">
+        <f>J24-K24</f>
+        <v>410.20299999999997</v>
+      </c>
+      <c r="M24" s="82">
+        <v>0</v>
+      </c>
+      <c r="N24" s="82">
+        <v>0</v>
+      </c>
+      <c r="O24" s="84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="73">
+        <f t="shared" si="2"/>
+        <v>199.76886100000002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="E25" s="60">
+        <v>3</v>
+      </c>
+      <c r="F25" s="61">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E25" s="3">
+      <c r="H25" s="58">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F25" s="55">
+      <c r="I25" s="58">
+        <f>C19</f>
+        <v>0.16</v>
+      </c>
+      <c r="J25" s="70">
+        <v>410.702</v>
+      </c>
+      <c r="K25" s="70">
+        <v>0</v>
+      </c>
+      <c r="L25" s="71">
+        <f>J25-K25</f>
+        <v>410.702</v>
+      </c>
+      <c r="M25" s="70">
+        <v>0</v>
+      </c>
+      <c r="N25" s="70">
+        <v>0</v>
+      </c>
+      <c r="O25" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="73">
+        <f t="shared" si="2"/>
+        <v>200.01187400000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="E26" s="60">
+        <v>2</v>
+      </c>
+      <c r="F26" s="61">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E26" s="3">
-        <v>3</v>
-      </c>
-      <c r="F26" s="55">
+      <c r="H26" s="58">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I26" s="58">
+        <f>C18</f>
+        <v>0.16</v>
+      </c>
+      <c r="J26" s="70">
+        <v>177.54900000000001</v>
+      </c>
+      <c r="K26" s="70">
+        <v>0</v>
+      </c>
+      <c r="L26" s="71">
+        <f>J26-K26</f>
+        <v>177.54900000000001</v>
+      </c>
+      <c r="M26" s="70">
+        <v>255.92599999999999</v>
+      </c>
+      <c r="N26" s="70">
+        <v>0</v>
+      </c>
+      <c r="O26" s="72">
+        <f t="shared" si="1"/>
+        <v>255.92599999999999</v>
+      </c>
+      <c r="P26" s="73">
+        <f t="shared" si="2"/>
+        <v>188.83676300000002</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="E27" s="60">
+        <v>1</v>
+      </c>
+      <c r="F27" s="61">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E27" s="3">
-        <v>2</v>
-      </c>
-      <c r="F27" s="55">
+      <c r="H27" s="58">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I27" s="58">
+        <f>C17</f>
+        <v>0.17</v>
+      </c>
+      <c r="J27" s="70">
+        <v>205.286</v>
+      </c>
+      <c r="K27" s="70">
+        <v>0</v>
+      </c>
+      <c r="L27" s="71">
+        <f t="shared" ref="L27:L28" si="3">J27-K27</f>
+        <v>205.286</v>
+      </c>
+      <c r="M27" s="70">
+        <v>514.17600000000004</v>
+      </c>
+      <c r="N27" s="70">
+        <v>0</v>
+      </c>
+      <c r="O27" s="72">
+        <f t="shared" si="1"/>
+        <v>514.17600000000004</v>
+      </c>
+      <c r="P27" s="73">
+        <f t="shared" si="2"/>
+        <v>323.63123200000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E28" s="66">
+        <v>-1</v>
+      </c>
+      <c r="F28" s="67">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
-      <c r="F28" s="55">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E29" s="3">
+      <c r="H28" s="69">
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="F29" s="55">
-        <v>2.2999999999999998</v>
-      </c>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69">
+        <v>0</v>
+      </c>
+      <c r="L28" s="69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="69"/>
+      <c r="N28" s="69">
+        <v>0</v>
+      </c>
+      <c r="O28" s="69"/>
+      <c r="P28" s="69"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="O29" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="P29" s="91">
+        <f>SUM(P4:P27)</f>
+        <v>4741.3130150000006</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="O30" s="90"/>
+      <c r="P30" s="90"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="O31" s="90"/>
+      <c r="P31" s="90"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1273,14 +2508,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A282A9DD-DDA8-407B-9F67-055CDE136535}">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.109375" customWidth="1"/>
     <col min="6" max="6" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -1299,1495 +2534,1495 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="U2" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>23</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <v>410.4</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="11">
         <f>G3*$D$3*$D$4</f>
         <v>41.04</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="12">
         <f>H3</f>
         <v>41.04</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="13">
         <v>58.02</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="14">
         <v>53.12</v>
       </c>
-      <c r="L3" s="16">
+      <c r="L3" s="15">
         <v>0.2</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="16">
         <v>0.2</v>
       </c>
-      <c r="N3" s="18">
+      <c r="N3" s="17">
         <f>J3*L3*$D$6*100*100</f>
         <v>812.2800000000002</v>
       </c>
-      <c r="O3" s="14">
+      <c r="O3" s="13">
         <f>K3*M3*$D$6*100*100</f>
         <v>743.68000000000006</v>
       </c>
-      <c r="P3" s="19">
+      <c r="P3" s="18">
         <f>I3/N3</f>
         <v>5.0524449697148754E-2</v>
       </c>
-      <c r="Q3" s="20">
+      <c r="Q3" s="19">
         <f>I3/O3</f>
         <v>5.5185025817555931E-2</v>
       </c>
-      <c r="R3" s="21" t="str">
+      <c r="R3" s="20" t="str">
         <f>IF(OR(N3&lt;I3,O3&lt;I3),"MALO","WENO")</f>
         <v>WENO</v>
       </c>
-      <c r="T3" s="22">
+      <c r="T3" s="21">
         <f>N3-I3</f>
         <v>771.24000000000024</v>
       </c>
-      <c r="U3" s="23">
+      <c r="U3" s="22">
         <f>O3-I3</f>
         <v>702.6400000000001</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="49">
         <v>0.1</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>22</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <v>410.4</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <f>G4*$D$3*$D$4</f>
         <v>41.04</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="12">
         <f>I3+H4</f>
         <v>82.08</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="13">
         <v>58.02</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="14">
         <v>53.12</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="15">
         <v>0.2</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="16">
         <v>0.2</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="17">
         <f>J4*L4*$D$6*100*100</f>
         <v>812.2800000000002</v>
       </c>
-      <c r="O4" s="14">
+      <c r="O4" s="13">
         <f>K4*M4*$D$6*100*100</f>
         <v>743.68000000000006</v>
       </c>
-      <c r="P4" s="19">
+      <c r="P4" s="18">
         <f t="shared" ref="P4:P26" si="0">I4/N4</f>
         <v>0.10104889939429751</v>
       </c>
-      <c r="Q4" s="20">
+      <c r="Q4" s="19">
         <f t="shared" ref="Q4:Q26" si="1">I4/O4</f>
         <v>0.11037005163511186</v>
       </c>
-      <c r="R4" s="21" t="str">
+      <c r="R4" s="20" t="str">
         <f t="shared" ref="R4:R26" si="2">IF(OR(N4&lt;I4,O4&lt;I4),"MALO","WENO")</f>
         <v>WENO</v>
       </c>
-      <c r="T4" s="24">
+      <c r="T4" s="23">
         <f t="shared" ref="T4:T26" si="3">N4-I4</f>
         <v>730.20000000000016</v>
       </c>
-      <c r="U4" s="25">
+      <c r="U4" s="24">
         <f t="shared" ref="U4:U26" si="4">O4-I4</f>
         <v>661.6</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>7</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>21</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>410.4</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <f>G5*$D$3*$D$4</f>
         <v>41.04</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="12">
         <f t="shared" ref="I5:I26" si="5">I4+H5</f>
         <v>123.12</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="13">
         <v>58.02</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="14">
         <v>53.12</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="15">
         <v>0.2</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="16">
         <v>0.2</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="17">
         <f>J5*L5*$D$6*100*100</f>
         <v>812.2800000000002</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="13">
         <f>K5*M5*$D$6*100*100</f>
         <v>743.68000000000006</v>
       </c>
-      <c r="P5" s="19">
+      <c r="P5" s="18">
         <f t="shared" si="0"/>
         <v>0.15157334909144626</v>
       </c>
-      <c r="Q5" s="20">
+      <c r="Q5" s="19">
         <f t="shared" si="1"/>
         <v>0.16555507745266781</v>
       </c>
-      <c r="R5" s="21" t="str">
+      <c r="R5" s="20" t="str">
         <f t="shared" si="2"/>
         <v>WENO</v>
       </c>
-      <c r="T5" s="24">
+      <c r="T5" s="23">
         <f t="shared" si="3"/>
         <v>689.1600000000002</v>
       </c>
-      <c r="U5" s="25">
+      <c r="U5" s="24">
         <f t="shared" si="4"/>
         <v>620.56000000000006</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <f>D5/1000</f>
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="11">
+      <c r="E6" s="25"/>
+      <c r="F6" s="10">
         <v>20</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <v>410.4</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <f>G6*$D$3*$D$4</f>
         <v>41.04</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="12">
         <f t="shared" si="5"/>
         <v>164.16</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="13">
         <v>58.02</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="14">
         <v>53.12</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="15">
         <v>0.2</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="16">
         <v>0.2</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N6" s="17">
         <f>J6*L6*$D$6*100*100</f>
         <v>812.2800000000002</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O6" s="13">
         <f>K6*M6*$D$6*100*100</f>
         <v>743.68000000000006</v>
       </c>
-      <c r="P6" s="19">
+      <c r="P6" s="18">
         <f t="shared" si="0"/>
         <v>0.20209779878859502</v>
       </c>
-      <c r="Q6" s="20">
+      <c r="Q6" s="19">
         <f t="shared" si="1"/>
         <v>0.22074010327022373</v>
       </c>
-      <c r="R6" s="21" t="str">
+      <c r="R6" s="20" t="str">
         <f t="shared" si="2"/>
         <v>WENO</v>
       </c>
-      <c r="T6" s="24">
+      <c r="T6" s="23">
         <f t="shared" si="3"/>
         <v>648.12000000000023</v>
       </c>
-      <c r="U6" s="25">
+      <c r="U6" s="24">
         <f t="shared" si="4"/>
         <v>579.5200000000001</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>19</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <v>410.4</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <f>G7*$D$3*$D$4</f>
         <v>41.04</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="12">
         <f t="shared" si="5"/>
         <v>205.2</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="13">
         <v>58.02</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="14">
         <v>53.12</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="15">
         <v>0.2</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="16">
         <v>0.2</v>
       </c>
-      <c r="N7" s="18">
+      <c r="N7" s="17">
         <f>J7*L7*$D$6*100*100</f>
         <v>812.2800000000002</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O7" s="13">
         <f>K7*M7*$D$6*100*100</f>
         <v>743.68000000000006</v>
       </c>
-      <c r="P7" s="19">
+      <c r="P7" s="18">
         <f t="shared" si="0"/>
         <v>0.25262224848574377</v>
       </c>
-      <c r="Q7" s="20">
+      <c r="Q7" s="19">
         <f t="shared" si="1"/>
         <v>0.27592512908777966</v>
       </c>
-      <c r="R7" s="21" t="str">
+      <c r="R7" s="20" t="str">
         <f t="shared" si="2"/>
         <v>WENO</v>
       </c>
-      <c r="T7" s="24">
+      <c r="T7" s="23">
         <f t="shared" si="3"/>
         <v>607.08000000000015</v>
       </c>
-      <c r="U7" s="25">
+      <c r="U7" s="24">
         <f t="shared" si="4"/>
         <v>538.48</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
-      <c r="F8" s="11">
+      <c r="A8" s="26"/>
+      <c r="F8" s="10">
         <v>18</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <v>410.4</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="11">
         <f>G8*$D$3*$D$4</f>
         <v>41.04</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="12">
         <f t="shared" si="5"/>
         <v>246.23999999999998</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="13">
         <v>58.02</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="14">
         <v>53.12</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="15">
         <v>0.2</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="16">
         <v>0.2</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N8" s="17">
         <f>J8*L8*$D$6*100*100</f>
         <v>812.2800000000002</v>
       </c>
-      <c r="O8" s="14">
+      <c r="O8" s="13">
         <f>K8*M8*$D$6*100*100</f>
         <v>743.68000000000006</v>
       </c>
-      <c r="P8" s="19">
+      <c r="P8" s="18">
         <f t="shared" si="0"/>
         <v>0.30314669818289253</v>
       </c>
-      <c r="Q8" s="20">
+      <c r="Q8" s="19">
         <f t="shared" si="1"/>
         <v>0.33111015490533557</v>
       </c>
-      <c r="R8" s="21" t="str">
+      <c r="R8" s="20" t="str">
         <f t="shared" si="2"/>
         <v>WENO</v>
       </c>
-      <c r="T8" s="24">
+      <c r="T8" s="23">
         <f t="shared" si="3"/>
         <v>566.04000000000019</v>
       </c>
-      <c r="U8" s="25">
+      <c r="U8" s="24">
         <f t="shared" si="4"/>
         <v>497.44000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="27"/>
-      <c r="F9" s="11">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="26"/>
+      <c r="F9" s="10">
         <v>17</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <v>410.4</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="11">
         <f>G9*$D$3*$D$4</f>
         <v>41.04</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="12">
         <f t="shared" si="5"/>
         <v>287.27999999999997</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="13">
         <v>58.02</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="14">
         <v>53.12</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="15">
         <v>0.2</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="16">
         <v>0.2</v>
       </c>
-      <c r="N9" s="18">
+      <c r="N9" s="17">
         <f>J9*L9*$D$6*100*100</f>
         <v>812.2800000000002</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="13">
         <f>K9*M9*$D$6*100*100</f>
         <v>743.68000000000006</v>
       </c>
-      <c r="P9" s="19">
+      <c r="P9" s="18">
         <f t="shared" si="0"/>
         <v>0.35367114788004123</v>
       </c>
-      <c r="Q9" s="20">
+      <c r="Q9" s="19">
         <f t="shared" si="1"/>
         <v>0.38629518072289148</v>
       </c>
-      <c r="R9" s="21" t="str">
+      <c r="R9" s="20" t="str">
         <f t="shared" si="2"/>
         <v>WENO</v>
       </c>
-      <c r="T9" s="24">
+      <c r="T9" s="23">
         <f t="shared" si="3"/>
         <v>525.00000000000023</v>
       </c>
-      <c r="U9" s="25">
+      <c r="U9" s="24">
         <f t="shared" si="4"/>
         <v>456.40000000000009</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="27"/>
-      <c r="F10" s="11">
+      <c r="A10" s="26"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="26"/>
+      <c r="F10" s="10">
         <v>16</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <v>410.4</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <f>G10*$D$3*$D$4</f>
         <v>41.04</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="12">
         <f t="shared" si="5"/>
         <v>328.32</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="13">
         <v>58.02</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="14">
         <v>53.12</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="15">
         <v>0.2</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="16">
         <v>0.2</v>
       </c>
-      <c r="N10" s="18">
+      <c r="N10" s="17">
         <f>J10*L10*$D$6*100*100</f>
         <v>812.2800000000002</v>
       </c>
-      <c r="O10" s="14">
+      <c r="O10" s="13">
         <f>K10*M10*$D$6*100*100</f>
         <v>743.68000000000006</v>
       </c>
-      <c r="P10" s="19">
+      <c r="P10" s="18">
         <f t="shared" si="0"/>
         <v>0.40419559757719004</v>
       </c>
-      <c r="Q10" s="20">
+      <c r="Q10" s="19">
         <f t="shared" si="1"/>
         <v>0.44148020654044745</v>
       </c>
-      <c r="R10" s="21" t="str">
+      <c r="R10" s="20" t="str">
         <f t="shared" si="2"/>
         <v>WENO</v>
       </c>
-      <c r="T10" s="24">
+      <c r="T10" s="23">
         <f t="shared" si="3"/>
         <v>483.96000000000021</v>
       </c>
-      <c r="U10" s="25">
+      <c r="U10" s="24">
         <f t="shared" si="4"/>
         <v>415.36000000000007</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="F11" s="11">
+      <c r="A11" s="26"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="F11" s="10">
         <v>15</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <v>410.4</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <f>G11*$D$3*$D$4</f>
         <v>41.04</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="12">
         <f t="shared" si="5"/>
         <v>369.36</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="13">
         <v>58.02</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="14">
         <v>53.12</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="15">
         <v>0.2</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="16">
         <v>0.2</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N11" s="17">
         <f>J11*L11*$D$6*100*100</f>
         <v>812.2800000000002</v>
       </c>
-      <c r="O11" s="14">
+      <c r="O11" s="13">
         <f>K11*M11*$D$6*100*100</f>
         <v>743.68000000000006</v>
       </c>
-      <c r="P11" s="19">
+      <c r="P11" s="18">
         <f t="shared" si="0"/>
         <v>0.45472004727433879</v>
       </c>
-      <c r="Q11" s="20">
+      <c r="Q11" s="19">
         <f t="shared" si="1"/>
         <v>0.49666523235800342</v>
       </c>
-      <c r="R11" s="21" t="str">
+      <c r="R11" s="20" t="str">
         <f t="shared" si="2"/>
         <v>WENO</v>
       </c>
-      <c r="T11" s="24">
+      <c r="T11" s="23">
         <f t="shared" si="3"/>
         <v>442.92000000000019</v>
       </c>
-      <c r="U11" s="25">
+      <c r="U11" s="24">
         <f t="shared" si="4"/>
         <v>374.32000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="27"/>
-      <c r="F12" s="11">
+      <c r="A12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="26"/>
+      <c r="F12" s="10">
         <v>14</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="11">
         <v>410.4</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="11">
         <f>G12*$D$3*$D$4</f>
         <v>41.04</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="12">
         <f t="shared" si="5"/>
         <v>410.40000000000003</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="13">
         <v>58.02</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="14">
         <v>53.12</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="15">
         <v>0.2</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="16">
         <v>0.2</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="17">
         <f>J12*L12*$D$6*100*100</f>
         <v>812.2800000000002</v>
       </c>
-      <c r="O12" s="14">
+      <c r="O12" s="13">
         <f>K12*M12*$D$6*100*100</f>
         <v>743.68000000000006</v>
       </c>
-      <c r="P12" s="19">
+      <c r="P12" s="18">
         <f t="shared" si="0"/>
         <v>0.50524449697148754</v>
       </c>
-      <c r="Q12" s="20">
+      <c r="Q12" s="19">
         <f t="shared" si="1"/>
         <v>0.55185025817555933</v>
       </c>
-      <c r="R12" s="21" t="str">
+      <c r="R12" s="20" t="str">
         <f t="shared" si="2"/>
         <v>WENO</v>
       </c>
-      <c r="T12" s="24">
+      <c r="T12" s="23">
         <f t="shared" si="3"/>
         <v>401.88000000000017</v>
       </c>
-      <c r="U12" s="25">
+      <c r="U12" s="24">
         <f t="shared" si="4"/>
         <v>333.28000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="27"/>
-      <c r="F13" s="11">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="26"/>
+      <c r="F13" s="10">
         <v>13</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <v>410.4</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="11">
         <f>G13*$D$3*$D$4</f>
         <v>41.04</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="12">
         <f t="shared" si="5"/>
         <v>451.44000000000005</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="13">
         <v>58.02</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="14">
         <v>53.12</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="15">
         <v>0.2</v>
       </c>
-      <c r="M13" s="17">
+      <c r="M13" s="16">
         <v>0.2</v>
       </c>
-      <c r="N13" s="18">
+      <c r="N13" s="17">
         <f>J13*L13*$D$6*100*100</f>
         <v>812.2800000000002</v>
       </c>
-      <c r="O13" s="14">
+      <c r="O13" s="13">
         <f>K13*M13*$D$6*100*100</f>
         <v>743.68000000000006</v>
       </c>
-      <c r="P13" s="19">
+      <c r="P13" s="18">
         <f t="shared" si="0"/>
         <v>0.55576894666863641</v>
       </c>
-      <c r="Q13" s="20">
+      <c r="Q13" s="19">
         <f t="shared" si="1"/>
         <v>0.60703528399311535</v>
       </c>
-      <c r="R13" s="21" t="str">
+      <c r="R13" s="20" t="str">
         <f t="shared" si="2"/>
         <v>WENO</v>
       </c>
-      <c r="T13" s="24">
+      <c r="T13" s="23">
         <f t="shared" si="3"/>
         <v>360.84000000000015</v>
       </c>
-      <c r="U13" s="25">
+      <c r="U13" s="24">
         <f t="shared" si="4"/>
         <v>292.24</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="27"/>
-      <c r="F14" s="11">
+      <c r="A14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="26"/>
+      <c r="F14" s="10">
         <v>12</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="11">
         <v>410.4</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="11">
         <f>G14*$D$3*$D$4</f>
         <v>41.04</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="12">
         <f t="shared" si="5"/>
         <v>492.48000000000008</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="13">
         <v>58.02</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="14">
         <v>53.12</v>
       </c>
-      <c r="L14" s="16">
+      <c r="L14" s="15">
         <v>0.2</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M14" s="16">
         <v>0.2</v>
       </c>
-      <c r="N14" s="18">
+      <c r="N14" s="17">
         <f>J14*L14*$D$6*100*100</f>
         <v>812.2800000000002</v>
       </c>
-      <c r="O14" s="14">
+      <c r="O14" s="13">
         <f>K14*M14*$D$6*100*100</f>
         <v>743.68000000000006</v>
       </c>
-      <c r="P14" s="19">
+      <c r="P14" s="18">
         <f t="shared" si="0"/>
         <v>0.60629339636578516</v>
       </c>
-      <c r="Q14" s="20">
+      <c r="Q14" s="19">
         <f t="shared" si="1"/>
         <v>0.66222030981067126</v>
       </c>
-      <c r="R14" s="21" t="str">
+      <c r="R14" s="20" t="str">
         <f t="shared" si="2"/>
         <v>WENO</v>
       </c>
-      <c r="T14" s="24">
+      <c r="T14" s="23">
         <f t="shared" si="3"/>
         <v>319.80000000000013</v>
       </c>
-      <c r="U14" s="25">
+      <c r="U14" s="24">
         <f t="shared" si="4"/>
         <v>251.2</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="27"/>
-      <c r="F15" s="11">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="26"/>
+      <c r="F15" s="10">
         <v>11</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="11">
         <v>410.4</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="11">
         <f>G15*$D$3*$D$4</f>
         <v>41.04</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="12">
         <f t="shared" si="5"/>
         <v>533.5200000000001</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="13">
         <v>58.02</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="14">
         <v>53.12</v>
       </c>
-      <c r="L15" s="16">
+      <c r="L15" s="15">
         <v>0.2</v>
       </c>
-      <c r="M15" s="17">
+      <c r="M15" s="16">
         <v>0.2</v>
       </c>
-      <c r="N15" s="18">
+      <c r="N15" s="17">
         <f>J15*L15*$D$6*100*100</f>
         <v>812.2800000000002</v>
       </c>
-      <c r="O15" s="14">
+      <c r="O15" s="13">
         <f>K15*M15*$D$6*100*100</f>
         <v>743.68000000000006</v>
       </c>
-      <c r="P15" s="19">
+      <c r="P15" s="18">
         <f t="shared" si="0"/>
         <v>0.65681784606293392</v>
       </c>
-      <c r="Q15" s="20">
+      <c r="Q15" s="19">
         <f t="shared" si="1"/>
         <v>0.71740533562822728</v>
       </c>
-      <c r="R15" s="21" t="str">
+      <c r="R15" s="20" t="str">
         <f t="shared" si="2"/>
         <v>WENO</v>
       </c>
-      <c r="T15" s="24">
+      <c r="T15" s="23">
         <f t="shared" si="3"/>
         <v>278.7600000000001</v>
       </c>
-      <c r="U15" s="25">
+      <c r="U15" s="24">
         <f t="shared" si="4"/>
         <v>210.15999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="27"/>
-      <c r="F16" s="11">
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="26"/>
+      <c r="F16" s="10">
         <v>10</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="11">
         <v>410.4</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="11">
         <f>G16*$D$3*$D$4</f>
         <v>41.04</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="12">
         <f t="shared" si="5"/>
         <v>574.56000000000006</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="13">
         <v>58.02</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="14">
         <v>53.12</v>
       </c>
-      <c r="L16" s="16">
+      <c r="L16" s="15">
         <v>0.2</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M16" s="16">
         <v>0.2</v>
       </c>
-      <c r="N16" s="18">
+      <c r="N16" s="17">
         <f>J16*L16*$D$6*100*100</f>
         <v>812.2800000000002</v>
       </c>
-      <c r="O16" s="14">
+      <c r="O16" s="13">
         <f>K16*M16*$D$6*100*100</f>
         <v>743.68000000000006</v>
       </c>
-      <c r="P16" s="19">
+      <c r="P16" s="18">
         <f t="shared" si="0"/>
         <v>0.70734229576008267</v>
       </c>
-      <c r="Q16" s="20">
+      <c r="Q16" s="19">
         <f t="shared" si="1"/>
         <v>0.77259036144578319</v>
       </c>
-      <c r="R16" s="21" t="str">
+      <c r="R16" s="20" t="str">
         <f t="shared" si="2"/>
         <v>WENO</v>
       </c>
-      <c r="T16" s="24">
+      <c r="T16" s="23">
         <f t="shared" si="3"/>
         <v>237.72000000000014</v>
       </c>
-      <c r="U16" s="25">
+      <c r="U16" s="24">
         <f t="shared" si="4"/>
         <v>169.12</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="27"/>
-      <c r="F17" s="11">
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="26"/>
+      <c r="F17" s="10">
         <v>9</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="11">
         <v>410.4</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="11">
         <f>G17*$D$3*$D$4</f>
         <v>41.04</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="12">
         <f t="shared" si="5"/>
         <v>615.6</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="13">
         <v>58.02</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="14">
         <v>53.12</v>
       </c>
-      <c r="L17" s="16">
+      <c r="L17" s="15">
         <v>0.2</v>
       </c>
-      <c r="M17" s="17">
+      <c r="M17" s="16">
         <v>0.2</v>
       </c>
-      <c r="N17" s="18">
+      <c r="N17" s="17">
         <f>J17*L17*$D$6*100*100</f>
         <v>812.2800000000002</v>
       </c>
-      <c r="O17" s="14">
+      <c r="O17" s="13">
         <f>K17*M17*$D$6*100*100</f>
         <v>743.68000000000006</v>
       </c>
-      <c r="P17" s="19">
+      <c r="P17" s="18">
         <f t="shared" si="0"/>
         <v>0.75786674545723132</v>
       </c>
-      <c r="Q17" s="20">
+      <c r="Q17" s="19">
         <f t="shared" si="1"/>
         <v>0.82777538726333899</v>
       </c>
-      <c r="R17" s="21" t="str">
+      <c r="R17" s="20" t="str">
         <f t="shared" si="2"/>
         <v>WENO</v>
       </c>
-      <c r="T17" s="24">
+      <c r="T17" s="23">
         <f t="shared" si="3"/>
         <v>196.68000000000018</v>
       </c>
-      <c r="U17" s="25">
+      <c r="U17" s="24">
         <f t="shared" si="4"/>
         <v>128.08000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="27"/>
-      <c r="F18" s="11">
+      <c r="A18" s="26"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="26"/>
+      <c r="F18" s="10">
         <v>8</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="11">
         <v>410.4</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="11">
         <f>G18*$D$3*$D$4</f>
         <v>41.04</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="12">
         <f t="shared" si="5"/>
         <v>656.64</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="13">
         <v>58.02</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="14">
         <v>53.12</v>
       </c>
-      <c r="L18" s="16">
+      <c r="L18" s="15">
         <v>0.2</v>
       </c>
-      <c r="M18" s="17">
+      <c r="M18" s="16">
         <v>0.2</v>
       </c>
-      <c r="N18" s="18">
+      <c r="N18" s="17">
         <f>J18*L18*$D$6*100*100</f>
         <v>812.2800000000002</v>
       </c>
-      <c r="O18" s="14">
+      <c r="O18" s="13">
         <f>K18*M18*$D$6*100*100</f>
         <v>743.68000000000006</v>
       </c>
-      <c r="P18" s="19">
+      <c r="P18" s="18">
         <f t="shared" si="0"/>
         <v>0.80839119515438007</v>
       </c>
-      <c r="Q18" s="20">
+      <c r="Q18" s="19">
         <f t="shared" si="1"/>
         <v>0.8829604130808949</v>
       </c>
-      <c r="R18" s="21" t="str">
+      <c r="R18" s="20" t="str">
         <f t="shared" si="2"/>
         <v>WENO</v>
       </c>
-      <c r="T18" s="24">
+      <c r="T18" s="23">
         <f t="shared" si="3"/>
         <v>155.64000000000021</v>
       </c>
-      <c r="U18" s="25">
+      <c r="U18" s="24">
         <f t="shared" si="4"/>
         <v>87.040000000000077</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="27"/>
-      <c r="F19" s="11">
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="26"/>
+      <c r="F19" s="10">
         <v>7</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="11">
         <v>410.4</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="11">
         <f>G19*$D$3*$D$4</f>
         <v>41.04</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="12">
         <f t="shared" si="5"/>
         <v>697.68</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="13">
         <v>58.02</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K19" s="14">
         <v>53.12</v>
       </c>
-      <c r="L19" s="16">
+      <c r="L19" s="15">
         <v>0.2</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M19" s="16">
         <v>0.2</v>
       </c>
-      <c r="N19" s="18">
+      <c r="N19" s="17">
         <f>J19*L19*$D$6*100*100</f>
         <v>812.2800000000002</v>
       </c>
-      <c r="O19" s="14">
+      <c r="O19" s="13">
         <f>K19*M19*$D$6*100*100</f>
         <v>743.68000000000006</v>
       </c>
-      <c r="P19" s="19">
+      <c r="P19" s="18">
         <f t="shared" si="0"/>
         <v>0.85891564485152871</v>
       </c>
-      <c r="Q19" s="20">
+      <c r="Q19" s="19">
         <f t="shared" si="1"/>
         <v>0.93814543889845081</v>
       </c>
-      <c r="R19" s="21" t="str">
+      <c r="R19" s="20" t="str">
         <f t="shared" si="2"/>
         <v>WENO</v>
       </c>
-      <c r="T19" s="24">
+      <c r="T19" s="23">
         <f t="shared" si="3"/>
         <v>114.60000000000025</v>
       </c>
-      <c r="U19" s="25">
+      <c r="U19" s="24">
         <f t="shared" si="4"/>
         <v>46.000000000000114</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A20" s="27"/>
-      <c r="B20" s="28"/>
-      <c r="D20" s="29"/>
-      <c r="F20" s="11">
+      <c r="A20" s="26"/>
+      <c r="B20" s="27"/>
+      <c r="D20" s="28"/>
+      <c r="F20" s="10">
         <v>6</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="11">
         <v>410.4</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="11">
         <f>G20*$D$3*$D$4</f>
         <v>41.04</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="12">
         <f t="shared" si="5"/>
         <v>738.71999999999991</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="13">
         <v>58.02</v>
       </c>
-      <c r="K20" s="15">
+      <c r="K20" s="14">
         <v>53.12</v>
       </c>
-      <c r="L20" s="16">
+      <c r="L20" s="15">
         <v>0.2</v>
       </c>
-      <c r="M20" s="17">
+      <c r="M20" s="16">
         <v>0.2</v>
       </c>
-      <c r="N20" s="18">
+      <c r="N20" s="17">
         <f>J20*L20*$D$6*100*100</f>
         <v>812.2800000000002</v>
       </c>
-      <c r="O20" s="14">
+      <c r="O20" s="13">
         <f>K20*M20*$D$6*100*100</f>
         <v>743.68000000000006</v>
       </c>
-      <c r="P20" s="19">
+      <c r="P20" s="18">
         <f t="shared" si="0"/>
         <v>0.90944009454867747</v>
       </c>
-      <c r="Q20" s="20">
+      <c r="Q20" s="19">
         <f t="shared" si="1"/>
         <v>0.99333046471600672</v>
       </c>
-      <c r="R20" s="21" t="str">
+      <c r="R20" s="20" t="str">
         <f t="shared" si="2"/>
         <v>WENO</v>
       </c>
-      <c r="T20" s="24">
+      <c r="T20" s="23">
         <f t="shared" si="3"/>
         <v>73.560000000000286</v>
       </c>
-      <c r="U20" s="25">
+      <c r="U20" s="24">
         <f t="shared" si="4"/>
         <v>4.9600000000001501</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="27"/>
-      <c r="F21" s="11">
+      <c r="A21" s="26"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="26"/>
+      <c r="F21" s="10">
         <v>5</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="11">
         <v>410.4</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="11">
         <f>G21*$D$3*$D$4</f>
         <v>41.04</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="12">
         <f t="shared" si="5"/>
         <v>779.75999999999988</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="13">
         <v>58.02</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="14">
         <v>53.12</v>
       </c>
-      <c r="L21" s="30">
+      <c r="L21" s="29">
         <v>0.25</v>
       </c>
-      <c r="M21" s="31">
+      <c r="M21" s="30">
         <v>0.25</v>
       </c>
-      <c r="N21" s="18">
+      <c r="N21" s="17">
         <f>J21*L21*$D$6*100*100</f>
         <v>1015.3500000000001</v>
       </c>
-      <c r="O21" s="14">
+      <c r="O21" s="13">
         <f>K21*M21*$D$6*100*100</f>
         <v>929.59999999999991</v>
       </c>
-      <c r="P21" s="19">
+      <c r="P21" s="18">
         <f t="shared" si="0"/>
         <v>0.76797163539666102</v>
       </c>
-      <c r="Q21" s="20">
+      <c r="Q21" s="19">
         <f t="shared" si="1"/>
         <v>0.83881239242685024</v>
       </c>
-      <c r="R21" s="21" t="str">
+      <c r="R21" s="20" t="str">
         <f t="shared" si="2"/>
         <v>WENO</v>
       </c>
-      <c r="T21" s="24">
+      <c r="T21" s="23">
         <f t="shared" si="3"/>
         <v>235.59000000000026</v>
       </c>
-      <c r="U21" s="25">
+      <c r="U21" s="24">
         <f t="shared" si="4"/>
         <v>149.84000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <v>4</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="11">
         <v>410.4</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="11">
         <f>G22*$D$3*$D$4</f>
         <v>41.04</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="12">
         <f t="shared" si="5"/>
         <v>820.79999999999984</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="13">
         <v>58.02</v>
       </c>
-      <c r="K22" s="15">
+      <c r="K22" s="14">
         <v>53.12</v>
       </c>
-      <c r="L22" s="30">
+      <c r="L22" s="29">
         <v>0.25</v>
       </c>
-      <c r="M22" s="31">
+      <c r="M22" s="30">
         <v>0.25</v>
       </c>
-      <c r="N22" s="18">
+      <c r="N22" s="17">
         <f>J22*L22*$D$6*100*100</f>
         <v>1015.3500000000001</v>
       </c>
-      <c r="O22" s="14">
+      <c r="O22" s="13">
         <f>K22*M22*$D$6*100*100</f>
         <v>929.59999999999991</v>
       </c>
-      <c r="P22" s="19">
+      <c r="P22" s="18">
         <f t="shared" si="0"/>
         <v>0.80839119515437996</v>
       </c>
-      <c r="Q22" s="20">
+      <c r="Q22" s="19">
         <f t="shared" si="1"/>
         <v>0.8829604130808949</v>
       </c>
-      <c r="R22" s="21" t="str">
+      <c r="R22" s="20" t="str">
         <f t="shared" si="2"/>
         <v>WENO</v>
       </c>
-      <c r="T22" s="24">
+      <c r="T22" s="23">
         <f t="shared" si="3"/>
         <v>194.5500000000003</v>
       </c>
-      <c r="U22" s="25">
+      <c r="U22" s="24">
         <f t="shared" si="4"/>
         <v>108.80000000000007</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="F23" s="11">
+      <c r="F23" s="10">
         <v>3</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="11">
         <v>410.4</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="11">
         <f>G23*$D$3*$D$4</f>
         <v>41.04</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="12">
         <f t="shared" si="5"/>
         <v>861.8399999999998</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="13">
         <v>58.02</v>
       </c>
-      <c r="K23" s="15">
+      <c r="K23" s="14">
         <v>50.03</v>
       </c>
-      <c r="L23" s="30">
+      <c r="L23" s="29">
         <v>0.25</v>
       </c>
-      <c r="M23" s="31">
+      <c r="M23" s="30">
         <v>0.25</v>
       </c>
-      <c r="N23" s="18">
+      <c r="N23" s="17">
         <f>J23*L23*$D$6*100*100</f>
         <v>1015.3500000000001</v>
       </c>
-      <c r="O23" s="14">
+      <c r="O23" s="13">
         <f>K23*M23*$D$6*100*100</f>
         <v>875.52499999999998</v>
       </c>
-      <c r="P23" s="19">
+      <c r="P23" s="18">
         <f t="shared" si="0"/>
         <v>0.84881075491209901</v>
       </c>
-      <c r="Q23" s="20">
+      <c r="Q23" s="19">
         <f t="shared" si="1"/>
         <v>0.984369378372976</v>
       </c>
-      <c r="R23" s="21" t="str">
+      <c r="R23" s="20" t="str">
         <f t="shared" si="2"/>
         <v>WENO</v>
       </c>
-      <c r="T23" s="24">
+      <c r="T23" s="23">
         <f t="shared" si="3"/>
         <v>153.51000000000033</v>
       </c>
-      <c r="U23" s="25">
+      <c r="U23" s="24">
         <f t="shared" si="4"/>
         <v>13.685000000000173</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C24" s="5"/>
-      <c r="F24" s="11">
+      <c r="C24" s="4"/>
+      <c r="F24" s="10">
         <v>2</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="11">
         <v>410.4</v>
       </c>
-      <c r="H24" s="32">
+      <c r="H24" s="31">
         <f>G24*$D$3*$D$4</f>
         <v>41.04</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="12">
         <f t="shared" si="5"/>
         <v>902.87999999999977</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="13">
         <v>57.05</v>
       </c>
-      <c r="K24" s="15">
+      <c r="K24" s="14">
         <v>45</v>
       </c>
-      <c r="L24" s="33">
+      <c r="L24" s="32">
         <v>0.25</v>
       </c>
-      <c r="M24" s="34">
+      <c r="M24" s="33">
         <v>0.3</v>
       </c>
-      <c r="N24" s="18">
+      <c r="N24" s="17">
         <f>J24*L24*$D$6*100*100</f>
         <v>998.37499999999989</v>
       </c>
-      <c r="O24" s="14">
+      <c r="O24" s="13">
         <f>K24*M24*$D$6*100*100</f>
         <v>944.99999999999989</v>
       </c>
-      <c r="P24" s="19">
+      <c r="P24" s="18">
         <f t="shared" si="0"/>
         <v>0.90434956804807798</v>
       </c>
-      <c r="Q24" s="20">
+      <c r="Q24" s="19">
         <f t="shared" si="1"/>
         <v>0.95542857142857129</v>
       </c>
-      <c r="R24" s="21" t="str">
+      <c r="R24" s="20" t="str">
         <f t="shared" si="2"/>
         <v>WENO</v>
       </c>
-      <c r="T24" s="24">
+      <c r="T24" s="23">
         <f t="shared" si="3"/>
         <v>95.495000000000118</v>
       </c>
-      <c r="U24" s="25">
+      <c r="U24" s="24">
         <f t="shared" si="4"/>
         <v>42.120000000000118</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="F25" s="11">
+      <c r="F25" s="10">
         <v>1</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="11">
         <v>467.16049999999996</v>
       </c>
-      <c r="H25" s="32">
+      <c r="H25" s="31">
         <f>G25*$D$3*$D$4</f>
         <v>46.716049999999996</v>
       </c>
-      <c r="I25" s="35">
+      <c r="I25" s="34">
         <f t="shared" si="5"/>
         <v>949.59604999999976</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J25" s="13">
         <v>67.650000000000006</v>
       </c>
-      <c r="K25" s="15">
+      <c r="K25" s="14">
         <v>48.88</v>
       </c>
-      <c r="L25" s="33">
+      <c r="L25" s="32">
         <v>0.25</v>
       </c>
-      <c r="M25" s="34">
+      <c r="M25" s="33">
         <v>0.3</v>
       </c>
-      <c r="N25" s="18">
+      <c r="N25" s="17">
         <f>J25*L25*$D$6*100*100</f>
         <v>1183.875</v>
       </c>
-      <c r="O25" s="14">
+      <c r="O25" s="13">
         <f>K25*M25*$D$6*100*100</f>
         <v>1026.48</v>
       </c>
-      <c r="P25" s="19">
+      <c r="P25" s="18">
         <f t="shared" si="0"/>
         <v>0.80210837292788495</v>
       </c>
-      <c r="Q25" s="20">
+      <c r="Q25" s="19">
         <f t="shared" si="1"/>
         <v>0.92509941742654489</v>
       </c>
-      <c r="R25" s="21" t="str">
+      <c r="R25" s="20" t="str">
         <f t="shared" si="2"/>
         <v>WENO</v>
       </c>
-      <c r="T25" s="24">
+      <c r="T25" s="23">
         <f t="shared" si="3"/>
         <v>234.27895000000024</v>
       </c>
-      <c r="U25" s="25">
+      <c r="U25" s="24">
         <f t="shared" si="4"/>
         <v>76.883950000000254</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F26" s="36">
+      <c r="F26" s="35">
         <v>-1</v>
       </c>
-      <c r="G26" s="49">
+      <c r="G26" s="48">
         <v>734.65999999999985</v>
       </c>
-      <c r="H26" s="37">
+      <c r="H26" s="36">
         <f>G26*$D$3*$D$4</f>
         <v>73.465999999999994</v>
       </c>
-      <c r="I26" s="38">
+      <c r="I26" s="37">
         <f t="shared" si="5"/>
         <v>1023.0620499999998</v>
       </c>
-      <c r="J26" s="39">
+      <c r="J26" s="38">
         <v>84.59</v>
       </c>
-      <c r="K26" s="40">
+      <c r="K26" s="39">
         <v>50.55</v>
       </c>
-      <c r="L26" s="41">
+      <c r="L26" s="40">
         <v>0.25</v>
       </c>
-      <c r="M26" s="42">
+      <c r="M26" s="41">
         <v>0.3</v>
       </c>
-      <c r="N26" s="43">
+      <c r="N26" s="42">
         <f>J26*L26*$D$6*100*100</f>
         <v>1480.3250000000003</v>
       </c>
-      <c r="O26" s="39">
+      <c r="O26" s="38">
         <f>K26*M26*$D$6*100*100</f>
         <v>1061.5500000000002</v>
       </c>
-      <c r="P26" s="44">
+      <c r="P26" s="43">
         <f t="shared" si="0"/>
         <v>0.69110637866684654</v>
       </c>
-      <c r="Q26" s="45">
+      <c r="Q26" s="44">
         <f t="shared" si="1"/>
         <v>0.96374362959822868</v>
       </c>
-      <c r="R26" s="46" t="str">
+      <c r="R26" s="45" t="str">
         <f t="shared" si="2"/>
         <v>WENO</v>
       </c>
-      <c r="T26" s="47">
+      <c r="T26" s="46">
         <f t="shared" si="3"/>
         <v>457.2629500000005</v>
       </c>
-      <c r="U26" s="48">
+      <c r="U26" s="47">
         <f t="shared" si="4"/>
         <v>38.48795000000041</v>
       </c>

--- a/Tarea 03/Cubicaciones.xlsx
+++ b/Tarea 03/Cubicaciones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F56E787A-D088-43BE-9D78-923704147FA2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5C336B50-61B8-4BD8-A579-363ADB3AE927}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>Estuco</t>
   </si>
@@ -280,9 +280,6 @@
     <t>[T/cm^2]</t>
   </si>
   <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
     <t>Alosa</t>
   </si>
   <si>
@@ -322,9 +319,6 @@
     <t>Área losa interior final (m2)</t>
   </si>
   <si>
-    <t>Área losa estacionamiento final (m2)</t>
-  </si>
-  <si>
     <t>Peso total (T)</t>
   </si>
   <si>
@@ -349,7 +343,7 @@
     <t>Espesor losas</t>
   </si>
   <si>
-    <t>$\gamma_{Eslucido}$</t>
+    <t>$\gamma_{Enlucido}$</t>
   </si>
 </sst>
 </file>
@@ -410,7 +404,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -455,12 +449,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -759,7 +747,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -975,9 +963,6 @@
     <xf numFmtId="2" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1011,19 +996,13 @@
     <xf numFmtId="2" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1324,10 +1303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:P31"/>
+  <dimension ref="B2:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1344,25 +1323,23 @@
     <col min="11" max="11" width="11.77734375" style="52" customWidth="1"/>
     <col min="12" max="12" width="11.21875" style="52" customWidth="1"/>
     <col min="13" max="13" width="15.5546875" style="52" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" style="52" customWidth="1"/>
-    <col min="15" max="15" width="14.88671875" style="52" customWidth="1"/>
-    <col min="16" max="16" width="9.6640625" style="52" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="52"/>
+    <col min="14" max="14" width="9.6640625" style="52" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="52"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="50" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2" s="51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I2" s="51"/>
     </row>
-    <row r="3" spans="2:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="53" t="s">
         <v>6</v>
       </c>
@@ -1370,40 +1347,34 @@
         <v>3</v>
       </c>
       <c r="E3" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="87" t="s">
+      <c r="H3" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="87" t="s">
+      <c r="M3" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="86" t="s">
+      <c r="N3" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="87" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="88" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="85" t="s">
-        <v>45</v>
-      </c>
-      <c r="P3" s="89" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="56" t="s">
         <v>2</v>
       </c>
@@ -1437,19 +1408,12 @@
       <c r="M4" s="70">
         <v>0</v>
       </c>
-      <c r="N4" s="70">
-        <v>0</v>
-      </c>
-      <c r="O4" s="72">
-        <f>M4-N4</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="73">
-        <f>L4*($C$4*I4+$C$6*$C$12+$C$7*$C$13)+I4*O4*$C$4</f>
+      <c r="N4" s="72">
+        <f>I4*J4*$C$4+L4*($C$6*$C$12+$C$7*$C$13)+I4*M4*$C$4</f>
         <v>33.455925999999998</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="60" t="s">
         <v>5</v>
       </c>
@@ -1462,40 +1426,33 @@
       <c r="F5" s="61">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H5" s="81">
+      <c r="H5" s="80">
         <f t="shared" ref="H5:H28" si="0">E5</f>
         <v>23</v>
       </c>
-      <c r="I5" s="81">
+      <c r="I5" s="80">
         <f>$C$20</f>
         <v>0.16</v>
       </c>
-      <c r="J5" s="82">
-        <v>410.20299999999997</v>
-      </c>
-      <c r="K5" s="82">
-        <v>0</v>
-      </c>
-      <c r="L5" s="83">
+      <c r="J5" s="81">
+        <v>410.20299999999997</v>
+      </c>
+      <c r="K5" s="81">
+        <v>0</v>
+      </c>
+      <c r="L5" s="82">
         <f>J5-K5</f>
         <v>410.20299999999997</v>
       </c>
-      <c r="M5" s="82">
-        <v>0</v>
-      </c>
-      <c r="N5" s="82">
-        <v>0</v>
-      </c>
-      <c r="O5" s="84">
-        <f t="shared" ref="O5:O27" si="1">M5-N5</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="73">
-        <f t="shared" ref="P5:P27" si="2">L5*($C$4*I5+$C$6*$C$12+$C$7*$C$13)+I5*O5*$C$4</f>
-        <v>199.76886100000002</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="M5" s="81">
+        <v>0</v>
+      </c>
+      <c r="N5" s="83">
+        <f t="shared" ref="N5:N27" si="1">I5*J5*$C$4+L5*($C$6*$C$12+$C$7*$C$13)+I5*M5*$C$4</f>
+        <v>199.76886099999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="60" t="s">
         <v>4</v>
       </c>
@@ -1508,42 +1465,35 @@
       <c r="F6" s="61">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H6" s="81">
+      <c r="H6" s="80">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="I6" s="81">
+      <c r="I6" s="80">
         <f>$C$20</f>
         <v>0.16</v>
       </c>
-      <c r="J6" s="82">
-        <v>410.20299999999997</v>
-      </c>
-      <c r="K6" s="82">
-        <v>0</v>
-      </c>
-      <c r="L6" s="83">
+      <c r="J6" s="81">
+        <v>410.20299999999997</v>
+      </c>
+      <c r="K6" s="81">
+        <v>0</v>
+      </c>
+      <c r="L6" s="82">
         <f>J6-K6</f>
         <v>410.20299999999997</v>
       </c>
-      <c r="M6" s="82">
-        <v>0</v>
-      </c>
-      <c r="N6" s="82">
-        <v>0</v>
-      </c>
-      <c r="O6" s="84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="73">
-        <f t="shared" si="2"/>
-        <v>199.76886100000002</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M6" s="81">
+        <v>0</v>
+      </c>
+      <c r="N6" s="83">
+        <f t="shared" si="1"/>
+        <v>199.76886099999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="66" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C7" s="62">
         <v>0.4</v>
@@ -1554,82 +1504,68 @@
       <c r="F7" s="61">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H7" s="81">
+      <c r="H7" s="80">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="I7" s="81">
+      <c r="I7" s="80">
         <f>$C$20</f>
         <v>0.16</v>
       </c>
-      <c r="J7" s="82">
-        <v>410.20299999999997</v>
-      </c>
-      <c r="K7" s="82">
-        <v>0</v>
-      </c>
-      <c r="L7" s="83">
+      <c r="J7" s="81">
+        <v>410.20299999999997</v>
+      </c>
+      <c r="K7" s="81">
+        <v>0</v>
+      </c>
+      <c r="L7" s="82">
         <f>J7-K7</f>
         <v>410.20299999999997</v>
       </c>
-      <c r="M7" s="82">
-        <v>0</v>
-      </c>
-      <c r="N7" s="82">
-        <v>0</v>
-      </c>
-      <c r="O7" s="84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="73">
-        <f t="shared" si="2"/>
-        <v>199.76886100000002</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="M7" s="81">
+        <v>0</v>
+      </c>
+      <c r="N7" s="83">
+        <f t="shared" si="1"/>
+        <v>199.76886099999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E8" s="60">
         <v>20</v>
       </c>
       <c r="F8" s="61">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H8" s="81">
+      <c r="H8" s="80">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I8" s="81">
+      <c r="I8" s="80">
         <f>$C$20</f>
         <v>0.16</v>
       </c>
-      <c r="J8" s="82">
-        <v>410.20299999999997</v>
-      </c>
-      <c r="K8" s="82">
-        <v>0</v>
-      </c>
-      <c r="L8" s="83">
+      <c r="J8" s="81">
+        <v>410.20299999999997</v>
+      </c>
+      <c r="K8" s="81">
+        <v>0</v>
+      </c>
+      <c r="L8" s="82">
         <f>J8-K8</f>
         <v>410.20299999999997</v>
       </c>
-      <c r="M8" s="82">
-        <v>0</v>
-      </c>
-      <c r="N8" s="82">
-        <v>0</v>
-      </c>
-      <c r="O8" s="84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="73">
-        <f t="shared" si="2"/>
-        <v>199.76886100000002</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M8" s="81">
+        <v>0</v>
+      </c>
+      <c r="N8" s="83">
+        <f t="shared" si="1"/>
+        <v>199.76886099999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="60">
         <v>19</v>
@@ -1637,45 +1573,38 @@
       <c r="F9" s="61">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H9" s="81">
+      <c r="H9" s="80">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="I9" s="81">
+      <c r="I9" s="80">
         <f>$C$20</f>
         <v>0.16</v>
       </c>
-      <c r="J9" s="82">
-        <v>410.20299999999997</v>
-      </c>
-      <c r="K9" s="82">
-        <v>0</v>
-      </c>
-      <c r="L9" s="83">
+      <c r="J9" s="81">
+        <v>410.20299999999997</v>
+      </c>
+      <c r="K9" s="81">
+        <v>0</v>
+      </c>
+      <c r="L9" s="82">
         <f>J9-K9</f>
         <v>410.20299999999997</v>
       </c>
-      <c r="M9" s="82">
-        <v>0</v>
-      </c>
-      <c r="N9" s="82">
-        <v>0</v>
-      </c>
-      <c r="O9" s="84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="73">
-        <f t="shared" si="2"/>
-        <v>199.76886100000002</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M9" s="81">
+        <v>0</v>
+      </c>
+      <c r="N9" s="83">
+        <f t="shared" si="1"/>
+        <v>199.76886099999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="63" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="60">
         <v>18</v>
@@ -1683,40 +1612,33 @@
       <c r="F10" s="61">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H10" s="81">
+      <c r="H10" s="80">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="I10" s="81">
+      <c r="I10" s="80">
         <f>$C$20</f>
         <v>0.16</v>
       </c>
-      <c r="J10" s="82">
-        <v>410.20299999999997</v>
-      </c>
-      <c r="K10" s="82">
-        <v>0</v>
-      </c>
-      <c r="L10" s="83">
+      <c r="J10" s="81">
+        <v>410.20299999999997</v>
+      </c>
+      <c r="K10" s="81">
+        <v>0</v>
+      </c>
+      <c r="L10" s="82">
         <f>J10-K10</f>
         <v>410.20299999999997</v>
       </c>
-      <c r="M10" s="82">
-        <v>0</v>
-      </c>
-      <c r="N10" s="82">
-        <v>0</v>
-      </c>
-      <c r="O10" s="84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="73">
-        <f t="shared" si="2"/>
-        <v>199.76886100000002</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="M10" s="81">
+        <v>0</v>
+      </c>
+      <c r="N10" s="83">
+        <f t="shared" si="1"/>
+        <v>199.76886099999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="64" t="s">
         <v>0</v>
       </c>
@@ -1730,40 +1652,33 @@
       <c r="F11" s="61">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H11" s="81">
+      <c r="H11" s="80">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="I11" s="81">
+      <c r="I11" s="80">
         <f>$C$20</f>
         <v>0.16</v>
       </c>
-      <c r="J11" s="82">
-        <v>410.20299999999997</v>
-      </c>
-      <c r="K11" s="82">
-        <v>0</v>
-      </c>
-      <c r="L11" s="83">
+      <c r="J11" s="81">
+        <v>410.20299999999997</v>
+      </c>
+      <c r="K11" s="81">
+        <v>0</v>
+      </c>
+      <c r="L11" s="82">
         <f>J11-K11</f>
         <v>410.20299999999997</v>
       </c>
-      <c r="M11" s="82">
-        <v>0</v>
-      </c>
-      <c r="N11" s="82">
-        <v>0</v>
-      </c>
-      <c r="O11" s="84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="73">
-        <f t="shared" si="2"/>
-        <v>199.76886100000002</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="M11" s="81">
+        <v>0</v>
+      </c>
+      <c r="N11" s="83">
+        <f t="shared" si="1"/>
+        <v>199.76886099999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="65" t="s">
         <v>1</v>
       </c>
@@ -1777,42 +1692,35 @@
       <c r="F12" s="61">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H12" s="81">
+      <c r="H12" s="80">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="I12" s="81">
+      <c r="I12" s="80">
         <f>$C$20</f>
         <v>0.16</v>
       </c>
-      <c r="J12" s="82">
-        <v>410.20299999999997</v>
-      </c>
-      <c r="K12" s="82">
-        <v>0</v>
-      </c>
-      <c r="L12" s="83">
+      <c r="J12" s="81">
+        <v>410.20299999999997</v>
+      </c>
+      <c r="K12" s="81">
+        <v>0</v>
+      </c>
+      <c r="L12" s="82">
         <f>J12-K12</f>
         <v>410.20299999999997</v>
       </c>
-      <c r="M12" s="82">
-        <v>0</v>
-      </c>
-      <c r="N12" s="82">
-        <v>0</v>
-      </c>
-      <c r="O12" s="84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="73">
-        <f t="shared" si="2"/>
-        <v>199.76886100000002</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M12" s="81">
+        <v>0</v>
+      </c>
+      <c r="N12" s="83">
+        <f t="shared" si="1"/>
+        <v>199.76886099999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="62">
         <v>0.03</v>
@@ -1823,125 +1731,104 @@
       <c r="F13" s="61">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H13" s="81">
+      <c r="H13" s="80">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="I13" s="81">
+      <c r="I13" s="80">
         <f>$C$20</f>
         <v>0.16</v>
       </c>
-      <c r="J13" s="82">
-        <v>410.20299999999997</v>
-      </c>
-      <c r="K13" s="82">
-        <v>0</v>
-      </c>
-      <c r="L13" s="83">
+      <c r="J13" s="81">
+        <v>410.20299999999997</v>
+      </c>
+      <c r="K13" s="81">
+        <v>0</v>
+      </c>
+      <c r="L13" s="82">
         <f>J13-K13</f>
         <v>410.20299999999997</v>
       </c>
-      <c r="M13" s="82">
-        <v>0</v>
-      </c>
-      <c r="N13" s="82">
-        <v>0</v>
-      </c>
-      <c r="O13" s="84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="73">
-        <f t="shared" si="2"/>
-        <v>199.76886100000002</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="M13" s="81">
+        <v>0</v>
+      </c>
+      <c r="N13" s="83">
+        <f t="shared" si="1"/>
+        <v>199.76886099999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E14" s="60">
         <v>14</v>
       </c>
       <c r="F14" s="61">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H14" s="81">
+      <c r="H14" s="80">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="I14" s="81">
+      <c r="I14" s="80">
         <f>$C$20</f>
         <v>0.16</v>
       </c>
-      <c r="J14" s="82">
-        <v>410.20299999999997</v>
-      </c>
-      <c r="K14" s="82">
-        <v>0</v>
-      </c>
-      <c r="L14" s="83">
+      <c r="J14" s="81">
+        <v>410.20299999999997</v>
+      </c>
+      <c r="K14" s="81">
+        <v>0</v>
+      </c>
+      <c r="L14" s="82">
         <f>J14-K14</f>
         <v>410.20299999999997</v>
       </c>
-      <c r="M14" s="82">
-        <v>0</v>
-      </c>
-      <c r="N14" s="82">
-        <v>0</v>
-      </c>
-      <c r="O14" s="84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="73">
-        <f t="shared" si="2"/>
-        <v>199.76886100000002</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="51" t="s">
-        <v>53</v>
-      </c>
+      <c r="M14" s="81">
+        <v>0</v>
+      </c>
+      <c r="N14" s="83">
+        <f t="shared" si="1"/>
+        <v>199.76886099999999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E15" s="60">
         <v>13</v>
       </c>
       <c r="F15" s="61">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H15" s="81">
+      <c r="H15" s="80">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="I15" s="81">
+      <c r="I15" s="80">
         <f>$C$20</f>
         <v>0.16</v>
       </c>
-      <c r="J15" s="82">
-        <v>410.20299999999997</v>
-      </c>
-      <c r="K15" s="82">
-        <v>0</v>
-      </c>
-      <c r="L15" s="83">
+      <c r="J15" s="81">
+        <v>410.20299999999997</v>
+      </c>
+      <c r="K15" s="81">
+        <v>0</v>
+      </c>
+      <c r="L15" s="82">
         <f>J15-K15</f>
         <v>410.20299999999997</v>
       </c>
-      <c r="M15" s="82">
-        <v>0</v>
-      </c>
-      <c r="N15" s="82">
-        <v>0</v>
-      </c>
-      <c r="O15" s="84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="73">
-        <f t="shared" si="2"/>
-        <v>199.76886100000002</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="74" t="s">
-        <v>47</v>
+      <c r="M15" s="81">
+        <v>0</v>
+      </c>
+      <c r="N15" s="83">
+        <f t="shared" si="1"/>
+        <v>199.76886099999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="73" t="s">
+        <v>45</v>
       </c>
       <c r="E16" s="60">
         <v>12</v>
@@ -1949,44 +1836,37 @@
       <c r="F16" s="61">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H16" s="81">
+      <c r="H16" s="80">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="I16" s="81">
+      <c r="I16" s="80">
         <f>$C$20</f>
         <v>0.16</v>
       </c>
-      <c r="J16" s="82">
-        <v>410.20299999999997</v>
-      </c>
-      <c r="K16" s="82">
-        <v>0</v>
-      </c>
-      <c r="L16" s="83">
+      <c r="J16" s="81">
+        <v>410.20299999999997</v>
+      </c>
+      <c r="K16" s="81">
+        <v>0</v>
+      </c>
+      <c r="L16" s="82">
         <f>J16-K16</f>
         <v>410.20299999999997</v>
       </c>
-      <c r="M16" s="82">
-        <v>0</v>
-      </c>
-      <c r="N16" s="82">
-        <v>0</v>
-      </c>
-      <c r="O16" s="84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="73">
-        <f t="shared" si="2"/>
-        <v>199.76886100000002</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="75" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="76">
+      <c r="M16" s="81">
+        <v>0</v>
+      </c>
+      <c r="N16" s="83">
+        <f t="shared" si="1"/>
+        <v>199.76886099999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="75">
         <f>17/100</f>
         <v>0.17</v>
       </c>
@@ -1996,44 +1876,37 @@
       <c r="F17" s="61">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H17" s="81">
+      <c r="H17" s="80">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="I17" s="81">
+      <c r="I17" s="80">
         <f>$C$20</f>
         <v>0.16</v>
       </c>
-      <c r="J17" s="82">
-        <v>410.20299999999997</v>
-      </c>
-      <c r="K17" s="82">
-        <v>0</v>
-      </c>
-      <c r="L17" s="83">
+      <c r="J17" s="81">
+        <v>410.20299999999997</v>
+      </c>
+      <c r="K17" s="81">
+        <v>0</v>
+      </c>
+      <c r="L17" s="82">
         <f>J17-K17</f>
         <v>410.20299999999997</v>
       </c>
-      <c r="M17" s="82">
-        <v>0</v>
-      </c>
-      <c r="N17" s="82">
-        <v>0</v>
-      </c>
-      <c r="O17" s="84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="73">
-        <f t="shared" si="2"/>
-        <v>199.76886100000002</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="77" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="78">
+      <c r="M17" s="81">
+        <v>0</v>
+      </c>
+      <c r="N17" s="83">
+        <f t="shared" si="1"/>
+        <v>199.76886099999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="77">
         <v>0.16</v>
       </c>
       <c r="E18" s="60">
@@ -2042,44 +1915,37 @@
       <c r="F18" s="61">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H18" s="81">
+      <c r="H18" s="80">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I18" s="81">
+      <c r="I18" s="80">
         <f>$C$20</f>
         <v>0.16</v>
       </c>
-      <c r="J18" s="82">
-        <v>410.20299999999997</v>
-      </c>
-      <c r="K18" s="82">
-        <v>0</v>
-      </c>
-      <c r="L18" s="83">
+      <c r="J18" s="81">
+        <v>410.20299999999997</v>
+      </c>
+      <c r="K18" s="81">
+        <v>0</v>
+      </c>
+      <c r="L18" s="82">
         <f>J18-K18</f>
         <v>410.20299999999997</v>
       </c>
-      <c r="M18" s="82">
-        <v>0</v>
-      </c>
-      <c r="N18" s="82">
-        <v>0</v>
-      </c>
-      <c r="O18" s="84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="73">
-        <f t="shared" si="2"/>
-        <v>199.76886100000002</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="78">
+      <c r="M18" s="81">
+        <v>0</v>
+      </c>
+      <c r="N18" s="83">
+        <f t="shared" si="1"/>
+        <v>199.76886099999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="77">
         <v>0.16</v>
       </c>
       <c r="E19" s="60">
@@ -2088,44 +1954,37 @@
       <c r="F19" s="61">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H19" s="81">
+      <c r="H19" s="80">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="I19" s="81">
+      <c r="I19" s="80">
         <f>$C$20</f>
         <v>0.16</v>
       </c>
-      <c r="J19" s="82">
-        <v>410.20299999999997</v>
-      </c>
-      <c r="K19" s="82">
-        <v>0</v>
-      </c>
-      <c r="L19" s="83">
+      <c r="J19" s="81">
+        <v>410.20299999999997</v>
+      </c>
+      <c r="K19" s="81">
+        <v>0</v>
+      </c>
+      <c r="L19" s="82">
         <f>J19-K19</f>
         <v>410.20299999999997</v>
       </c>
-      <c r="M19" s="82">
-        <v>0</v>
-      </c>
-      <c r="N19" s="82">
-        <v>0</v>
-      </c>
-      <c r="O19" s="84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="73">
-        <f t="shared" si="2"/>
-        <v>199.76886100000002</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="78">
+      <c r="M19" s="81">
+        <v>0</v>
+      </c>
+      <c r="N19" s="83">
+        <f t="shared" si="1"/>
+        <v>199.76886099999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="77">
         <v>0.16</v>
       </c>
       <c r="E20" s="60">
@@ -2134,44 +1993,37 @@
       <c r="F20" s="61">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H20" s="81">
+      <c r="H20" s="80">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I20" s="81">
+      <c r="I20" s="80">
         <f>$C$20</f>
         <v>0.16</v>
       </c>
-      <c r="J20" s="82">
-        <v>410.20299999999997</v>
-      </c>
-      <c r="K20" s="82">
-        <v>0</v>
-      </c>
-      <c r="L20" s="83">
+      <c r="J20" s="81">
+        <v>410.20299999999997</v>
+      </c>
+      <c r="K20" s="81">
+        <v>0</v>
+      </c>
+      <c r="L20" s="82">
         <f>J20-K20</f>
         <v>410.20299999999997</v>
       </c>
-      <c r="M20" s="82">
-        <v>0</v>
-      </c>
-      <c r="N20" s="82">
-        <v>0</v>
-      </c>
-      <c r="O20" s="84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="73">
-        <f t="shared" si="2"/>
-        <v>199.76886100000002</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="80">
+      <c r="M20" s="81">
+        <v>0</v>
+      </c>
+      <c r="N20" s="83">
+        <f t="shared" si="1"/>
+        <v>199.76886099999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="79">
         <v>0.16</v>
       </c>
       <c r="E21" s="60">
@@ -2180,160 +2032,132 @@
       <c r="F21" s="61">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H21" s="81">
+      <c r="H21" s="80">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I21" s="81">
+      <c r="I21" s="80">
         <f>$C$20</f>
         <v>0.16</v>
       </c>
-      <c r="J21" s="82">
-        <v>410.20299999999997</v>
-      </c>
-      <c r="K21" s="82">
-        <v>0</v>
-      </c>
-      <c r="L21" s="83">
+      <c r="J21" s="81">
+        <v>410.20299999999997</v>
+      </c>
+      <c r="K21" s="81">
+        <v>0</v>
+      </c>
+      <c r="L21" s="82">
         <f>J21-K21</f>
         <v>410.20299999999997</v>
       </c>
-      <c r="M21" s="82">
-        <v>0</v>
-      </c>
-      <c r="N21" s="82">
-        <v>0</v>
-      </c>
-      <c r="O21" s="84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="73">
-        <f t="shared" si="2"/>
-        <v>199.76886100000002</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="M21" s="81">
+        <v>0</v>
+      </c>
+      <c r="N21" s="83">
+        <f t="shared" si="1"/>
+        <v>199.76886099999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E22" s="60">
         <v>6</v>
       </c>
       <c r="F22" s="61">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H22" s="81">
+      <c r="H22" s="80">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I22" s="81">
+      <c r="I22" s="80">
         <f>$C$20</f>
         <v>0.16</v>
       </c>
-      <c r="J22" s="82">
-        <v>410.20299999999997</v>
-      </c>
-      <c r="K22" s="82">
-        <v>0</v>
-      </c>
-      <c r="L22" s="83">
+      <c r="J22" s="81">
+        <v>410.20299999999997</v>
+      </c>
+      <c r="K22" s="81">
+        <v>0</v>
+      </c>
+      <c r="L22" s="82">
         <f>J22-K22</f>
         <v>410.20299999999997</v>
       </c>
-      <c r="M22" s="82">
-        <v>0</v>
-      </c>
-      <c r="N22" s="82">
-        <v>0</v>
-      </c>
-      <c r="O22" s="84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="73">
-        <f t="shared" si="2"/>
-        <v>199.76886100000002</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="M22" s="81">
+        <v>0</v>
+      </c>
+      <c r="N22" s="83">
+        <f t="shared" si="1"/>
+        <v>199.76886099999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E23" s="60">
         <v>5</v>
       </c>
       <c r="F23" s="61">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H23" s="81">
+      <c r="H23" s="80">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I23" s="81">
+      <c r="I23" s="80">
         <f>$C$20</f>
         <v>0.16</v>
       </c>
-      <c r="J23" s="82">
-        <v>410.20299999999997</v>
-      </c>
-      <c r="K23" s="82">
-        <v>0</v>
-      </c>
-      <c r="L23" s="83">
+      <c r="J23" s="81">
+        <v>410.20299999999997</v>
+      </c>
+      <c r="K23" s="81">
+        <v>0</v>
+      </c>
+      <c r="L23" s="82">
         <f>J23-K23</f>
         <v>410.20299999999997</v>
       </c>
-      <c r="M23" s="82">
-        <v>0</v>
-      </c>
-      <c r="N23" s="82">
-        <v>0</v>
-      </c>
-      <c r="O23" s="84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="73">
-        <f t="shared" si="2"/>
-        <v>199.76886100000002</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="M23" s="81">
+        <v>0</v>
+      </c>
+      <c r="N23" s="83">
+        <f t="shared" si="1"/>
+        <v>199.76886099999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E24" s="60">
         <v>4</v>
       </c>
       <c r="F24" s="61">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H24" s="81">
+      <c r="H24" s="80">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I24" s="81">
+      <c r="I24" s="80">
         <f>$C$20</f>
         <v>0.16</v>
       </c>
-      <c r="J24" s="82">
-        <v>410.20299999999997</v>
-      </c>
-      <c r="K24" s="82">
-        <v>0</v>
-      </c>
-      <c r="L24" s="83">
+      <c r="J24" s="81">
+        <v>410.20299999999997</v>
+      </c>
+      <c r="K24" s="81">
+        <v>0</v>
+      </c>
+      <c r="L24" s="82">
         <f>J24-K24</f>
         <v>410.20299999999997</v>
       </c>
-      <c r="M24" s="82">
-        <v>0</v>
-      </c>
-      <c r="N24" s="82">
-        <v>0</v>
-      </c>
-      <c r="O24" s="84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="73">
-        <f t="shared" si="2"/>
-        <v>199.76886100000002</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="M24" s="81">
+        <v>0</v>
+      </c>
+      <c r="N24" s="83">
+        <f t="shared" si="1"/>
+        <v>199.76886099999999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E25" s="60">
         <v>3</v>
       </c>
@@ -2361,19 +2185,12 @@
       <c r="M25" s="70">
         <v>0</v>
       </c>
-      <c r="N25" s="70">
-        <v>0</v>
-      </c>
-      <c r="O25" s="72">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="73">
-        <f t="shared" si="2"/>
+      <c r="N25" s="72">
+        <f t="shared" si="1"/>
         <v>200.01187400000001</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E26" s="60">
         <v>2</v>
       </c>
@@ -2401,19 +2218,12 @@
       <c r="M26" s="70">
         <v>255.92599999999999</v>
       </c>
-      <c r="N26" s="70">
-        <v>0</v>
-      </c>
-      <c r="O26" s="72">
-        <f t="shared" si="1"/>
-        <v>255.92599999999999</v>
-      </c>
-      <c r="P26" s="73">
-        <f t="shared" si="2"/>
+      <c r="N26" s="72">
+        <f t="shared" si="1"/>
         <v>188.83676300000002</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E27" s="60">
         <v>1</v>
       </c>
@@ -2435,25 +2245,18 @@
         <v>0</v>
       </c>
       <c r="L27" s="71">
-        <f t="shared" ref="L27:L28" si="3">J27-K27</f>
+        <f t="shared" ref="L27:L28" si="2">J27-K27</f>
         <v>205.286</v>
       </c>
       <c r="M27" s="70">
         <v>514.17600000000004</v>
       </c>
-      <c r="N27" s="70">
-        <v>0</v>
-      </c>
-      <c r="O27" s="72">
-        <f t="shared" si="1"/>
-        <v>514.17600000000004</v>
-      </c>
-      <c r="P27" s="73">
-        <f t="shared" si="2"/>
+      <c r="N27" s="72">
+        <f t="shared" si="1"/>
         <v>323.63123200000001</v>
       </c>
     </row>
-    <row r="28" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E28" s="66">
         <v>-1</v>
       </c>
@@ -2470,32 +2273,23 @@
         <v>0</v>
       </c>
       <c r="L28" s="69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M28" s="69"/>
-      <c r="N28" s="69">
-        <v>0</v>
-      </c>
-      <c r="O28" s="69"/>
-      <c r="P28" s="69"/>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="O29" s="90" t="s">
-        <v>31</v>
-      </c>
-      <c r="P29" s="91">
-        <f>SUM(P4:P27)</f>
-        <v>4741.3130150000006</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="O30" s="90"/>
-      <c r="P30" s="90"/>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="O31" s="90"/>
-      <c r="P31" s="90"/>
+      <c r="N28" s="69"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N29" s="88">
+        <f>SUM(N4:N27)</f>
+        <v>4741.3130149999997</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N30" s="87"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N31" s="87"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2547,7 +2341,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>9</v>

--- a/Tarea 03/Cubicaciones.xlsx
+++ b/Tarea 03/Cubicaciones.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FBDF130F-C36D-41B4-97F9-4BC06B17B396}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{36DEF1FE-2972-4B25-904F-47760E4F0A46}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cubicaciones" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
+    <sheet name="Distancias muros" sheetId="3" r:id="rId2"/>
     <sheet name="Verificación corte muros" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017"/>
@@ -152,6 +152,89 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Autor</author>
+  </authors>
+  <commentList>
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{4749D284-6B11-4B4E-8FD3-458814A0AADE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Muro debajo del estacionamiento piso 2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H28" authorId="0" shapeId="0" xr:uid="{DF4F64D8-C572-4D8A-8C5E-49ECF22C8E36}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Pilares eje 17??</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J28" authorId="0" shapeId="0" xr:uid="{8F695FF7-2978-472F-B97C-A02D6F11663A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Pilares eje 17
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Autor</author>
@@ -3002,11 +3085,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3272EE64-BB1C-472D-9C2F-0E5132DDD9CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3272EE64-BB1C-472D-9C2F-0E5132DDD9CA}">
   <dimension ref="A1:M647"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="K30" sqref="K28:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3074,27 +3157,27 @@
       </c>
       <c r="F4" s="97">
         <f>SUM(F5:F54)</f>
-        <v>0</v>
+        <v>50.47999999999999</v>
       </c>
       <c r="G4" s="97">
         <f>SUM(G5:G54)</f>
-        <v>0</v>
+        <v>65.349999999999994</v>
       </c>
       <c r="H4" s="23">
         <f>SUM(H5:H54)</f>
-        <v>0</v>
+        <v>54.98</v>
       </c>
       <c r="I4" s="20">
         <f>SUM(I5:I54)</f>
-        <v>0</v>
+        <v>69.97999999999999</v>
       </c>
       <c r="J4" s="97">
         <f>SUM(J5:J54)</f>
-        <v>0</v>
+        <v>61.529999999999987</v>
       </c>
       <c r="K4" s="97">
         <f>SUM(K5:K54)</f>
-        <v>0</v>
+        <v>78.44</v>
       </c>
       <c r="L4" s="23">
         <f>SUM(L5:L54)</f>
@@ -3156,12 +3239,24 @@
       <c r="E6" s="103">
         <v>1.71</v>
       </c>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
+      <c r="F6" s="102">
+        <v>2.6</v>
+      </c>
+      <c r="G6" s="102">
+        <v>0.4</v>
+      </c>
+      <c r="H6" s="103">
+        <v>1.4</v>
+      </c>
+      <c r="I6" s="103">
+        <v>7.16</v>
+      </c>
+      <c r="J6" s="102">
+        <v>5.3</v>
+      </c>
+      <c r="K6" s="102">
+        <v>5.34</v>
+      </c>
       <c r="L6" s="103">
         <v>4</v>
       </c>
@@ -3182,12 +3277,24 @@
       <c r="E7" s="103">
         <v>0.7</v>
       </c>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
+      <c r="F7" s="102">
+        <v>3.4</v>
+      </c>
+      <c r="G7" s="102">
+        <v>0.7</v>
+      </c>
+      <c r="H7" s="103">
+        <v>1.5</v>
+      </c>
+      <c r="I7" s="103">
+        <v>0.4</v>
+      </c>
+      <c r="J7" s="102">
+        <v>2.57</v>
+      </c>
+      <c r="K7" s="102">
+        <v>1.52</v>
+      </c>
       <c r="L7" s="103">
         <v>2.2999999999999998</v>
       </c>
@@ -3208,12 +3315,24 @@
       <c r="E8" s="103">
         <v>0.7</v>
       </c>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
+      <c r="F8" s="102">
+        <v>2</v>
+      </c>
+      <c r="G8" s="102">
+        <v>0.7</v>
+      </c>
+      <c r="H8" s="103">
+        <v>2.6</v>
+      </c>
+      <c r="I8" s="103">
+        <v>0.6</v>
+      </c>
+      <c r="J8" s="102">
+        <v>2.57</v>
+      </c>
+      <c r="K8" s="102">
+        <v>4.3</v>
+      </c>
       <c r="L8" s="103">
         <v>4.8</v>
       </c>
@@ -3234,12 +3353,24 @@
       <c r="E9" s="103">
         <v>0.6</v>
       </c>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
+      <c r="F9" s="102">
+        <v>0.8</v>
+      </c>
+      <c r="G9" s="102">
+        <v>0.7</v>
+      </c>
+      <c r="H9" s="103">
+        <v>2</v>
+      </c>
+      <c r="I9" s="103">
+        <v>0.6</v>
+      </c>
+      <c r="J9" s="102">
+        <v>3.9</v>
+      </c>
+      <c r="K9" s="102">
+        <v>1.92</v>
+      </c>
       <c r="L9" s="103">
         <v>0.85</v>
       </c>
@@ -3260,12 +3391,24 @@
       <c r="E10" s="103">
         <v>0.6</v>
       </c>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
+      <c r="F10" s="102">
+        <v>2</v>
+      </c>
+      <c r="G10" s="102">
+        <v>0.6</v>
+      </c>
+      <c r="H10" s="103">
+        <v>2.8</v>
+      </c>
+      <c r="I10" s="103">
+        <v>0.7</v>
+      </c>
+      <c r="J10" s="102">
+        <v>1.67</v>
+      </c>
+      <c r="K10" s="102">
+        <v>1.6</v>
+      </c>
       <c r="L10" s="103">
         <v>0.85</v>
       </c>
@@ -3286,12 +3429,24 @@
       <c r="E11" s="103">
         <v>3.38</v>
       </c>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
+      <c r="F11" s="102">
+        <v>2.86</v>
+      </c>
+      <c r="G11" s="102">
+        <v>0.6</v>
+      </c>
+      <c r="H11" s="103">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I11" s="103">
+        <v>0.7</v>
+      </c>
+      <c r="J11" s="102">
+        <v>6.38</v>
+      </c>
+      <c r="K11" s="102">
+        <v>2.08</v>
+      </c>
       <c r="L11" s="103">
         <v>0.8</v>
       </c>
@@ -3312,12 +3467,24 @@
       <c r="E12" s="103">
         <v>1.5</v>
       </c>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
+      <c r="F12" s="102">
+        <v>5.35</v>
+      </c>
+      <c r="G12" s="102">
+        <v>1.92</v>
+      </c>
+      <c r="H12" s="103">
+        <v>0.8</v>
+      </c>
+      <c r="I12" s="103">
+        <v>0.7</v>
+      </c>
+      <c r="J12" s="102">
+        <v>2.67</v>
+      </c>
+      <c r="K12" s="102">
+        <v>5</v>
+      </c>
       <c r="L12" s="103">
         <v>2</v>
       </c>
@@ -3336,12 +3503,24 @@
       <c r="E13" s="103">
         <v>4.45</v>
       </c>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
+      <c r="F13" s="102">
+        <v>4</v>
+      </c>
+      <c r="G13" s="102">
+        <v>4.8</v>
+      </c>
+      <c r="H13" s="103">
+        <v>2</v>
+      </c>
+      <c r="I13" s="103">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J13" s="102">
+        <v>0.85</v>
+      </c>
+      <c r="K13" s="102">
+        <v>4.43</v>
+      </c>
       <c r="L13" s="103">
         <v>2</v>
       </c>
@@ -3360,12 +3539,24 @@
       <c r="E14" s="103">
         <v>6.35</v>
       </c>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="102"/>
+      <c r="F14" s="102">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G14" s="102">
+        <v>3.7</v>
+      </c>
+      <c r="H14" s="103">
+        <v>0.8</v>
+      </c>
+      <c r="I14" s="103">
+        <v>0.95</v>
+      </c>
+      <c r="J14" s="102">
+        <v>0.8</v>
+      </c>
+      <c r="K14" s="102">
+        <v>1.92</v>
+      </c>
       <c r="L14" s="103"/>
       <c r="M14" s="103"/>
     </row>
@@ -3382,12 +3573,24 @@
       <c r="E15" s="103">
         <v>6.15</v>
       </c>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="102"/>
+      <c r="F15" s="102">
+        <v>4.8</v>
+      </c>
+      <c r="G15" s="102">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H15" s="103">
+        <v>2.73</v>
+      </c>
+      <c r="I15" s="103">
+        <v>1.92</v>
+      </c>
+      <c r="J15" s="102">
+        <v>4</v>
+      </c>
+      <c r="K15" s="102">
+        <v>1.92</v>
+      </c>
       <c r="L15" s="103"/>
       <c r="M15" s="103"/>
     </row>
@@ -3404,12 +3607,24 @@
       <c r="E16" s="103">
         <v>3.8</v>
       </c>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="102"/>
+      <c r="F16" s="102">
+        <v>0.85</v>
+      </c>
+      <c r="G16" s="102">
+        <v>5.16</v>
+      </c>
+      <c r="H16" s="103">
+        <v>2</v>
+      </c>
+      <c r="I16" s="103">
+        <v>4.42</v>
+      </c>
+      <c r="J16" s="102">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K16" s="102">
+        <v>2.6</v>
+      </c>
       <c r="L16" s="103"/>
       <c r="M16" s="103"/>
     </row>
@@ -3426,12 +3641,24 @@
       <c r="E17" s="103">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102"/>
+      <c r="F17" s="102">
+        <v>2</v>
+      </c>
+      <c r="G17" s="102">
+        <v>3.84</v>
+      </c>
+      <c r="H17" s="103">
+        <v>4</v>
+      </c>
+      <c r="I17" s="103">
+        <v>1.2</v>
+      </c>
+      <c r="J17" s="102">
+        <v>4.8</v>
+      </c>
+      <c r="K17" s="102">
+        <v>3.24</v>
+      </c>
       <c r="L17" s="103"/>
       <c r="M17" s="103"/>
     </row>
@@ -3448,12 +3675,24 @@
       <c r="E18" s="103">
         <v>6.15</v>
       </c>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="102"/>
+      <c r="F18" s="102">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G18" s="102">
+        <v>1.18</v>
+      </c>
+      <c r="H18" s="103">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I18" s="103">
+        <v>3.79</v>
+      </c>
+      <c r="J18" s="102">
+        <v>2</v>
+      </c>
+      <c r="K18" s="102">
+        <v>4.9000000000000004</v>
+      </c>
       <c r="L18" s="103"/>
       <c r="M18" s="103"/>
     </row>
@@ -3470,12 +3709,24 @@
       <c r="E19" s="103">
         <v>4.45</v>
       </c>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="102"/>
-      <c r="K19" s="102"/>
+      <c r="F19" s="102">
+        <v>0.8</v>
+      </c>
+      <c r="G19" s="102">
+        <v>6.15</v>
+      </c>
+      <c r="H19" s="103">
+        <v>4.8</v>
+      </c>
+      <c r="I19" s="103">
+        <v>1.18</v>
+      </c>
+      <c r="J19" s="102">
+        <v>8.43</v>
+      </c>
+      <c r="K19" s="102">
+        <v>4.92</v>
+      </c>
       <c r="L19" s="103"/>
       <c r="M19" s="103"/>
     </row>
@@ -3492,12 +3743,24 @@
       <c r="E20" s="103">
         <v>1.5</v>
       </c>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="103"/>
-      <c r="J20" s="102"/>
-      <c r="K20" s="102"/>
+      <c r="F20" s="102">
+        <v>5.5</v>
+      </c>
+      <c r="G20" s="102">
+        <v>4.43</v>
+      </c>
+      <c r="H20" s="103">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="I20" s="103">
+        <v>6.1</v>
+      </c>
+      <c r="J20" s="102">
+        <v>0.85</v>
+      </c>
+      <c r="K20" s="102">
+        <v>6.18</v>
+      </c>
       <c r="L20" s="103"/>
       <c r="M20" s="103"/>
     </row>
@@ -3514,12 +3777,24 @@
       <c r="E21" s="103">
         <v>3.38</v>
       </c>
-      <c r="F21" s="102"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="102"/>
-      <c r="K21" s="102"/>
+      <c r="F21" s="102">
+        <v>0.62</v>
+      </c>
+      <c r="G21" s="102">
+        <v>1.19</v>
+      </c>
+      <c r="H21" s="103">
+        <v>0.85</v>
+      </c>
+      <c r="I21" s="103">
+        <v>5.14</v>
+      </c>
+      <c r="J21" s="102">
+        <v>1.02</v>
+      </c>
+      <c r="K21" s="102">
+        <v>3.82</v>
+      </c>
       <c r="L21" s="103"/>
       <c r="M21" s="103"/>
     </row>
@@ -3536,12 +3811,24 @@
       <c r="E22" s="103">
         <v>0.6</v>
       </c>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="102"/>
-      <c r="K22" s="102"/>
+      <c r="F22" s="102">
+        <v>0.62</v>
+      </c>
+      <c r="G22" s="102">
+        <v>3.38</v>
+      </c>
+      <c r="H22" s="103">
+        <v>1</v>
+      </c>
+      <c r="I22" s="103">
+        <v>4.41</v>
+      </c>
+      <c r="J22" s="102">
+        <v>2.8</v>
+      </c>
+      <c r="K22" s="102">
+        <v>1.2</v>
+      </c>
       <c r="L22" s="103"/>
       <c r="M22" s="103"/>
     </row>
@@ -3558,12 +3845,24 @@
       <c r="E23" s="103">
         <v>0.6</v>
       </c>
-      <c r="F23" s="102"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="103"/>
-      <c r="I23" s="103"/>
-      <c r="J23" s="102"/>
-      <c r="K23" s="102"/>
+      <c r="F23" s="102">
+        <v>2.62</v>
+      </c>
+      <c r="G23" s="102">
+        <v>0.6</v>
+      </c>
+      <c r="H23" s="103">
+        <v>2.75</v>
+      </c>
+      <c r="I23" s="103">
+        <v>1.92</v>
+      </c>
+      <c r="J23" s="102">
+        <v>5.52</v>
+      </c>
+      <c r="K23" s="102">
+        <v>6.15</v>
+      </c>
       <c r="L23" s="103"/>
       <c r="M23" s="103"/>
     </row>
@@ -3580,12 +3879,24 @@
       <c r="E24" s="103">
         <v>2.78</v>
       </c>
-      <c r="F24" s="102"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="102"/>
-      <c r="K24" s="102"/>
+      <c r="F24" s="102">
+        <v>1.56</v>
+      </c>
+      <c r="G24" s="102">
+        <v>0.6</v>
+      </c>
+      <c r="H24" s="103">
+        <v>5.5</v>
+      </c>
+      <c r="I24" s="103">
+        <v>1.92</v>
+      </c>
+      <c r="J24" s="102">
+        <v>0.8</v>
+      </c>
+      <c r="K24" s="102">
+        <v>5</v>
+      </c>
       <c r="L24" s="103"/>
       <c r="M24" s="103"/>
     </row>
@@ -3602,12 +3913,24 @@
       <c r="E25" s="103">
         <v>0.4</v>
       </c>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="102"/>
+      <c r="F25" s="102">
+        <v>1.4</v>
+      </c>
+      <c r="G25" s="102">
+        <v>1.92</v>
+      </c>
+      <c r="H25" s="103">
+        <v>0.8</v>
+      </c>
+      <c r="I25" s="103">
+        <v>0.6</v>
+      </c>
+      <c r="J25" s="102">
+        <v>0.8</v>
+      </c>
+      <c r="K25" s="102">
+        <v>0.53</v>
+      </c>
       <c r="L25" s="103"/>
       <c r="M25" s="103"/>
     </row>
@@ -3625,11 +3948,21 @@
         <v>1.72</v>
       </c>
       <c r="F26" s="102"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="102"/>
-      <c r="K26" s="102"/>
+      <c r="G26" s="102">
+        <v>1.92</v>
+      </c>
+      <c r="H26" s="103">
+        <v>0.5</v>
+      </c>
+      <c r="I26" s="103">
+        <v>0.6</v>
+      </c>
+      <c r="J26" s="102">
+        <v>0.5</v>
+      </c>
+      <c r="K26" s="102">
+        <v>1.77</v>
+      </c>
       <c r="L26" s="103"/>
       <c r="M26" s="103"/>
     </row>
@@ -3647,11 +3980,21 @@
         <v>0.7</v>
       </c>
       <c r="F27" s="102"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="102"/>
-      <c r="K27" s="102"/>
+      <c r="G27" s="102">
+        <v>5.25</v>
+      </c>
+      <c r="H27" s="103">
+        <v>0.5</v>
+      </c>
+      <c r="I27" s="103">
+        <v>4.83</v>
+      </c>
+      <c r="J27" s="102">
+        <v>0.5</v>
+      </c>
+      <c r="K27" s="102">
+        <v>8.1</v>
+      </c>
       <c r="L27" s="103"/>
       <c r="M27" s="103"/>
     </row>
@@ -3665,10 +4008,18 @@
         <v>0.7</v>
       </c>
       <c r="F28" s="102"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="103"/>
-      <c r="I28" s="103"/>
-      <c r="J28" s="102"/>
+      <c r="G28" s="102">
+        <v>5.03</v>
+      </c>
+      <c r="H28" s="103">
+        <v>0.5</v>
+      </c>
+      <c r="I28" s="103">
+        <v>3.4</v>
+      </c>
+      <c r="J28" s="102">
+        <v>0.5</v>
+      </c>
       <c r="K28" s="102"/>
       <c r="L28" s="103"/>
       <c r="M28" s="103"/>
@@ -3683,9 +4034,13 @@
         <v>0.4</v>
       </c>
       <c r="F29" s="102"/>
-      <c r="G29" s="102"/>
+      <c r="G29" s="102">
+        <v>1.3</v>
+      </c>
       <c r="H29" s="103"/>
-      <c r="I29" s="103"/>
+      <c r="I29" s="103">
+        <v>5.27</v>
+      </c>
       <c r="J29" s="102"/>
       <c r="K29" s="102"/>
       <c r="L29" s="103"/>
@@ -3699,9 +4054,13 @@
         <v>1.92</v>
       </c>
       <c r="F30" s="102"/>
-      <c r="G30" s="102"/>
+      <c r="G30" s="102">
+        <v>0.4</v>
+      </c>
       <c r="H30" s="103"/>
-      <c r="I30" s="103"/>
+      <c r="I30" s="103">
+        <v>6.57</v>
+      </c>
       <c r="J30" s="102"/>
       <c r="K30" s="102"/>
       <c r="L30" s="103"/>
@@ -3715,7 +4074,9 @@
         <v>1.92</v>
       </c>
       <c r="F31" s="102"/>
-      <c r="G31" s="102"/>
+      <c r="G31" s="102">
+        <v>2.8</v>
+      </c>
       <c r="H31" s="103"/>
       <c r="I31" s="103"/>
       <c r="J31" s="102"/>
@@ -3729,7 +4090,9 @@
       <c r="D32" s="103"/>
       <c r="E32" s="103"/>
       <c r="F32" s="102"/>
-      <c r="G32" s="102"/>
+      <c r="G32" s="102">
+        <v>4.92</v>
+      </c>
       <c r="H32" s="103"/>
       <c r="I32" s="103"/>
       <c r="J32" s="102"/>
@@ -12357,6 +12720,7 @@
     <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12365,7 +12729,7 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tarea 03/Cubicaciones.xlsx
+++ b/Tarea 03/Cubicaciones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4F98C006-2B13-47C9-9A26-00C53B8013DB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{99413CB5-D97B-48DD-BEF6-B7B9E7EEFEB9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13038,8 +13038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{933D08DB-2F7F-4ECD-AFF8-D584D0D98A67}">
   <dimension ref="A1:M647"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13107,35 +13107,35 @@
       </c>
       <c r="F4" s="98">
         <f>SUM(F5:F54)</f>
-        <v>0</v>
+        <v>38.700000000000017</v>
       </c>
       <c r="G4" s="98">
         <f>SUM(G5:G54)</f>
-        <v>0</v>
+        <v>36.07</v>
       </c>
       <c r="H4" s="23">
         <f>SUM(H5:H54)</f>
-        <v>0</v>
+        <v>31.640000000000004</v>
       </c>
       <c r="I4" s="20">
         <f>SUM(I5:I54)</f>
-        <v>0</v>
+        <v>38.11</v>
       </c>
       <c r="J4" s="98">
         <f>SUM(J5:J54)</f>
-        <v>0</v>
+        <v>16.899999999999995</v>
       </c>
       <c r="K4" s="98">
         <f>SUM(K5:K54)</f>
-        <v>0</v>
+        <v>22.62</v>
       </c>
       <c r="L4" s="23">
         <f>SUM(L5:L54)</f>
-        <v>0</v>
+        <v>8.7000000000000028</v>
       </c>
       <c r="M4" s="20">
         <f>SUM(M5:M54)</f>
-        <v>0</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -13189,14 +13189,30 @@
       <c r="E6" s="104">
         <v>0.6</v>
       </c>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
+      <c r="F6" s="103">
+        <v>1.7</v>
+      </c>
+      <c r="G6" s="103">
+        <v>4.5</v>
+      </c>
+      <c r="H6" s="104">
+        <v>2.6</v>
+      </c>
+      <c r="I6" s="104">
+        <v>3.32</v>
+      </c>
+      <c r="J6" s="103">
+        <v>1.95</v>
+      </c>
+      <c r="K6" s="103">
+        <v>2.72</v>
+      </c>
+      <c r="L6" s="104">
+        <v>1.3</v>
+      </c>
+      <c r="M6" s="104">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="103">
@@ -13211,14 +13227,30 @@
       <c r="E7" s="104">
         <v>0.6</v>
       </c>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
+      <c r="F7" s="103">
+        <v>2.8</v>
+      </c>
+      <c r="G7" s="103">
+        <v>0.4</v>
+      </c>
+      <c r="H7" s="104">
+        <v>2.6</v>
+      </c>
+      <c r="I7" s="104">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="103">
+        <v>2.4</v>
+      </c>
+      <c r="K7" s="103">
+        <v>0.4</v>
+      </c>
+      <c r="L7" s="104">
+        <v>1.2</v>
+      </c>
+      <c r="M7" s="104">
+        <v>2.2999999999999998</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="92">
@@ -13233,14 +13265,30 @@
       <c r="E8" s="104">
         <v>0.6</v>
       </c>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
+      <c r="F8" s="103">
+        <v>0.6</v>
+      </c>
+      <c r="G8" s="103">
+        <v>4.12</v>
+      </c>
+      <c r="H8" s="104">
+        <v>0.6</v>
+      </c>
+      <c r="I8" s="104">
+        <v>1</v>
+      </c>
+      <c r="J8" s="103">
+        <v>1.35</v>
+      </c>
+      <c r="K8" s="103">
+        <v>1.25</v>
+      </c>
+      <c r="L8" s="104">
+        <v>1.2</v>
+      </c>
+      <c r="M8" s="104">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="103">
@@ -13255,14 +13303,30 @@
       <c r="E9" s="104">
         <v>0.6</v>
       </c>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
+      <c r="F9" s="103">
+        <v>1.84</v>
+      </c>
+      <c r="G9" s="103">
+        <v>0.6</v>
+      </c>
+      <c r="H9" s="104">
+        <v>0.52</v>
+      </c>
+      <c r="I9" s="104">
+        <v>1.72</v>
+      </c>
+      <c r="J9" s="103">
+        <v>1.4</v>
+      </c>
+      <c r="K9" s="103">
+        <v>0.2</v>
+      </c>
+      <c r="L9" s="104">
+        <v>0.7</v>
+      </c>
+      <c r="M9" s="104">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="103">
@@ -13277,14 +13341,30 @@
       <c r="E10" s="104">
         <v>3.4</v>
       </c>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="103"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="104"/>
+      <c r="F10" s="103">
+        <v>0.8</v>
+      </c>
+      <c r="G10" s="103">
+        <v>1.5</v>
+      </c>
+      <c r="H10" s="104">
+        <v>1.92</v>
+      </c>
+      <c r="I10" s="104">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J10" s="103">
+        <v>0.85</v>
+      </c>
+      <c r="K10" s="103">
+        <v>0.9</v>
+      </c>
+      <c r="L10" s="104">
+        <v>0.7</v>
+      </c>
+      <c r="M10" s="104">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="103">
@@ -13299,14 +13379,30 @@
       <c r="E11" s="104">
         <v>2.83</v>
       </c>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="103"/>
-      <c r="L11" s="104"/>
-      <c r="M11" s="104"/>
+      <c r="F11" s="103">
+        <v>0.67</v>
+      </c>
+      <c r="G11" s="103">
+        <v>0.2</v>
+      </c>
+      <c r="H11" s="104">
+        <v>1.92</v>
+      </c>
+      <c r="I11" s="104">
+        <v>1.4</v>
+      </c>
+      <c r="J11" s="103">
+        <v>0.85</v>
+      </c>
+      <c r="K11" s="103">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L11" s="104">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M11" s="104">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="103">
@@ -13321,14 +13417,30 @@
       <c r="E12" s="104">
         <v>0.8</v>
       </c>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="104"/>
-      <c r="M12" s="104"/>
+      <c r="F12" s="103">
+        <v>3.4</v>
+      </c>
+      <c r="G12" s="103">
+        <v>1</v>
+      </c>
+      <c r="H12" s="104">
+        <v>1.27</v>
+      </c>
+      <c r="I12" s="104">
+        <v>1.5</v>
+      </c>
+      <c r="J12" s="103">
+        <v>1.7</v>
+      </c>
+      <c r="K12" s="103">
+        <v>1.2</v>
+      </c>
+      <c r="L12" s="104">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M12" s="104">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="103">
@@ -13343,13 +13455,27 @@
       <c r="E13" s="104">
         <v>0.6</v>
       </c>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="104"/>
+      <c r="F13" s="103">
+        <v>1</v>
+      </c>
+      <c r="G13" s="103">
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="104">
+        <v>1.25</v>
+      </c>
+      <c r="I13" s="104">
+        <v>0.5</v>
+      </c>
+      <c r="J13" s="103">
+        <v>1.35</v>
+      </c>
+      <c r="K13" s="103">
+        <v>1.2</v>
+      </c>
+      <c r="L13" s="104">
+        <v>1.6</v>
+      </c>
       <c r="M13" s="104"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -13365,13 +13491,27 @@
       <c r="E14" s="104">
         <v>0.7</v>
       </c>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="104"/>
+      <c r="F14" s="103">
+        <v>1.78</v>
+      </c>
+      <c r="G14" s="103">
+        <v>0.9</v>
+      </c>
+      <c r="H14" s="104">
+        <v>0.45</v>
+      </c>
+      <c r="I14" s="104">
+        <v>0.5</v>
+      </c>
+      <c r="J14" s="103">
+        <v>1.5</v>
+      </c>
+      <c r="K14" s="103">
+        <v>3.3</v>
+      </c>
+      <c r="L14" s="104">
+        <v>0.3</v>
+      </c>
       <c r="M14" s="104"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -13387,13 +13527,27 @@
       <c r="E15" s="104">
         <v>1.05</v>
       </c>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="104"/>
+      <c r="F15" s="103">
+        <v>0.6</v>
+      </c>
+      <c r="G15" s="103">
+        <v>0.2</v>
+      </c>
+      <c r="H15" s="104">
+        <v>0.62</v>
+      </c>
+      <c r="I15" s="104">
+        <v>0.5</v>
+      </c>
+      <c r="J15" s="103">
+        <v>1.25</v>
+      </c>
+      <c r="K15" s="103">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L15" s="104">
+        <v>0.3</v>
+      </c>
       <c r="M15" s="104"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -13409,13 +13563,27 @@
       <c r="E16" s="104">
         <v>2.8</v>
       </c>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="103"/>
-      <c r="L16" s="104"/>
+      <c r="F16" s="103">
+        <v>0.6</v>
+      </c>
+      <c r="G16" s="103">
+        <v>3.62</v>
+      </c>
+      <c r="H16" s="104">
+        <v>0.62</v>
+      </c>
+      <c r="I16" s="104">
+        <v>1.5</v>
+      </c>
+      <c r="J16" s="103">
+        <v>1.2</v>
+      </c>
+      <c r="K16" s="103">
+        <v>1.45</v>
+      </c>
+      <c r="L16" s="104">
+        <v>0.3</v>
+      </c>
       <c r="M16" s="104"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
@@ -13431,11 +13599,21 @@
       <c r="E17" s="104">
         <v>0.6</v>
       </c>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="103"/>
+      <c r="F17" s="103">
+        <v>0.6</v>
+      </c>
+      <c r="G17" s="103">
+        <v>0.73</v>
+      </c>
+      <c r="H17" s="104">
+        <v>0.43</v>
+      </c>
+      <c r="I17" s="104">
+        <v>3.6</v>
+      </c>
+      <c r="J17" s="103">
+        <v>0.45</v>
+      </c>
       <c r="K17" s="103"/>
       <c r="L17" s="104"/>
       <c r="M17" s="104"/>
@@ -13453,11 +13631,21 @@
       <c r="E18" s="104">
         <v>0.7</v>
       </c>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="103"/>
+      <c r="F18" s="103">
+        <v>0.6</v>
+      </c>
+      <c r="G18" s="103">
+        <v>0.25</v>
+      </c>
+      <c r="H18" s="104">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I18" s="104">
+        <v>0.7</v>
+      </c>
+      <c r="J18" s="103">
+        <v>0.45</v>
+      </c>
       <c r="K18" s="103"/>
       <c r="L18" s="104"/>
       <c r="M18" s="104"/>
@@ -13475,11 +13663,21 @@
       <c r="E19" s="104">
         <v>0.7</v>
       </c>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="103"/>
+      <c r="F19" s="103">
+        <v>0.6</v>
+      </c>
+      <c r="G19" s="103">
+        <v>0.25</v>
+      </c>
+      <c r="H19" s="104">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I19" s="104">
+        <v>0.25</v>
+      </c>
+      <c r="J19" s="103">
+        <v>0.2</v>
+      </c>
       <c r="K19" s="103"/>
       <c r="L19" s="104"/>
       <c r="M19" s="104"/>
@@ -13497,10 +13695,18 @@
       <c r="E20" s="104">
         <v>1.9</v>
       </c>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="104"/>
+      <c r="F20" s="103">
+        <v>0.6</v>
+      </c>
+      <c r="G20" s="103">
+        <v>1.5</v>
+      </c>
+      <c r="H20" s="104">
+        <v>1.4</v>
+      </c>
+      <c r="I20" s="104">
+        <v>0.25</v>
+      </c>
       <c r="J20" s="103"/>
       <c r="K20" s="103"/>
       <c r="L20" s="104"/>
@@ -13519,10 +13725,18 @@
       <c r="E21" s="104">
         <v>1.65</v>
       </c>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="104"/>
+      <c r="F21" s="103">
+        <v>1.4</v>
+      </c>
+      <c r="G21" s="103">
+        <v>0.7</v>
+      </c>
+      <c r="H21" s="104">
+        <v>1.5</v>
+      </c>
+      <c r="I21" s="104">
+        <v>3.7</v>
+      </c>
       <c r="J21" s="103"/>
       <c r="K21" s="103"/>
       <c r="L21" s="104"/>
@@ -13541,10 +13755,18 @@
       <c r="E22" s="104">
         <v>0.25</v>
       </c>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="104"/>
+      <c r="F22" s="103">
+        <v>0.3</v>
+      </c>
+      <c r="G22" s="103">
+        <v>0.7</v>
+      </c>
+      <c r="H22" s="104">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I22" s="104">
+        <v>1</v>
+      </c>
       <c r="J22" s="103"/>
       <c r="K22" s="103"/>
       <c r="L22" s="104"/>
@@ -13563,10 +13785,18 @@
       <c r="E23" s="104">
         <v>0.25</v>
       </c>
-      <c r="F23" s="103"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="104"/>
+      <c r="F23" s="103">
+        <v>1.46</v>
+      </c>
+      <c r="G23" s="103">
+        <v>0.25</v>
+      </c>
+      <c r="H23" s="104">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I23" s="104">
+        <v>0.2</v>
+      </c>
       <c r="J23" s="103"/>
       <c r="K23" s="103"/>
       <c r="L23" s="104"/>
@@ -13585,10 +13815,18 @@
       <c r="E24" s="104">
         <v>2.8</v>
       </c>
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="104"/>
+      <c r="F24" s="103">
+        <v>0.9</v>
+      </c>
+      <c r="G24" s="103">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H24" s="104">
+        <v>0.3</v>
+      </c>
+      <c r="I24" s="104">
+        <v>0.2</v>
+      </c>
       <c r="J24" s="103"/>
       <c r="K24" s="103"/>
       <c r="L24" s="104"/>
@@ -13607,10 +13845,18 @@
       <c r="E25" s="104">
         <v>1.25</v>
       </c>
-      <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="104"/>
+      <c r="F25" s="103">
+        <v>0.6</v>
+      </c>
+      <c r="G25" s="103">
+        <v>0.2</v>
+      </c>
+      <c r="H25" s="104">
+        <v>1.3</v>
+      </c>
+      <c r="I25" s="104">
+        <v>0.93</v>
+      </c>
       <c r="J25" s="103"/>
       <c r="K25" s="103"/>
       <c r="L25" s="104"/>
@@ -13629,10 +13875,18 @@
       <c r="E26" s="104">
         <v>0.6</v>
       </c>
-      <c r="F26" s="103"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="104"/>
+      <c r="F26" s="103">
+        <v>0.6</v>
+      </c>
+      <c r="G26" s="103">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H26" s="104">
+        <v>1.5</v>
+      </c>
+      <c r="I26" s="104">
+        <v>0.5</v>
+      </c>
       <c r="J26" s="103"/>
       <c r="K26" s="103"/>
       <c r="L26" s="104"/>
@@ -13651,10 +13905,18 @@
       <c r="E27" s="104">
         <v>0.95</v>
       </c>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="104"/>
+      <c r="F27" s="103">
+        <v>0.6</v>
+      </c>
+      <c r="G27" s="103">
+        <v>2</v>
+      </c>
+      <c r="H27" s="104">
+        <v>1.5</v>
+      </c>
+      <c r="I27" s="104">
+        <v>1.2</v>
+      </c>
       <c r="J27" s="103"/>
       <c r="K27" s="103"/>
       <c r="L27" s="104"/>
@@ -13673,10 +13935,18 @@
       <c r="E28" s="104">
         <v>3.7</v>
       </c>
-      <c r="F28" s="103"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="104"/>
+      <c r="F28" s="103">
+        <v>0.3</v>
+      </c>
+      <c r="G28" s="103">
+        <v>0.65</v>
+      </c>
+      <c r="H28" s="104">
+        <v>0.7</v>
+      </c>
+      <c r="I28" s="104">
+        <v>0.5</v>
+      </c>
       <c r="J28" s="103"/>
       <c r="K28" s="103"/>
       <c r="L28" s="104"/>
@@ -13695,10 +13965,18 @@
       <c r="E29" s="104">
         <v>2.8</v>
       </c>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="104"/>
+      <c r="F29" s="103">
+        <v>0.6</v>
+      </c>
+      <c r="G29" s="103">
+        <v>0.4</v>
+      </c>
+      <c r="H29" s="104">
+        <v>0.5</v>
+      </c>
+      <c r="I29" s="104">
+        <v>1.2</v>
+      </c>
       <c r="J29" s="103"/>
       <c r="K29" s="103"/>
       <c r="L29" s="104"/>
@@ -13717,10 +13995,18 @@
       <c r="E30" s="104">
         <v>1.4</v>
       </c>
-      <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="104"/>
+      <c r="F30" s="103">
+        <v>1.4</v>
+      </c>
+      <c r="G30" s="103">
+        <v>1.6</v>
+      </c>
+      <c r="H30" s="104">
+        <v>0.5</v>
+      </c>
+      <c r="I30" s="104">
+        <v>3.3</v>
+      </c>
       <c r="J30" s="103"/>
       <c r="K30" s="103"/>
       <c r="L30" s="104"/>
@@ -13739,10 +14025,18 @@
       <c r="E31" s="104">
         <v>0.95</v>
       </c>
-      <c r="F31" s="103"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="104"/>
+      <c r="F31" s="103">
+        <v>0.7</v>
+      </c>
+      <c r="G31" s="103">
+        <v>1.6</v>
+      </c>
+      <c r="H31" s="104">
+        <v>0.6</v>
+      </c>
+      <c r="I31" s="104">
+        <v>4.84</v>
+      </c>
       <c r="J31" s="103"/>
       <c r="K31" s="103"/>
       <c r="L31" s="104"/>
@@ -13761,10 +14055,18 @@
       <c r="E32" s="104">
         <v>0.65</v>
       </c>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="104"/>
+      <c r="F32" s="103">
+        <v>0.6</v>
+      </c>
+      <c r="G32" s="103">
+        <v>0.2</v>
+      </c>
+      <c r="H32" s="104">
+        <v>0.7</v>
+      </c>
+      <c r="I32" s="104">
+        <v>1.7</v>
+      </c>
       <c r="J32" s="103"/>
       <c r="K32" s="103"/>
       <c r="L32" s="104"/>
@@ -13783,10 +14085,18 @@
       <c r="E33" s="104">
         <v>1</v>
       </c>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="104"/>
+      <c r="F33" s="103">
+        <v>0.6</v>
+      </c>
+      <c r="G33" s="103">
+        <v>3.4</v>
+      </c>
+      <c r="H33" s="104">
+        <v>0.34</v>
+      </c>
+      <c r="I33" s="104">
+        <v>0.5</v>
+      </c>
       <c r="J33" s="103"/>
       <c r="K33" s="103"/>
       <c r="L33" s="104"/>
@@ -13805,9 +14115,15 @@
       <c r="E34" s="104">
         <v>0.54</v>
       </c>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="104"/>
+      <c r="F34" s="103">
+        <v>0.3</v>
+      </c>
+      <c r="G34" s="103">
+        <v>1.03</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.6</v>
+      </c>
       <c r="I34" s="104"/>
       <c r="J34" s="103"/>
       <c r="K34" s="103"/>
@@ -13827,9 +14143,15 @@
       <c r="E35" s="104">
         <v>0.3</v>
       </c>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="104"/>
+      <c r="F35" s="103">
+        <v>2.6</v>
+      </c>
+      <c r="G35" s="103">
+        <v>1.4</v>
+      </c>
+      <c r="H35" s="104">
+        <v>0.6</v>
+      </c>
       <c r="I35" s="104"/>
       <c r="J35" s="103"/>
       <c r="K35" s="103"/>
@@ -13849,9 +14171,13 @@
       <c r="E36" s="104">
         <v>0.3</v>
       </c>
-      <c r="F36" s="103"/>
+      <c r="F36" s="103">
+        <v>2.6</v>
+      </c>
       <c r="G36" s="103"/>
-      <c r="H36" s="104"/>
+      <c r="H36" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I36" s="104"/>
       <c r="J36" s="103"/>
       <c r="K36" s="103"/>
@@ -13871,9 +14197,13 @@
       <c r="E37" s="104">
         <v>0.3</v>
       </c>
-      <c r="F37" s="103"/>
+      <c r="F37" s="103">
+        <v>0.7</v>
+      </c>
       <c r="G37" s="103"/>
-      <c r="H37" s="104"/>
+      <c r="H37" s="1">
+        <v>0.95</v>
+      </c>
       <c r="I37" s="104"/>
       <c r="J37" s="103"/>
       <c r="K37" s="103"/>
@@ -13893,9 +14223,13 @@
       <c r="E38" s="104">
         <v>0.3</v>
       </c>
-      <c r="F38" s="103"/>
+      <c r="F38" s="103">
+        <v>0.45</v>
+      </c>
       <c r="G38" s="103"/>
-      <c r="H38" s="104"/>
+      <c r="H38" s="104">
+        <v>0.85</v>
+      </c>
       <c r="I38" s="104"/>
       <c r="J38" s="103"/>
       <c r="K38" s="103"/>
@@ -13915,9 +14249,13 @@
       <c r="E39" s="104">
         <v>1.67</v>
       </c>
-      <c r="F39" s="103"/>
+      <c r="F39" s="103">
+        <v>1.9</v>
+      </c>
       <c r="G39" s="103"/>
-      <c r="H39" s="104"/>
+      <c r="H39" s="104">
+        <v>0.3</v>
+      </c>
       <c r="I39" s="104"/>
       <c r="J39" s="103"/>
       <c r="K39" s="103"/>
@@ -13937,7 +14275,9 @@
       <c r="E40" s="104">
         <v>1.92</v>
       </c>
-      <c r="F40" s="103"/>
+      <c r="F40" s="103">
+        <v>1.9</v>
+      </c>
       <c r="G40" s="103"/>
       <c r="H40" s="104"/>
       <c r="I40" s="104"/>

--- a/Tarea 03/Cubicaciones.xlsx
+++ b/Tarea 03/Cubicaciones.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BD012E-E90E-4849-9656-5F0FF6D7A916}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C8D7BC-2418-47F5-8142-548140844175}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cubicaciones" sheetId="5" r:id="rId1"/>
@@ -2556,6 +2556,51 @@
     <xf numFmtId="2" fontId="0" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="8" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2583,27 +2628,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2627,30 +2651,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="8" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2949,8 +2949,8 @@
   </sheetPr>
   <dimension ref="B2:O27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2980,31 +2980,31 @@
       <c r="F2" s="171" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="238" t="s">
+      <c r="G2" s="214" t="s">
         <v>111</v>
       </c>
-      <c r="H2" s="238" t="s">
+      <c r="H2" s="214" t="s">
         <v>112</v>
       </c>
-      <c r="I2" s="238" t="s">
+      <c r="I2" s="214" t="s">
         <v>123</v>
       </c>
-      <c r="J2" s="238" t="s">
+      <c r="J2" s="214" t="s">
         <v>121</v>
       </c>
-      <c r="K2" s="238" t="s">
+      <c r="K2" s="214" t="s">
         <v>122</v>
       </c>
-      <c r="L2" s="238" t="s">
+      <c r="L2" s="214" t="s">
         <v>124</v>
       </c>
-      <c r="M2" s="238" t="s">
+      <c r="M2" s="214" t="s">
         <v>128</v>
       </c>
-      <c r="N2" s="238" t="s">
+      <c r="N2" s="214" t="s">
         <v>129</v>
       </c>
-      <c r="O2" s="238" t="s">
+      <c r="O2" s="214" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3034,7 +3034,7 @@
         <f>'Pesos elementos'!T4</f>
         <v>209.70329500000003</v>
       </c>
-      <c r="M3" s="245">
+      <c r="M3" s="220">
         <f>L3/9.8</f>
         <v>21.398295408163268</v>
       </c>
@@ -3073,7 +3073,7 @@
         <f>'Pesos elementos'!T5</f>
         <v>468.62789500000002</v>
       </c>
-      <c r="M4" s="245">
+      <c r="M4" s="220">
         <f t="shared" ref="M4:M26" si="0">L4/9.8</f>
         <v>47.819172959183675</v>
       </c>
@@ -3112,7 +3112,7 @@
         <f>'Pesos elementos'!T6</f>
         <v>468.62789500000002</v>
       </c>
-      <c r="M5" s="245">
+      <c r="M5" s="220">
         <f t="shared" si="0"/>
         <v>47.819172959183675</v>
       </c>
@@ -3151,7 +3151,7 @@
         <f>'Pesos elementos'!T7</f>
         <v>468.62789500000002</v>
       </c>
-      <c r="M6" s="245">
+      <c r="M6" s="220">
         <f t="shared" si="0"/>
         <v>47.819172959183675</v>
       </c>
@@ -3190,7 +3190,7 @@
         <f>'Pesos elementos'!T8</f>
         <v>468.62789500000002</v>
       </c>
-      <c r="M7" s="245">
+      <c r="M7" s="220">
         <f t="shared" si="0"/>
         <v>47.819172959183675</v>
       </c>
@@ -3229,7 +3229,7 @@
         <f>'Pesos elementos'!T9</f>
         <v>468.62789500000002</v>
       </c>
-      <c r="M8" s="245">
+      <c r="M8" s="220">
         <f t="shared" si="0"/>
         <v>47.819172959183675</v>
       </c>
@@ -3268,7 +3268,7 @@
         <f>'Pesos elementos'!T10</f>
         <v>468.62789500000002</v>
       </c>
-      <c r="M9" s="245">
+      <c r="M9" s="220">
         <f t="shared" si="0"/>
         <v>47.819172959183675</v>
       </c>
@@ -3307,7 +3307,7 @@
         <f>'Pesos elementos'!T11</f>
         <v>468.62789500000002</v>
       </c>
-      <c r="M10" s="245">
+      <c r="M10" s="220">
         <f t="shared" si="0"/>
         <v>47.819172959183675</v>
       </c>
@@ -3346,7 +3346,7 @@
         <f>'Pesos elementos'!T12</f>
         <v>468.62789500000002</v>
       </c>
-      <c r="M11" s="245">
+      <c r="M11" s="220">
         <f t="shared" si="0"/>
         <v>47.819172959183675</v>
       </c>
@@ -3385,7 +3385,7 @@
         <f>'Pesos elementos'!T13</f>
         <v>468.62789500000002</v>
       </c>
-      <c r="M12" s="245">
+      <c r="M12" s="220">
         <f t="shared" si="0"/>
         <v>47.819172959183675</v>
       </c>
@@ -3424,7 +3424,7 @@
         <f>'Pesos elementos'!T14</f>
         <v>468.62789500000002</v>
       </c>
-      <c r="M13" s="245">
+      <c r="M13" s="220">
         <f t="shared" si="0"/>
         <v>47.819172959183675</v>
       </c>
@@ -3463,7 +3463,7 @@
         <f>'Pesos elementos'!T15</f>
         <v>468.62789500000002</v>
       </c>
-      <c r="M14" s="245">
+      <c r="M14" s="220">
         <f t="shared" si="0"/>
         <v>47.819172959183675</v>
       </c>
@@ -3502,7 +3502,7 @@
         <f>'Pesos elementos'!T16</f>
         <v>468.62789500000002</v>
       </c>
-      <c r="M15" s="245">
+      <c r="M15" s="220">
         <f t="shared" si="0"/>
         <v>47.819172959183675</v>
       </c>
@@ -3541,7 +3541,7 @@
         <f>'Pesos elementos'!T17</f>
         <v>468.62789500000002</v>
       </c>
-      <c r="M16" s="245">
+      <c r="M16" s="220">
         <f t="shared" si="0"/>
         <v>47.819172959183675</v>
       </c>
@@ -3580,7 +3580,7 @@
         <f>'Pesos elementos'!T18</f>
         <v>468.62789500000002</v>
       </c>
-      <c r="M17" s="245">
+      <c r="M17" s="220">
         <f t="shared" si="0"/>
         <v>47.819172959183675</v>
       </c>
@@ -3619,7 +3619,7 @@
         <f>'Pesos elementos'!T19</f>
         <v>468.62789500000002</v>
       </c>
-      <c r="M18" s="245">
+      <c r="M18" s="220">
         <f t="shared" si="0"/>
         <v>47.819172959183675</v>
       </c>
@@ -3658,7 +3658,7 @@
         <f>'Pesos elementos'!T20</f>
         <v>476.45945750000004</v>
       </c>
-      <c r="M19" s="245">
+      <c r="M19" s="220">
         <f t="shared" si="0"/>
         <v>48.61831198979592</v>
       </c>
@@ -3697,7 +3697,7 @@
         <f>'Pesos elementos'!T21</f>
         <v>492.7522075</v>
       </c>
-      <c r="M20" s="245">
+      <c r="M20" s="220">
         <f t="shared" si="0"/>
         <v>50.280837499999997</v>
       </c>
@@ -3736,7 +3736,7 @@
         <f>'Pesos elementos'!T22</f>
         <v>501.46251999999998</v>
       </c>
-      <c r="M21" s="245">
+      <c r="M21" s="220">
         <f t="shared" si="0"/>
         <v>51.169644897959181</v>
       </c>
@@ -3775,7 +3775,7 @@
         <f>'Pesos elementos'!T23</f>
         <v>501.71164499999998</v>
       </c>
-      <c r="M22" s="245">
+      <c r="M22" s="220">
         <f t="shared" si="0"/>
         <v>51.195065816326526</v>
       </c>
@@ -3814,7 +3814,7 @@
         <f>'Pesos elementos'!T24</f>
         <v>504.47644500000001</v>
       </c>
-      <c r="M23" s="245">
+      <c r="M23" s="220">
         <f t="shared" si="0"/>
         <v>51.477188265306118</v>
       </c>
@@ -3853,7 +3853,7 @@
         <f>'Pesos elementos'!T25</f>
         <v>513.04554250000001</v>
       </c>
-      <c r="M24" s="245">
+      <c r="M24" s="220">
         <f t="shared" si="0"/>
         <v>52.351585969387756</v>
       </c>
@@ -3892,7 +3892,7 @@
         <f>'Pesos elementos'!T26</f>
         <v>511.21057999999999</v>
       </c>
-      <c r="M25" s="245">
+      <c r="M25" s="220">
         <f t="shared" si="0"/>
         <v>52.164344897959182</v>
       </c>
@@ -3931,7 +3931,7 @@
         <f>'Pesos elementos'!T27</f>
         <v>729.26028500000007</v>
       </c>
-      <c r="M26" s="245">
+      <c r="M26" s="220">
         <f t="shared" si="0"/>
         <v>74.414314795918372</v>
       </c>
@@ -3964,8 +3964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:X87"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showGridLines="0" topLeftCell="F38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5744,48 +5744,48 @@
       <c r="N31" s="77"/>
     </row>
     <row r="32" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H32" s="217" t="s">
+      <c r="H32" s="232" t="s">
         <v>34</v>
       </c>
-      <c r="I32" s="214" t="s">
+      <c r="I32" s="229" t="s">
         <v>59</v>
       </c>
-      <c r="J32" s="215"/>
-      <c r="K32" s="215"/>
-      <c r="L32" s="216"/>
+      <c r="J32" s="230"/>
+      <c r="K32" s="230"/>
+      <c r="L32" s="231"/>
       <c r="M32" s="225" t="s">
         <v>58</v>
       </c>
       <c r="N32" s="226"/>
       <c r="O32" s="226"/>
       <c r="P32" s="227"/>
-      <c r="Q32" s="228" t="s">
+      <c r="Q32" s="221" t="s">
         <v>62</v>
       </c>
-      <c r="R32" s="228" t="s">
+      <c r="R32" s="221" t="s">
         <v>74</v>
       </c>
-      <c r="S32" s="228" t="s">
+      <c r="S32" s="221" t="s">
         <v>63</v>
       </c>
-      <c r="T32" s="219" t="s">
+      <c r="T32" s="234" t="s">
         <v>61</v>
       </c>
-      <c r="U32" s="221" t="s">
+      <c r="U32" s="236" t="s">
         <v>64</v>
       </c>
-      <c r="V32" s="221" t="s">
+      <c r="V32" s="236" t="s">
         <v>73</v>
       </c>
       <c r="W32" s="223" t="s">
         <v>75</v>
       </c>
-      <c r="X32" s="228" t="s">
+      <c r="X32" s="221" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="33" spans="8:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H33" s="218"/>
+      <c r="H33" s="233"/>
       <c r="I33" s="105" t="s">
         <v>13</v>
       </c>
@@ -5810,14 +5810,14 @@
       <c r="P33" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="Q33" s="229"/>
-      <c r="R33" s="229"/>
-      <c r="S33" s="229"/>
-      <c r="T33" s="220"/>
-      <c r="U33" s="222"/>
-      <c r="V33" s="222"/>
+      <c r="Q33" s="228"/>
+      <c r="R33" s="228"/>
+      <c r="S33" s="228"/>
+      <c r="T33" s="235"/>
+      <c r="U33" s="237"/>
+      <c r="V33" s="237"/>
       <c r="W33" s="224"/>
-      <c r="X33" s="243"/>
+      <c r="X33" s="222"/>
     </row>
     <row r="34" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H34" s="101">
@@ -5878,11 +5878,11 @@
         <f t="shared" ref="V34:V58" si="17">R34*$C$16*$C$5</f>
         <v>0.11255</v>
       </c>
-      <c r="W34" s="239">
+      <c r="W34" s="215">
         <f>T34+U34+V34</f>
         <v>51.68954999999999</v>
       </c>
-      <c r="X34" s="244">
+      <c r="X34" s="219">
         <f>T34+V34</f>
         <v>51.310549999999992</v>
       </c>
@@ -5946,7 +5946,7 @@
         <f t="shared" si="17"/>
         <v>0.28460000000000008</v>
       </c>
-      <c r="W35" s="240">
+      <c r="W35" s="216">
         <f t="shared" ref="W35:W58" si="20">T35+U35+V35</f>
         <v>132.61860000000001</v>
       </c>
@@ -6014,7 +6014,7 @@
         <f t="shared" si="17"/>
         <v>0.28460000000000008</v>
       </c>
-      <c r="W36" s="240">
+      <c r="W36" s="216">
         <f t="shared" si="20"/>
         <v>132.61860000000001</v>
       </c>
@@ -6082,7 +6082,7 @@
         <f t="shared" si="17"/>
         <v>0.28460000000000008</v>
       </c>
-      <c r="W37" s="240">
+      <c r="W37" s="216">
         <f t="shared" si="20"/>
         <v>132.61860000000001</v>
       </c>
@@ -6150,7 +6150,7 @@
         <f t="shared" si="17"/>
         <v>0.28460000000000008</v>
       </c>
-      <c r="W38" s="240">
+      <c r="W38" s="216">
         <f t="shared" si="20"/>
         <v>132.61860000000001</v>
       </c>
@@ -6218,7 +6218,7 @@
         <f t="shared" si="17"/>
         <v>0.28460000000000008</v>
       </c>
-      <c r="W39" s="240">
+      <c r="W39" s="216">
         <f t="shared" si="20"/>
         <v>132.61860000000001</v>
       </c>
@@ -6286,7 +6286,7 @@
         <f t="shared" si="17"/>
         <v>0.28460000000000008</v>
       </c>
-      <c r="W40" s="240">
+      <c r="W40" s="216">
         <f t="shared" si="20"/>
         <v>132.61860000000001</v>
       </c>
@@ -6354,7 +6354,7 @@
         <f t="shared" si="17"/>
         <v>0.28460000000000008</v>
       </c>
-      <c r="W41" s="240">
+      <c r="W41" s="216">
         <f t="shared" si="20"/>
         <v>132.61860000000001</v>
       </c>
@@ -6422,7 +6422,7 @@
         <f t="shared" si="17"/>
         <v>0.28460000000000008</v>
       </c>
-      <c r="W42" s="240">
+      <c r="W42" s="216">
         <f t="shared" si="20"/>
         <v>132.61860000000001</v>
       </c>
@@ -6490,7 +6490,7 @@
         <f t="shared" si="17"/>
         <v>0.28460000000000008</v>
       </c>
-      <c r="W43" s="240">
+      <c r="W43" s="216">
         <f t="shared" si="20"/>
         <v>132.61860000000001</v>
       </c>
@@ -6558,7 +6558,7 @@
         <f t="shared" si="17"/>
         <v>0.28460000000000008</v>
       </c>
-      <c r="W44" s="240">
+      <c r="W44" s="216">
         <f t="shared" si="20"/>
         <v>132.61860000000001</v>
       </c>
@@ -6626,7 +6626,7 @@
         <f t="shared" si="17"/>
         <v>0.28460000000000008</v>
       </c>
-      <c r="W45" s="240">
+      <c r="W45" s="216">
         <f t="shared" si="20"/>
         <v>132.61860000000001</v>
       </c>
@@ -6694,7 +6694,7 @@
         <f t="shared" si="17"/>
         <v>0.28460000000000008</v>
       </c>
-      <c r="W46" s="240">
+      <c r="W46" s="216">
         <f t="shared" si="20"/>
         <v>132.61860000000001</v>
       </c>
@@ -6762,7 +6762,7 @@
         <f t="shared" si="17"/>
         <v>0.28460000000000008</v>
       </c>
-      <c r="W47" s="240">
+      <c r="W47" s="216">
         <f t="shared" si="20"/>
         <v>132.61860000000001</v>
       </c>
@@ -6830,7 +6830,7 @@
         <f t="shared" si="17"/>
         <v>0.28460000000000008</v>
       </c>
-      <c r="W48" s="240">
+      <c r="W48" s="216">
         <f t="shared" si="20"/>
         <v>132.61860000000001</v>
       </c>
@@ -6898,7 +6898,7 @@
         <f t="shared" si="17"/>
         <v>0.28460000000000008</v>
       </c>
-      <c r="W49" s="240">
+      <c r="W49" s="216">
         <f t="shared" si="20"/>
         <v>132.61860000000001</v>
       </c>
@@ -6966,7 +6966,7 @@
         <f t="shared" si="17"/>
         <v>0.28460000000000008</v>
       </c>
-      <c r="W50" s="240">
+      <c r="W50" s="216">
         <f t="shared" si="20"/>
         <v>132.61860000000001</v>
       </c>
@@ -7034,7 +7034,7 @@
         <f t="shared" si="17"/>
         <v>0.28472500000000006</v>
       </c>
-      <c r="W51" s="240">
+      <c r="W51" s="216">
         <f t="shared" si="20"/>
         <v>148.28172500000002</v>
       </c>
@@ -7102,7 +7102,7 @@
         <f t="shared" si="17"/>
         <v>0.28485000000000005</v>
       </c>
-      <c r="W52" s="240">
+      <c r="W52" s="216">
         <f t="shared" si="20"/>
         <v>165.20409999999998</v>
       </c>
@@ -7170,7 +7170,7 @@
         <f t="shared" si="17"/>
         <v>0.28485000000000005</v>
       </c>
-      <c r="W53" s="240">
+      <c r="W53" s="216">
         <f t="shared" si="20"/>
         <v>165.70235</v>
       </c>
@@ -7238,7 +7238,7 @@
         <f t="shared" si="17"/>
         <v>0.28485000000000005</v>
       </c>
-      <c r="W54" s="240">
+      <c r="W54" s="216">
         <f t="shared" si="20"/>
         <v>165.70235</v>
       </c>
@@ -7306,7 +7306,7 @@
         <f t="shared" si="17"/>
         <v>0.29445000000000005</v>
       </c>
-      <c r="W55" s="241">
+      <c r="W55" s="217">
         <f t="shared" si="20"/>
         <v>171.23195000000004</v>
       </c>
@@ -7374,7 +7374,7 @@
         <f t="shared" si="17"/>
         <v>0.29119999999999996</v>
       </c>
-      <c r="W56" s="241">
+      <c r="W56" s="217">
         <f t="shared" si="20"/>
         <v>183.37257499999996</v>
       </c>
@@ -7442,7 +7442,7 @@
         <f t="shared" si="17"/>
         <v>0.314025</v>
       </c>
-      <c r="W57" s="241">
+      <c r="W57" s="217">
         <f t="shared" si="20"/>
         <v>197.65272499999995</v>
       </c>
@@ -7510,7 +7510,7 @@
         <f t="shared" si="17"/>
         <v>0.35154999999999997</v>
       </c>
-      <c r="W58" s="242">
+      <c r="W58" s="218">
         <f t="shared" si="20"/>
         <v>220.32079999999996</v>
       </c>
@@ -8284,17 +8284,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="V32:V33"/>
     <mergeCell ref="X32:X33"/>
     <mergeCell ref="W32:W33"/>
     <mergeCell ref="M32:P32"/>
     <mergeCell ref="Q32:Q33"/>
     <mergeCell ref="R32:R33"/>
     <mergeCell ref="S32:S33"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="V32:V33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8306,8 +8306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A282A9DD-DDA8-407B-9F67-055CDE136535}">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19:T26"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29:K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9792,37 +9792,37 @@
       <c r="B1" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="230" t="s">
+      <c r="C1" s="238" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="231"/>
-      <c r="E1" s="231"/>
-      <c r="F1" s="232" t="s">
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="240" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="233"/>
-      <c r="H1" s="233"/>
-      <c r="I1" s="230" t="s">
+      <c r="G1" s="241"/>
+      <c r="H1" s="241"/>
+      <c r="I1" s="238" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="231"/>
-      <c r="K1" s="231"/>
-      <c r="L1" s="231"/>
-      <c r="M1" s="231"/>
-      <c r="N1" s="231"/>
-      <c r="O1" s="231"/>
-      <c r="P1" s="231"/>
-      <c r="Q1" s="231"/>
-      <c r="S1" s="232" t="s">
+      <c r="J1" s="239"/>
+      <c r="K1" s="239"/>
+      <c r="L1" s="239"/>
+      <c r="M1" s="239"/>
+      <c r="N1" s="239"/>
+      <c r="O1" s="239"/>
+      <c r="P1" s="239"/>
+      <c r="Q1" s="239"/>
+      <c r="S1" s="240" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="233"/>
-      <c r="U1" s="233"/>
-      <c r="V1" s="233"/>
-      <c r="W1" s="233"/>
-      <c r="X1" s="233"/>
-      <c r="Y1" s="233"/>
-      <c r="Z1" s="233"/>
+      <c r="T1" s="241"/>
+      <c r="U1" s="241"/>
+      <c r="V1" s="241"/>
+      <c r="W1" s="241"/>
+      <c r="X1" s="241"/>
+      <c r="Y1" s="241"/>
+      <c r="Z1" s="241"/>
       <c r="AA1" s="155"/>
     </row>
     <row r="2" spans="1:27" s="141" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16407,30 +16407,30 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="234" t="s">
+      <c r="B3" s="242" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="235"/>
-      <c r="D3" s="236" t="s">
+      <c r="C3" s="243"/>
+      <c r="D3" s="244" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="237"/>
-      <c r="F3" s="235" t="s">
+      <c r="E3" s="245"/>
+      <c r="F3" s="243" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="235"/>
-      <c r="H3" s="236" t="s">
+      <c r="G3" s="243"/>
+      <c r="H3" s="244" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="237"/>
-      <c r="J3" s="235" t="s">
+      <c r="I3" s="245"/>
+      <c r="J3" s="243" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="235"/>
-      <c r="L3" s="236" t="s">
+      <c r="K3" s="243"/>
+      <c r="L3" s="244" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="237"/>
+      <c r="M3" s="245"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -26050,30 +26050,30 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="234" t="s">
+      <c r="B3" s="242" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="235"/>
-      <c r="D3" s="236" t="s">
+      <c r="C3" s="243"/>
+      <c r="D3" s="244" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="237"/>
-      <c r="F3" s="235" t="s">
+      <c r="E3" s="245"/>
+      <c r="F3" s="243" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="235"/>
-      <c r="H3" s="236" t="s">
+      <c r="G3" s="243"/>
+      <c r="H3" s="244" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="237"/>
-      <c r="J3" s="235" t="s">
+      <c r="I3" s="245"/>
+      <c r="J3" s="243" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="235"/>
-      <c r="L3" s="236" t="s">
+      <c r="K3" s="243"/>
+      <c r="L3" s="244" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="237"/>
+      <c r="M3" s="245"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">

--- a/Tarea 03/Cubicaciones.xlsx
+++ b/Tarea 03/Cubicaciones.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{02F0D222-DD20-4A9F-80BC-808004847202}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{56AC3130-CD95-49C4-B44D-DAAC58C6F14F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cubicaciones" sheetId="5" r:id="rId1"/>
@@ -762,7 +762,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="136">
   <si>
     <t>Muros</t>
   </si>
@@ -1158,6 +1158,18 @@
   </si>
   <si>
     <t>Sobrecarga estacionamiento (T)</t>
+  </si>
+  <si>
+    <t>Peso</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Peso acum</t>
+  </si>
+  <si>
+    <t>f'c</t>
   </si>
 </sst>
 </file>
@@ -1968,7 +1980,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="257">
+  <cellXfs count="269">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2643,6 +2655,48 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2670,30 +2724,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2718,30 +2748,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3925,19 +3989,19 @@
       </c>
       <c r="K19" s="144">
         <f>'Pesos elementos'!U20</f>
-        <v>435.96642000000003</v>
+        <v>452.25916999999998</v>
       </c>
       <c r="L19" s="213">
         <f t="shared" si="1"/>
-        <v>44.486369387755104</v>
+        <v>46.148894897959181</v>
       </c>
       <c r="M19" s="144">
         <f t="shared" si="0"/>
-        <v>4260.8243741788156</v>
+        <v>4420.0580746147389</v>
       </c>
       <c r="N19" s="221">
         <f>'Pesos elementos'!V20</f>
-        <v>1.0628065128728947</v>
+        <v>1.1025252618825314</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
@@ -3971,23 +4035,23 @@
       </c>
       <c r="J20" s="144">
         <f>'Pesos elementos'!W51</f>
-        <v>132.61860000000001</v>
+        <v>165.20409999999998</v>
       </c>
       <c r="K20" s="144">
         <f>'Pesos elementos'!U21</f>
-        <v>452.25916999999998</v>
+        <v>468.55192</v>
       </c>
       <c r="L20" s="213">
         <f t="shared" si="1"/>
-        <v>46.148894897959181</v>
+        <v>47.811420408163258</v>
       </c>
       <c r="M20" s="144">
         <f t="shared" si="0"/>
-        <v>4420.0580746147389</v>
+        <v>4579.2917750506613</v>
       </c>
       <c r="N20" s="221">
         <f>'Pesos elementos'!V21</f>
-        <v>1.1025252618825314</v>
+        <v>1.1422440108921681</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
@@ -4308,8 +4372,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="B2:X87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" topLeftCell="N19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4449,7 +4513,7 @@
         <v>27.479199999999999</v>
       </c>
       <c r="O4" s="122">
-        <f>L4*($C$6*$C$19+$C$7*$C$20)</f>
+        <f t="shared" ref="O4:O27" si="1">L4*($C$6*$C$19+$C$7*$C$20)</f>
         <v>4.8677199999999994</v>
       </c>
       <c r="P4" s="122">
@@ -4461,11 +4525,11 @@
         <v>0</v>
       </c>
       <c r="R4" s="122">
-        <f>N63</f>
+        <f t="shared" ref="R4:R27" si="2">N63</f>
         <v>71.462699999999998</v>
       </c>
       <c r="S4" s="123">
-        <f>0.5*(W34+W35)</f>
+        <f t="shared" ref="S4:S27" si="3">0.5*(W34+W35)</f>
         <v>92.154075000000006</v>
       </c>
       <c r="T4" s="122">
@@ -4477,7 +4541,7 @@
         <v>201.25469500000003</v>
       </c>
       <c r="V4" s="136">
-        <f>U4/(M4+J4)</f>
+        <f t="shared" ref="V4:V27" si="4">U4/(M4+J4)</f>
         <v>2.92955682843751</v>
       </c>
     </row>
@@ -4495,11 +4559,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H5" s="93">
-        <f t="shared" ref="H5:H28" si="1">E5</f>
+        <f t="shared" ref="H5:H28" si="5">E5</f>
         <v>23</v>
       </c>
       <c r="I5" s="111">
-        <f>$C$27</f>
+        <f t="shared" ref="I5:I24" si="6">$C$27</f>
         <v>0.16</v>
       </c>
       <c r="J5" s="74">
@@ -4517,39 +4581,39 @@
         <v>0</v>
       </c>
       <c r="N5" s="194">
-        <f t="shared" ref="N5:N27" si="2">I5*J5*$C$4+M5*I5*$C$4</f>
+        <f t="shared" ref="N5:N27" si="7">I5*J5*$C$4+M5*I5*$C$4</f>
         <v>164.0812</v>
       </c>
       <c r="O5" s="123">
-        <f>L5*($C$6*$C$19+$C$7*$C$20)</f>
+        <f t="shared" si="1"/>
         <v>45.428795000000001</v>
       </c>
       <c r="P5" s="123">
-        <f t="shared" ref="P5:P27" si="3">L5*$C$14</f>
+        <f t="shared" ref="P5:P27" si="8">L5*$C$14</f>
         <v>197.51649999999998</v>
       </c>
       <c r="Q5" s="123">
-        <f t="shared" ref="Q5:Q27" si="4">M5*$C$14</f>
+        <f t="shared" ref="Q5:Q26" si="9">M5*$C$14</f>
         <v>0</v>
       </c>
       <c r="R5" s="123">
-        <f>N64</f>
+        <f t="shared" si="2"/>
         <v>44.458700000000007</v>
       </c>
       <c r="S5" s="123">
-        <f>0.5*(W35+W36)</f>
+        <f t="shared" si="3"/>
         <v>132.61860000000001</v>
       </c>
       <c r="T5" s="123">
-        <f t="shared" ref="T5:T27" si="5">N5+O5+0.25*(P5+Q5)</f>
+        <f t="shared" ref="T5:T27" si="10">N5+O5+0.25*(P5+Q5)</f>
         <v>258.88911999999999</v>
       </c>
       <c r="U5" s="189">
-        <f t="shared" ref="U5:U27" si="6">SUM(R5:T5)</f>
+        <f t="shared" ref="U5:U27" si="11">SUM(R5:T5)</f>
         <v>435.96642000000003</v>
       </c>
       <c r="V5" s="136">
-        <f>U5/(M5+J5)</f>
+        <f t="shared" si="4"/>
         <v>1.0628065128728947</v>
       </c>
     </row>
@@ -4568,11 +4632,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H6" s="93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="I6" s="111">
-        <f>$C$27</f>
+        <f t="shared" si="6"/>
         <v>0.16</v>
       </c>
       <c r="J6" s="74">
@@ -4590,39 +4654,39 @@
         <v>0</v>
       </c>
       <c r="N6" s="194">
+        <f t="shared" si="7"/>
+        <v>164.0812</v>
+      </c>
+      <c r="O6" s="123">
+        <f t="shared" si="1"/>
+        <v>45.428795000000001</v>
+      </c>
+      <c r="P6" s="123">
+        <f t="shared" si="8"/>
+        <v>197.51649999999998</v>
+      </c>
+      <c r="Q6" s="123">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="123">
         <f t="shared" si="2"/>
-        <v>164.0812</v>
-      </c>
-      <c r="O6" s="123">
-        <f>L6*($C$6*$C$19+$C$7*$C$20)</f>
-        <v>45.428795000000001</v>
-      </c>
-      <c r="P6" s="123">
+        <v>44.458700000000007</v>
+      </c>
+      <c r="S6" s="123">
         <f t="shared" si="3"/>
-        <v>197.51649999999998</v>
-      </c>
-      <c r="Q6" s="123">
+        <v>132.61860000000001</v>
+      </c>
+      <c r="T6" s="123">
+        <f t="shared" si="10"/>
+        <v>258.88911999999999</v>
+      </c>
+      <c r="U6" s="189">
+        <f t="shared" si="11"/>
+        <v>435.96642000000003</v>
+      </c>
+      <c r="V6" s="189">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="123">
-        <f>N65</f>
-        <v>44.458700000000007</v>
-      </c>
-      <c r="S6" s="123">
-        <f>0.5*(W36+W37)</f>
-        <v>132.61860000000001</v>
-      </c>
-      <c r="T6" s="123">
-        <f t="shared" si="5"/>
-        <v>258.88911999999999</v>
-      </c>
-      <c r="U6" s="189">
-        <f t="shared" si="6"/>
-        <v>435.96642000000003</v>
-      </c>
-      <c r="V6" s="189">
-        <f>U6/(M6+J6)</f>
         <v>1.0628065128728947</v>
       </c>
     </row>
@@ -4640,11 +4704,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H7" s="93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="I7" s="111">
-        <f>$C$27</f>
+        <f t="shared" si="6"/>
         <v>0.16</v>
       </c>
       <c r="J7" s="74">
@@ -4662,39 +4726,39 @@
         <v>0</v>
       </c>
       <c r="N7" s="194">
+        <f t="shared" si="7"/>
+        <v>164.0812</v>
+      </c>
+      <c r="O7" s="123">
+        <f t="shared" si="1"/>
+        <v>45.428795000000001</v>
+      </c>
+      <c r="P7" s="123">
+        <f t="shared" si="8"/>
+        <v>197.51649999999998</v>
+      </c>
+      <c r="Q7" s="123">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="123">
         <f t="shared" si="2"/>
-        <v>164.0812</v>
-      </c>
-      <c r="O7" s="123">
-        <f>L7*($C$6*$C$19+$C$7*$C$20)</f>
-        <v>45.428795000000001</v>
-      </c>
-      <c r="P7" s="123">
+        <v>44.458700000000007</v>
+      </c>
+      <c r="S7" s="123">
         <f t="shared" si="3"/>
-        <v>197.51649999999998</v>
-      </c>
-      <c r="Q7" s="123">
+        <v>132.61860000000001</v>
+      </c>
+      <c r="T7" s="123">
+        <f t="shared" si="10"/>
+        <v>258.88911999999999</v>
+      </c>
+      <c r="U7" s="189">
+        <f t="shared" si="11"/>
+        <v>435.96642000000003</v>
+      </c>
+      <c r="V7" s="189">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="123">
-        <f>N66</f>
-        <v>44.458700000000007</v>
-      </c>
-      <c r="S7" s="123">
-        <f>0.5*(W37+W38)</f>
-        <v>132.61860000000001</v>
-      </c>
-      <c r="T7" s="123">
-        <f t="shared" si="5"/>
-        <v>258.88911999999999</v>
-      </c>
-      <c r="U7" s="189">
-        <f t="shared" si="6"/>
-        <v>435.96642000000003</v>
-      </c>
-      <c r="V7" s="189">
-        <f>U7/(M7+J7)</f>
         <v>1.0628065128728947</v>
       </c>
     </row>
@@ -4706,11 +4770,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H8" s="93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="I8" s="111">
-        <f>$C$27</f>
+        <f t="shared" si="6"/>
         <v>0.16</v>
       </c>
       <c r="J8" s="74">
@@ -4728,39 +4792,39 @@
         <v>0</v>
       </c>
       <c r="N8" s="194">
+        <f t="shared" si="7"/>
+        <v>164.0812</v>
+      </c>
+      <c r="O8" s="123">
+        <f t="shared" si="1"/>
+        <v>45.428795000000001</v>
+      </c>
+      <c r="P8" s="123">
+        <f t="shared" si="8"/>
+        <v>197.51649999999998</v>
+      </c>
+      <c r="Q8" s="123">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="123">
         <f t="shared" si="2"/>
-        <v>164.0812</v>
-      </c>
-      <c r="O8" s="123">
-        <f>L8*($C$6*$C$19+$C$7*$C$20)</f>
-        <v>45.428795000000001</v>
-      </c>
-      <c r="P8" s="123">
+        <v>44.458700000000007</v>
+      </c>
+      <c r="S8" s="123">
         <f t="shared" si="3"/>
-        <v>197.51649999999998</v>
-      </c>
-      <c r="Q8" s="123">
+        <v>132.61860000000001</v>
+      </c>
+      <c r="T8" s="123">
+        <f t="shared" si="10"/>
+        <v>258.88911999999999</v>
+      </c>
+      <c r="U8" s="189">
+        <f t="shared" si="11"/>
+        <v>435.96642000000003</v>
+      </c>
+      <c r="V8" s="189">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="123">
-        <f>N67</f>
-        <v>44.458700000000007</v>
-      </c>
-      <c r="S8" s="123">
-        <f>0.5*(W38+W39)</f>
-        <v>132.61860000000001</v>
-      </c>
-      <c r="T8" s="123">
-        <f t="shared" si="5"/>
-        <v>258.88911999999999</v>
-      </c>
-      <c r="U8" s="189">
-        <f t="shared" si="6"/>
-        <v>435.96642000000003</v>
-      </c>
-      <c r="V8" s="189">
-        <f>U8/(M8+J8)</f>
         <v>1.0628065128728947</v>
       </c>
     </row>
@@ -4775,11 +4839,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H9" s="93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="I9" s="111">
-        <f>$C$27</f>
+        <f t="shared" si="6"/>
         <v>0.16</v>
       </c>
       <c r="J9" s="74">
@@ -4797,47 +4861,47 @@
         <v>0</v>
       </c>
       <c r="N9" s="194">
+        <f t="shared" si="7"/>
+        <v>164.0812</v>
+      </c>
+      <c r="O9" s="123">
+        <f t="shared" si="1"/>
+        <v>45.428795000000001</v>
+      </c>
+      <c r="P9" s="123">
+        <f t="shared" si="8"/>
+        <v>197.51649999999998</v>
+      </c>
+      <c r="Q9" s="123">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="123">
         <f t="shared" si="2"/>
-        <v>164.0812</v>
-      </c>
-      <c r="O9" s="123">
-        <f>L9*($C$6*$C$19+$C$7*$C$20)</f>
-        <v>45.428795000000001</v>
-      </c>
-      <c r="P9" s="123">
+        <v>44.458700000000007</v>
+      </c>
+      <c r="S9" s="123">
         <f t="shared" si="3"/>
-        <v>197.51649999999998</v>
-      </c>
-      <c r="Q9" s="123">
+        <v>132.61860000000001</v>
+      </c>
+      <c r="T9" s="123">
+        <f t="shared" si="10"/>
+        <v>258.88911999999999</v>
+      </c>
+      <c r="U9" s="189">
+        <f t="shared" si="11"/>
+        <v>435.96642000000003</v>
+      </c>
+      <c r="V9" s="189">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="123">
-        <f>N68</f>
-        <v>44.458700000000007</v>
-      </c>
-      <c r="S9" s="123">
-        <f>0.5*(W39+W40)</f>
-        <v>132.61860000000001</v>
-      </c>
-      <c r="T9" s="123">
-        <f t="shared" si="5"/>
-        <v>258.88911999999999</v>
-      </c>
-      <c r="U9" s="189">
-        <f t="shared" si="6"/>
-        <v>435.96642000000003</v>
-      </c>
-      <c r="V9" s="189">
-        <f>U9/(M9+J9)</f>
         <v>1.0628065128728947</v>
       </c>
     </row>
     <row r="10" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="251" t="s">
+      <c r="B10" s="226" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="252" t="s">
+      <c r="C10" s="227" t="s">
         <v>65</v>
       </c>
       <c r="E10" s="118">
@@ -4847,11 +4911,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H10" s="93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="I10" s="111">
-        <f>$C$27</f>
+        <f t="shared" si="6"/>
         <v>0.16</v>
       </c>
       <c r="J10" s="74">
@@ -4869,39 +4933,39 @@
         <v>0</v>
       </c>
       <c r="N10" s="194">
+        <f t="shared" si="7"/>
+        <v>164.0812</v>
+      </c>
+      <c r="O10" s="123">
+        <f t="shared" si="1"/>
+        <v>45.428795000000001</v>
+      </c>
+      <c r="P10" s="123">
+        <f t="shared" si="8"/>
+        <v>197.51649999999998</v>
+      </c>
+      <c r="Q10" s="123">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="123">
         <f t="shared" si="2"/>
-        <v>164.0812</v>
-      </c>
-      <c r="O10" s="123">
-        <f>L10*($C$6*$C$19+$C$7*$C$20)</f>
-        <v>45.428795000000001</v>
-      </c>
-      <c r="P10" s="123">
+        <v>44.458700000000007</v>
+      </c>
+      <c r="S10" s="123">
         <f t="shared" si="3"/>
-        <v>197.51649999999998</v>
-      </c>
-      <c r="Q10" s="123">
+        <v>132.61860000000001</v>
+      </c>
+      <c r="T10" s="123">
+        <f t="shared" si="10"/>
+        <v>258.88911999999999</v>
+      </c>
+      <c r="U10" s="189">
+        <f t="shared" si="11"/>
+        <v>435.96642000000003</v>
+      </c>
+      <c r="V10" s="189">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="123">
-        <f>N69</f>
-        <v>44.458700000000007</v>
-      </c>
-      <c r="S10" s="123">
-        <f>0.5*(W40+W41)</f>
-        <v>132.61860000000001</v>
-      </c>
-      <c r="T10" s="123">
-        <f t="shared" si="5"/>
-        <v>258.88911999999999</v>
-      </c>
-      <c r="U10" s="189">
-        <f t="shared" si="6"/>
-        <v>435.96642000000003</v>
-      </c>
-      <c r="V10" s="189">
-        <f>U10/(M10+J10)</f>
         <v>1.0628065128728947</v>
       </c>
     </row>
@@ -4909,7 +4973,7 @@
       <c r="B11" s="127" t="s">
         <v>129</v>
       </c>
-      <c r="C11" s="253">
+      <c r="C11" s="228">
         <v>0.1</v>
       </c>
       <c r="E11" s="118">
@@ -4919,11 +4983,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H11" s="93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="I11" s="111">
-        <f>$C$27</f>
+        <f t="shared" si="6"/>
         <v>0.16</v>
       </c>
       <c r="J11" s="74">
@@ -4941,39 +5005,39 @@
         <v>0</v>
       </c>
       <c r="N11" s="194">
+        <f t="shared" si="7"/>
+        <v>164.0812</v>
+      </c>
+      <c r="O11" s="123">
+        <f t="shared" si="1"/>
+        <v>45.428795000000001</v>
+      </c>
+      <c r="P11" s="123">
+        <f t="shared" si="8"/>
+        <v>197.51649999999998</v>
+      </c>
+      <c r="Q11" s="123">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="123">
         <f t="shared" si="2"/>
-        <v>164.0812</v>
-      </c>
-      <c r="O11" s="123">
-        <f>L11*($C$6*$C$19+$C$7*$C$20)</f>
-        <v>45.428795000000001</v>
-      </c>
-      <c r="P11" s="123">
+        <v>44.458700000000007</v>
+      </c>
+      <c r="S11" s="123">
         <f t="shared" si="3"/>
-        <v>197.51649999999998</v>
-      </c>
-      <c r="Q11" s="123">
+        <v>132.61860000000001</v>
+      </c>
+      <c r="T11" s="123">
+        <f t="shared" si="10"/>
+        <v>258.88911999999999</v>
+      </c>
+      <c r="U11" s="189">
+        <f t="shared" si="11"/>
+        <v>435.96642000000003</v>
+      </c>
+      <c r="V11" s="189">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="123">
-        <f>N70</f>
-        <v>44.458700000000007</v>
-      </c>
-      <c r="S11" s="123">
-        <f>0.5*(W41+W42)</f>
-        <v>132.61860000000001</v>
-      </c>
-      <c r="T11" s="123">
-        <f t="shared" si="5"/>
-        <v>258.88911999999999</v>
-      </c>
-      <c r="U11" s="189">
-        <f t="shared" si="6"/>
-        <v>435.96642000000003</v>
-      </c>
-      <c r="V11" s="189">
-        <f>U11/(M11+J11)</f>
         <v>1.0628065128728947</v>
       </c>
     </row>
@@ -4981,7 +5045,7 @@
       <c r="B12" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="254">
+      <c r="C12" s="229">
         <v>0.2</v>
       </c>
       <c r="E12" s="118">
@@ -4991,11 +5055,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H12" s="93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="I12" s="111">
-        <f>$C$27</f>
+        <f t="shared" si="6"/>
         <v>0.16</v>
       </c>
       <c r="J12" s="74">
@@ -5013,39 +5077,39 @@
         <v>0</v>
       </c>
       <c r="N12" s="194">
+        <f t="shared" si="7"/>
+        <v>164.0812</v>
+      </c>
+      <c r="O12" s="123">
+        <f t="shared" si="1"/>
+        <v>45.428795000000001</v>
+      </c>
+      <c r="P12" s="123">
+        <f t="shared" si="8"/>
+        <v>197.51649999999998</v>
+      </c>
+      <c r="Q12" s="123">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="123">
         <f t="shared" si="2"/>
-        <v>164.0812</v>
-      </c>
-      <c r="O12" s="123">
-        <f>L12*($C$6*$C$19+$C$7*$C$20)</f>
-        <v>45.428795000000001</v>
-      </c>
-      <c r="P12" s="123">
+        <v>44.458700000000007</v>
+      </c>
+      <c r="S12" s="123">
         <f t="shared" si="3"/>
-        <v>197.51649999999998</v>
-      </c>
-      <c r="Q12" s="123">
+        <v>132.61860000000001</v>
+      </c>
+      <c r="T12" s="123">
+        <f t="shared" si="10"/>
+        <v>258.88911999999999</v>
+      </c>
+      <c r="U12" s="189">
+        <f t="shared" si="11"/>
+        <v>435.96642000000003</v>
+      </c>
+      <c r="V12" s="189">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="123">
-        <f>N71</f>
-        <v>44.458700000000007</v>
-      </c>
-      <c r="S12" s="123">
-        <f>0.5*(W42+W43)</f>
-        <v>132.61860000000001</v>
-      </c>
-      <c r="T12" s="123">
-        <f t="shared" si="5"/>
-        <v>258.88911999999999</v>
-      </c>
-      <c r="U12" s="189">
-        <f t="shared" si="6"/>
-        <v>435.96642000000003</v>
-      </c>
-      <c r="V12" s="189">
-        <f>U12/(M12+J12)</f>
         <v>1.0628065128728947</v>
       </c>
     </row>
@@ -5053,7 +5117,7 @@
       <c r="B13" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="C13" s="254">
+      <c r="C13" s="229">
         <v>0.4</v>
       </c>
       <c r="E13" s="118">
@@ -5063,11 +5127,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H13" s="93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="I13" s="111">
-        <f>$C$27</f>
+        <f t="shared" si="6"/>
         <v>0.16</v>
       </c>
       <c r="J13" s="74">
@@ -5085,39 +5149,39 @@
         <v>0</v>
       </c>
       <c r="N13" s="194">
+        <f t="shared" si="7"/>
+        <v>164.0812</v>
+      </c>
+      <c r="O13" s="123">
+        <f t="shared" si="1"/>
+        <v>45.428795000000001</v>
+      </c>
+      <c r="P13" s="123">
+        <f t="shared" si="8"/>
+        <v>197.51649999999998</v>
+      </c>
+      <c r="Q13" s="123">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="123">
         <f t="shared" si="2"/>
-        <v>164.0812</v>
-      </c>
-      <c r="O13" s="123">
-        <f>L13*($C$6*$C$19+$C$7*$C$20)</f>
-        <v>45.428795000000001</v>
-      </c>
-      <c r="P13" s="123">
+        <v>44.458700000000007</v>
+      </c>
+      <c r="S13" s="123">
         <f t="shared" si="3"/>
-        <v>197.51649999999998</v>
-      </c>
-      <c r="Q13" s="123">
+        <v>132.61860000000001</v>
+      </c>
+      <c r="T13" s="123">
+        <f t="shared" si="10"/>
+        <v>258.88911999999999</v>
+      </c>
+      <c r="U13" s="189">
+        <f t="shared" si="11"/>
+        <v>435.96642000000003</v>
+      </c>
+      <c r="V13" s="189">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="123">
-        <f>N72</f>
-        <v>44.458700000000007</v>
-      </c>
-      <c r="S13" s="123">
-        <f>0.5*(W43+W44)</f>
-        <v>132.61860000000001</v>
-      </c>
-      <c r="T13" s="123">
-        <f t="shared" si="5"/>
-        <v>258.88911999999999</v>
-      </c>
-      <c r="U13" s="189">
-        <f t="shared" si="6"/>
-        <v>435.96642000000003</v>
-      </c>
-      <c r="V13" s="189">
-        <f>U13/(M13+J13)</f>
         <v>1.0628065128728947</v>
       </c>
     </row>
@@ -5125,7 +5189,7 @@
       <c r="B14" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="C14" s="255">
+      <c r="C14" s="230">
         <v>0.5</v>
       </c>
       <c r="E14" s="118">
@@ -5135,11 +5199,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H14" s="93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="I14" s="111">
-        <f>$C$27</f>
+        <f t="shared" si="6"/>
         <v>0.16</v>
       </c>
       <c r="J14" s="74">
@@ -5157,39 +5221,39 @@
         <v>0</v>
       </c>
       <c r="N14" s="194">
+        <f t="shared" si="7"/>
+        <v>164.0812</v>
+      </c>
+      <c r="O14" s="123">
+        <f t="shared" si="1"/>
+        <v>45.428795000000001</v>
+      </c>
+      <c r="P14" s="123">
+        <f t="shared" si="8"/>
+        <v>197.51649999999998</v>
+      </c>
+      <c r="Q14" s="123">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="123">
         <f t="shared" si="2"/>
-        <v>164.0812</v>
-      </c>
-      <c r="O14" s="123">
-        <f>L14*($C$6*$C$19+$C$7*$C$20)</f>
-        <v>45.428795000000001</v>
-      </c>
-      <c r="P14" s="123">
+        <v>44.458700000000007</v>
+      </c>
+      <c r="S14" s="123">
         <f t="shared" si="3"/>
-        <v>197.51649999999998</v>
-      </c>
-      <c r="Q14" s="123">
+        <v>132.61860000000001</v>
+      </c>
+      <c r="T14" s="123">
+        <f t="shared" si="10"/>
+        <v>258.88911999999999</v>
+      </c>
+      <c r="U14" s="189">
+        <f t="shared" si="11"/>
+        <v>435.96642000000003</v>
+      </c>
+      <c r="V14" s="189">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="123">
-        <f>N73</f>
-        <v>44.458700000000007</v>
-      </c>
-      <c r="S14" s="123">
-        <f>0.5*(W44+W45)</f>
-        <v>132.61860000000001</v>
-      </c>
-      <c r="T14" s="123">
-        <f t="shared" si="5"/>
-        <v>258.88911999999999</v>
-      </c>
-      <c r="U14" s="189">
-        <f t="shared" si="6"/>
-        <v>435.96642000000003</v>
-      </c>
-      <c r="V14" s="189">
-        <f>U14/(M14+J14)</f>
         <v>1.0628065128728947</v>
       </c>
     </row>
@@ -5201,11 +5265,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H15" s="93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="I15" s="111">
-        <f>$C$27</f>
+        <f t="shared" si="6"/>
         <v>0.16</v>
       </c>
       <c r="J15" s="74">
@@ -5223,39 +5287,39 @@
         <v>0</v>
       </c>
       <c r="N15" s="194">
+        <f t="shared" si="7"/>
+        <v>164.0812</v>
+      </c>
+      <c r="O15" s="123">
+        <f t="shared" si="1"/>
+        <v>45.428795000000001</v>
+      </c>
+      <c r="P15" s="123">
+        <f t="shared" si="8"/>
+        <v>197.51649999999998</v>
+      </c>
+      <c r="Q15" s="123">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="123">
         <f t="shared" si="2"/>
-        <v>164.0812</v>
-      </c>
-      <c r="O15" s="123">
-        <f>L15*($C$6*$C$19+$C$7*$C$20)</f>
-        <v>45.428795000000001</v>
-      </c>
-      <c r="P15" s="123">
+        <v>44.458700000000007</v>
+      </c>
+      <c r="S15" s="123">
         <f t="shared" si="3"/>
-        <v>197.51649999999998</v>
-      </c>
-      <c r="Q15" s="123">
+        <v>132.61860000000001</v>
+      </c>
+      <c r="T15" s="123">
+        <f t="shared" si="10"/>
+        <v>258.88911999999999</v>
+      </c>
+      <c r="U15" s="189">
+        <f t="shared" si="11"/>
+        <v>435.96642000000003</v>
+      </c>
+      <c r="V15" s="189">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="123">
-        <f>N74</f>
-        <v>44.458700000000007</v>
-      </c>
-      <c r="S15" s="123">
-        <f>0.5*(W45+W46)</f>
-        <v>132.61860000000001</v>
-      </c>
-      <c r="T15" s="123">
-        <f t="shared" si="5"/>
-        <v>258.88911999999999</v>
-      </c>
-      <c r="U15" s="189">
-        <f t="shared" si="6"/>
-        <v>435.96642000000003</v>
-      </c>
-      <c r="V15" s="189">
-        <f>U15/(M15+J15)</f>
         <v>1.0628065128728947</v>
       </c>
     </row>
@@ -5270,11 +5334,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H16" s="93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="I16" s="111">
-        <f>$C$27</f>
+        <f t="shared" si="6"/>
         <v>0.16</v>
       </c>
       <c r="J16" s="74">
@@ -5292,39 +5356,39 @@
         <v>0</v>
       </c>
       <c r="N16" s="194">
+        <f t="shared" si="7"/>
+        <v>164.0812</v>
+      </c>
+      <c r="O16" s="123">
+        <f t="shared" si="1"/>
+        <v>45.428795000000001</v>
+      </c>
+      <c r="P16" s="123">
+        <f t="shared" si="8"/>
+        <v>197.51649999999998</v>
+      </c>
+      <c r="Q16" s="123">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="123">
         <f t="shared" si="2"/>
-        <v>164.0812</v>
-      </c>
-      <c r="O16" s="123">
-        <f>L16*($C$6*$C$19+$C$7*$C$20)</f>
-        <v>45.428795000000001</v>
-      </c>
-      <c r="P16" s="123">
+        <v>44.458700000000007</v>
+      </c>
+      <c r="S16" s="123">
         <f t="shared" si="3"/>
-        <v>197.51649999999998</v>
-      </c>
-      <c r="Q16" s="123">
+        <v>132.61860000000001</v>
+      </c>
+      <c r="T16" s="123">
+        <f t="shared" si="10"/>
+        <v>258.88911999999999</v>
+      </c>
+      <c r="U16" s="189">
+        <f t="shared" si="11"/>
+        <v>435.96642000000003</v>
+      </c>
+      <c r="V16" s="189">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="123">
-        <f>N75</f>
-        <v>44.458700000000007</v>
-      </c>
-      <c r="S16" s="123">
-        <f>0.5*(W46+W47)</f>
-        <v>132.61860000000001</v>
-      </c>
-      <c r="T16" s="123">
-        <f t="shared" si="5"/>
-        <v>258.88911999999999</v>
-      </c>
-      <c r="U16" s="189">
-        <f t="shared" si="6"/>
-        <v>435.96642000000003</v>
-      </c>
-      <c r="V16" s="189">
-        <f>U16/(M16+J16)</f>
         <v>1.0628065128728947</v>
       </c>
     </row>
@@ -5342,11 +5406,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H17" s="93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="I17" s="111">
-        <f>$C$27</f>
+        <f t="shared" si="6"/>
         <v>0.16</v>
       </c>
       <c r="J17" s="74">
@@ -5364,39 +5428,39 @@
         <v>0</v>
       </c>
       <c r="N17" s="194">
+        <f t="shared" si="7"/>
+        <v>164.0812</v>
+      </c>
+      <c r="O17" s="123">
+        <f t="shared" si="1"/>
+        <v>45.428795000000001</v>
+      </c>
+      <c r="P17" s="123">
+        <f t="shared" si="8"/>
+        <v>197.51649999999998</v>
+      </c>
+      <c r="Q17" s="123">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="123">
         <f t="shared" si="2"/>
-        <v>164.0812</v>
-      </c>
-      <c r="O17" s="123">
-        <f>L17*($C$6*$C$19+$C$7*$C$20)</f>
-        <v>45.428795000000001</v>
-      </c>
-      <c r="P17" s="123">
+        <v>44.458700000000007</v>
+      </c>
+      <c r="S17" s="123">
         <f t="shared" si="3"/>
-        <v>197.51649999999998</v>
-      </c>
-      <c r="Q17" s="123">
+        <v>132.61860000000001</v>
+      </c>
+      <c r="T17" s="123">
+        <f t="shared" si="10"/>
+        <v>258.88911999999999</v>
+      </c>
+      <c r="U17" s="189">
+        <f t="shared" si="11"/>
+        <v>435.96642000000003</v>
+      </c>
+      <c r="V17" s="189">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="123">
-        <f>N76</f>
-        <v>44.458700000000007</v>
-      </c>
-      <c r="S17" s="123">
-        <f>0.5*(W47+W48)</f>
-        <v>132.61860000000001</v>
-      </c>
-      <c r="T17" s="123">
-        <f t="shared" si="5"/>
-        <v>258.88911999999999</v>
-      </c>
-      <c r="U17" s="189">
-        <f t="shared" si="6"/>
-        <v>435.96642000000003</v>
-      </c>
-      <c r="V17" s="189">
-        <f>U17/(M17+J17)</f>
         <v>1.0628065128728947</v>
       </c>
     </row>
@@ -5415,11 +5479,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H18" s="93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="I18" s="111">
-        <f>$C$27</f>
+        <f t="shared" si="6"/>
         <v>0.16</v>
       </c>
       <c r="J18" s="74">
@@ -5437,39 +5501,39 @@
         <v>0</v>
       </c>
       <c r="N18" s="194">
+        <f t="shared" si="7"/>
+        <v>164.0812</v>
+      </c>
+      <c r="O18" s="123">
+        <f t="shared" si="1"/>
+        <v>45.428795000000001</v>
+      </c>
+      <c r="P18" s="123">
+        <f t="shared" si="8"/>
+        <v>197.51649999999998</v>
+      </c>
+      <c r="Q18" s="123">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="123">
         <f t="shared" si="2"/>
-        <v>164.0812</v>
-      </c>
-      <c r="O18" s="123">
-        <f>L18*($C$6*$C$19+$C$7*$C$20)</f>
-        <v>45.428795000000001</v>
-      </c>
-      <c r="P18" s="123">
+        <v>44.458700000000007</v>
+      </c>
+      <c r="S18" s="123">
         <f t="shared" si="3"/>
-        <v>197.51649999999998</v>
-      </c>
-      <c r="Q18" s="123">
+        <v>132.61860000000001</v>
+      </c>
+      <c r="T18" s="123">
+        <f t="shared" si="10"/>
+        <v>258.88911999999999</v>
+      </c>
+      <c r="U18" s="189">
+        <f t="shared" si="11"/>
+        <v>435.96642000000003</v>
+      </c>
+      <c r="V18" s="189">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="123">
-        <f>N77</f>
-        <v>44.458700000000007</v>
-      </c>
-      <c r="S18" s="123">
-        <f>0.5*(W48+W49)</f>
-        <v>132.61860000000001</v>
-      </c>
-      <c r="T18" s="123">
-        <f t="shared" si="5"/>
-        <v>258.88911999999999</v>
-      </c>
-      <c r="U18" s="189">
-        <f t="shared" si="6"/>
-        <v>435.96642000000003</v>
-      </c>
-      <c r="V18" s="189">
-        <f>U18/(M18+J18)</f>
         <v>1.0628065128728947</v>
       </c>
     </row>
@@ -5487,11 +5551,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H19" s="93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="I19" s="111">
-        <f>$C$27</f>
+        <f t="shared" si="6"/>
         <v>0.16</v>
       </c>
       <c r="J19" s="74">
@@ -5509,39 +5573,39 @@
         <v>0</v>
       </c>
       <c r="N19" s="194">
+        <f t="shared" si="7"/>
+        <v>164.0812</v>
+      </c>
+      <c r="O19" s="123">
+        <f t="shared" si="1"/>
+        <v>45.428795000000001</v>
+      </c>
+      <c r="P19" s="123">
+        <f t="shared" si="8"/>
+        <v>197.51649999999998</v>
+      </c>
+      <c r="Q19" s="123">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="123">
         <f t="shared" si="2"/>
-        <v>164.0812</v>
-      </c>
-      <c r="O19" s="123">
-        <f>L19*($C$6*$C$19+$C$7*$C$20)</f>
-        <v>45.428795000000001</v>
-      </c>
-      <c r="P19" s="123">
+        <v>44.458700000000007</v>
+      </c>
+      <c r="S19" s="123">
         <f t="shared" si="3"/>
-        <v>197.51649999999998</v>
-      </c>
-      <c r="Q19" s="123">
+        <v>132.61860000000001</v>
+      </c>
+      <c r="T19" s="123">
+        <f t="shared" si="10"/>
+        <v>258.88911999999999</v>
+      </c>
+      <c r="U19" s="189">
+        <f t="shared" si="11"/>
+        <v>435.96642000000003</v>
+      </c>
+      <c r="V19" s="189">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="123">
-        <f>N78</f>
-        <v>44.458700000000007</v>
-      </c>
-      <c r="S19" s="123">
-        <f>0.5*(W49+W50)</f>
-        <v>132.61860000000001</v>
-      </c>
-      <c r="T19" s="123">
-        <f t="shared" si="5"/>
-        <v>258.88911999999999</v>
-      </c>
-      <c r="U19" s="189">
-        <f t="shared" si="6"/>
-        <v>435.96642000000003</v>
-      </c>
-      <c r="V19" s="189">
-        <f>U19/(M19+J19)</f>
         <v>1.0628065128728947</v>
       </c>
     </row>
@@ -5559,11 +5623,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H20" s="93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="I20" s="111">
-        <f>$C$27</f>
+        <f t="shared" si="6"/>
         <v>0.16</v>
       </c>
       <c r="J20" s="74">
@@ -5581,40 +5645,40 @@
         <v>0</v>
       </c>
       <c r="N20" s="194">
+        <f t="shared" si="7"/>
+        <v>164.0812</v>
+      </c>
+      <c r="O20" s="123">
+        <f t="shared" si="1"/>
+        <v>45.428795000000001</v>
+      </c>
+      <c r="P20" s="123">
+        <f t="shared" si="8"/>
+        <v>197.51649999999998</v>
+      </c>
+      <c r="Q20" s="123">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="123">
         <f t="shared" si="2"/>
-        <v>164.0812</v>
-      </c>
-      <c r="O20" s="123">
-        <f>L20*($C$6*$C$19+$C$7*$C$20)</f>
-        <v>45.428795000000001</v>
-      </c>
-      <c r="P20" s="123">
+        <v>44.458700000000007</v>
+      </c>
+      <c r="S20" s="123">
         <f t="shared" si="3"/>
-        <v>197.51649999999998</v>
-      </c>
-      <c r="Q20" s="123">
+        <v>148.91135</v>
+      </c>
+      <c r="T20" s="123">
+        <f t="shared" si="10"/>
+        <v>258.88911999999999</v>
+      </c>
+      <c r="U20" s="189">
+        <f t="shared" si="11"/>
+        <v>452.25916999999998</v>
+      </c>
+      <c r="V20" s="189">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="123">
-        <f>N79</f>
-        <v>44.458700000000007</v>
-      </c>
-      <c r="S20" s="123">
-        <f>0.5*(W50+W51)</f>
-        <v>132.61860000000001</v>
-      </c>
-      <c r="T20" s="123">
-        <f t="shared" si="5"/>
-        <v>258.88911999999999</v>
-      </c>
-      <c r="U20" s="189">
-        <f t="shared" si="6"/>
-        <v>435.96642000000003</v>
-      </c>
-      <c r="V20" s="189">
-        <f>U20/(M20+J20)</f>
-        <v>1.0628065128728947</v>
+        <v>1.1025252618825314</v>
       </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.3">
@@ -5625,11 +5689,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H21" s="93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="I21" s="111">
-        <f>$C$27</f>
+        <f t="shared" si="6"/>
         <v>0.16</v>
       </c>
       <c r="J21" s="74">
@@ -5647,40 +5711,40 @@
         <v>0</v>
       </c>
       <c r="N21" s="194">
+        <f t="shared" si="7"/>
+        <v>164.0812</v>
+      </c>
+      <c r="O21" s="123">
+        <f t="shared" si="1"/>
+        <v>45.428795000000001</v>
+      </c>
+      <c r="P21" s="123">
+        <f t="shared" si="8"/>
+        <v>197.51649999999998</v>
+      </c>
+      <c r="Q21" s="123">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="123">
         <f t="shared" si="2"/>
-        <v>164.0812</v>
-      </c>
-      <c r="O21" s="123">
-        <f>L21*($C$6*$C$19+$C$7*$C$20)</f>
-        <v>45.428795000000001</v>
-      </c>
-      <c r="P21" s="123">
+        <v>44.458700000000007</v>
+      </c>
+      <c r="S21" s="123">
         <f t="shared" si="3"/>
-        <v>197.51649999999998</v>
-      </c>
-      <c r="Q21" s="123">
+        <v>165.20409999999998</v>
+      </c>
+      <c r="T21" s="123">
+        <f t="shared" si="10"/>
+        <v>258.88911999999999</v>
+      </c>
+      <c r="U21" s="189">
+        <f t="shared" si="11"/>
+        <v>468.55192</v>
+      </c>
+      <c r="V21" s="189">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="123">
-        <f>N80</f>
-        <v>44.458700000000007</v>
-      </c>
-      <c r="S21" s="123">
-        <f>0.5*(W51+W52)</f>
-        <v>148.91135</v>
-      </c>
-      <c r="T21" s="123">
-        <f t="shared" si="5"/>
-        <v>258.88911999999999</v>
-      </c>
-      <c r="U21" s="189">
-        <f t="shared" si="6"/>
-        <v>452.25916999999998</v>
-      </c>
-      <c r="V21" s="189">
-        <f>U21/(M21+J21)</f>
-        <v>1.1025252618825314</v>
+        <v>1.1422440108921681</v>
       </c>
     </row>
     <row r="22" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5691,11 +5755,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H22" s="93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I22" s="111">
-        <f>$C$27</f>
+        <f t="shared" si="6"/>
         <v>0.16</v>
       </c>
       <c r="J22" s="74">
@@ -5713,39 +5777,39 @@
         <v>0</v>
       </c>
       <c r="N22" s="194">
+        <f t="shared" si="7"/>
+        <v>164.0812</v>
+      </c>
+      <c r="O22" s="123">
+        <f t="shared" si="1"/>
+        <v>45.428795000000001</v>
+      </c>
+      <c r="P22" s="123">
+        <f t="shared" si="8"/>
+        <v>197.51649999999998</v>
+      </c>
+      <c r="Q22" s="123">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="123">
         <f t="shared" si="2"/>
-        <v>164.0812</v>
-      </c>
-      <c r="O22" s="123">
-        <f>L22*($C$6*$C$19+$C$7*$C$20)</f>
-        <v>45.428795000000001</v>
-      </c>
-      <c r="P22" s="123">
+        <v>44.458700000000007</v>
+      </c>
+      <c r="S22" s="123">
         <f t="shared" si="3"/>
-        <v>197.51649999999998</v>
-      </c>
-      <c r="Q22" s="123">
+        <v>165.45322499999997</v>
+      </c>
+      <c r="T22" s="123">
+        <f t="shared" si="10"/>
+        <v>258.88911999999999</v>
+      </c>
+      <c r="U22" s="189">
+        <f t="shared" si="11"/>
+        <v>468.80104499999999</v>
+      </c>
+      <c r="V22" s="189">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="123">
-        <f>N81</f>
-        <v>44.458700000000007</v>
-      </c>
-      <c r="S22" s="123">
-        <f>0.5*(W52+W53)</f>
-        <v>165.45322499999997</v>
-      </c>
-      <c r="T22" s="123">
-        <f t="shared" si="5"/>
-        <v>258.88911999999999</v>
-      </c>
-      <c r="U22" s="189">
-        <f t="shared" si="6"/>
-        <v>468.80104499999999</v>
-      </c>
-      <c r="V22" s="189">
-        <f>U22/(M22+J22)</f>
         <v>1.1428513321453038</v>
       </c>
     </row>
@@ -5763,11 +5827,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H23" s="93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I23" s="111">
-        <f>$C$27</f>
+        <f t="shared" si="6"/>
         <v>0.16</v>
       </c>
       <c r="J23" s="74">
@@ -5785,39 +5849,39 @@
         <v>0</v>
       </c>
       <c r="N23" s="194">
+        <f t="shared" si="7"/>
+        <v>164.0812</v>
+      </c>
+      <c r="O23" s="123">
+        <f t="shared" si="1"/>
+        <v>45.428795000000001</v>
+      </c>
+      <c r="P23" s="123">
+        <f t="shared" si="8"/>
+        <v>197.51649999999998</v>
+      </c>
+      <c r="Q23" s="123">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="123">
         <f t="shared" si="2"/>
-        <v>164.0812</v>
-      </c>
-      <c r="O23" s="123">
-        <f>L23*($C$6*$C$19+$C$7*$C$20)</f>
-        <v>45.428795000000001</v>
-      </c>
-      <c r="P23" s="123">
+        <v>44.458700000000007</v>
+      </c>
+      <c r="S23" s="123">
         <f t="shared" si="3"/>
-        <v>197.51649999999998</v>
-      </c>
-      <c r="Q23" s="123">
+        <v>165.70235</v>
+      </c>
+      <c r="T23" s="123">
+        <f t="shared" si="10"/>
+        <v>258.88911999999999</v>
+      </c>
+      <c r="U23" s="189">
+        <f t="shared" si="11"/>
+        <v>469.05016999999998</v>
+      </c>
+      <c r="V23" s="189">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="123">
-        <f>N82</f>
-        <v>44.458700000000007</v>
-      </c>
-      <c r="S23" s="123">
-        <f>0.5*(W53+W54)</f>
-        <v>165.70235</v>
-      </c>
-      <c r="T23" s="123">
-        <f t="shared" si="5"/>
-        <v>258.88911999999999</v>
-      </c>
-      <c r="U23" s="189">
-        <f t="shared" si="6"/>
-        <v>469.05016999999998</v>
-      </c>
-      <c r="V23" s="189">
-        <f>U23/(M23+J23)</f>
         <v>1.1434586533984394</v>
       </c>
     </row>
@@ -5836,11 +5900,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H24" s="93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="I24" s="111">
-        <f>$C$27</f>
+        <f t="shared" si="6"/>
         <v>0.16</v>
       </c>
       <c r="J24" s="74">
@@ -5858,39 +5922,39 @@
         <v>0</v>
       </c>
       <c r="N24" s="194">
+        <f t="shared" si="7"/>
+        <v>164.0812</v>
+      </c>
+      <c r="O24" s="123">
+        <f t="shared" si="1"/>
+        <v>45.428795000000001</v>
+      </c>
+      <c r="P24" s="123">
+        <f t="shared" si="8"/>
+        <v>197.51649999999998</v>
+      </c>
+      <c r="Q24" s="123">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="123">
         <f t="shared" si="2"/>
-        <v>164.0812</v>
-      </c>
-      <c r="O24" s="123">
-        <f>L24*($C$6*$C$19+$C$7*$C$20)</f>
-        <v>45.428795000000001</v>
-      </c>
-      <c r="P24" s="123">
+        <v>44.458700000000007</v>
+      </c>
+      <c r="S24" s="123">
         <f t="shared" si="3"/>
-        <v>197.51649999999998</v>
-      </c>
-      <c r="Q24" s="123">
+        <v>168.46715</v>
+      </c>
+      <c r="T24" s="123">
+        <f t="shared" si="10"/>
+        <v>258.88911999999999</v>
+      </c>
+      <c r="U24" s="189">
+        <f t="shared" si="11"/>
+        <v>471.81497000000002</v>
+      </c>
+      <c r="V24" s="189">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R24" s="123">
-        <f>N83</f>
-        <v>44.458700000000007</v>
-      </c>
-      <c r="S24" s="123">
-        <f>0.5*(W54+W55)</f>
-        <v>168.46715</v>
-      </c>
-      <c r="T24" s="123">
-        <f t="shared" si="5"/>
-        <v>258.88911999999999</v>
-      </c>
-      <c r="U24" s="189">
-        <f t="shared" si="6"/>
-        <v>471.81497000000002</v>
-      </c>
-      <c r="V24" s="189">
-        <f>U24/(M24+J24)</f>
         <v>1.1501987308722756</v>
       </c>
     </row>
@@ -5908,7 +5972,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H25" s="92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="I25" s="112">
@@ -5930,39 +5994,39 @@
         <v>0</v>
       </c>
       <c r="N25" s="195">
+        <f t="shared" si="7"/>
+        <v>164.2808</v>
+      </c>
+      <c r="O25" s="124">
+        <f t="shared" si="1"/>
+        <v>45.513780000000004</v>
+      </c>
+      <c r="P25" s="124">
+        <f t="shared" si="8"/>
+        <v>197.886</v>
+      </c>
+      <c r="Q25" s="124">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="124">
         <f t="shared" si="2"/>
-        <v>164.2808</v>
-      </c>
-      <c r="O25" s="124">
-        <f>L25*($C$6*$C$19+$C$7*$C$20)</f>
-        <v>45.513780000000004</v>
-      </c>
-      <c r="P25" s="124">
+        <v>43.80830000000001</v>
+      </c>
+      <c r="S25" s="124">
         <f t="shared" si="3"/>
-        <v>197.886</v>
-      </c>
-      <c r="Q25" s="124">
+        <v>177.30226249999998</v>
+      </c>
+      <c r="T25" s="124">
+        <f t="shared" si="10"/>
+        <v>259.26607999999999</v>
+      </c>
+      <c r="U25" s="183">
+        <f t="shared" si="11"/>
+        <v>480.3766425</v>
+      </c>
+      <c r="V25" s="183">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="124">
-        <f>N84</f>
-        <v>43.80830000000001</v>
-      </c>
-      <c r="S25" s="124">
-        <f>0.5*(W55+W56)</f>
-        <v>177.30226249999998</v>
-      </c>
-      <c r="T25" s="124">
-        <f t="shared" si="5"/>
-        <v>259.26607999999999</v>
-      </c>
-      <c r="U25" s="183">
-        <f t="shared" si="6"/>
-        <v>480.3766425</v>
-      </c>
-      <c r="V25" s="183">
-        <f>U25/(M25+J25)</f>
         <v>1.1696476825045896</v>
       </c>
     </row>
@@ -5980,7 +6044,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H26" s="92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="I26" s="112">
@@ -6002,39 +6066,39 @@
         <v>255.92599999999999</v>
       </c>
       <c r="N26" s="195">
+        <f t="shared" si="7"/>
+        <v>173.39</v>
+      </c>
+      <c r="O26" s="124">
+        <f t="shared" si="1"/>
+        <v>17.339038750000004</v>
+      </c>
+      <c r="P26" s="124">
+        <f t="shared" si="8"/>
+        <v>75.387124999999997</v>
+      </c>
+      <c r="Q26" s="124">
+        <f t="shared" si="9"/>
+        <v>127.96299999999999</v>
+      </c>
+      <c r="R26" s="124">
         <f t="shared" si="2"/>
-        <v>173.39</v>
-      </c>
-      <c r="O26" s="124">
-        <f>L26*($C$6*$C$19+$C$7*$C$20)</f>
-        <v>17.339038750000004</v>
-      </c>
-      <c r="P26" s="124">
+        <v>43.273891250000005</v>
+      </c>
+      <c r="S26" s="124">
         <f t="shared" si="3"/>
-        <v>75.387124999999997</v>
-      </c>
-      <c r="Q26" s="124">
+        <v>190.51264999999995</v>
+      </c>
+      <c r="T26" s="124">
+        <f t="shared" si="10"/>
+        <v>241.56657000000001</v>
+      </c>
+      <c r="U26" s="183">
+        <f t="shared" si="11"/>
+        <v>475.35311124999998</v>
+      </c>
+      <c r="V26" s="183">
         <f t="shared" si="4"/>
-        <v>127.96299999999999</v>
-      </c>
-      <c r="R26" s="124">
-        <f>N85</f>
-        <v>43.273891250000005</v>
-      </c>
-      <c r="S26" s="124">
-        <f>0.5*(W56+W57)</f>
-        <v>190.51264999999995</v>
-      </c>
-      <c r="T26" s="124">
-        <f t="shared" si="5"/>
-        <v>241.56657000000001</v>
-      </c>
-      <c r="U26" s="183">
-        <f t="shared" si="6"/>
-        <v>475.35311124999998</v>
-      </c>
-      <c r="V26" s="183">
-        <f>U26/(M26+J26)</f>
         <v>1.0966102110848375</v>
       </c>
     </row>
@@ -6052,7 +6116,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H27" s="94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I27" s="113">
@@ -6067,22 +6131,22 @@
         <v>38.329499999999996</v>
       </c>
       <c r="L27" s="206">
-        <f t="shared" ref="L27:L28" si="7">J27-K27</f>
+        <f t="shared" ref="L27:L28" si="12">J27-K27</f>
         <v>166.95650000000001</v>
       </c>
       <c r="M27" s="207">
         <v>514.17600000000004</v>
       </c>
       <c r="N27" s="196">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>305.77135000000004</v>
       </c>
       <c r="O27" s="125">
-        <f>L27*($C$6*$C$19+$C$7*$C$20)</f>
+        <f t="shared" si="1"/>
         <v>19.199997500000002</v>
       </c>
       <c r="P27" s="125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>83.478250000000003</v>
       </c>
       <c r="Q27" s="125">
@@ -6090,23 +6154,23 @@
         <v>257.08800000000002</v>
       </c>
       <c r="R27" s="125">
-        <f>N86</f>
+        <f t="shared" si="2"/>
         <v>51.409775000000003</v>
       </c>
       <c r="S27" s="125">
-        <f>0.5*(W57+W58)</f>
+        <f t="shared" si="3"/>
         <v>208.98676249999994</v>
       </c>
       <c r="T27" s="125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>410.11291000000006</v>
       </c>
       <c r="U27" s="186">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>670.50944750000008</v>
       </c>
       <c r="V27" s="186">
-        <f>U27/(M27+J27)</f>
+        <f t="shared" si="4"/>
         <v>0.93195950237816605</v>
       </c>
     </row>
@@ -6120,11 +6184,11 @@
       <c r="E28" s="223">
         <v>-1</v>
       </c>
-      <c r="F28" s="256">
+      <c r="F28" s="231">
         <v>2.2999999999999998</v>
       </c>
       <c r="H28" s="107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="I28" s="107">
@@ -6137,7 +6201,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M28" s="107">
@@ -6162,19 +6226,19 @@
         <v>31</v>
       </c>
       <c r="N29" s="191">
-        <f t="shared" ref="N29:R29" si="8">SUM(N4:N27)</f>
+        <f t="shared" ref="N29:Q29" si="13">SUM(N4:N27)</f>
         <v>3952.5453500000008</v>
       </c>
       <c r="O29" s="191">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>995.49643625000022</v>
       </c>
       <c r="P29" s="191">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>4328.2453750000022</v>
       </c>
       <c r="Q29" s="191">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>385.05100000000004</v>
       </c>
       <c r="R29" s="191">
@@ -6183,7 +6247,7 @@
       </c>
       <c r="S29" s="191">
         <f>SUM(S4:S27)</f>
-        <v>3439.387424999999</v>
+        <v>3471.9729249999991</v>
       </c>
       <c r="T29" s="190">
         <f>SUM(T4:T27)</f>
@@ -6191,7 +6255,7 @@
       </c>
       <c r="U29" s="190">
         <f>SUM(U4:U27)</f>
-        <v>10664.881971249999</v>
+        <v>10697.46747125</v>
       </c>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.3">
@@ -6204,48 +6268,48 @@
       <c r="N31" s="76"/>
     </row>
     <row r="32" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H32" s="229" t="s">
+      <c r="H32" s="243" t="s">
         <v>34</v>
       </c>
-      <c r="I32" s="226" t="s">
+      <c r="I32" s="240" t="s">
         <v>59</v>
       </c>
-      <c r="J32" s="227"/>
-      <c r="K32" s="227"/>
-      <c r="L32" s="228"/>
-      <c r="M32" s="239" t="s">
+      <c r="J32" s="241"/>
+      <c r="K32" s="241"/>
+      <c r="L32" s="242"/>
+      <c r="M32" s="236" t="s">
         <v>58</v>
       </c>
-      <c r="N32" s="240"/>
-      <c r="O32" s="240"/>
-      <c r="P32" s="241"/>
-      <c r="Q32" s="235" t="s">
+      <c r="N32" s="237"/>
+      <c r="O32" s="237"/>
+      <c r="P32" s="238"/>
+      <c r="Q32" s="232" t="s">
         <v>62</v>
       </c>
-      <c r="R32" s="235" t="s">
+      <c r="R32" s="232" t="s">
         <v>72</v>
       </c>
-      <c r="S32" s="235" t="s">
+      <c r="S32" s="232" t="s">
         <v>63</v>
       </c>
-      <c r="T32" s="231" t="s">
+      <c r="T32" s="245" t="s">
         <v>61</v>
       </c>
-      <c r="U32" s="233" t="s">
+      <c r="U32" s="247" t="s">
         <v>64</v>
       </c>
-      <c r="V32" s="233" t="s">
+      <c r="V32" s="247" t="s">
         <v>71</v>
       </c>
-      <c r="W32" s="237" t="s">
+      <c r="W32" s="234" t="s">
         <v>73</v>
       </c>
-      <c r="X32" s="235" t="s">
+      <c r="X32" s="232" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="33" spans="8:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H33" s="230"/>
+      <c r="H33" s="244"/>
       <c r="I33" s="103" t="s">
         <v>13</v>
       </c>
@@ -6270,14 +6334,14 @@
       <c r="P33" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="Q33" s="242"/>
-      <c r="R33" s="242"/>
-      <c r="S33" s="242"/>
-      <c r="T33" s="232"/>
-      <c r="U33" s="234"/>
-      <c r="V33" s="234"/>
-      <c r="W33" s="238"/>
-      <c r="X33" s="236"/>
+      <c r="Q33" s="239"/>
+      <c r="R33" s="239"/>
+      <c r="S33" s="239"/>
+      <c r="T33" s="246"/>
+      <c r="U33" s="248"/>
+      <c r="V33" s="248"/>
+      <c r="W33" s="235"/>
+      <c r="X33" s="233"/>
     </row>
     <row r="34" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H34" s="99">
@@ -6315,19 +6379,19 @@
         <v>8.7000000000000028</v>
       </c>
       <c r="Q34" s="102">
-        <f t="shared" ref="Q34:Q58" si="9">J34*L34+I34*K34</f>
+        <f t="shared" ref="Q34:Q58" si="14">J34*L34+I34*K34</f>
         <v>8.9039999999999999</v>
       </c>
       <c r="R34" s="102">
-        <f>2*(L34+2*$C$18+J34)*$C$18+2*(K34+2*$C$18+I34)*$C$18</f>
+        <f t="shared" ref="R34:R58" si="15">2*(L34+2*$C$18+J34)*$C$18+2*(K34+2*$C$18+I34)*$C$18</f>
         <v>2.2509999999999999</v>
       </c>
       <c r="S34" s="102">
-        <f t="shared" ref="S34:S58" si="10">M34*O34+N34*P34</f>
+        <f t="shared" ref="S34:S58" si="16">M34*O34+N34*P34</f>
         <v>3.7900000000000009</v>
       </c>
       <c r="T34" s="122">
-        <f t="shared" ref="T34:T58" si="11">Q34*F4*$C$4</f>
+        <f t="shared" ref="T34:T58" si="17">Q34*F4*$C$4</f>
         <v>51.197999999999993</v>
       </c>
       <c r="U34" s="130">
@@ -6335,7 +6399,7 @@
         <v>0.37900000000000011</v>
       </c>
       <c r="V34" s="130">
-        <f>R34*$C$18*$C$5</f>
+        <f t="shared" ref="V34:V58" si="18">R34*$C$18*$C$5</f>
         <v>0.11255</v>
       </c>
       <c r="W34" s="208">
@@ -6349,7 +6413,7 @@
     </row>
     <row r="35" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H35" s="93">
-        <f t="shared" ref="H35:H58" si="12">E5</f>
+        <f t="shared" ref="H35:H58" si="19">E5</f>
         <v>23</v>
       </c>
       <c r="I35" s="88">
@@ -6383,41 +6447,41 @@
         <v>39.19</v>
       </c>
       <c r="Q35" s="126">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>22.668000000000003</v>
       </c>
       <c r="R35" s="126">
-        <f>2*(L35+2*$C$18+J35)*$C$18+2*(K35+2*$C$18+I35)*$C$18</f>
+        <f t="shared" si="15"/>
         <v>5.6920000000000011</v>
       </c>
       <c r="S35" s="126">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19.93</v>
       </c>
       <c r="T35" s="123">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>130.34100000000001</v>
       </c>
       <c r="U35" s="135">
-        <f t="shared" ref="U35:U58" si="13">S35*$C$11</f>
+        <f t="shared" ref="U35:U58" si="20">S35*$C$11</f>
         <v>1.9930000000000001</v>
       </c>
       <c r="V35" s="135">
-        <f>R35*$C$18*$C$5</f>
+        <f t="shared" si="18"/>
         <v>0.28460000000000008</v>
       </c>
       <c r="W35" s="209">
-        <f t="shared" ref="W35:W58" si="14">T35+U35+V35</f>
+        <f t="shared" ref="W35:W58" si="21">T35+U35+V35</f>
         <v>132.61860000000001</v>
       </c>
       <c r="X35" s="97">
-        <f t="shared" ref="X35:X58" si="15">T35+V35</f>
+        <f t="shared" ref="X35:X58" si="22">T35+V35</f>
         <v>130.62560000000002</v>
       </c>
     </row>
     <row r="36" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H36" s="93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="I36" s="88">
@@ -6451,41 +6515,41 @@
         <v>39.19</v>
       </c>
       <c r="Q36" s="126">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>22.668000000000003</v>
       </c>
       <c r="R36" s="126">
-        <f>2*(L36+2*$C$18+J36)*$C$18+2*(K36+2*$C$18+I36)*$C$18</f>
+        <f t="shared" si="15"/>
         <v>5.6920000000000011</v>
       </c>
       <c r="S36" s="126">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19.93</v>
       </c>
       <c r="T36" s="123">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>130.34100000000001</v>
       </c>
       <c r="U36" s="135">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.9930000000000001</v>
       </c>
       <c r="V36" s="135">
-        <f>R36*$C$18*$C$5</f>
+        <f t="shared" si="18"/>
         <v>0.28460000000000008</v>
       </c>
       <c r="W36" s="209">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>132.61860000000001</v>
       </c>
       <c r="X36" s="97">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>130.62560000000002</v>
       </c>
     </row>
     <row r="37" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H37" s="93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>21</v>
       </c>
       <c r="I37" s="88">
@@ -6519,41 +6583,41 @@
         <v>39.19</v>
       </c>
       <c r="Q37" s="126">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>22.668000000000003</v>
       </c>
       <c r="R37" s="126">
-        <f>2*(L37+2*$C$18+J37)*$C$18+2*(K37+2*$C$18+I37)*$C$18</f>
+        <f t="shared" si="15"/>
         <v>5.6920000000000011</v>
       </c>
       <c r="S37" s="126">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19.93</v>
       </c>
       <c r="T37" s="123">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>130.34100000000001</v>
       </c>
       <c r="U37" s="135">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.9930000000000001</v>
       </c>
       <c r="V37" s="135">
-        <f>R37*$C$18*$C$5</f>
+        <f t="shared" si="18"/>
         <v>0.28460000000000008</v>
       </c>
       <c r="W37" s="209">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>132.61860000000001</v>
       </c>
       <c r="X37" s="97">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>130.62560000000002</v>
       </c>
     </row>
     <row r="38" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H38" s="93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="I38" s="88">
@@ -6587,41 +6651,41 @@
         <v>39.19</v>
       </c>
       <c r="Q38" s="126">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>22.668000000000003</v>
       </c>
       <c r="R38" s="126">
-        <f>2*(L38+2*$C$18+J38)*$C$18+2*(K38+2*$C$18+I38)*$C$18</f>
+        <f t="shared" si="15"/>
         <v>5.6920000000000011</v>
       </c>
       <c r="S38" s="126">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19.93</v>
       </c>
       <c r="T38" s="123">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>130.34100000000001</v>
       </c>
       <c r="U38" s="135">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.9930000000000001</v>
       </c>
       <c r="V38" s="135">
-        <f>R38*$C$18*$C$5</f>
+        <f t="shared" si="18"/>
         <v>0.28460000000000008</v>
       </c>
       <c r="W38" s="209">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>132.61860000000001</v>
       </c>
       <c r="X38" s="97">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>130.62560000000002</v>
       </c>
     </row>
     <row r="39" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H39" s="93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>19</v>
       </c>
       <c r="I39" s="88">
@@ -6655,41 +6719,41 @@
         <v>39.19</v>
       </c>
       <c r="Q39" s="126">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>22.668000000000003</v>
       </c>
       <c r="R39" s="126">
-        <f>2*(L39+2*$C$18+J39)*$C$18+2*(K39+2*$C$18+I39)*$C$18</f>
+        <f t="shared" si="15"/>
         <v>5.6920000000000011</v>
       </c>
       <c r="S39" s="126">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19.93</v>
       </c>
       <c r="T39" s="123">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>130.34100000000001</v>
       </c>
       <c r="U39" s="135">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.9930000000000001</v>
       </c>
       <c r="V39" s="135">
-        <f>R39*$C$18*$C$5</f>
+        <f t="shared" si="18"/>
         <v>0.28460000000000008</v>
       </c>
       <c r="W39" s="209">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>132.61860000000001</v>
       </c>
       <c r="X39" s="97">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>130.62560000000002</v>
       </c>
     </row>
     <row r="40" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H40" s="93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>18</v>
       </c>
       <c r="I40" s="88">
@@ -6723,41 +6787,41 @@
         <v>39.19</v>
       </c>
       <c r="Q40" s="126">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>22.668000000000003</v>
       </c>
       <c r="R40" s="126">
-        <f>2*(L40+2*$C$18+J40)*$C$18+2*(K40+2*$C$18+I40)*$C$18</f>
+        <f t="shared" si="15"/>
         <v>5.6920000000000011</v>
       </c>
       <c r="S40" s="126">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19.93</v>
       </c>
       <c r="T40" s="123">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>130.34100000000001</v>
       </c>
       <c r="U40" s="135">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.9930000000000001</v>
       </c>
       <c r="V40" s="135">
-        <f>R40*$C$18*$C$5</f>
+        <f t="shared" si="18"/>
         <v>0.28460000000000008</v>
       </c>
       <c r="W40" s="209">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>132.61860000000001</v>
       </c>
       <c r="X40" s="97">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>130.62560000000002</v>
       </c>
     </row>
     <row r="41" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H41" s="93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>17</v>
       </c>
       <c r="I41" s="88">
@@ -6791,41 +6855,41 @@
         <v>39.19</v>
       </c>
       <c r="Q41" s="126">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>22.668000000000003</v>
       </c>
       <c r="R41" s="126">
-        <f>2*(L41+2*$C$18+J41)*$C$18+2*(K41+2*$C$18+I41)*$C$18</f>
+        <f t="shared" si="15"/>
         <v>5.6920000000000011</v>
       </c>
       <c r="S41" s="126">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19.93</v>
       </c>
       <c r="T41" s="123">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>130.34100000000001</v>
       </c>
       <c r="U41" s="135">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.9930000000000001</v>
       </c>
       <c r="V41" s="135">
-        <f>R41*$C$18*$C$5</f>
+        <f t="shared" si="18"/>
         <v>0.28460000000000008</v>
       </c>
       <c r="W41" s="209">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>132.61860000000001</v>
       </c>
       <c r="X41" s="97">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>130.62560000000002</v>
       </c>
     </row>
     <row r="42" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H42" s="93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>16</v>
       </c>
       <c r="I42" s="88">
@@ -6859,41 +6923,41 @@
         <v>39.19</v>
       </c>
       <c r="Q42" s="126">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>22.668000000000003</v>
       </c>
       <c r="R42" s="126">
-        <f>2*(L42+2*$C$18+J42)*$C$18+2*(K42+2*$C$18+I42)*$C$18</f>
+        <f t="shared" si="15"/>
         <v>5.6920000000000011</v>
       </c>
       <c r="S42" s="126">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19.93</v>
       </c>
       <c r="T42" s="123">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>130.34100000000001</v>
       </c>
       <c r="U42" s="135">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.9930000000000001</v>
       </c>
       <c r="V42" s="135">
-        <f>R42*$C$18*$C$5</f>
+        <f t="shared" si="18"/>
         <v>0.28460000000000008</v>
       </c>
       <c r="W42" s="209">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>132.61860000000001</v>
       </c>
       <c r="X42" s="97">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>130.62560000000002</v>
       </c>
     </row>
     <row r="43" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H43" s="93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="I43" s="88">
@@ -6927,41 +6991,41 @@
         <v>39.19</v>
       </c>
       <c r="Q43" s="126">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>22.668000000000003</v>
       </c>
       <c r="R43" s="126">
-        <f>2*(L43+2*$C$18+J43)*$C$18+2*(K43+2*$C$18+I43)*$C$18</f>
+        <f t="shared" si="15"/>
         <v>5.6920000000000011</v>
       </c>
       <c r="S43" s="126">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19.93</v>
       </c>
       <c r="T43" s="123">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>130.34100000000001</v>
       </c>
       <c r="U43" s="135">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.9930000000000001</v>
       </c>
       <c r="V43" s="135">
-        <f>R43*$C$18*$C$5</f>
+        <f t="shared" si="18"/>
         <v>0.28460000000000008</v>
       </c>
       <c r="W43" s="209">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>132.61860000000001</v>
       </c>
       <c r="X43" s="97">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>130.62560000000002</v>
       </c>
     </row>
     <row r="44" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H44" s="93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>14</v>
       </c>
       <c r="I44" s="88">
@@ -6995,41 +7059,41 @@
         <v>39.19</v>
       </c>
       <c r="Q44" s="126">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>22.668000000000003</v>
       </c>
       <c r="R44" s="126">
-        <f>2*(L44+2*$C$18+J44)*$C$18+2*(K44+2*$C$18+I44)*$C$18</f>
+        <f t="shared" si="15"/>
         <v>5.6920000000000011</v>
       </c>
       <c r="S44" s="126">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19.93</v>
       </c>
       <c r="T44" s="123">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>130.34100000000001</v>
       </c>
       <c r="U44" s="135">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.9930000000000001</v>
       </c>
       <c r="V44" s="135">
-        <f>R44*$C$18*$C$5</f>
+        <f t="shared" si="18"/>
         <v>0.28460000000000008</v>
       </c>
       <c r="W44" s="209">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>132.61860000000001</v>
       </c>
       <c r="X44" s="97">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>130.62560000000002</v>
       </c>
     </row>
     <row r="45" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H45" s="93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>13</v>
       </c>
       <c r="I45" s="88">
@@ -7063,41 +7127,41 @@
         <v>39.19</v>
       </c>
       <c r="Q45" s="126">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>22.668000000000003</v>
       </c>
       <c r="R45" s="126">
-        <f>2*(L45+2*$C$18+J45)*$C$18+2*(K45+2*$C$18+I45)*$C$18</f>
+        <f t="shared" si="15"/>
         <v>5.6920000000000011</v>
       </c>
       <c r="S45" s="126">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19.93</v>
       </c>
       <c r="T45" s="123">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>130.34100000000001</v>
       </c>
       <c r="U45" s="135">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.9930000000000001</v>
       </c>
       <c r="V45" s="135">
-        <f>R45*$C$18*$C$5</f>
+        <f t="shared" si="18"/>
         <v>0.28460000000000008</v>
       </c>
       <c r="W45" s="209">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>132.61860000000001</v>
       </c>
       <c r="X45" s="97">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>130.62560000000002</v>
       </c>
     </row>
     <row r="46" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H46" s="93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>12</v>
       </c>
       <c r="I46" s="88">
@@ -7131,41 +7195,41 @@
         <v>39.19</v>
       </c>
       <c r="Q46" s="126">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>22.668000000000003</v>
       </c>
       <c r="R46" s="126">
-        <f>2*(L46+2*$C$18+J46)*$C$18+2*(K46+2*$C$18+I46)*$C$18</f>
+        <f t="shared" si="15"/>
         <v>5.6920000000000011</v>
       </c>
       <c r="S46" s="126">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19.93</v>
       </c>
       <c r="T46" s="123">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>130.34100000000001</v>
       </c>
       <c r="U46" s="135">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.9930000000000001</v>
       </c>
       <c r="V46" s="135">
-        <f>R46*$C$18*$C$5</f>
+        <f t="shared" si="18"/>
         <v>0.28460000000000008</v>
       </c>
       <c r="W46" s="209">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>132.61860000000001</v>
       </c>
       <c r="X46" s="97">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>130.62560000000002</v>
       </c>
     </row>
     <row r="47" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H47" s="93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>11</v>
       </c>
       <c r="I47" s="88">
@@ -7199,41 +7263,41 @@
         <v>39.19</v>
       </c>
       <c r="Q47" s="126">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>22.668000000000003</v>
       </c>
       <c r="R47" s="126">
-        <f>2*(L47+2*$C$18+J47)*$C$18+2*(K47+2*$C$18+I47)*$C$18</f>
+        <f t="shared" si="15"/>
         <v>5.6920000000000011</v>
       </c>
       <c r="S47" s="126">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19.93</v>
       </c>
       <c r="T47" s="123">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>130.34100000000001</v>
       </c>
       <c r="U47" s="135">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.9930000000000001</v>
       </c>
       <c r="V47" s="135">
-        <f>R47*$C$18*$C$5</f>
+        <f t="shared" si="18"/>
         <v>0.28460000000000008</v>
       </c>
       <c r="W47" s="209">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>132.61860000000001</v>
       </c>
       <c r="X47" s="97">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>130.62560000000002</v>
       </c>
     </row>
     <row r="48" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H48" s="93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="I48" s="88">
@@ -7267,41 +7331,41 @@
         <v>39.19</v>
       </c>
       <c r="Q48" s="126">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>22.668000000000003</v>
       </c>
       <c r="R48" s="126">
-        <f>2*(L48+2*$C$18+J48)*$C$18+2*(K48+2*$C$18+I48)*$C$18</f>
+        <f t="shared" si="15"/>
         <v>5.6920000000000011</v>
       </c>
       <c r="S48" s="126">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19.93</v>
       </c>
       <c r="T48" s="123">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>130.34100000000001</v>
       </c>
       <c r="U48" s="135">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.9930000000000001</v>
       </c>
       <c r="V48" s="135">
-        <f>R48*$C$18*$C$5</f>
+        <f t="shared" si="18"/>
         <v>0.28460000000000008</v>
       </c>
       <c r="W48" s="209">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>132.61860000000001</v>
       </c>
       <c r="X48" s="97">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>130.62560000000002</v>
       </c>
     </row>
     <row r="49" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H49" s="93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
       <c r="I49" s="88">
@@ -7335,41 +7399,41 @@
         <v>39.19</v>
       </c>
       <c r="Q49" s="126">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>22.668000000000003</v>
       </c>
       <c r="R49" s="126">
-        <f>2*(L49+2*$C$18+J49)*$C$18+2*(K49+2*$C$18+I49)*$C$18</f>
+        <f t="shared" si="15"/>
         <v>5.6920000000000011</v>
       </c>
       <c r="S49" s="126">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19.93</v>
       </c>
       <c r="T49" s="123">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>130.34100000000001</v>
       </c>
       <c r="U49" s="135">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.9930000000000001</v>
       </c>
       <c r="V49" s="135">
-        <f>R49*$C$18*$C$5</f>
+        <f t="shared" si="18"/>
         <v>0.28460000000000008</v>
       </c>
       <c r="W49" s="209">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>132.61860000000001</v>
       </c>
       <c r="X49" s="97">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>130.62560000000002</v>
       </c>
     </row>
     <row r="50" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H50" s="93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="I50" s="88">
@@ -7403,50 +7467,50 @@
         <v>39.19</v>
       </c>
       <c r="Q50" s="126">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>22.668000000000003</v>
       </c>
       <c r="R50" s="126">
-        <f>2*(L50+2*$C$18+J50)*$C$18+2*(K50+2*$C$18+I50)*$C$18</f>
+        <f t="shared" si="15"/>
         <v>5.6920000000000011</v>
       </c>
       <c r="S50" s="126">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19.93</v>
       </c>
       <c r="T50" s="123">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>130.34100000000001</v>
       </c>
       <c r="U50" s="135">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.9930000000000001</v>
       </c>
       <c r="V50" s="135">
-        <f>R50*$C$18*$C$5</f>
+        <f t="shared" si="18"/>
         <v>0.28460000000000008</v>
       </c>
       <c r="W50" s="209">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>132.61860000000001</v>
       </c>
       <c r="X50" s="97">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>130.62560000000002</v>
       </c>
     </row>
     <row r="51" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H51" s="93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>7</v>
       </c>
       <c r="I51" s="88">
         <f>'Verificación corte muros'!K19</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="J51" s="74">
         <f>'Verificación corte muros'!L19</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="K51" s="74">
         <f>'Distancias muros'!$C$4</f>
@@ -7471,41 +7535,41 @@
         <v>39.19</v>
       </c>
       <c r="Q51" s="126">
-        <f t="shared" si="9"/>
-        <v>22.668000000000003</v>
+        <f t="shared" si="14"/>
+        <v>28.335000000000001</v>
       </c>
       <c r="R51" s="126">
-        <f>2*(L51+2*$C$18+J51)*$C$18+2*(K51+2*$C$18+I51)*$C$18</f>
-        <v>5.6920000000000011</v>
+        <f t="shared" si="15"/>
+        <v>5.697000000000001</v>
       </c>
       <c r="S51" s="126">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19.93</v>
       </c>
       <c r="T51" s="123">
-        <f t="shared" si="11"/>
-        <v>130.34100000000001</v>
+        <f t="shared" si="17"/>
+        <v>162.92624999999998</v>
       </c>
       <c r="U51" s="135">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.9930000000000001</v>
       </c>
       <c r="V51" s="135">
-        <f>R51*$C$18*$C$5</f>
-        <v>0.28460000000000008</v>
+        <f t="shared" si="18"/>
+        <v>0.28485000000000005</v>
       </c>
       <c r="W51" s="209">
-        <f t="shared" si="14"/>
-        <v>132.61860000000001</v>
+        <f t="shared" si="21"/>
+        <v>165.20409999999998</v>
       </c>
       <c r="X51" s="97">
-        <f t="shared" si="15"/>
-        <v>130.62560000000002</v>
+        <f t="shared" si="22"/>
+        <v>163.21109999999999</v>
       </c>
     </row>
     <row r="52" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H52" s="93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="I52" s="88">
@@ -7539,41 +7603,41 @@
         <v>39.19</v>
       </c>
       <c r="Q52" s="126">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>28.335000000000001</v>
       </c>
       <c r="R52" s="126">
-        <f>2*(L52+2*$C$18+J52)*$C$18+2*(K52+2*$C$18+I52)*$C$18</f>
+        <f t="shared" si="15"/>
         <v>5.697000000000001</v>
       </c>
       <c r="S52" s="126">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19.93</v>
       </c>
       <c r="T52" s="123">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>162.92624999999998</v>
       </c>
       <c r="U52" s="135">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.9930000000000001</v>
       </c>
       <c r="V52" s="135">
-        <f>R52*$C$18*$C$5</f>
+        <f t="shared" si="18"/>
         <v>0.28485000000000005</v>
       </c>
       <c r="W52" s="209">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>165.20409999999998</v>
       </c>
       <c r="X52" s="97">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>163.21109999999999</v>
       </c>
     </row>
     <row r="53" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H53" s="93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="I53" s="88">
@@ -7607,41 +7671,41 @@
         <v>39.19</v>
       </c>
       <c r="Q53" s="126">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>28.335000000000001</v>
       </c>
       <c r="R53" s="126">
-        <f>2*(L53+2*$C$18+J53)*$C$18+2*(K53+2*$C$18+I53)*$C$18</f>
+        <f t="shared" si="15"/>
         <v>5.697000000000001</v>
       </c>
       <c r="S53" s="126">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>24.912500000000001</v>
       </c>
       <c r="T53" s="123">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>162.92624999999998</v>
       </c>
       <c r="U53" s="135">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2.4912500000000004</v>
       </c>
       <c r="V53" s="135">
-        <f>R53*$C$18*$C$5</f>
+        <f t="shared" si="18"/>
         <v>0.28485000000000005</v>
       </c>
       <c r="W53" s="209">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>165.70235</v>
       </c>
       <c r="X53" s="97">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>163.21109999999999</v>
       </c>
     </row>
     <row r="54" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H54" s="93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="I54" s="88">
@@ -7675,41 +7739,41 @@
         <v>39.19</v>
       </c>
       <c r="Q54" s="126">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>28.335000000000001</v>
       </c>
       <c r="R54" s="126">
-        <f>2*(L54+2*$C$18+J54)*$C$18+2*(K54+2*$C$18+I54)*$C$18</f>
+        <f t="shared" si="15"/>
         <v>5.697000000000001</v>
       </c>
       <c r="S54" s="126">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>24.912500000000001</v>
       </c>
       <c r="T54" s="123">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>162.92624999999998</v>
       </c>
       <c r="U54" s="135">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2.4912500000000004</v>
       </c>
       <c r="V54" s="135">
-        <f>R54*$C$18*$C$5</f>
+        <f t="shared" si="18"/>
         <v>0.28485000000000005</v>
       </c>
       <c r="W54" s="209">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>165.70235</v>
       </c>
       <c r="X54" s="97">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>163.21109999999999</v>
       </c>
     </row>
     <row r="55" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H55" s="92">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="I55" s="87">
@@ -7743,41 +7807,41 @@
         <v>39.19</v>
       </c>
       <c r="Q55" s="97">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>29.295000000000002</v>
       </c>
       <c r="R55" s="97">
-        <f>2*(L55+2*$C$18+J55)*$C$18+2*(K55+2*$C$18+I55)*$C$18</f>
+        <f t="shared" si="15"/>
         <v>5.8890000000000011</v>
       </c>
       <c r="S55" s="97">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>24.912500000000001</v>
       </c>
       <c r="T55" s="124">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>168.44625000000002</v>
       </c>
       <c r="U55" s="122">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2.4912500000000004</v>
       </c>
       <c r="V55" s="122">
-        <f>R55*$C$18*$C$5</f>
+        <f t="shared" si="18"/>
         <v>0.29445000000000005</v>
       </c>
       <c r="W55" s="210">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>171.23195000000004</v>
       </c>
       <c r="X55" s="97">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>168.74070000000003</v>
       </c>
     </row>
     <row r="56" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H56" s="92">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="I56" s="87">
@@ -7811,41 +7875,41 @@
         <v>38.700000000000017</v>
       </c>
       <c r="Q56" s="97">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>31.481499999999997</v>
       </c>
       <c r="R56" s="97">
-        <f>2*(L56+2*$C$18+J56)*$C$18+2*(K56+2*$C$18+I56)*$C$18</f>
+        <f t="shared" si="15"/>
         <v>5.823999999999999</v>
       </c>
       <c r="S56" s="97">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>20.627500000000005</v>
       </c>
       <c r="T56" s="124">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>181.01862499999996</v>
       </c>
       <c r="U56" s="122">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>2.0627500000000007</v>
       </c>
       <c r="V56" s="122">
-        <f>R56*$C$18*$C$5</f>
+        <f t="shared" si="18"/>
         <v>0.29119999999999996</v>
       </c>
       <c r="W56" s="210">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>183.37257499999996</v>
       </c>
       <c r="X56" s="97">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>181.30982499999996</v>
       </c>
     </row>
     <row r="57" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H57" s="92">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I57" s="87">
@@ -7879,41 +7943,41 @@
         <v>31.640000000000004</v>
       </c>
       <c r="Q57" s="97">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>33.988999999999997</v>
       </c>
       <c r="R57" s="97">
-        <f>2*(L57+2*$C$18+J57)*$C$18+2*(K57+2*$C$18+I57)*$C$18</f>
+        <f t="shared" si="15"/>
         <v>6.2804999999999991</v>
       </c>
       <c r="S57" s="97">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19.019500000000001</v>
       </c>
       <c r="T57" s="124">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>195.43674999999996</v>
       </c>
       <c r="U57" s="122">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.9019500000000003</v>
       </c>
       <c r="V57" s="122">
-        <f>R57*$C$18*$C$5</f>
+        <f t="shared" si="18"/>
         <v>0.314025</v>
       </c>
       <c r="W57" s="210">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>197.65272499999995</v>
       </c>
       <c r="X57" s="97">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>195.75077499999995</v>
       </c>
     </row>
     <row r="58" spans="8:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H58" s="94">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="I58" s="90">
@@ -7947,35 +8011,35 @@
         <v>16.899999999999995</v>
       </c>
       <c r="Q58" s="98">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>38.068999999999996</v>
       </c>
       <c r="R58" s="98">
-        <f>2*(L58+2*$C$18+J58)*$C$18+2*(K58+2*$C$18+I58)*$C$18</f>
+        <f t="shared" si="15"/>
         <v>7.0309999999999988</v>
       </c>
       <c r="S58" s="98">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>10.724999999999998</v>
       </c>
       <c r="T58" s="125">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>218.89674999999997</v>
       </c>
       <c r="U58" s="131">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1.0724999999999998</v>
       </c>
       <c r="V58" s="131">
-        <f>R58*$C$18*$C$5</f>
+        <f t="shared" si="18"/>
         <v>0.35154999999999997</v>
       </c>
       <c r="W58" s="211">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>220.32079999999996</v>
       </c>
       <c r="X58" s="98">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>219.24829999999997</v>
       </c>
     </row>
@@ -7985,7 +8049,7 @@
       </c>
       <c r="T59" s="75">
         <f>SUM(T34:T58)</f>
-        <v>3519.5721249999988</v>
+        <v>3552.1573749999989</v>
       </c>
       <c r="U59" s="75">
         <f>SUM(U34:U58)</f>
@@ -7993,11 +8057,11 @@
       </c>
       <c r="V59" s="75">
         <f>SUM(V34:V58)</f>
-        <v>7.0565250000000024</v>
+        <v>7.0567750000000036</v>
       </c>
       <c r="W59" s="190">
         <f>SUM(W34:W58)</f>
-        <v>3575.3925999999997</v>
+        <v>3607.9780999999998</v>
       </c>
     </row>
     <row r="60" spans="8:24" x14ac:dyDescent="0.3">
@@ -8042,7 +8106,7 @@
         <v>242.60399999999998</v>
       </c>
       <c r="K63" s="86">
-        <f>J63*$C$18</f>
+        <f t="shared" ref="K63:K86" si="23">J63*$C$18</f>
         <v>6.0651000000000002</v>
       </c>
       <c r="L63" s="179">
@@ -8054,7 +8118,7 @@
         <v>12.1302</v>
       </c>
       <c r="N63" s="136">
-        <f t="shared" ref="N63:N86" si="16">L63+M63</f>
+        <f t="shared" ref="N63:N86" si="24">L63+M63</f>
         <v>71.462699999999998</v>
       </c>
     </row>
@@ -8071,19 +8135,19 @@
         <v>150.72399999999999</v>
       </c>
       <c r="K64" s="74">
-        <f>J64*$C$18</f>
+        <f t="shared" si="23"/>
         <v>3.7681</v>
       </c>
       <c r="L64" s="187">
-        <f t="shared" ref="L64:L86" si="17">I64*$C$4</f>
+        <f t="shared" ref="L64:L86" si="25">I64*$C$4</f>
         <v>36.922500000000007</v>
       </c>
       <c r="M64" s="188">
-        <f t="shared" ref="M64:M86" si="18">K64*$C$5</f>
+        <f t="shared" ref="M64:M86" si="26">K64*$C$5</f>
         <v>7.5362</v>
       </c>
       <c r="N64" s="189">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>44.458700000000007</v>
       </c>
     </row>
@@ -8100,19 +8164,19 @@
         <v>150.72399999999999</v>
       </c>
       <c r="K65" s="74">
-        <f>J65*$C$18</f>
+        <f t="shared" si="23"/>
         <v>3.7681</v>
       </c>
       <c r="L65" s="187">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M65" s="188">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>7.5362</v>
       </c>
       <c r="N65" s="189">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>44.458700000000007</v>
       </c>
     </row>
@@ -8129,19 +8193,19 @@
         <v>150.72399999999999</v>
       </c>
       <c r="K66" s="74">
-        <f>J66*$C$18</f>
+        <f t="shared" si="23"/>
         <v>3.7681</v>
       </c>
       <c r="L66" s="187">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M66" s="188">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>7.5362</v>
       </c>
       <c r="N66" s="189">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>44.458700000000007</v>
       </c>
     </row>
@@ -8158,19 +8222,19 @@
         <v>150.72399999999999</v>
       </c>
       <c r="K67" s="74">
-        <f>J67*$C$18</f>
+        <f t="shared" si="23"/>
         <v>3.7681</v>
       </c>
       <c r="L67" s="187">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M67" s="188">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>7.5362</v>
       </c>
       <c r="N67" s="189">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>44.458700000000007</v>
       </c>
     </row>
@@ -8187,19 +8251,19 @@
         <v>150.72399999999999</v>
       </c>
       <c r="K68" s="74">
-        <f>J68*$C$18</f>
+        <f t="shared" si="23"/>
         <v>3.7681</v>
       </c>
       <c r="L68" s="187">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M68" s="188">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>7.5362</v>
       </c>
       <c r="N68" s="189">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>44.458700000000007</v>
       </c>
     </row>
@@ -8216,19 +8280,19 @@
         <v>150.72399999999999</v>
       </c>
       <c r="K69" s="74">
-        <f>J69*$C$18</f>
+        <f t="shared" si="23"/>
         <v>3.7681</v>
       </c>
       <c r="L69" s="187">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M69" s="188">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>7.5362</v>
       </c>
       <c r="N69" s="189">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>44.458700000000007</v>
       </c>
     </row>
@@ -8245,19 +8309,19 @@
         <v>150.72399999999999</v>
       </c>
       <c r="K70" s="74">
-        <f>J70*$C$18</f>
+        <f t="shared" si="23"/>
         <v>3.7681</v>
       </c>
       <c r="L70" s="187">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M70" s="188">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>7.5362</v>
       </c>
       <c r="N70" s="189">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>44.458700000000007</v>
       </c>
     </row>
@@ -8274,19 +8338,19 @@
         <v>150.72399999999999</v>
       </c>
       <c r="K71" s="74">
-        <f>J71*$C$18</f>
+        <f t="shared" si="23"/>
         <v>3.7681</v>
       </c>
       <c r="L71" s="187">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M71" s="188">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>7.5362</v>
       </c>
       <c r="N71" s="189">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>44.458700000000007</v>
       </c>
     </row>
@@ -8303,19 +8367,19 @@
         <v>150.72399999999999</v>
       </c>
       <c r="K72" s="74">
-        <f>J72*$C$18</f>
+        <f t="shared" si="23"/>
         <v>3.7681</v>
       </c>
       <c r="L72" s="187">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M72" s="188">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>7.5362</v>
       </c>
       <c r="N72" s="189">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>44.458700000000007</v>
       </c>
     </row>
@@ -8332,19 +8396,19 @@
         <v>150.72399999999999</v>
       </c>
       <c r="K73" s="74">
-        <f>J73*$C$18</f>
+        <f t="shared" si="23"/>
         <v>3.7681</v>
       </c>
       <c r="L73" s="187">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M73" s="188">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>7.5362</v>
       </c>
       <c r="N73" s="189">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>44.458700000000007</v>
       </c>
     </row>
@@ -8361,19 +8425,19 @@
         <v>150.72399999999999</v>
       </c>
       <c r="K74" s="74">
-        <f>J74*$C$18</f>
+        <f t="shared" si="23"/>
         <v>3.7681</v>
       </c>
       <c r="L74" s="187">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M74" s="188">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>7.5362</v>
       </c>
       <c r="N74" s="189">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>44.458700000000007</v>
       </c>
     </row>
@@ -8390,19 +8454,19 @@
         <v>150.72399999999999</v>
       </c>
       <c r="K75" s="74">
-        <f>J75*$C$18</f>
+        <f t="shared" si="23"/>
         <v>3.7681</v>
       </c>
       <c r="L75" s="187">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M75" s="188">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>7.5362</v>
       </c>
       <c r="N75" s="189">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>44.458700000000007</v>
       </c>
     </row>
@@ -8419,19 +8483,19 @@
         <v>150.72399999999999</v>
       </c>
       <c r="K76" s="74">
-        <f>J76*$C$18</f>
+        <f t="shared" si="23"/>
         <v>3.7681</v>
       </c>
       <c r="L76" s="187">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M76" s="188">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>7.5362</v>
       </c>
       <c r="N76" s="189">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>44.458700000000007</v>
       </c>
     </row>
@@ -8448,19 +8512,19 @@
         <v>150.72399999999999</v>
       </c>
       <c r="K77" s="74">
-        <f>J77*$C$18</f>
+        <f t="shared" si="23"/>
         <v>3.7681</v>
       </c>
       <c r="L77" s="187">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M77" s="188">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>7.5362</v>
       </c>
       <c r="N77" s="189">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>44.458700000000007</v>
       </c>
     </row>
@@ -8477,19 +8541,19 @@
         <v>150.72399999999999</v>
       </c>
       <c r="K78" s="74">
-        <f>J78*$C$18</f>
+        <f t="shared" si="23"/>
         <v>3.7681</v>
       </c>
       <c r="L78" s="187">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M78" s="188">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>7.5362</v>
       </c>
       <c r="N78" s="189">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>44.458700000000007</v>
       </c>
     </row>
@@ -8506,19 +8570,19 @@
         <v>150.72399999999999</v>
       </c>
       <c r="K79" s="74">
-        <f>J79*$C$18</f>
+        <f t="shared" si="23"/>
         <v>3.7681</v>
       </c>
       <c r="L79" s="187">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M79" s="188">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>7.5362</v>
       </c>
       <c r="N79" s="189">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>44.458700000000007</v>
       </c>
     </row>
@@ -8535,19 +8599,19 @@
         <v>150.72399999999999</v>
       </c>
       <c r="K80" s="74">
-        <f>J80*$C$18</f>
+        <f t="shared" si="23"/>
         <v>3.7681</v>
       </c>
       <c r="L80" s="187">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M80" s="188">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>7.5362</v>
       </c>
       <c r="N80" s="189">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>44.458700000000007</v>
       </c>
     </row>
@@ -8564,19 +8628,19 @@
         <v>150.72399999999999</v>
       </c>
       <c r="K81" s="74">
-        <f>J81*$C$18</f>
+        <f t="shared" si="23"/>
         <v>3.7681</v>
       </c>
       <c r="L81" s="187">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M81" s="188">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>7.5362</v>
       </c>
       <c r="N81" s="189">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>44.458700000000007</v>
       </c>
     </row>
@@ -8593,19 +8657,19 @@
         <v>150.72399999999999</v>
       </c>
       <c r="K82" s="74">
-        <f>J82*$C$18</f>
+        <f t="shared" si="23"/>
         <v>3.7681</v>
       </c>
       <c r="L82" s="187">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M82" s="188">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>7.5362</v>
       </c>
       <c r="N82" s="189">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>44.458700000000007</v>
       </c>
     </row>
@@ -8622,19 +8686,19 @@
         <v>150.72399999999999</v>
       </c>
       <c r="K83" s="74">
-        <f>J83*$C$18</f>
+        <f t="shared" si="23"/>
         <v>3.7681</v>
       </c>
       <c r="L83" s="187">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M83" s="188">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>7.5362</v>
       </c>
       <c r="N83" s="189">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>44.458700000000007</v>
       </c>
     </row>
@@ -8651,19 +8715,19 @@
         <v>148.51599999999999</v>
       </c>
       <c r="K84" s="67">
-        <f>J84*$C$18</f>
+        <f t="shared" si="23"/>
         <v>3.7128999999999999</v>
       </c>
       <c r="L84" s="181">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>36.382500000000007</v>
       </c>
       <c r="M84" s="182">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>7.4257999999999997</v>
       </c>
       <c r="N84" s="183">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>43.80830000000001</v>
       </c>
     </row>
@@ -8680,19 +8744,19 @@
         <v>56.51720000000001</v>
       </c>
       <c r="K85" s="67">
-        <f>J85*$C$18</f>
+        <f t="shared" si="23"/>
         <v>1.4129300000000002</v>
       </c>
       <c r="L85" s="181">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>40.448031250000007</v>
       </c>
       <c r="M85" s="182">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>2.8258600000000005</v>
       </c>
       <c r="N85" s="183">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>43.273891250000005</v>
       </c>
     </row>
@@ -8709,19 +8773,19 @@
         <v>41.160499999999999</v>
       </c>
       <c r="K86" s="91">
-        <f>J86*$C$18</f>
+        <f t="shared" si="23"/>
         <v>1.0290125000000001</v>
       </c>
       <c r="L86" s="184">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>49.351750000000003</v>
       </c>
       <c r="M86" s="185">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>2.0580250000000002</v>
       </c>
       <c r="N86" s="186">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>51.409775000000003</v>
       </c>
     </row>
@@ -8730,11 +8794,11 @@
         <v>31</v>
       </c>
       <c r="L87" s="75">
-        <f t="shared" ref="L87:M87" si="19">SUM(L63:L86)</f>
+        <f t="shared" ref="L87:M87" si="27">SUM(L63:L86)</f>
         <v>923.96478125000033</v>
       </c>
       <c r="M87" s="75">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>175.16388499999999</v>
       </c>
       <c r="N87" s="190">
@@ -8744,17 +8808,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="V32:V33"/>
     <mergeCell ref="X32:X33"/>
     <mergeCell ref="W32:W33"/>
     <mergeCell ref="M32:P32"/>
     <mergeCell ref="Q32:Q33"/>
     <mergeCell ref="R32:R33"/>
     <mergeCell ref="S32:S33"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="V32:V33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8765,10 +8829,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A282A9DD-DDA8-407B-9F67-055CDE136535}">
   <sheetPr codeName="Hoja3"/>
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8788,10 +8852,15 @@
     <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="5.109375" customWidth="1"/>
+    <col min="21" max="21" width="4.44140625" customWidth="1"/>
+    <col min="22" max="22" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>22</v>
       </c>
@@ -8843,8 +8912,20 @@
       <c r="T2" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="V2" s="262" t="s">
+        <v>132</v>
+      </c>
+      <c r="W2" s="263" t="s">
+        <v>134</v>
+      </c>
+      <c r="X2" s="263" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y2" s="264" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>24</v>
       </c>
@@ -8859,12 +8940,12 @@
         <v>23</v>
       </c>
       <c r="G3" s="32">
-        <f>'Pesos elementos'!U5*$D$4</f>
-        <v>43.596642000000003</v>
+        <f>('Pesos elementos'!U5+'Pesos elementos'!U4)*$D$4</f>
+        <v>63.722111500000011</v>
       </c>
       <c r="H3" s="12">
         <f>G3</f>
-        <v>43.596642000000003</v>
+        <v>63.722111500000011</v>
       </c>
       <c r="I3" s="13">
         <v>54.480000000000011</v>
@@ -8888,11 +8969,11 @@
       </c>
       <c r="O3" s="18">
         <f>H3/M3</f>
-        <v>5.7159432032724972E-2</v>
+        <v>8.3545877255087039E-2</v>
       </c>
       <c r="P3" s="19">
         <f>H3/N3</f>
-        <v>5.2905977865152179E-2</v>
+        <v>7.7328905757002089E-2</v>
       </c>
       <c r="Q3" s="20" t="str">
         <f>IF(OR(M3&lt;H3,N3&lt;H3),"MALO","WENO")</f>
@@ -8900,14 +8981,37 @@
       </c>
       <c r="S3" s="21">
         <f>M3-H3</f>
-        <v>719.12335800000028</v>
+        <v>698.99788850000027</v>
       </c>
       <c r="T3" s="22">
         <f>N3-H3</f>
-        <v>780.4433580000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+        <v>760.31788850000009</v>
+      </c>
+      <c r="V3" s="17">
+        <f>'Pesos elementos'!U5+'Pesos elementos'!U4</f>
+        <v>637.22111500000005</v>
+      </c>
+      <c r="W3" s="13">
+        <f>V3</f>
+        <v>637.22111500000005</v>
+      </c>
+      <c r="X3" s="268">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="260">
+        <f>X3*30*0.35*(I3*K3+J3*L3)</f>
+        <v>4760.2800000000007</v>
+      </c>
+      <c r="Z3" s="257">
+        <f>Y3-W3</f>
+        <v>4123.0588850000004</v>
+      </c>
+      <c r="AA3" s="259">
+        <f>W3/Y3</f>
+        <v>0.13386210790121589</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
@@ -8927,7 +9031,7 @@
       </c>
       <c r="H4" s="12">
         <f>H3+G4</f>
-        <v>87.193284000000006</v>
+        <v>107.31875350000001</v>
       </c>
       <c r="I4" s="13">
         <v>54.480000000000011</v>
@@ -8951,11 +9055,11 @@
       </c>
       <c r="O4" s="18">
         <f t="shared" ref="O4:O26" si="2">H4/M4</f>
-        <v>0.11431886406544994</v>
+        <v>0.14070530928781202</v>
       </c>
       <c r="P4" s="19">
         <f t="shared" ref="P4:P26" si="3">H4/N4</f>
-        <v>0.10581195573030436</v>
+        <v>0.13023488362215427</v>
       </c>
       <c r="Q4" s="20" t="str">
         <f t="shared" ref="Q4:Q26" si="4">IF(OR(M4&lt;H4,N4&lt;H4),"MALO","WENO")</f>
@@ -8963,14 +9067,37 @@
       </c>
       <c r="S4" s="24">
         <f t="shared" ref="S4:S26" si="5">M4-H4</f>
-        <v>675.52671600000031</v>
+        <v>655.4012465000003</v>
       </c>
       <c r="T4" s="25">
         <f t="shared" ref="T4:T26" si="6">N4-H4</f>
-        <v>736.84671600000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+        <v>716.72124650000001</v>
+      </c>
+      <c r="V4" s="17">
+        <f>'Pesos elementos'!U6</f>
+        <v>435.96642000000003</v>
+      </c>
+      <c r="W4" s="13">
+        <f>W3+V4</f>
+        <v>1073.187535</v>
+      </c>
+      <c r="X4" s="268">
+        <v>20</v>
+      </c>
+      <c r="Y4" s="260">
+        <f t="shared" ref="Y4:Y26" si="7">X4*30*0.35*(I4*K4+J4*L4)</f>
+        <v>4760.2800000000007</v>
+      </c>
+      <c r="Z4" s="257">
+        <f t="shared" ref="Z4:Z26" si="8">Y4-W4</f>
+        <v>3687.0924650000006</v>
+      </c>
+      <c r="AA4" s="259">
+        <f t="shared" ref="AA4:AA26" si="9">W4/Y4</f>
+        <v>0.22544630462913945</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
@@ -8989,8 +9116,8 @@
         <v>43.596642000000003</v>
       </c>
       <c r="H5" s="12">
-        <f t="shared" ref="H5:H26" si="7">H4+G5</f>
-        <v>130.78992600000001</v>
+        <f t="shared" ref="H5:H26" si="10">H4+G5</f>
+        <v>150.91539550000002</v>
       </c>
       <c r="I5" s="13">
         <v>54.480000000000011</v>
@@ -9014,11 +9141,11 @@
       </c>
       <c r="O5" s="18">
         <f t="shared" si="2"/>
-        <v>0.17147829609817491</v>
+        <v>0.19786474132053697</v>
       </c>
       <c r="P5" s="19">
         <f t="shared" si="3"/>
-        <v>0.15871793359545652</v>
+        <v>0.18314086148730643</v>
       </c>
       <c r="Q5" s="20" t="str">
         <f t="shared" si="4"/>
@@ -9026,14 +9153,37 @@
       </c>
       <c r="S5" s="24">
         <f t="shared" si="5"/>
-        <v>631.93007400000022</v>
+        <v>611.80460450000021</v>
       </c>
       <c r="T5" s="25">
         <f t="shared" si="6"/>
-        <v>693.25007400000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+        <v>673.12460450000003</v>
+      </c>
+      <c r="V5" s="17">
+        <f>'Pesos elementos'!U7</f>
+        <v>435.96642000000003</v>
+      </c>
+      <c r="W5" s="13">
+        <f t="shared" ref="W5:W26" si="11">W4+V5</f>
+        <v>1509.153955</v>
+      </c>
+      <c r="X5" s="268">
+        <v>20</v>
+      </c>
+      <c r="Y5" s="260">
+        <f t="shared" si="7"/>
+        <v>4760.2800000000007</v>
+      </c>
+      <c r="Z5" s="257">
+        <f t="shared" si="8"/>
+        <v>3251.1260450000009</v>
+      </c>
+      <c r="AA5" s="259">
+        <f t="shared" si="9"/>
+        <v>0.31703050135706301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>28</v>
       </c>
@@ -9053,8 +9203,8 @@
         <v>43.596642000000003</v>
       </c>
       <c r="H6" s="12">
-        <f t="shared" si="7"/>
-        <v>174.38656800000001</v>
+        <f t="shared" si="10"/>
+        <v>194.51203750000002</v>
       </c>
       <c r="I6" s="13">
         <v>54.480000000000011</v>
@@ -9078,11 +9228,11 @@
       </c>
       <c r="O6" s="18">
         <f t="shared" si="2"/>
-        <v>0.22863772813089989</v>
+        <v>0.25502417335326194</v>
       </c>
       <c r="P6" s="19">
         <f t="shared" si="3"/>
-        <v>0.21162391146060872</v>
+        <v>0.23604683935245863</v>
       </c>
       <c r="Q6" s="20" t="str">
         <f t="shared" si="4"/>
@@ -9090,14 +9240,37 @@
       </c>
       <c r="S6" s="24">
         <f t="shared" si="5"/>
-        <v>588.33343200000024</v>
+        <v>568.20796250000024</v>
       </c>
       <c r="T6" s="25">
         <f t="shared" si="6"/>
-        <v>649.65343200000007</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+        <v>629.52796250000006</v>
+      </c>
+      <c r="V6" s="17">
+        <f>'Pesos elementos'!U8</f>
+        <v>435.96642000000003</v>
+      </c>
+      <c r="W6" s="13">
+        <f t="shared" si="11"/>
+        <v>1945.120375</v>
+      </c>
+      <c r="X6" s="268">
+        <v>20</v>
+      </c>
+      <c r="Y6" s="260">
+        <f t="shared" si="7"/>
+        <v>4760.2800000000007</v>
+      </c>
+      <c r="Z6" s="257">
+        <f t="shared" si="8"/>
+        <v>2815.1596250000007</v>
+      </c>
+      <c r="AA6" s="259">
+        <f t="shared" si="9"/>
+        <v>0.40861469808498652</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="F7" s="10">
         <v>19</v>
       </c>
@@ -9106,8 +9279,8 @@
         <v>43.596642000000003</v>
       </c>
       <c r="H7" s="12">
-        <f t="shared" si="7"/>
-        <v>217.98321000000001</v>
+        <f t="shared" si="10"/>
+        <v>238.10867950000002</v>
       </c>
       <c r="I7" s="13">
         <v>54.480000000000011</v>
@@ -9131,11 +9304,11 @@
       </c>
       <c r="O7" s="18">
         <f t="shared" si="2"/>
-        <v>0.28579716016362483</v>
+        <v>0.31218360538598694</v>
       </c>
       <c r="P7" s="19">
         <f t="shared" si="3"/>
-        <v>0.26452988932576088</v>
+        <v>0.28895281721761079</v>
       </c>
       <c r="Q7" s="20" t="str">
         <f t="shared" si="4"/>
@@ -9143,14 +9316,37 @@
       </c>
       <c r="S7" s="24">
         <f t="shared" si="5"/>
-        <v>544.73679000000027</v>
+        <v>524.61132050000026</v>
       </c>
       <c r="T7" s="25">
         <f t="shared" si="6"/>
-        <v>606.05679000000009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+        <v>585.93132050000008</v>
+      </c>
+      <c r="V7" s="17">
+        <f>'Pesos elementos'!U9</f>
+        <v>435.96642000000003</v>
+      </c>
+      <c r="W7" s="13">
+        <f t="shared" si="11"/>
+        <v>2381.0867950000002</v>
+      </c>
+      <c r="X7" s="268">
+        <v>20</v>
+      </c>
+      <c r="Y7" s="260">
+        <f t="shared" si="7"/>
+        <v>4760.2800000000007</v>
+      </c>
+      <c r="Z7" s="257">
+        <f t="shared" si="8"/>
+        <v>2379.1932050000005</v>
+      </c>
+      <c r="AA7" s="259">
+        <f t="shared" si="9"/>
+        <v>0.50019889481291013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="27"/>
       <c r="F8" s="10">
         <v>18</v>
@@ -9160,8 +9356,8 @@
         <v>43.596642000000003</v>
       </c>
       <c r="H8" s="12">
-        <f t="shared" si="7"/>
-        <v>261.57985200000002</v>
+        <f t="shared" si="10"/>
+        <v>281.70532150000003</v>
       </c>
       <c r="I8" s="13">
         <v>54.480000000000011</v>
@@ -9185,11 +9381,11 @@
       </c>
       <c r="O8" s="18">
         <f t="shared" si="2"/>
-        <v>0.34295659219634983</v>
+        <v>0.36934303741871188</v>
       </c>
       <c r="P8" s="19">
         <f t="shared" si="3"/>
-        <v>0.31743586719091305</v>
+        <v>0.34185879508276296</v>
       </c>
       <c r="Q8" s="20" t="str">
         <f t="shared" si="4"/>
@@ -9197,14 +9393,37 @@
       </c>
       <c r="S8" s="24">
         <f t="shared" si="5"/>
-        <v>501.14014800000024</v>
+        <v>481.01467850000023</v>
       </c>
       <c r="T8" s="25">
         <f t="shared" si="6"/>
-        <v>562.46014800000012</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+        <v>542.33467850000011</v>
+      </c>
+      <c r="V8" s="17">
+        <f>'Pesos elementos'!U10</f>
+        <v>435.96642000000003</v>
+      </c>
+      <c r="W8" s="13">
+        <f t="shared" si="11"/>
+        <v>2817.0532150000004</v>
+      </c>
+      <c r="X8" s="268">
+        <v>20</v>
+      </c>
+      <c r="Y8" s="260">
+        <f t="shared" si="7"/>
+        <v>4760.2800000000007</v>
+      </c>
+      <c r="Z8" s="257">
+        <f t="shared" si="8"/>
+        <v>1943.2267850000003</v>
+      </c>
+      <c r="AA8" s="259">
+        <f t="shared" si="9"/>
+        <v>0.59178309154083375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="27"/>
       <c r="B9" s="28"/>
       <c r="C9" s="29"/>
@@ -9217,8 +9436,8 @@
         <v>43.596642000000003</v>
       </c>
       <c r="H9" s="12">
-        <f t="shared" si="7"/>
-        <v>305.17649400000005</v>
+        <f t="shared" si="10"/>
+        <v>325.30196350000006</v>
       </c>
       <c r="I9" s="13">
         <v>54.480000000000011</v>
@@ -9242,11 +9461,11 @@
       </c>
       <c r="O9" s="18">
         <f t="shared" si="2"/>
-        <v>0.40011602422907483</v>
+        <v>0.42650246945143688</v>
       </c>
       <c r="P9" s="19">
         <f t="shared" si="3"/>
-        <v>0.37034184505606527</v>
+        <v>0.39476477294791518</v>
       </c>
       <c r="Q9" s="20" t="str">
         <f t="shared" si="4"/>
@@ -9254,14 +9473,37 @@
       </c>
       <c r="S9" s="24">
         <f t="shared" si="5"/>
-        <v>457.54350600000021</v>
+        <v>437.4180365000002</v>
       </c>
       <c r="T9" s="25">
         <f t="shared" si="6"/>
-        <v>518.86350600000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+        <v>498.73803650000002</v>
+      </c>
+      <c r="V9" s="17">
+        <f>'Pesos elementos'!U11</f>
+        <v>435.96642000000003</v>
+      </c>
+      <c r="W9" s="13">
+        <f t="shared" si="11"/>
+        <v>3253.0196350000006</v>
+      </c>
+      <c r="X9" s="268">
+        <v>20</v>
+      </c>
+      <c r="Y9" s="260">
+        <f t="shared" si="7"/>
+        <v>4760.2800000000007</v>
+      </c>
+      <c r="Z9" s="257">
+        <f t="shared" si="8"/>
+        <v>1507.2603650000001</v>
+      </c>
+      <c r="AA9" s="259">
+        <f t="shared" si="9"/>
+        <v>0.68336728826875737</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="27"/>
       <c r="B10" s="28"/>
       <c r="C10" s="29"/>
@@ -9274,8 +9516,8 @@
         <v>43.596642000000003</v>
       </c>
       <c r="H10" s="12">
-        <f t="shared" si="7"/>
-        <v>348.77313600000002</v>
+        <f t="shared" si="10"/>
+        <v>368.89860550000003</v>
       </c>
       <c r="I10" s="13">
         <v>54.480000000000011</v>
@@ -9299,11 +9541,11 @@
       </c>
       <c r="O10" s="18">
         <f t="shared" si="2"/>
-        <v>0.45727545626179977</v>
+        <v>0.48366190148416183</v>
       </c>
       <c r="P10" s="19">
         <f t="shared" si="3"/>
-        <v>0.42324782292121743</v>
+        <v>0.44767075081306734</v>
       </c>
       <c r="Q10" s="20" t="str">
         <f t="shared" si="4"/>
@@ -9311,14 +9553,37 @@
       </c>
       <c r="S10" s="24">
         <f t="shared" si="5"/>
-        <v>413.94686400000023</v>
+        <v>393.82139450000022</v>
       </c>
       <c r="T10" s="25">
         <f t="shared" si="6"/>
-        <v>475.26686400000006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+        <v>455.14139450000005</v>
+      </c>
+      <c r="V10" s="17">
+        <f>'Pesos elementos'!U12</f>
+        <v>435.96642000000003</v>
+      </c>
+      <c r="W10" s="13">
+        <f t="shared" si="11"/>
+        <v>3688.9860550000008</v>
+      </c>
+      <c r="X10" s="268">
+        <v>20</v>
+      </c>
+      <c r="Y10" s="260">
+        <f t="shared" si="7"/>
+        <v>4760.2800000000007</v>
+      </c>
+      <c r="Z10" s="257">
+        <f t="shared" si="8"/>
+        <v>1071.2939449999999</v>
+      </c>
+      <c r="AA10" s="259">
+        <f t="shared" si="9"/>
+        <v>0.77495148499668087</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="27"/>
       <c r="B11" s="28"/>
       <c r="C11" s="29"/>
@@ -9331,8 +9596,8 @@
         <v>43.596642000000003</v>
       </c>
       <c r="H11" s="12">
-        <f t="shared" si="7"/>
-        <v>392.369778</v>
+        <f t="shared" si="10"/>
+        <v>412.4952475</v>
       </c>
       <c r="I11" s="13">
         <v>54.480000000000011</v>
@@ -9356,11 +9621,11 @@
       </c>
       <c r="O11" s="18">
         <f t="shared" si="2"/>
-        <v>0.51443488829452466</v>
+        <v>0.54082133351688677</v>
       </c>
       <c r="P11" s="19">
         <f t="shared" si="3"/>
-        <v>0.47615380078636954</v>
+        <v>0.50057672867821945</v>
       </c>
       <c r="Q11" s="20" t="str">
         <f t="shared" si="4"/>
@@ -9368,14 +9633,37 @@
       </c>
       <c r="S11" s="24">
         <f t="shared" si="5"/>
-        <v>370.35022200000026</v>
+        <v>350.22475250000025</v>
       </c>
       <c r="T11" s="25">
         <f t="shared" si="6"/>
-        <v>431.67022200000008</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+        <v>411.54475250000007</v>
+      </c>
+      <c r="V11" s="17">
+        <f>'Pesos elementos'!U13</f>
+        <v>435.96642000000003</v>
+      </c>
+      <c r="W11" s="13">
+        <f t="shared" si="11"/>
+        <v>4124.952475000001</v>
+      </c>
+      <c r="X11" s="268">
+        <v>20</v>
+      </c>
+      <c r="Y11" s="260">
+        <f t="shared" si="7"/>
+        <v>4760.2800000000007</v>
+      </c>
+      <c r="Z11" s="257">
+        <f t="shared" si="8"/>
+        <v>635.3275249999997</v>
+      </c>
+      <c r="AA11" s="259">
+        <f t="shared" si="9"/>
+        <v>0.86653568172460449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="27"/>
       <c r="B12" s="28"/>
       <c r="C12" s="29"/>
@@ -9388,8 +9676,8 @@
         <v>43.596642000000003</v>
       </c>
       <c r="H12" s="12">
-        <f t="shared" si="7"/>
-        <v>435.96641999999997</v>
+        <f t="shared" si="10"/>
+        <v>456.09188949999998</v>
       </c>
       <c r="I12" s="13">
         <v>54.480000000000011</v>
@@ -9413,11 +9701,11 @@
       </c>
       <c r="O12" s="18">
         <f t="shared" si="2"/>
-        <v>0.57159432032724966</v>
+        <v>0.59798076554961166</v>
       </c>
       <c r="P12" s="19">
         <f t="shared" si="3"/>
-        <v>0.52905977865152165</v>
+        <v>0.55348270654337162</v>
       </c>
       <c r="Q12" s="20" t="str">
         <f t="shared" si="4"/>
@@ -9425,14 +9713,37 @@
       </c>
       <c r="S12" s="24">
         <f t="shared" si="5"/>
-        <v>326.75358000000028</v>
+        <v>306.62811050000028</v>
       </c>
       <c r="T12" s="25">
         <f t="shared" si="6"/>
-        <v>388.07358000000011</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+        <v>367.9481105000001</v>
+      </c>
+      <c r="V12" s="17">
+        <f>'Pesos elementos'!U14</f>
+        <v>435.96642000000003</v>
+      </c>
+      <c r="W12" s="13">
+        <f t="shared" si="11"/>
+        <v>4560.9188950000007</v>
+      </c>
+      <c r="X12" s="268">
+        <v>20</v>
+      </c>
+      <c r="Y12" s="260">
+        <f t="shared" si="7"/>
+        <v>4760.2800000000007</v>
+      </c>
+      <c r="Z12" s="257">
+        <f t="shared" si="8"/>
+        <v>199.36110499999995</v>
+      </c>
+      <c r="AA12" s="259">
+        <f t="shared" si="9"/>
+        <v>0.958119878452528</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="27"/>
       <c r="B13" s="28"/>
       <c r="C13" s="29"/>
@@ -9445,8 +9756,8 @@
         <v>43.596642000000003</v>
       </c>
       <c r="H13" s="12">
-        <f t="shared" si="7"/>
-        <v>479.56306199999995</v>
+        <f t="shared" si="10"/>
+        <v>499.68853149999995</v>
       </c>
       <c r="I13" s="13">
         <v>54.480000000000011</v>
@@ -9470,11 +9781,11 @@
       </c>
       <c r="O13" s="18">
         <f t="shared" si="2"/>
-        <v>0.62875375235997455</v>
+        <v>0.65514019758233666</v>
       </c>
       <c r="P13" s="19">
         <f t="shared" si="3"/>
-        <v>0.58196575651667382</v>
+        <v>0.60638868440852378</v>
       </c>
       <c r="Q13" s="20" t="str">
         <f t="shared" si="4"/>
@@ -9482,14 +9793,37 @@
       </c>
       <c r="S13" s="24">
         <f t="shared" si="5"/>
-        <v>283.15693800000031</v>
+        <v>263.0314685000003</v>
       </c>
       <c r="T13" s="25">
         <f t="shared" si="6"/>
-        <v>344.47693800000013</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+        <v>324.35146850000012</v>
+      </c>
+      <c r="V13" s="17">
+        <f>'Pesos elementos'!U15</f>
+        <v>435.96642000000003</v>
+      </c>
+      <c r="W13" s="13">
+        <f t="shared" si="11"/>
+        <v>4996.8853150000004</v>
+      </c>
+      <c r="X13" s="265">
+        <v>30</v>
+      </c>
+      <c r="Y13" s="260">
+        <f t="shared" si="7"/>
+        <v>7140.420000000001</v>
+      </c>
+      <c r="Z13" s="257">
+        <f t="shared" si="8"/>
+        <v>2143.5346850000005</v>
+      </c>
+      <c r="AA13" s="259">
+        <f t="shared" si="9"/>
+        <v>0.6998027167869677</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="27"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
@@ -9502,8 +9836,8 @@
         <v>43.596642000000003</v>
       </c>
       <c r="H14" s="12">
-        <f t="shared" si="7"/>
-        <v>523.15970399999992</v>
+        <f t="shared" si="10"/>
+        <v>543.28517349999993</v>
       </c>
       <c r="I14" s="13">
         <v>54.480000000000011</v>
@@ -9527,11 +9861,11 @@
       </c>
       <c r="O14" s="18">
         <f t="shared" si="2"/>
-        <v>0.68591318439269944</v>
+        <v>0.71229962961506155</v>
       </c>
       <c r="P14" s="19">
         <f t="shared" si="3"/>
-        <v>0.63487173438182598</v>
+        <v>0.65929466227367584</v>
       </c>
       <c r="Q14" s="20" t="str">
         <f t="shared" si="4"/>
@@ -9539,14 +9873,37 @@
       </c>
       <c r="S14" s="24">
         <f t="shared" si="5"/>
-        <v>239.56029600000033</v>
+        <v>219.43482650000033</v>
       </c>
       <c r="T14" s="25">
         <f t="shared" si="6"/>
-        <v>300.88029600000016</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+        <v>280.75482650000015</v>
+      </c>
+      <c r="V14" s="17">
+        <f>'Pesos elementos'!U16</f>
+        <v>435.96642000000003</v>
+      </c>
+      <c r="W14" s="13">
+        <f t="shared" si="11"/>
+        <v>5432.8517350000002</v>
+      </c>
+      <c r="X14" s="265">
+        <v>30</v>
+      </c>
+      <c r="Y14" s="260">
+        <f t="shared" si="7"/>
+        <v>7140.420000000001</v>
+      </c>
+      <c r="Z14" s="257">
+        <f t="shared" si="8"/>
+        <v>1707.5682650000008</v>
+      </c>
+      <c r="AA14" s="259">
+        <f t="shared" si="9"/>
+        <v>0.76085884793891667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="27"/>
       <c r="B15" s="28"/>
       <c r="C15" s="29"/>
@@ -9559,8 +9916,8 @@
         <v>43.596642000000003</v>
       </c>
       <c r="H15" s="12">
-        <f t="shared" si="7"/>
-        <v>566.75634599999989</v>
+        <f t="shared" si="10"/>
+        <v>586.8818154999999</v>
       </c>
       <c r="I15" s="13">
         <v>54.480000000000011</v>
@@ -9584,11 +9941,11 @@
       </c>
       <c r="O15" s="18">
         <f t="shared" si="2"/>
-        <v>0.74307261642542444</v>
+        <v>0.76945906164778644</v>
       </c>
       <c r="P15" s="19">
         <f t="shared" si="3"/>
-        <v>0.68777771224697815</v>
+        <v>0.712200640138828</v>
       </c>
       <c r="Q15" s="20" t="str">
         <f t="shared" si="4"/>
@@ -9596,14 +9953,37 @@
       </c>
       <c r="S15" s="24">
         <f t="shared" si="5"/>
-        <v>195.96365400000036</v>
+        <v>175.83818450000035</v>
       </c>
       <c r="T15" s="25">
         <f t="shared" si="6"/>
-        <v>257.28365400000018</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+        <v>237.15818450000017</v>
+      </c>
+      <c r="V15" s="17">
+        <f>'Pesos elementos'!U17</f>
+        <v>435.96642000000003</v>
+      </c>
+      <c r="W15" s="13">
+        <f t="shared" si="11"/>
+        <v>5868.8181549999999</v>
+      </c>
+      <c r="X15" s="265">
+        <v>30</v>
+      </c>
+      <c r="Y15" s="260">
+        <f t="shared" si="7"/>
+        <v>7140.420000000001</v>
+      </c>
+      <c r="Z15" s="257">
+        <f t="shared" si="8"/>
+        <v>1271.601845000001</v>
+      </c>
+      <c r="AA15" s="259">
+        <f t="shared" si="9"/>
+        <v>0.82191497909086564</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="27"/>
       <c r="B16" s="28"/>
       <c r="C16" s="29"/>
@@ -9616,8 +9996,8 @@
         <v>43.596642000000003</v>
       </c>
       <c r="H16" s="12">
-        <f t="shared" si="7"/>
-        <v>610.35298799999987</v>
+        <f t="shared" si="10"/>
+        <v>630.47845749999988</v>
       </c>
       <c r="I16" s="13">
         <v>54.480000000000011</v>
@@ -9641,11 +10021,11 @@
       </c>
       <c r="O16" s="18">
         <f t="shared" si="2"/>
-        <v>0.80023204845814933</v>
+        <v>0.82661849368051143</v>
       </c>
       <c r="P16" s="19">
         <f t="shared" si="3"/>
-        <v>0.7406836901121302</v>
+        <v>0.76510661800398017</v>
       </c>
       <c r="Q16" s="20" t="str">
         <f t="shared" si="4"/>
@@ -9653,14 +10033,37 @@
       </c>
       <c r="S16" s="24">
         <f t="shared" si="5"/>
-        <v>152.36701200000039</v>
+        <v>132.24154250000038</v>
       </c>
       <c r="T16" s="25">
         <f t="shared" si="6"/>
-        <v>213.68701200000021</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+        <v>193.5615425000002</v>
+      </c>
+      <c r="V16" s="17">
+        <f>'Pesos elementos'!U18</f>
+        <v>435.96642000000003</v>
+      </c>
+      <c r="W16" s="13">
+        <f t="shared" si="11"/>
+        <v>6304.7845749999997</v>
+      </c>
+      <c r="X16" s="265">
+        <v>30</v>
+      </c>
+      <c r="Y16" s="260">
+        <f t="shared" si="7"/>
+        <v>7140.420000000001</v>
+      </c>
+      <c r="Z16" s="257">
+        <f t="shared" si="8"/>
+        <v>835.63542500000131</v>
+      </c>
+      <c r="AA16" s="259">
+        <f t="shared" si="9"/>
+        <v>0.88297111024281472</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="27"/>
       <c r="B17" s="28"/>
       <c r="C17" s="29"/>
@@ -9673,8 +10076,8 @@
         <v>43.596642000000003</v>
       </c>
       <c r="H17" s="12">
-        <f t="shared" si="7"/>
-        <v>653.94962999999984</v>
+        <f t="shared" si="10"/>
+        <v>674.07509949999985</v>
       </c>
       <c r="I17" s="13">
         <v>54.480000000000011</v>
@@ -9698,11 +10101,11 @@
       </c>
       <c r="O17" s="18">
         <f t="shared" si="2"/>
-        <v>0.85739148049087432</v>
+        <v>0.88377792571323632</v>
       </c>
       <c r="P17" s="19">
         <f t="shared" si="3"/>
-        <v>0.79358966797728236</v>
+        <v>0.81801259586913233</v>
       </c>
       <c r="Q17" s="20" t="str">
         <f t="shared" si="4"/>
@@ -9710,14 +10113,37 @@
       </c>
       <c r="S17" s="24">
         <f t="shared" si="5"/>
-        <v>108.77037000000041</v>
+        <v>88.644900500000404</v>
       </c>
       <c r="T17" s="25">
         <f t="shared" si="6"/>
-        <v>170.09037000000023</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+        <v>149.96490050000023</v>
+      </c>
+      <c r="V17" s="17">
+        <f>'Pesos elementos'!U19</f>
+        <v>435.96642000000003</v>
+      </c>
+      <c r="W17" s="13">
+        <f t="shared" si="11"/>
+        <v>6740.7509949999994</v>
+      </c>
+      <c r="X17" s="265">
+        <v>30</v>
+      </c>
+      <c r="Y17" s="260">
+        <f t="shared" si="7"/>
+        <v>7140.420000000001</v>
+      </c>
+      <c r="Z17" s="257">
+        <f t="shared" si="8"/>
+        <v>399.66900500000156</v>
+      </c>
+      <c r="AA17" s="259">
+        <f t="shared" si="9"/>
+        <v>0.94402724139476368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="27"/>
       <c r="B18" s="28"/>
       <c r="C18" s="29"/>
@@ -9727,11 +10153,11 @@
       </c>
       <c r="G18" s="11">
         <f>'Pesos elementos'!U20*$D$4</f>
-        <v>43.596642000000003</v>
+        <v>45.225917000000003</v>
       </c>
       <c r="H18" s="12">
-        <f t="shared" si="7"/>
-        <v>697.54627199999982</v>
+        <f t="shared" si="10"/>
+        <v>719.30101649999983</v>
       </c>
       <c r="I18" s="13">
         <v>54.480000000000011</v>
@@ -9755,11 +10181,11 @@
       </c>
       <c r="O18" s="18">
         <f t="shared" si="2"/>
-        <v>0.91455091252359921</v>
+        <v>0.94307349551604724</v>
       </c>
       <c r="P18" s="19">
         <f t="shared" si="3"/>
-        <v>0.84649564584243453</v>
+        <v>0.87289575324013369</v>
       </c>
       <c r="Q18" s="20" t="str">
         <f t="shared" si="4"/>
@@ -9767,14 +10193,37 @@
       </c>
       <c r="S18" s="24">
         <f t="shared" si="5"/>
-        <v>65.173728000000438</v>
+        <v>43.418983500000422</v>
       </c>
       <c r="T18" s="25">
         <f t="shared" si="6"/>
-        <v>126.49372800000026</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+        <v>104.73898350000024</v>
+      </c>
+      <c r="V18" s="17">
+        <f>'Pesos elementos'!U20</f>
+        <v>452.25916999999998</v>
+      </c>
+      <c r="W18" s="13">
+        <f t="shared" si="11"/>
+        <v>7193.0101649999997</v>
+      </c>
+      <c r="X18" s="266">
+        <v>35</v>
+      </c>
+      <c r="Y18" s="260">
+        <f t="shared" si="7"/>
+        <v>8330.4900000000016</v>
+      </c>
+      <c r="Z18" s="257">
+        <f t="shared" si="8"/>
+        <v>1137.4798350000019</v>
+      </c>
+      <c r="AA18" s="259">
+        <f t="shared" si="9"/>
+        <v>0.86345583092951295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="27"/>
       <c r="B19" s="28"/>
       <c r="C19" s="29"/>
@@ -9784,11 +10233,11 @@
       </c>
       <c r="G19" s="11">
         <f>'Pesos elementos'!U21*$D$4</f>
-        <v>45.225917000000003</v>
+        <v>46.855192000000002</v>
       </c>
       <c r="H19" s="12">
-        <f t="shared" si="7"/>
-        <v>742.7721889999998</v>
+        <f t="shared" si="10"/>
+        <v>766.15620849999982</v>
       </c>
       <c r="I19" s="13">
         <v>54.480000000000011</v>
@@ -9796,27 +10245,27 @@
       <c r="J19" s="14">
         <v>58.86</v>
       </c>
-      <c r="K19" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="L19" s="16">
-        <v>0.2</v>
+      <c r="K19" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="L19" s="258">
+        <v>0.25</v>
       </c>
       <c r="M19" s="17">
         <f t="shared" si="0"/>
-        <v>762.72000000000025</v>
+        <v>953.4000000000002</v>
       </c>
       <c r="N19" s="13">
         <f t="shared" si="1"/>
-        <v>824.04000000000008</v>
+        <v>1030.05</v>
       </c>
       <c r="O19" s="18">
         <f t="shared" si="2"/>
-        <v>0.97384648232641013</v>
+        <v>0.80360416247115551</v>
       </c>
       <c r="P19" s="19">
         <f t="shared" si="3"/>
-        <v>0.90137880321343589</v>
+        <v>0.74380487209358759</v>
       </c>
       <c r="Q19" s="20" t="str">
         <f t="shared" si="4"/>
@@ -9824,14 +10273,37 @@
       </c>
       <c r="S19" s="24">
         <f t="shared" si="5"/>
-        <v>19.947811000000456</v>
+        <v>187.24379150000038</v>
       </c>
       <c r="T19" s="25">
         <f t="shared" si="6"/>
-        <v>81.267811000000279</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+        <v>263.89379150000013</v>
+      </c>
+      <c r="V19" s="17">
+        <f>'Pesos elementos'!U21</f>
+        <v>468.55192</v>
+      </c>
+      <c r="W19" s="13">
+        <f t="shared" si="11"/>
+        <v>7661.5620849999996</v>
+      </c>
+      <c r="X19" s="266">
+        <v>35</v>
+      </c>
+      <c r="Y19" s="260">
+        <f t="shared" si="7"/>
+        <v>10413.112500000001</v>
+      </c>
+      <c r="Z19" s="257">
+        <f t="shared" si="8"/>
+        <v>2751.5504150000015</v>
+      </c>
+      <c r="AA19" s="259">
+        <f t="shared" si="9"/>
+        <v>0.73576100181381876</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="27"/>
       <c r="B20" s="28"/>
       <c r="D20" s="29"/>
@@ -9843,8 +10315,8 @@
         <v>46.880104500000002</v>
       </c>
       <c r="H20" s="12">
-        <f t="shared" si="7"/>
-        <v>789.65229349999981</v>
+        <f t="shared" si="10"/>
+        <v>813.03631299999984</v>
       </c>
       <c r="I20" s="13">
         <v>54.480000000000011</v>
@@ -9868,11 +10340,11 @@
       </c>
       <c r="O20" s="18">
         <f t="shared" si="2"/>
-        <v>0.82824868208516844</v>
+        <v>0.85277565869519578</v>
       </c>
       <c r="P20" s="19">
         <f t="shared" si="3"/>
-        <v>0.76661549779136917</v>
+        <v>0.78931732731420789</v>
       </c>
       <c r="Q20" s="20" t="str">
         <f t="shared" si="4"/>
@@ -9880,14 +10352,37 @@
       </c>
       <c r="S20" s="24">
         <f t="shared" si="5"/>
-        <v>163.74770650000039</v>
+        <v>140.36368700000037</v>
       </c>
       <c r="T20" s="25">
         <f t="shared" si="6"/>
-        <v>240.39770650000014</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+        <v>217.01368700000012</v>
+      </c>
+      <c r="V20" s="17">
+        <f>'Pesos elementos'!U22</f>
+        <v>468.80104499999999</v>
+      </c>
+      <c r="W20" s="13">
+        <f t="shared" si="11"/>
+        <v>8130.3631299999997</v>
+      </c>
+      <c r="X20" s="266">
+        <v>35</v>
+      </c>
+      <c r="Y20" s="260">
+        <f t="shared" si="7"/>
+        <v>10413.112500000001</v>
+      </c>
+      <c r="Z20" s="257">
+        <f t="shared" si="8"/>
+        <v>2282.7493700000014</v>
+      </c>
+      <c r="AA20" s="259">
+        <f t="shared" si="9"/>
+        <v>0.7807812630469515</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="27"/>
       <c r="B21" s="28"/>
       <c r="C21" s="29"/>
@@ -9900,8 +10395,8 @@
         <v>46.905017000000001</v>
       </c>
       <c r="H21" s="12">
-        <f t="shared" si="7"/>
-        <v>836.55731049999986</v>
+        <f t="shared" si="10"/>
+        <v>859.94132999999988</v>
       </c>
       <c r="I21" s="13">
         <v>54.480000000000011</v>
@@ -9925,11 +10420,11 @@
       </c>
       <c r="O21" s="18">
         <f t="shared" si="2"/>
-        <v>0.87744630847493144</v>
+        <v>0.90197328508495878</v>
       </c>
       <c r="P21" s="19">
         <f t="shared" si="3"/>
-        <v>0.81215213873112946</v>
+        <v>0.83485396825396818</v>
       </c>
       <c r="Q21" s="20" t="str">
         <f t="shared" si="4"/>
@@ -9937,14 +10432,37 @@
       </c>
       <c r="S21" s="24">
         <f t="shared" si="5"/>
-        <v>116.84268950000035</v>
+        <v>93.458670000000325</v>
       </c>
       <c r="T21" s="25">
         <f t="shared" si="6"/>
-        <v>193.4926895000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+        <v>170.10867000000007</v>
+      </c>
+      <c r="V21" s="17">
+        <f>'Pesos elementos'!U23</f>
+        <v>469.05016999999998</v>
+      </c>
+      <c r="W21" s="13">
+        <f t="shared" si="11"/>
+        <v>8599.4133000000002</v>
+      </c>
+      <c r="X21" s="266">
+        <v>35</v>
+      </c>
+      <c r="Y21" s="260">
+        <f t="shared" si="7"/>
+        <v>10413.112500000001</v>
+      </c>
+      <c r="Z21" s="257">
+        <f t="shared" si="8"/>
+        <v>1813.6992000000009</v>
+      </c>
+      <c r="AA21" s="259">
+        <f t="shared" si="9"/>
+        <v>0.82582544844300865</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="F22" s="10">
         <v>4</v>
       </c>
@@ -9953,8 +10471,8 @@
         <v>47.181497000000007</v>
       </c>
       <c r="H22" s="12">
-        <f t="shared" si="7"/>
-        <v>883.73880749999989</v>
+        <f t="shared" si="10"/>
+        <v>907.12282699999992</v>
       </c>
       <c r="I22" s="13">
         <v>54.480000000000011</v>
@@ -9978,11 +10496,11 @@
       </c>
       <c r="O22" s="18">
         <f t="shared" si="2"/>
-        <v>0.92693392857142831</v>
+        <v>0.95146090518145554</v>
       </c>
       <c r="P22" s="19">
         <f t="shared" si="3"/>
-        <v>0.85795719382554236</v>
+        <v>0.88065902334838109</v>
       </c>
       <c r="Q22" s="20" t="str">
         <f t="shared" si="4"/>
@@ -9990,14 +10508,37 @@
       </c>
       <c r="S22" s="24">
         <f t="shared" si="5"/>
-        <v>69.661192500000311</v>
+        <v>46.277173000000289</v>
       </c>
       <c r="T22" s="25">
         <f t="shared" si="6"/>
-        <v>146.31119250000006</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+        <v>122.92717300000004</v>
+      </c>
+      <c r="V22" s="17">
+        <f>'Pesos elementos'!U24</f>
+        <v>471.81497000000002</v>
+      </c>
+      <c r="W22" s="13">
+        <f t="shared" si="11"/>
+        <v>9071.2282699999996</v>
+      </c>
+      <c r="X22" s="266">
+        <v>35</v>
+      </c>
+      <c r="Y22" s="260">
+        <f t="shared" si="7"/>
+        <v>10413.112500000001</v>
+      </c>
+      <c r="Z22" s="257">
+        <f t="shared" si="8"/>
+        <v>1341.8842300000015</v>
+      </c>
+      <c r="AA22" s="259">
+        <f t="shared" si="9"/>
+        <v>0.87113514523155289</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="F23" s="10">
         <v>3</v>
       </c>
@@ -10006,8 +10547,8 @@
         <v>48.037664250000006</v>
       </c>
       <c r="H23" s="12">
-        <f t="shared" si="7"/>
-        <v>931.77647174999993</v>
+        <f t="shared" si="10"/>
+        <v>955.16049124999995</v>
       </c>
       <c r="I23" s="13">
         <v>58.320000000000014</v>
@@ -10031,11 +10572,11 @@
       </c>
       <c r="O23" s="18">
         <f t="shared" si="2"/>
-        <v>0.91296930408583143</v>
+        <v>0.93588133573388166</v>
       </c>
       <c r="P23" s="19">
         <f t="shared" si="3"/>
-        <v>0.90459343891073241</v>
+        <v>0.92729526843357113</v>
       </c>
       <c r="Q23" s="20" t="str">
         <f t="shared" si="4"/>
@@ -10043,14 +10584,37 @@
       </c>
       <c r="S23" s="24">
         <f t="shared" si="5"/>
-        <v>88.823528250000436</v>
+        <v>65.439508750000414</v>
       </c>
       <c r="T23" s="25">
         <f t="shared" si="6"/>
-        <v>98.273528250000027</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+        <v>74.889508750000005</v>
+      </c>
+      <c r="V23" s="17">
+        <f>'Pesos elementos'!U25</f>
+        <v>480.3766425</v>
+      </c>
+      <c r="W23" s="13">
+        <f t="shared" si="11"/>
+        <v>9551.604912499999</v>
+      </c>
+      <c r="X23" s="266">
+        <v>35</v>
+      </c>
+      <c r="Y23" s="260">
+        <f t="shared" si="7"/>
+        <v>10765.9125</v>
+      </c>
+      <c r="Z23" s="257">
+        <f t="shared" si="8"/>
+        <v>1214.3075875000013</v>
+      </c>
+      <c r="AA23" s="259">
+        <f t="shared" si="9"/>
+        <v>0.88720811287477941</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C24" s="4"/>
       <c r="F24" s="10">
         <v>2</v>
@@ -10060,8 +10624,8 @@
         <v>47.535311125</v>
       </c>
       <c r="H24" s="12">
-        <f t="shared" si="7"/>
-        <v>979.31178287499995</v>
+        <f t="shared" si="10"/>
+        <v>1002.695802375</v>
       </c>
       <c r="I24" s="13">
         <v>65.349999999999994</v>
@@ -10085,11 +10649,11 @@
       </c>
       <c r="O24" s="18">
         <f t="shared" si="2"/>
-        <v>0.8563224683571975</v>
+        <v>0.87676974740408786</v>
       </c>
       <c r="P24" s="19">
         <f t="shared" si="3"/>
-        <v>0.92380931899007646</v>
+        <v>0.9458680499349108</v>
       </c>
       <c r="Q24" s="20" t="str">
         <f t="shared" si="4"/>
@@ -10097,14 +10661,37 @@
       </c>
       <c r="S24" s="24">
         <f t="shared" si="5"/>
-        <v>164.31321712500005</v>
+        <v>140.92919762500003</v>
       </c>
       <c r="T24" s="25">
         <f t="shared" si="6"/>
-        <v>80.768217124999751</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+        <v>57.384197624999729</v>
+      </c>
+      <c r="V24" s="17">
+        <f>'Pesos elementos'!U26</f>
+        <v>475.35311124999998</v>
+      </c>
+      <c r="W24" s="13">
+        <f t="shared" si="11"/>
+        <v>10026.958023749999</v>
+      </c>
+      <c r="X24" s="266">
+        <v>35</v>
+      </c>
+      <c r="Y24" s="260">
+        <f t="shared" si="7"/>
+        <v>11569.451249999998</v>
+      </c>
+      <c r="Z24" s="257">
+        <f t="shared" si="8"/>
+        <v>1542.4932262499988</v>
+      </c>
+      <c r="AA24" s="259">
+        <f t="shared" si="9"/>
+        <v>0.86667533378041595</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="F25" s="10">
         <v>1</v>
       </c>
@@ -10113,8 +10700,8 @@
         <v>67.050944750000014</v>
       </c>
       <c r="H25" s="35">
-        <f t="shared" si="7"/>
-        <v>1046.3627276249999</v>
+        <f t="shared" si="10"/>
+        <v>1069.746747125</v>
       </c>
       <c r="I25" s="13">
         <v>69.97999999999999</v>
@@ -10138,11 +10725,11 @@
       </c>
       <c r="O25" s="18">
         <f t="shared" si="2"/>
-        <v>0.85441777456824408</v>
+        <v>0.87351222563589603</v>
       </c>
       <c r="P25" s="19">
         <f t="shared" si="3"/>
-        <v>0.90627130872265238</v>
+        <v>0.92652457787680376</v>
       </c>
       <c r="Q25" s="20" t="str">
         <f t="shared" si="4"/>
@@ -10150,14 +10737,37 @@
       </c>
       <c r="S25" s="24">
         <f t="shared" si="5"/>
-        <v>178.28727237499993</v>
+        <v>154.90325287499991</v>
       </c>
       <c r="T25" s="25">
         <f t="shared" si="6"/>
-        <v>108.21727237499999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>84.833252874999971</v>
+      </c>
+      <c r="V25" s="17">
+        <f>'Pesos elementos'!U27</f>
+        <v>670.50944750000008</v>
+      </c>
+      <c r="W25" s="13">
+        <f t="shared" si="11"/>
+        <v>10697.46747125</v>
+      </c>
+      <c r="X25" s="266">
+        <v>35</v>
+      </c>
+      <c r="Y25" s="260">
+        <f t="shared" si="7"/>
+        <v>12490.957499999999</v>
+      </c>
+      <c r="Z25" s="257">
+        <f t="shared" si="8"/>
+        <v>1793.4900287499986</v>
+      </c>
+      <c r="AA25" s="259">
+        <f t="shared" si="9"/>
+        <v>0.85641692970695016</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F26" s="36">
         <v>-1</v>
       </c>
@@ -10166,8 +10776,8 @@
         <v>0</v>
       </c>
       <c r="H26" s="38">
-        <f t="shared" si="7"/>
-        <v>1046.3627276249999</v>
+        <f t="shared" si="10"/>
+        <v>1069.746747125</v>
       </c>
       <c r="I26" s="39">
         <v>78.44</v>
@@ -10191,11 +10801,11 @@
       </c>
       <c r="O26" s="44">
         <f t="shared" si="2"/>
-        <v>0.76226613799446341</v>
+        <v>0.77930119263131048</v>
       </c>
       <c r="P26" s="45">
         <f t="shared" si="3"/>
-        <v>0.8097967910543058</v>
+        <v>0.8278940564223416</v>
       </c>
       <c r="Q26" s="46" t="str">
         <f t="shared" si="4"/>
@@ -10203,15 +10813,43 @@
       </c>
       <c r="S26" s="47">
         <f t="shared" si="5"/>
-        <v>326.33727237500011</v>
+        <v>302.95325287500009</v>
       </c>
       <c r="T26" s="48">
         <f t="shared" si="6"/>
-        <v>245.76727237499972</v>
+        <v>222.3832528749997</v>
+      </c>
+      <c r="V26" s="43">
+        <f>'Pesos elementos'!U28</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="39">
+        <f t="shared" si="11"/>
+        <v>10697.46747125</v>
+      </c>
+      <c r="X26" s="267">
+        <v>35</v>
+      </c>
+      <c r="Y26" s="261">
+        <f t="shared" si="7"/>
+        <v>13990.357499999998</v>
+      </c>
+      <c r="Z26" s="257">
+        <f t="shared" si="8"/>
+        <v>3292.8900287499982</v>
+      </c>
+      <c r="AA26" s="259">
+        <f t="shared" si="9"/>
+        <v>0.76463145929258791</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="S3:T26">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z3:Z26">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -10254,37 +10892,37 @@
       <c r="B1" s="147" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="243" t="s">
+      <c r="C1" s="249" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="244"/>
-      <c r="E1" s="244"/>
-      <c r="F1" s="245" t="s">
+      <c r="D1" s="250"/>
+      <c r="E1" s="250"/>
+      <c r="F1" s="251" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="246"/>
-      <c r="H1" s="246"/>
-      <c r="I1" s="243" t="s">
+      <c r="G1" s="252"/>
+      <c r="H1" s="252"/>
+      <c r="I1" s="249" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="244"/>
-      <c r="K1" s="244"/>
-      <c r="L1" s="244"/>
-      <c r="M1" s="244"/>
-      <c r="N1" s="244"/>
-      <c r="O1" s="244"/>
-      <c r="P1" s="244"/>
-      <c r="Q1" s="244"/>
-      <c r="S1" s="245" t="s">
+      <c r="J1" s="250"/>
+      <c r="K1" s="250"/>
+      <c r="L1" s="250"/>
+      <c r="M1" s="250"/>
+      <c r="N1" s="250"/>
+      <c r="O1" s="250"/>
+      <c r="P1" s="250"/>
+      <c r="Q1" s="250"/>
+      <c r="S1" s="251" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="246"/>
-      <c r="U1" s="246"/>
-      <c r="V1" s="246"/>
-      <c r="W1" s="246"/>
-      <c r="X1" s="246"/>
-      <c r="Y1" s="246"/>
-      <c r="Z1" s="246"/>
+      <c r="T1" s="252"/>
+      <c r="U1" s="252"/>
+      <c r="V1" s="252"/>
+      <c r="W1" s="252"/>
+      <c r="X1" s="252"/>
+      <c r="Y1" s="252"/>
+      <c r="Z1" s="252"/>
       <c r="AA1" s="151"/>
     </row>
     <row r="2" spans="1:27" s="137" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16870,30 +17508,30 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="247" t="s">
+      <c r="B3" s="253" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="248"/>
-      <c r="D3" s="249" t="s">
+      <c r="C3" s="254"/>
+      <c r="D3" s="255" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="250"/>
-      <c r="F3" s="248" t="s">
+      <c r="E3" s="256"/>
+      <c r="F3" s="254" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="248"/>
-      <c r="H3" s="249" t="s">
+      <c r="G3" s="254"/>
+      <c r="H3" s="255" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="250"/>
-      <c r="J3" s="248" t="s">
+      <c r="I3" s="256"/>
+      <c r="J3" s="254" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="248"/>
-      <c r="L3" s="249" t="s">
+      <c r="K3" s="254"/>
+      <c r="L3" s="255" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="250"/>
+      <c r="M3" s="256"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -26514,30 +27152,30 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="247" t="s">
+      <c r="B3" s="253" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="248"/>
-      <c r="D3" s="249" t="s">
+      <c r="C3" s="254"/>
+      <c r="D3" s="255" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="250"/>
-      <c r="F3" s="248" t="s">
+      <c r="E3" s="256"/>
+      <c r="F3" s="254" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="248"/>
-      <c r="H3" s="249" t="s">
+      <c r="G3" s="254"/>
+      <c r="H3" s="255" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="250"/>
-      <c r="J3" s="248" t="s">
+      <c r="I3" s="256"/>
+      <c r="J3" s="254" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="248"/>
-      <c r="L3" s="249" t="s">
+      <c r="K3" s="254"/>
+      <c r="L3" s="255" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="250"/>
+      <c r="M3" s="256"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">

--- a/Tarea 03/Cubicaciones.xlsx
+++ b/Tarea 03/Cubicaciones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C454CDC4-9EDA-410D-BBCE-C265FC6656A8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0F9981AA-2313-4071-9AE1-FD2F65AD3845}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -762,7 +762,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="147">
   <si>
     <t>Muros</t>
   </si>
@@ -1191,6 +1191,18 @@
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>Pesos dentro</t>
+  </si>
+  <si>
+    <t>Peso fuera</t>
+  </si>
+  <si>
+    <t>Dist dentro</t>
+  </si>
+  <si>
+    <t>Dist fuera</t>
   </si>
 </sst>
 </file>
@@ -1995,7 +2007,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="270">
+  <cellXfs count="273">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2798,6 +2810,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4467,10 +4488,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="B2:X88"/>
+  <dimension ref="B2:AA88"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView showGridLines="0" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4495,11 +4516,12 @@
     <col min="22" max="22" width="13" style="49" customWidth="1"/>
     <col min="23" max="23" width="14.44140625" style="49" customWidth="1"/>
     <col min="24" max="24" width="14.33203125" style="49" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.6640625" style="49" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="49"/>
+    <col min="25" max="25" width="9.6640625" style="49" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10" style="49" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.88671875" style="49"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="47" t="s">
         <v>66</v>
       </c>
@@ -4511,7 +4533,7 @@
       </c>
       <c r="I2" s="48"/>
     </row>
-    <row r="3" spans="2:22" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:27" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50" t="s">
         <v>7</v>
       </c>
@@ -4569,8 +4591,20 @@
       <c r="V3" s="192" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="X3" s="111" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y3" s="210" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z3" s="111" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA3" s="210" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B4" s="122" t="s">
         <v>3</v>
       </c>
@@ -4641,8 +4675,22 @@
         <f>U4/(M4+J4)</f>
         <v>1.9643278552505168</v>
       </c>
-    </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="X4" s="271">
+        <f>O4+U34+V34+M63</f>
+        <v>17.489470000000001</v>
+      </c>
+      <c r="Y4" s="216">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="271">
+        <f>X4/L4</f>
+        <v>0.41318914193914208</v>
+      </c>
+      <c r="AA4" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B5" s="55" t="s">
         <v>6</v>
       </c>
@@ -4713,8 +4761,22 @@
         <f t="shared" ref="V5" si="9">U5/(M5+J5)</f>
         <v>0.96416139082356789</v>
       </c>
-    </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="X5" s="271">
+        <f t="shared" ref="X5:X28" si="10">V35+U35+O5+M64</f>
+        <v>55.242595000000001</v>
+      </c>
+      <c r="Y5" s="216">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="271">
+        <f t="shared" ref="Z5:Z28" si="11">X5/L5</f>
+        <v>0.13984298780101917</v>
+      </c>
+      <c r="AA5" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B6" s="55" t="s">
         <v>49</v>
       </c>
@@ -4744,26 +4806,26 @@
         <v>15.170000000000002</v>
       </c>
       <c r="L6" s="197">
-        <f t="shared" ref="L5:L27" si="10">J6-K6</f>
+        <f t="shared" ref="L5:L27" si="12">J6-K6</f>
         <v>395.03299999999996</v>
       </c>
       <c r="M6" s="198">
         <v>0</v>
       </c>
       <c r="N6" s="189">
-        <f t="shared" ref="N6:N28" si="11">I6*J6*$C$4+M6*I6*$C$4</f>
+        <f t="shared" ref="N6:N28" si="13">I6*J6*$C$4+M6*I6*$C$4</f>
         <v>164.0812</v>
       </c>
       <c r="O6" s="118">
-        <f t="shared" ref="O5:O28" si="12">L6*($C$6*$C$19+$C$7*$C$20)</f>
+        <f t="shared" ref="O5:O28" si="14">L6*($C$6*$C$19+$C$7*$C$20)</f>
         <v>45.428795000000001</v>
       </c>
       <c r="P6" s="118">
-        <f t="shared" ref="P6:P28" si="13">L6*$C$14</f>
+        <f t="shared" ref="P6:P28" si="15">L6*$C$14</f>
         <v>197.51649999999998</v>
       </c>
       <c r="Q6" s="118">
-        <f t="shared" ref="Q6:Q27" si="14">M6*$C$14</f>
+        <f t="shared" ref="Q6:Q27" si="16">M6*$C$14</f>
         <v>0</v>
       </c>
       <c r="R6" s="118">
@@ -4775,19 +4837,33 @@
         <v>132.61860000000001</v>
       </c>
       <c r="T6" s="118">
-        <f t="shared" ref="T6:T28" si="15">N6+O6+0.25*(P6+Q6)</f>
+        <f t="shared" ref="T6:T28" si="17">N6+O6+0.25*(P6+Q6)</f>
         <v>258.88911999999999</v>
       </c>
       <c r="U6" s="184">
-        <f t="shared" ref="U6:U28" si="16">SUM(R6:T6)</f>
+        <f t="shared" ref="U6:U28" si="18">SUM(R6:T6)</f>
         <v>435.96642000000003</v>
       </c>
       <c r="V6" s="131">
-        <f t="shared" ref="V5:V28" si="17">U6/(M6+J6)</f>
+        <f t="shared" ref="V5:V28" si="19">U6/(M6+J6)</f>
         <v>1.0628065128728947</v>
       </c>
-    </row>
-    <row r="7" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X6" s="271">
+        <f t="shared" si="10"/>
+        <v>55.242595000000001</v>
+      </c>
+      <c r="Y6" s="216">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="271">
+        <f t="shared" si="11"/>
+        <v>0.13984298780101917</v>
+      </c>
+      <c r="AA6" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="61" t="s">
         <v>5</v>
       </c>
@@ -4816,26 +4892,26 @@
         <v>15.170000000000002</v>
       </c>
       <c r="L7" s="197">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>395.03299999999996</v>
       </c>
       <c r="M7" s="198">
         <v>0</v>
       </c>
       <c r="N7" s="189">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>164.0812</v>
       </c>
       <c r="O7" s="118">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45.428795000000001</v>
       </c>
       <c r="P7" s="118">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>197.51649999999998</v>
       </c>
       <c r="Q7" s="118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R7" s="118">
@@ -4847,19 +4923,33 @@
         <v>132.61860000000001</v>
       </c>
       <c r="T7" s="118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>258.88911999999999</v>
       </c>
       <c r="U7" s="184">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>435.96642000000003</v>
       </c>
       <c r="V7" s="184">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0628065128728947</v>
       </c>
-    </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="X7" s="271">
+        <f t="shared" si="10"/>
+        <v>55.242595000000001</v>
+      </c>
+      <c r="Y7" s="216">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="271">
+        <f t="shared" si="11"/>
+        <v>0.13984298780101917</v>
+      </c>
+      <c r="AA7" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
       <c r="E8" s="113">
         <v>20</v>
       </c>
@@ -4882,26 +4972,26 @@
         <v>15.170000000000002</v>
       </c>
       <c r="L8" s="197">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>395.03299999999996</v>
       </c>
       <c r="M8" s="198">
         <v>0</v>
       </c>
       <c r="N8" s="189">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>164.0812</v>
       </c>
       <c r="O8" s="118">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45.428795000000001</v>
       </c>
       <c r="P8" s="118">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>197.51649999999998</v>
       </c>
       <c r="Q8" s="118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R8" s="118">
@@ -4913,19 +5003,33 @@
         <v>132.61860000000001</v>
       </c>
       <c r="T8" s="118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>258.88911999999999</v>
       </c>
       <c r="U8" s="184">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>435.96642000000003</v>
       </c>
       <c r="V8" s="184">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0628065128728947</v>
       </c>
-    </row>
-    <row r="9" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X8" s="271">
+        <f t="shared" si="10"/>
+        <v>55.242595000000001</v>
+      </c>
+      <c r="Y8" s="216">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="271">
+        <f t="shared" si="11"/>
+        <v>0.13984298780101917</v>
+      </c>
+      <c r="AA8" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="48" t="s">
         <v>128</v>
       </c>
@@ -4951,26 +5055,26 @@
         <v>15.170000000000002</v>
       </c>
       <c r="L9" s="197">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>395.03299999999996</v>
       </c>
       <c r="M9" s="198">
         <v>0</v>
       </c>
       <c r="N9" s="189">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>164.0812</v>
       </c>
       <c r="O9" s="118">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45.428795000000001</v>
       </c>
       <c r="P9" s="118">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>197.51649999999998</v>
       </c>
       <c r="Q9" s="118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R9" s="118">
@@ -4982,19 +5086,33 @@
         <v>132.61860000000001</v>
       </c>
       <c r="T9" s="118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>258.88911999999999</v>
       </c>
       <c r="U9" s="184">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>435.96642000000003</v>
       </c>
       <c r="V9" s="184">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0628065128728947</v>
       </c>
-    </row>
-    <row r="10" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X9" s="271">
+        <f t="shared" si="10"/>
+        <v>55.242595000000001</v>
+      </c>
+      <c r="Y9" s="216">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="271">
+        <f t="shared" si="11"/>
+        <v>0.13984298780101917</v>
+      </c>
+      <c r="AA9" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="221" t="s">
         <v>7</v>
       </c>
@@ -5023,26 +5141,26 @@
         <v>15.170000000000002</v>
       </c>
       <c r="L10" s="197">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>395.03299999999996</v>
       </c>
       <c r="M10" s="198">
         <v>0</v>
       </c>
       <c r="N10" s="189">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>164.0812</v>
       </c>
       <c r="O10" s="118">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45.428795000000001</v>
       </c>
       <c r="P10" s="118">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>197.51649999999998</v>
       </c>
       <c r="Q10" s="118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R10" s="118">
@@ -5054,19 +5172,33 @@
         <v>132.61860000000001</v>
       </c>
       <c r="T10" s="118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>258.88911999999999</v>
       </c>
       <c r="U10" s="184">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>435.96642000000003</v>
       </c>
       <c r="V10" s="184">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0628065128728947</v>
       </c>
-    </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="X10" s="271">
+        <f t="shared" si="10"/>
+        <v>55.242595000000001</v>
+      </c>
+      <c r="Y10" s="216">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="271">
+        <f t="shared" si="11"/>
+        <v>0.13984298780101917</v>
+      </c>
+      <c r="AA10" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B11" s="122" t="s">
         <v>129</v>
       </c>
@@ -5095,26 +5227,26 @@
         <v>15.170000000000002</v>
       </c>
       <c r="L11" s="197">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>395.03299999999996</v>
       </c>
       <c r="M11" s="198">
         <v>0</v>
       </c>
       <c r="N11" s="189">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>164.0812</v>
       </c>
       <c r="O11" s="118">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45.428795000000001</v>
       </c>
       <c r="P11" s="118">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>197.51649999999998</v>
       </c>
       <c r="Q11" s="118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R11" s="118">
@@ -5126,19 +5258,33 @@
         <v>132.61860000000001</v>
       </c>
       <c r="T11" s="118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>258.88911999999999</v>
       </c>
       <c r="U11" s="184">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>435.96642000000003</v>
       </c>
       <c r="V11" s="184">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0628065128728947</v>
       </c>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="X11" s="271">
+        <f t="shared" si="10"/>
+        <v>55.242595000000001</v>
+      </c>
+      <c r="Y11" s="216">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="271">
+        <f t="shared" si="11"/>
+        <v>0.13984298780101917</v>
+      </c>
+      <c r="AA11" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B12" s="55" t="s">
         <v>125</v>
       </c>
@@ -5167,26 +5313,26 @@
         <v>15.170000000000002</v>
       </c>
       <c r="L12" s="197">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>395.03299999999996</v>
       </c>
       <c r="M12" s="198">
         <v>0</v>
       </c>
       <c r="N12" s="189">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>164.0812</v>
       </c>
       <c r="O12" s="118">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45.428795000000001</v>
       </c>
       <c r="P12" s="118">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>197.51649999999998</v>
       </c>
       <c r="Q12" s="118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R12" s="118">
@@ -5198,19 +5344,33 @@
         <v>132.61860000000001</v>
       </c>
       <c r="T12" s="118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>258.88911999999999</v>
       </c>
       <c r="U12" s="184">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>435.96642000000003</v>
       </c>
       <c r="V12" s="184">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0628065128728947</v>
       </c>
-    </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="X12" s="271">
+        <f t="shared" si="10"/>
+        <v>55.242595000000001</v>
+      </c>
+      <c r="Y12" s="216">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="271">
+        <f t="shared" si="11"/>
+        <v>0.13984298780101917</v>
+      </c>
+      <c r="AA12" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B13" s="55" t="s">
         <v>127</v>
       </c>
@@ -5239,26 +5399,26 @@
         <v>15.170000000000002</v>
       </c>
       <c r="L13" s="197">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>395.03299999999996</v>
       </c>
       <c r="M13" s="198">
         <v>0</v>
       </c>
       <c r="N13" s="189">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>164.0812</v>
       </c>
       <c r="O13" s="118">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45.428795000000001</v>
       </c>
       <c r="P13" s="118">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>197.51649999999998</v>
       </c>
       <c r="Q13" s="118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R13" s="118">
@@ -5270,19 +5430,33 @@
         <v>132.61860000000001</v>
       </c>
       <c r="T13" s="118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>258.88911999999999</v>
       </c>
       <c r="U13" s="184">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>435.96642000000003</v>
       </c>
       <c r="V13" s="184">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0628065128728947</v>
       </c>
-    </row>
-    <row r="14" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X13" s="271">
+        <f t="shared" si="10"/>
+        <v>55.242595000000001</v>
+      </c>
+      <c r="Y13" s="216">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="271">
+        <f t="shared" si="11"/>
+        <v>0.13984298780101917</v>
+      </c>
+      <c r="AA13" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="61" t="s">
         <v>126</v>
       </c>
@@ -5311,26 +5485,26 @@
         <v>15.170000000000002</v>
       </c>
       <c r="L14" s="197">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>395.03299999999996</v>
       </c>
       <c r="M14" s="198">
         <v>0</v>
       </c>
       <c r="N14" s="189">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>164.0812</v>
       </c>
       <c r="O14" s="118">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45.428795000000001</v>
       </c>
       <c r="P14" s="118">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>197.51649999999998</v>
       </c>
       <c r="Q14" s="118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R14" s="118">
@@ -5342,19 +5516,33 @@
         <v>132.61860000000001</v>
       </c>
       <c r="T14" s="118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>258.88911999999999</v>
       </c>
       <c r="U14" s="184">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>435.96642000000003</v>
       </c>
       <c r="V14" s="184">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0628065128728947</v>
       </c>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="X14" s="271">
+        <f t="shared" si="10"/>
+        <v>55.242595000000001</v>
+      </c>
+      <c r="Y14" s="216">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="271">
+        <f t="shared" si="11"/>
+        <v>0.13984298780101917</v>
+      </c>
+      <c r="AA14" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
       <c r="E15" s="113">
         <v>13</v>
       </c>
@@ -5377,26 +5565,26 @@
         <v>15.170000000000002</v>
       </c>
       <c r="L15" s="197">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>395.03299999999996</v>
       </c>
       <c r="M15" s="198">
         <v>0</v>
       </c>
       <c r="N15" s="189">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>164.0812</v>
       </c>
       <c r="O15" s="118">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45.428795000000001</v>
       </c>
       <c r="P15" s="118">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>197.51649999999998</v>
       </c>
       <c r="Q15" s="118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R15" s="118">
@@ -5408,19 +5596,33 @@
         <v>132.61860000000001</v>
       </c>
       <c r="T15" s="118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>258.88911999999999</v>
       </c>
       <c r="U15" s="184">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>435.96642000000003</v>
       </c>
       <c r="V15" s="184">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0628065128728947</v>
       </c>
-    </row>
-    <row r="16" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X15" s="271">
+        <f t="shared" si="10"/>
+        <v>55.242595000000001</v>
+      </c>
+      <c r="Y15" s="216">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="271">
+        <f t="shared" si="11"/>
+        <v>0.13984298780101917</v>
+      </c>
+      <c r="AA15" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="63" t="s">
         <v>32</v>
       </c>
@@ -5446,26 +5648,26 @@
         <v>15.170000000000002</v>
       </c>
       <c r="L16" s="197">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>395.03299999999996</v>
       </c>
       <c r="M16" s="198">
         <v>0</v>
       </c>
       <c r="N16" s="189">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>164.0812</v>
       </c>
       <c r="O16" s="118">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45.428795000000001</v>
       </c>
       <c r="P16" s="118">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>197.51649999999998</v>
       </c>
       <c r="Q16" s="118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R16" s="118">
@@ -5477,19 +5679,33 @@
         <v>132.61860000000001</v>
       </c>
       <c r="T16" s="118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>258.88911999999999</v>
       </c>
       <c r="U16" s="184">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>435.96642000000003</v>
       </c>
       <c r="V16" s="184">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0628065128728947</v>
       </c>
-    </row>
-    <row r="17" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X16" s="271">
+        <f t="shared" si="10"/>
+        <v>55.242595000000001</v>
+      </c>
+      <c r="Y16" s="216">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="271">
+        <f t="shared" si="11"/>
+        <v>0.13984298780101917</v>
+      </c>
+      <c r="AA16" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="58" t="s">
         <v>7</v>
       </c>
@@ -5518,26 +5734,26 @@
         <v>15.170000000000002</v>
       </c>
       <c r="L17" s="197">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>395.03299999999996</v>
       </c>
       <c r="M17" s="198">
         <v>0</v>
       </c>
       <c r="N17" s="189">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>164.0812</v>
       </c>
       <c r="O17" s="118">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45.428795000000001</v>
       </c>
       <c r="P17" s="118">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>197.51649999999998</v>
       </c>
       <c r="Q17" s="118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R17" s="118">
@@ -5549,19 +5765,33 @@
         <v>132.61860000000001</v>
       </c>
       <c r="T17" s="118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>258.88911999999999</v>
       </c>
       <c r="U17" s="184">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>435.96642000000003</v>
       </c>
       <c r="V17" s="184">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0628065128728947</v>
       </c>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="X17" s="271">
+        <f t="shared" si="10"/>
+        <v>55.242595000000001</v>
+      </c>
+      <c r="Y17" s="216">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="271">
+        <f t="shared" si="11"/>
+        <v>0.13984298780101917</v>
+      </c>
+      <c r="AA17" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B18" s="59" t="s">
         <v>1</v>
       </c>
@@ -5591,26 +5821,26 @@
         <v>15.170000000000002</v>
       </c>
       <c r="L18" s="197">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>395.03299999999996</v>
       </c>
       <c r="M18" s="198">
         <v>0</v>
       </c>
       <c r="N18" s="189">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>164.0812</v>
       </c>
       <c r="O18" s="118">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45.428795000000001</v>
       </c>
       <c r="P18" s="118">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>197.51649999999998</v>
       </c>
       <c r="Q18" s="118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R18" s="118">
@@ -5622,19 +5852,33 @@
         <v>132.61860000000001</v>
       </c>
       <c r="T18" s="118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>258.88911999999999</v>
       </c>
       <c r="U18" s="184">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>435.96642000000003</v>
       </c>
       <c r="V18" s="184">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0628065128728947</v>
       </c>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="X18" s="271">
+        <f t="shared" si="10"/>
+        <v>55.242595000000001</v>
+      </c>
+      <c r="Y18" s="216">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="271">
+        <f t="shared" si="11"/>
+        <v>0.13984298780101917</v>
+      </c>
+      <c r="AA18" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B19" s="60" t="s">
         <v>33</v>
       </c>
@@ -5663,26 +5907,26 @@
         <v>15.170000000000002</v>
       </c>
       <c r="L19" s="197">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>395.03299999999996</v>
       </c>
       <c r="M19" s="198">
         <v>0</v>
       </c>
       <c r="N19" s="189">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>164.0812</v>
       </c>
       <c r="O19" s="118">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45.428795000000001</v>
       </c>
       <c r="P19" s="118">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>197.51649999999998</v>
       </c>
       <c r="Q19" s="118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R19" s="118">
@@ -5694,19 +5938,33 @@
         <v>132.61860000000001</v>
       </c>
       <c r="T19" s="118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>258.88911999999999</v>
       </c>
       <c r="U19" s="184">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>435.96642000000003</v>
       </c>
       <c r="V19" s="184">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0628065128728947</v>
       </c>
-    </row>
-    <row r="20" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X19" s="271">
+        <f t="shared" si="10"/>
+        <v>55.242595000000001</v>
+      </c>
+      <c r="Y19" s="216">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="271">
+        <f t="shared" si="11"/>
+        <v>0.13984298780101917</v>
+      </c>
+      <c r="AA19" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="61" t="s">
         <v>2</v>
       </c>
@@ -5735,26 +5993,26 @@
         <v>15.170000000000002</v>
       </c>
       <c r="L20" s="197">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>395.03299999999996</v>
       </c>
       <c r="M20" s="198">
         <v>0</v>
       </c>
       <c r="N20" s="189">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>164.0812</v>
       </c>
       <c r="O20" s="118">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45.428795000000001</v>
       </c>
       <c r="P20" s="118">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>197.51649999999998</v>
       </c>
       <c r="Q20" s="118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R20" s="118">
@@ -5766,19 +6024,33 @@
         <v>148.91135</v>
       </c>
       <c r="T20" s="118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>258.88911999999999</v>
       </c>
       <c r="U20" s="184">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>452.25916999999998</v>
       </c>
       <c r="V20" s="184">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.1025252618825314</v>
       </c>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="X20" s="271">
+        <f t="shared" si="10"/>
+        <v>55.242845000000003</v>
+      </c>
+      <c r="Y20" s="216">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="271">
+        <f t="shared" si="11"/>
+        <v>0.13984362065953987</v>
+      </c>
+      <c r="AA20" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
       <c r="E21" s="113">
         <v>7</v>
       </c>
@@ -5801,26 +6073,26 @@
         <v>15.170000000000002</v>
       </c>
       <c r="L21" s="197">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>395.03299999999996</v>
       </c>
       <c r="M21" s="198">
         <v>0</v>
       </c>
       <c r="N21" s="189">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>164.0812</v>
       </c>
       <c r="O21" s="118">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45.428795000000001</v>
       </c>
       <c r="P21" s="118">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>197.51649999999998</v>
       </c>
       <c r="Q21" s="118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R21" s="118">
@@ -5832,19 +6104,33 @@
         <v>165.20409999999998</v>
       </c>
       <c r="T21" s="118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>258.88911999999999</v>
       </c>
       <c r="U21" s="184">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>468.55192</v>
       </c>
       <c r="V21" s="184">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.1422440108921681</v>
       </c>
-    </row>
-    <row r="22" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X21" s="271">
+        <f t="shared" si="10"/>
+        <v>55.242845000000003</v>
+      </c>
+      <c r="Y21" s="216">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="271">
+        <f t="shared" si="11"/>
+        <v>0.13984362065953987</v>
+      </c>
+      <c r="AA21" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E22" s="113">
         <v>6</v>
       </c>
@@ -5867,26 +6153,26 @@
         <v>15.170000000000002</v>
       </c>
       <c r="L22" s="197">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>395.03299999999996</v>
       </c>
       <c r="M22" s="198">
         <v>0</v>
       </c>
       <c r="N22" s="189">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>164.0812</v>
       </c>
       <c r="O22" s="118">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45.428795000000001</v>
       </c>
       <c r="P22" s="118">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>197.51649999999998</v>
       </c>
       <c r="Q22" s="118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R22" s="118">
@@ -5898,19 +6184,33 @@
         <v>165.20409999999998</v>
       </c>
       <c r="T22" s="118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>258.88911999999999</v>
       </c>
       <c r="U22" s="184">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>468.55192</v>
       </c>
       <c r="V22" s="184">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.1422440108921681</v>
       </c>
-    </row>
-    <row r="23" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X22" s="271">
+        <f t="shared" si="10"/>
+        <v>55.242845000000003</v>
+      </c>
+      <c r="Y22" s="216">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="271">
+        <f t="shared" si="11"/>
+        <v>0.13984362065953987</v>
+      </c>
+      <c r="AA22" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="48" t="s">
         <v>48</v>
       </c>
@@ -5939,26 +6239,26 @@
         <v>15.170000000000002</v>
       </c>
       <c r="L23" s="197">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>395.03299999999996</v>
       </c>
       <c r="M23" s="198">
         <v>0</v>
       </c>
       <c r="N23" s="189">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>164.0812</v>
       </c>
       <c r="O23" s="118">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45.428795000000001</v>
       </c>
       <c r="P23" s="118">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>197.51649999999998</v>
       </c>
       <c r="Q23" s="118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R23" s="118">
@@ -5970,19 +6270,33 @@
         <v>165.45322499999997</v>
       </c>
       <c r="T23" s="118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>258.88911999999999</v>
       </c>
       <c r="U23" s="184">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>468.80104499999999</v>
       </c>
       <c r="V23" s="184">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.1428513321453038</v>
       </c>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="X23" s="271">
+        <f t="shared" si="10"/>
+        <v>55.741095000000001</v>
+      </c>
+      <c r="Y23" s="216">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="271">
+        <f t="shared" si="11"/>
+        <v>0.14110490769125619</v>
+      </c>
+      <c r="AA23" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B24" s="65" t="s">
         <v>42</v>
       </c>
@@ -6012,26 +6326,26 @@
         <v>15.170000000000002</v>
       </c>
       <c r="L24" s="197">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>395.03299999999996</v>
       </c>
       <c r="M24" s="198">
         <v>0</v>
       </c>
       <c r="N24" s="189">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>164.0812</v>
       </c>
       <c r="O24" s="118">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45.428795000000001</v>
       </c>
       <c r="P24" s="118">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>197.51649999999998</v>
       </c>
       <c r="Q24" s="118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R24" s="118">
@@ -6043,19 +6357,33 @@
         <v>165.70235</v>
       </c>
       <c r="T24" s="118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>258.88911999999999</v>
       </c>
       <c r="U24" s="184">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>469.05016999999998</v>
       </c>
       <c r="V24" s="184">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.1434586533984394</v>
       </c>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="X24" s="271">
+        <f t="shared" si="10"/>
+        <v>55.741095000000001</v>
+      </c>
+      <c r="Y24" s="216">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="271">
+        <f t="shared" si="11"/>
+        <v>0.14110490769125619</v>
+      </c>
+      <c r="AA24" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B25" s="67" t="s">
         <v>43</v>
       </c>
@@ -6084,26 +6412,26 @@
         <v>15.170000000000002</v>
       </c>
       <c r="L25" s="197">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>395.03299999999996</v>
       </c>
       <c r="M25" s="198">
         <v>0</v>
       </c>
       <c r="N25" s="189">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>164.0812</v>
       </c>
       <c r="O25" s="118">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45.428795000000001</v>
       </c>
       <c r="P25" s="118">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>197.51649999999998</v>
       </c>
       <c r="Q25" s="118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R25" s="118">
@@ -6115,19 +6443,33 @@
         <v>168.46715</v>
       </c>
       <c r="T25" s="118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>258.88911999999999</v>
       </c>
       <c r="U25" s="184">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>471.81497000000002</v>
       </c>
       <c r="V25" s="184">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.1501987308722756</v>
       </c>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="X25" s="271">
+        <f t="shared" si="10"/>
+        <v>55.750695</v>
+      </c>
+      <c r="Y25" s="216">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="271">
+        <f t="shared" si="11"/>
+        <v>0.14112920945845031</v>
+      </c>
+      <c r="AA25" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B26" s="67" t="s">
         <v>44</v>
       </c>
@@ -6156,26 +6498,26 @@
         <v>14.930000000000001</v>
       </c>
       <c r="L26" s="199">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>395.77199999999999</v>
       </c>
       <c r="M26" s="200">
         <v>0</v>
       </c>
       <c r="N26" s="190">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>164.2808</v>
       </c>
       <c r="O26" s="119">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45.513780000000004</v>
       </c>
       <c r="P26" s="119">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>197.886</v>
       </c>
       <c r="Q26" s="119">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R26" s="119">
@@ -6187,19 +6529,33 @@
         <v>177.30226249999998</v>
       </c>
       <c r="T26" s="119">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>259.26607999999999</v>
       </c>
       <c r="U26" s="178">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>480.3766425</v>
       </c>
       <c r="V26" s="178">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.1696476825045896</v>
       </c>
-    </row>
-    <row r="27" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X26" s="271">
+        <f t="shared" si="10"/>
+        <v>55.293530000000004</v>
+      </c>
+      <c r="Y26" s="216">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="271">
+        <f t="shared" si="11"/>
+        <v>0.13971056567922946</v>
+      </c>
+      <c r="AA26" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="67" t="s">
         <v>45</v>
       </c>
@@ -6228,26 +6584,26 @@
         <v>26.774750000000001</v>
       </c>
       <c r="L27" s="199">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>150.77424999999999</v>
       </c>
       <c r="M27" s="200">
         <v>255.92599999999999</v>
       </c>
       <c r="N27" s="190">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>173.39</v>
       </c>
       <c r="O27" s="119">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>17.339038750000004</v>
       </c>
       <c r="P27" s="119">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>75.387124999999997</v>
       </c>
       <c r="Q27" s="119">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>127.96299999999999</v>
       </c>
       <c r="R27" s="119">
@@ -6259,19 +6615,34 @@
         <v>190.51264999999995</v>
       </c>
       <c r="T27" s="119">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>241.56657000000001</v>
       </c>
       <c r="U27" s="178">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>475.35311124999998</v>
       </c>
       <c r="V27" s="178">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0966102110848375</v>
       </c>
-    </row>
-    <row r="28" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X27" s="271">
+        <f t="shared" si="10"/>
+        <v>22.380873750000006</v>
+      </c>
+      <c r="Y27" s="216">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="271">
+        <f t="shared" si="11"/>
+        <v>0.14843962911438796</v>
+      </c>
+      <c r="AA27" s="68">
+        <f>Y27/M27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="69" t="s">
         <v>47</v>
       </c>
@@ -6307,15 +6678,15 @@
         <v>514.17600000000004</v>
       </c>
       <c r="N28" s="191">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>305.77135000000004</v>
       </c>
       <c r="O28" s="120">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>19.199997500000002</v>
       </c>
       <c r="P28" s="120">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>83.478250000000003</v>
       </c>
       <c r="Q28" s="120">
@@ -6331,19 +6702,34 @@
         <v>208.98676249999994</v>
       </c>
       <c r="T28" s="120">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>410.11291000000006</v>
       </c>
       <c r="U28" s="181">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>670.50944750000008</v>
       </c>
       <c r="V28" s="181">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.93195950237816605</v>
       </c>
-    </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="X28" s="272">
+        <f t="shared" si="10"/>
+        <v>22.682072500000004</v>
+      </c>
+      <c r="Y28" s="220">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="272">
+        <f t="shared" si="11"/>
+        <v>0.13585618110106526</v>
+      </c>
+      <c r="AA28" s="70">
+        <f>Y28/M28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.3">
       <c r="M29" s="49" t="s">
         <v>31</v>
       </c>
@@ -6380,16 +6766,16 @@
         <v>11059.24556625</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
       <c r="N30" s="73"/>
     </row>
-    <row r="31" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H31" s="48" t="s">
         <v>60</v>
       </c>
       <c r="N31" s="73"/>
     </row>
-    <row r="32" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H32" s="238" t="s">
         <v>34</v>
       </c>
@@ -6430,7 +6816,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="8:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="8:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H33" s="239"/>
       <c r="I33" s="100" t="s">
         <v>13</v>
@@ -6465,7 +6851,7 @@
       <c r="W33" s="230"/>
       <c r="X33" s="228"/>
     </row>
-    <row r="34" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H34" s="96" t="str">
         <f>E4</f>
         <v>Cubierta</v>
@@ -6501,19 +6887,19 @@
         <v>8.7000000000000028</v>
       </c>
       <c r="Q34" s="99">
-        <f t="shared" ref="Q34:Q58" si="18">J34*L34+I34*K34</f>
+        <f t="shared" ref="Q34:Q58" si="20">J34*L34+I34*K34</f>
         <v>8.9039999999999999</v>
       </c>
       <c r="R34" s="99">
-        <f t="shared" ref="R34:R58" si="19">2*(L34+2*$C$18+J34)*$C$18+2*(K34+2*$C$18+I34)*$C$18</f>
+        <f t="shared" ref="R34:R58" si="21">2*(L34+2*$C$18+J34)*$C$18+2*(K34+2*$C$18+I34)*$C$18</f>
         <v>2.2509999999999999</v>
       </c>
       <c r="S34" s="99">
-        <f t="shared" ref="S34:S58" si="20">M34*O34+N34*P34</f>
+        <f t="shared" ref="S34:S58" si="22">M34*O34+N34*P34</f>
         <v>3.7900000000000009</v>
       </c>
       <c r="T34" s="117">
-        <f t="shared" ref="T34:T58" si="21">Q34*F4*$C$4</f>
+        <f t="shared" ref="T34:T58" si="23">Q34*F4*$C$4</f>
         <v>51.197999999999993</v>
       </c>
       <c r="U34" s="125">
@@ -6521,7 +6907,7 @@
         <v>0.37900000000000011</v>
       </c>
       <c r="V34" s="125">
-        <f t="shared" ref="V34:V58" si="22">R34*$C$18*$C$5</f>
+        <f t="shared" ref="V34:V58" si="24">R34*$C$18*$C$5</f>
         <v>0.11255</v>
       </c>
       <c r="W34" s="203">
@@ -6532,10 +6918,11 @@
         <f>T34+V34</f>
         <v>51.310549999999992</v>
       </c>
-    </row>
-    <row r="35" spans="8:24" x14ac:dyDescent="0.3">
+      <c r="Z34" s="72"/>
+    </row>
+    <row r="35" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H35" s="90">
-        <f t="shared" ref="H35:H58" si="23">E5</f>
+        <f t="shared" ref="H35:H58" si="25">E5</f>
         <v>23</v>
       </c>
       <c r="I35" s="85">
@@ -6569,41 +6956,42 @@
         <v>39.19</v>
       </c>
       <c r="Q35" s="121">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>22.668000000000003</v>
       </c>
       <c r="R35" s="121">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.6920000000000011</v>
       </c>
       <c r="S35" s="121">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>19.93</v>
       </c>
       <c r="T35" s="118">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>130.34100000000001</v>
       </c>
       <c r="U35" s="130">
-        <f t="shared" ref="U35:U58" si="24">S35*$C$11</f>
+        <f t="shared" ref="U35:U58" si="26">S35*$C$11</f>
         <v>1.9930000000000001</v>
       </c>
       <c r="V35" s="130">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.28460000000000008</v>
       </c>
       <c r="W35" s="204">
-        <f t="shared" ref="W35:W58" si="25">T35+U35+V35</f>
+        <f t="shared" ref="W35:W58" si="27">T35+U35+V35</f>
         <v>132.61860000000001</v>
       </c>
       <c r="X35" s="94">
-        <f t="shared" ref="X35:X58" si="26">T35+V35</f>
+        <f t="shared" ref="X35:X58" si="28">T35+V35</f>
         <v>130.62560000000002</v>
       </c>
-    </row>
-    <row r="36" spans="8:24" x14ac:dyDescent="0.3">
+      <c r="Z35" s="72"/>
+    </row>
+    <row r="36" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H36" s="90">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>22</v>
       </c>
       <c r="I36" s="85">
@@ -6637,41 +7025,42 @@
         <v>39.19</v>
       </c>
       <c r="Q36" s="121">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>22.668000000000003</v>
       </c>
       <c r="R36" s="121">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.6920000000000011</v>
       </c>
       <c r="S36" s="121">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>19.93</v>
       </c>
       <c r="T36" s="118">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>130.34100000000001</v>
       </c>
       <c r="U36" s="130">
+        <f t="shared" si="26"/>
+        <v>1.9930000000000001</v>
+      </c>
+      <c r="V36" s="130">
         <f t="shared" si="24"/>
-        <v>1.9930000000000001</v>
-      </c>
-      <c r="V36" s="130">
-        <f t="shared" si="22"/>
         <v>0.28460000000000008</v>
       </c>
       <c r="W36" s="204">
+        <f t="shared" si="27"/>
+        <v>132.61860000000001</v>
+      </c>
+      <c r="X36" s="94">
+        <f t="shared" si="28"/>
+        <v>130.62560000000002</v>
+      </c>
+      <c r="Z36" s="72"/>
+    </row>
+    <row r="37" spans="8:26" x14ac:dyDescent="0.3">
+      <c r="H37" s="90">
         <f t="shared" si="25"/>
-        <v>132.61860000000001</v>
-      </c>
-      <c r="X36" s="94">
-        <f t="shared" si="26"/>
-        <v>130.62560000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="8:24" x14ac:dyDescent="0.3">
-      <c r="H37" s="90">
-        <f t="shared" si="23"/>
         <v>21</v>
       </c>
       <c r="I37" s="85">
@@ -6705,41 +7094,42 @@
         <v>39.19</v>
       </c>
       <c r="Q37" s="121">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>22.668000000000003</v>
       </c>
       <c r="R37" s="121">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.6920000000000011</v>
       </c>
       <c r="S37" s="121">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>19.93</v>
       </c>
       <c r="T37" s="118">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>130.34100000000001</v>
       </c>
       <c r="U37" s="130">
+        <f t="shared" si="26"/>
+        <v>1.9930000000000001</v>
+      </c>
+      <c r="V37" s="130">
         <f t="shared" si="24"/>
-        <v>1.9930000000000001</v>
-      </c>
-      <c r="V37" s="130">
-        <f t="shared" si="22"/>
         <v>0.28460000000000008</v>
       </c>
       <c r="W37" s="204">
+        <f t="shared" si="27"/>
+        <v>132.61860000000001</v>
+      </c>
+      <c r="X37" s="94">
+        <f t="shared" si="28"/>
+        <v>130.62560000000002</v>
+      </c>
+      <c r="Z37" s="72"/>
+    </row>
+    <row r="38" spans="8:26" x14ac:dyDescent="0.3">
+      <c r="H38" s="90">
         <f t="shared" si="25"/>
-        <v>132.61860000000001</v>
-      </c>
-      <c r="X37" s="94">
-        <f t="shared" si="26"/>
-        <v>130.62560000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="8:24" x14ac:dyDescent="0.3">
-      <c r="H38" s="90">
-        <f t="shared" si="23"/>
         <v>20</v>
       </c>
       <c r="I38" s="85">
@@ -6773,41 +7163,42 @@
         <v>39.19</v>
       </c>
       <c r="Q38" s="121">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>22.668000000000003</v>
       </c>
       <c r="R38" s="121">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.6920000000000011</v>
       </c>
       <c r="S38" s="121">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>19.93</v>
       </c>
       <c r="T38" s="118">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>130.34100000000001</v>
       </c>
       <c r="U38" s="130">
+        <f t="shared" si="26"/>
+        <v>1.9930000000000001</v>
+      </c>
+      <c r="V38" s="130">
         <f t="shared" si="24"/>
-        <v>1.9930000000000001</v>
-      </c>
-      <c r="V38" s="130">
-        <f t="shared" si="22"/>
         <v>0.28460000000000008</v>
       </c>
       <c r="W38" s="204">
+        <f t="shared" si="27"/>
+        <v>132.61860000000001</v>
+      </c>
+      <c r="X38" s="94">
+        <f t="shared" si="28"/>
+        <v>130.62560000000002</v>
+      </c>
+      <c r="Z38" s="72"/>
+    </row>
+    <row r="39" spans="8:26" x14ac:dyDescent="0.3">
+      <c r="H39" s="90">
         <f t="shared" si="25"/>
-        <v>132.61860000000001</v>
-      </c>
-      <c r="X38" s="94">
-        <f t="shared" si="26"/>
-        <v>130.62560000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="8:24" x14ac:dyDescent="0.3">
-      <c r="H39" s="90">
-        <f t="shared" si="23"/>
         <v>19</v>
       </c>
       <c r="I39" s="85">
@@ -6841,41 +7232,42 @@
         <v>39.19</v>
       </c>
       <c r="Q39" s="121">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>22.668000000000003</v>
       </c>
       <c r="R39" s="121">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.6920000000000011</v>
       </c>
       <c r="S39" s="121">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>19.93</v>
       </c>
       <c r="T39" s="118">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>130.34100000000001</v>
       </c>
       <c r="U39" s="130">
+        <f>S39*$C$11</f>
+        <v>1.9930000000000001</v>
+      </c>
+      <c r="V39" s="130">
         <f t="shared" si="24"/>
-        <v>1.9930000000000001</v>
-      </c>
-      <c r="V39" s="130">
-        <f t="shared" si="22"/>
         <v>0.28460000000000008</v>
       </c>
       <c r="W39" s="204">
+        <f t="shared" si="27"/>
+        <v>132.61860000000001</v>
+      </c>
+      <c r="X39" s="94">
+        <f t="shared" si="28"/>
+        <v>130.62560000000002</v>
+      </c>
+      <c r="Z39" s="72"/>
+    </row>
+    <row r="40" spans="8:26" x14ac:dyDescent="0.3">
+      <c r="H40" s="90">
         <f t="shared" si="25"/>
-        <v>132.61860000000001</v>
-      </c>
-      <c r="X39" s="94">
-        <f t="shared" si="26"/>
-        <v>130.62560000000002</v>
-      </c>
-    </row>
-    <row r="40" spans="8:24" x14ac:dyDescent="0.3">
-      <c r="H40" s="90">
-        <f t="shared" si="23"/>
         <v>18</v>
       </c>
       <c r="I40" s="85">
@@ -6909,41 +7301,42 @@
         <v>39.19</v>
       </c>
       <c r="Q40" s="121">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>22.668000000000003</v>
       </c>
       <c r="R40" s="121">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.6920000000000011</v>
       </c>
       <c r="S40" s="121">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>19.93</v>
       </c>
       <c r="T40" s="118">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>130.34100000000001</v>
       </c>
       <c r="U40" s="130">
+        <f t="shared" si="26"/>
+        <v>1.9930000000000001</v>
+      </c>
+      <c r="V40" s="130">
         <f t="shared" si="24"/>
-        <v>1.9930000000000001</v>
-      </c>
-      <c r="V40" s="130">
-        <f t="shared" si="22"/>
         <v>0.28460000000000008</v>
       </c>
       <c r="W40" s="204">
+        <f t="shared" si="27"/>
+        <v>132.61860000000001</v>
+      </c>
+      <c r="X40" s="94">
+        <f t="shared" si="28"/>
+        <v>130.62560000000002</v>
+      </c>
+      <c r="Z40" s="72"/>
+    </row>
+    <row r="41" spans="8:26" x14ac:dyDescent="0.3">
+      <c r="H41" s="90">
         <f t="shared" si="25"/>
-        <v>132.61860000000001</v>
-      </c>
-      <c r="X40" s="94">
-        <f t="shared" si="26"/>
-        <v>130.62560000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="8:24" x14ac:dyDescent="0.3">
-      <c r="H41" s="90">
-        <f t="shared" si="23"/>
         <v>17</v>
       </c>
       <c r="I41" s="85">
@@ -6977,41 +7370,42 @@
         <v>39.19</v>
       </c>
       <c r="Q41" s="121">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>22.668000000000003</v>
       </c>
       <c r="R41" s="121">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.6920000000000011</v>
       </c>
       <c r="S41" s="121">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>19.93</v>
       </c>
       <c r="T41" s="118">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>130.34100000000001</v>
       </c>
       <c r="U41" s="130">
+        <f t="shared" si="26"/>
+        <v>1.9930000000000001</v>
+      </c>
+      <c r="V41" s="130">
         <f t="shared" si="24"/>
-        <v>1.9930000000000001</v>
-      </c>
-      <c r="V41" s="130">
-        <f t="shared" si="22"/>
         <v>0.28460000000000008</v>
       </c>
       <c r="W41" s="204">
+        <f t="shared" si="27"/>
+        <v>132.61860000000001</v>
+      </c>
+      <c r="X41" s="94">
+        <f t="shared" si="28"/>
+        <v>130.62560000000002</v>
+      </c>
+      <c r="Z41" s="72"/>
+    </row>
+    <row r="42" spans="8:26" x14ac:dyDescent="0.3">
+      <c r="H42" s="90">
         <f t="shared" si="25"/>
-        <v>132.61860000000001</v>
-      </c>
-      <c r="X41" s="94">
-        <f t="shared" si="26"/>
-        <v>130.62560000000002</v>
-      </c>
-    </row>
-    <row r="42" spans="8:24" x14ac:dyDescent="0.3">
-      <c r="H42" s="90">
-        <f t="shared" si="23"/>
         <v>16</v>
       </c>
       <c r="I42" s="85">
@@ -7045,41 +7439,42 @@
         <v>39.19</v>
       </c>
       <c r="Q42" s="121">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>22.668000000000003</v>
       </c>
       <c r="R42" s="121">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.6920000000000011</v>
       </c>
       <c r="S42" s="121">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>19.93</v>
       </c>
       <c r="T42" s="118">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>130.34100000000001</v>
       </c>
       <c r="U42" s="130">
+        <f t="shared" si="26"/>
+        <v>1.9930000000000001</v>
+      </c>
+      <c r="V42" s="130">
         <f t="shared" si="24"/>
-        <v>1.9930000000000001</v>
-      </c>
-      <c r="V42" s="130">
-        <f t="shared" si="22"/>
         <v>0.28460000000000008</v>
       </c>
       <c r="W42" s="204">
+        <f t="shared" si="27"/>
+        <v>132.61860000000001</v>
+      </c>
+      <c r="X42" s="94">
+        <f t="shared" si="28"/>
+        <v>130.62560000000002</v>
+      </c>
+      <c r="Z42" s="72"/>
+    </row>
+    <row r="43" spans="8:26" x14ac:dyDescent="0.3">
+      <c r="H43" s="90">
         <f t="shared" si="25"/>
-        <v>132.61860000000001</v>
-      </c>
-      <c r="X42" s="94">
-        <f t="shared" si="26"/>
-        <v>130.62560000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="8:24" x14ac:dyDescent="0.3">
-      <c r="H43" s="90">
-        <f t="shared" si="23"/>
         <v>15</v>
       </c>
       <c r="I43" s="85">
@@ -7113,41 +7508,42 @@
         <v>39.19</v>
       </c>
       <c r="Q43" s="121">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>22.668000000000003</v>
       </c>
       <c r="R43" s="121">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.6920000000000011</v>
       </c>
       <c r="S43" s="121">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>19.93</v>
       </c>
       <c r="T43" s="118">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>130.34100000000001</v>
       </c>
       <c r="U43" s="130">
+        <f t="shared" si="26"/>
+        <v>1.9930000000000001</v>
+      </c>
+      <c r="V43" s="130">
         <f t="shared" si="24"/>
-        <v>1.9930000000000001</v>
-      </c>
-      <c r="V43" s="130">
-        <f t="shared" si="22"/>
         <v>0.28460000000000008</v>
       </c>
       <c r="W43" s="204">
+        <f t="shared" si="27"/>
+        <v>132.61860000000001</v>
+      </c>
+      <c r="X43" s="94">
+        <f t="shared" si="28"/>
+        <v>130.62560000000002</v>
+      </c>
+      <c r="Z43" s="72"/>
+    </row>
+    <row r="44" spans="8:26" x14ac:dyDescent="0.3">
+      <c r="H44" s="90">
         <f t="shared" si="25"/>
-        <v>132.61860000000001</v>
-      </c>
-      <c r="X43" s="94">
-        <f t="shared" si="26"/>
-        <v>130.62560000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="8:24" x14ac:dyDescent="0.3">
-      <c r="H44" s="90">
-        <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="I44" s="85">
@@ -7181,41 +7577,42 @@
         <v>39.19</v>
       </c>
       <c r="Q44" s="121">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>22.668000000000003</v>
       </c>
       <c r="R44" s="121">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.6920000000000011</v>
       </c>
       <c r="S44" s="121">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>19.93</v>
       </c>
       <c r="T44" s="118">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>130.34100000000001</v>
       </c>
       <c r="U44" s="130">
+        <f t="shared" si="26"/>
+        <v>1.9930000000000001</v>
+      </c>
+      <c r="V44" s="130">
         <f t="shared" si="24"/>
-        <v>1.9930000000000001</v>
-      </c>
-      <c r="V44" s="130">
-        <f t="shared" si="22"/>
         <v>0.28460000000000008</v>
       </c>
       <c r="W44" s="204">
+        <f t="shared" si="27"/>
+        <v>132.61860000000001</v>
+      </c>
+      <c r="X44" s="94">
+        <f t="shared" si="28"/>
+        <v>130.62560000000002</v>
+      </c>
+      <c r="Z44" s="72"/>
+    </row>
+    <row r="45" spans="8:26" x14ac:dyDescent="0.3">
+      <c r="H45" s="90">
         <f t="shared" si="25"/>
-        <v>132.61860000000001</v>
-      </c>
-      <c r="X44" s="94">
-        <f t="shared" si="26"/>
-        <v>130.62560000000002</v>
-      </c>
-    </row>
-    <row r="45" spans="8:24" x14ac:dyDescent="0.3">
-      <c r="H45" s="90">
-        <f t="shared" si="23"/>
         <v>13</v>
       </c>
       <c r="I45" s="85">
@@ -7249,41 +7646,42 @@
         <v>39.19</v>
       </c>
       <c r="Q45" s="121">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>22.668000000000003</v>
       </c>
       <c r="R45" s="121">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.6920000000000011</v>
       </c>
       <c r="S45" s="121">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>19.93</v>
       </c>
       <c r="T45" s="118">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>130.34100000000001</v>
       </c>
       <c r="U45" s="130">
+        <f t="shared" si="26"/>
+        <v>1.9930000000000001</v>
+      </c>
+      <c r="V45" s="130">
         <f t="shared" si="24"/>
-        <v>1.9930000000000001</v>
-      </c>
-      <c r="V45" s="130">
-        <f t="shared" si="22"/>
         <v>0.28460000000000008</v>
       </c>
       <c r="W45" s="204">
+        <f t="shared" si="27"/>
+        <v>132.61860000000001</v>
+      </c>
+      <c r="X45" s="94">
+        <f t="shared" si="28"/>
+        <v>130.62560000000002</v>
+      </c>
+      <c r="Z45" s="72"/>
+    </row>
+    <row r="46" spans="8:26" x14ac:dyDescent="0.3">
+      <c r="H46" s="90">
         <f t="shared" si="25"/>
-        <v>132.61860000000001</v>
-      </c>
-      <c r="X45" s="94">
-        <f t="shared" si="26"/>
-        <v>130.62560000000002</v>
-      </c>
-    </row>
-    <row r="46" spans="8:24" x14ac:dyDescent="0.3">
-      <c r="H46" s="90">
-        <f t="shared" si="23"/>
         <v>12</v>
       </c>
       <c r="I46" s="85">
@@ -7317,41 +7715,42 @@
         <v>39.19</v>
       </c>
       <c r="Q46" s="121">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>22.668000000000003</v>
       </c>
       <c r="R46" s="121">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.6920000000000011</v>
       </c>
       <c r="S46" s="121">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>19.93</v>
       </c>
       <c r="T46" s="118">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>130.34100000000001</v>
       </c>
       <c r="U46" s="130">
+        <f t="shared" si="26"/>
+        <v>1.9930000000000001</v>
+      </c>
+      <c r="V46" s="130">
         <f t="shared" si="24"/>
-        <v>1.9930000000000001</v>
-      </c>
-      <c r="V46" s="130">
-        <f t="shared" si="22"/>
         <v>0.28460000000000008</v>
       </c>
       <c r="W46" s="204">
+        <f t="shared" si="27"/>
+        <v>132.61860000000001</v>
+      </c>
+      <c r="X46" s="94">
+        <f t="shared" si="28"/>
+        <v>130.62560000000002</v>
+      </c>
+      <c r="Z46" s="72"/>
+    </row>
+    <row r="47" spans="8:26" x14ac:dyDescent="0.3">
+      <c r="H47" s="90">
         <f t="shared" si="25"/>
-        <v>132.61860000000001</v>
-      </c>
-      <c r="X46" s="94">
-        <f t="shared" si="26"/>
-        <v>130.62560000000002</v>
-      </c>
-    </row>
-    <row r="47" spans="8:24" x14ac:dyDescent="0.3">
-      <c r="H47" s="90">
-        <f t="shared" si="23"/>
         <v>11</v>
       </c>
       <c r="I47" s="85">
@@ -7385,41 +7784,42 @@
         <v>39.19</v>
       </c>
       <c r="Q47" s="121">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>22.668000000000003</v>
       </c>
       <c r="R47" s="121">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.6920000000000011</v>
       </c>
       <c r="S47" s="121">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>19.93</v>
       </c>
       <c r="T47" s="118">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>130.34100000000001</v>
       </c>
       <c r="U47" s="130">
+        <f t="shared" si="26"/>
+        <v>1.9930000000000001</v>
+      </c>
+      <c r="V47" s="130">
         <f t="shared" si="24"/>
-        <v>1.9930000000000001</v>
-      </c>
-      <c r="V47" s="130">
-        <f t="shared" si="22"/>
         <v>0.28460000000000008</v>
       </c>
       <c r="W47" s="204">
+        <f t="shared" si="27"/>
+        <v>132.61860000000001</v>
+      </c>
+      <c r="X47" s="94">
+        <f t="shared" si="28"/>
+        <v>130.62560000000002</v>
+      </c>
+      <c r="Z47" s="270"/>
+    </row>
+    <row r="48" spans="8:26" x14ac:dyDescent="0.3">
+      <c r="H48" s="90">
         <f t="shared" si="25"/>
-        <v>132.61860000000001</v>
-      </c>
-      <c r="X47" s="94">
-        <f t="shared" si="26"/>
-        <v>130.62560000000002</v>
-      </c>
-    </row>
-    <row r="48" spans="8:24" x14ac:dyDescent="0.3">
-      <c r="H48" s="90">
-        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="I48" s="85">
@@ -7453,41 +7853,42 @@
         <v>39.19</v>
       </c>
       <c r="Q48" s="121">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>22.668000000000003</v>
       </c>
       <c r="R48" s="121">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.6920000000000011</v>
       </c>
       <c r="S48" s="121">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>19.93</v>
       </c>
       <c r="T48" s="118">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>130.34100000000001</v>
       </c>
       <c r="U48" s="130">
+        <f t="shared" si="26"/>
+        <v>1.9930000000000001</v>
+      </c>
+      <c r="V48" s="130">
         <f t="shared" si="24"/>
-        <v>1.9930000000000001</v>
-      </c>
-      <c r="V48" s="130">
-        <f t="shared" si="22"/>
         <v>0.28460000000000008</v>
       </c>
       <c r="W48" s="204">
+        <f t="shared" si="27"/>
+        <v>132.61860000000001</v>
+      </c>
+      <c r="X48" s="94">
+        <f t="shared" si="28"/>
+        <v>130.62560000000002</v>
+      </c>
+      <c r="Z48" s="270"/>
+    </row>
+    <row r="49" spans="8:26" x14ac:dyDescent="0.3">
+      <c r="H49" s="90">
         <f t="shared" si="25"/>
-        <v>132.61860000000001</v>
-      </c>
-      <c r="X48" s="94">
-        <f t="shared" si="26"/>
-        <v>130.62560000000002</v>
-      </c>
-    </row>
-    <row r="49" spans="8:24" x14ac:dyDescent="0.3">
-      <c r="H49" s="90">
-        <f t="shared" si="23"/>
         <v>9</v>
       </c>
       <c r="I49" s="85">
@@ -7521,41 +7922,42 @@
         <v>39.19</v>
       </c>
       <c r="Q49" s="121">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>22.668000000000003</v>
       </c>
       <c r="R49" s="121">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.6920000000000011</v>
       </c>
       <c r="S49" s="121">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>19.93</v>
       </c>
       <c r="T49" s="118">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>130.34100000000001</v>
       </c>
       <c r="U49" s="130">
+        <f t="shared" si="26"/>
+        <v>1.9930000000000001</v>
+      </c>
+      <c r="V49" s="130">
         <f t="shared" si="24"/>
-        <v>1.9930000000000001</v>
-      </c>
-      <c r="V49" s="130">
-        <f t="shared" si="22"/>
         <v>0.28460000000000008</v>
       </c>
       <c r="W49" s="204">
+        <f t="shared" si="27"/>
+        <v>132.61860000000001</v>
+      </c>
+      <c r="X49" s="94">
+        <f t="shared" si="28"/>
+        <v>130.62560000000002</v>
+      </c>
+      <c r="Z49" s="270"/>
+    </row>
+    <row r="50" spans="8:26" x14ac:dyDescent="0.3">
+      <c r="H50" s="90">
         <f t="shared" si="25"/>
-        <v>132.61860000000001</v>
-      </c>
-      <c r="X49" s="94">
-        <f t="shared" si="26"/>
-        <v>130.62560000000002</v>
-      </c>
-    </row>
-    <row r="50" spans="8:24" x14ac:dyDescent="0.3">
-      <c r="H50" s="90">
-        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="I50" s="85">
@@ -7589,41 +7991,42 @@
         <v>39.19</v>
       </c>
       <c r="Q50" s="121">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>28.335000000000001</v>
       </c>
       <c r="R50" s="121">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.697000000000001</v>
       </c>
       <c r="S50" s="121">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>19.93</v>
       </c>
       <c r="T50" s="118">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>162.92624999999998</v>
       </c>
       <c r="U50" s="130">
+        <f t="shared" si="26"/>
+        <v>1.9930000000000001</v>
+      </c>
+      <c r="V50" s="130">
         <f t="shared" si="24"/>
-        <v>1.9930000000000001</v>
-      </c>
-      <c r="V50" s="130">
-        <f t="shared" si="22"/>
         <v>0.28485000000000005</v>
       </c>
       <c r="W50" s="204">
+        <f t="shared" si="27"/>
+        <v>165.20409999999998</v>
+      </c>
+      <c r="X50" s="94">
+        <f t="shared" si="28"/>
+        <v>163.21109999999999</v>
+      </c>
+      <c r="Z50" s="270"/>
+    </row>
+    <row r="51" spans="8:26" x14ac:dyDescent="0.3">
+      <c r="H51" s="90">
         <f t="shared" si="25"/>
-        <v>165.20409999999998</v>
-      </c>
-      <c r="X50" s="94">
-        <f t="shared" si="26"/>
-        <v>163.21109999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="8:24" x14ac:dyDescent="0.3">
-      <c r="H51" s="90">
-        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="I51" s="85">
@@ -7657,41 +8060,42 @@
         <v>39.19</v>
       </c>
       <c r="Q51" s="121">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>28.335000000000001</v>
       </c>
       <c r="R51" s="121">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.697000000000001</v>
       </c>
       <c r="S51" s="121">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>19.93</v>
       </c>
       <c r="T51" s="118">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>162.92624999999998</v>
       </c>
       <c r="U51" s="130">
+        <f t="shared" si="26"/>
+        <v>1.9930000000000001</v>
+      </c>
+      <c r="V51" s="130">
         <f t="shared" si="24"/>
-        <v>1.9930000000000001</v>
-      </c>
-      <c r="V51" s="130">
-        <f t="shared" si="22"/>
         <v>0.28485000000000005</v>
       </c>
       <c r="W51" s="204">
+        <f t="shared" si="27"/>
+        <v>165.20409999999998</v>
+      </c>
+      <c r="X51" s="94">
+        <f t="shared" si="28"/>
+        <v>163.21109999999999</v>
+      </c>
+      <c r="Z51" s="270"/>
+    </row>
+    <row r="52" spans="8:26" x14ac:dyDescent="0.3">
+      <c r="H52" s="90">
         <f t="shared" si="25"/>
-        <v>165.20409999999998</v>
-      </c>
-      <c r="X51" s="94">
-        <f t="shared" si="26"/>
-        <v>163.21109999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="8:24" x14ac:dyDescent="0.3">
-      <c r="H52" s="90">
-        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="I52" s="85">
@@ -7725,41 +8129,42 @@
         <v>39.19</v>
       </c>
       <c r="Q52" s="121">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>28.335000000000001</v>
       </c>
       <c r="R52" s="121">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.697000000000001</v>
       </c>
       <c r="S52" s="121">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>19.93</v>
       </c>
       <c r="T52" s="118">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>162.92624999999998</v>
       </c>
       <c r="U52" s="130">
+        <f t="shared" si="26"/>
+        <v>1.9930000000000001</v>
+      </c>
+      <c r="V52" s="130">
         <f t="shared" si="24"/>
-        <v>1.9930000000000001</v>
-      </c>
-      <c r="V52" s="130">
-        <f t="shared" si="22"/>
         <v>0.28485000000000005</v>
       </c>
       <c r="W52" s="204">
+        <f t="shared" si="27"/>
+        <v>165.20409999999998</v>
+      </c>
+      <c r="X52" s="94">
+        <f t="shared" si="28"/>
+        <v>163.21109999999999</v>
+      </c>
+      <c r="Z52" s="270"/>
+    </row>
+    <row r="53" spans="8:26" x14ac:dyDescent="0.3">
+      <c r="H53" s="90">
         <f t="shared" si="25"/>
-        <v>165.20409999999998</v>
-      </c>
-      <c r="X52" s="94">
-        <f t="shared" si="26"/>
-        <v>163.21109999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="8:24" x14ac:dyDescent="0.3">
-      <c r="H53" s="90">
-        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="I53" s="85">
@@ -7793,41 +8198,42 @@
         <v>39.19</v>
       </c>
       <c r="Q53" s="121">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>28.335000000000001</v>
       </c>
       <c r="R53" s="121">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.697000000000001</v>
       </c>
       <c r="S53" s="121">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>24.912500000000001</v>
       </c>
       <c r="T53" s="118">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>162.92624999999998</v>
       </c>
       <c r="U53" s="130">
+        <f t="shared" si="26"/>
+        <v>2.4912500000000004</v>
+      </c>
+      <c r="V53" s="130">
         <f t="shared" si="24"/>
-        <v>2.4912500000000004</v>
-      </c>
-      <c r="V53" s="130">
-        <f t="shared" si="22"/>
         <v>0.28485000000000005</v>
       </c>
       <c r="W53" s="204">
+        <f t="shared" si="27"/>
+        <v>165.70235</v>
+      </c>
+      <c r="X53" s="94">
+        <f t="shared" si="28"/>
+        <v>163.21109999999999</v>
+      </c>
+      <c r="Z53" s="270"/>
+    </row>
+    <row r="54" spans="8:26" x14ac:dyDescent="0.3">
+      <c r="H54" s="90">
         <f t="shared" si="25"/>
-        <v>165.70235</v>
-      </c>
-      <c r="X53" s="94">
-        <f t="shared" si="26"/>
-        <v>163.21109999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="8:24" x14ac:dyDescent="0.3">
-      <c r="H54" s="90">
-        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="I54" s="85">
@@ -7861,41 +8267,42 @@
         <v>39.19</v>
       </c>
       <c r="Q54" s="121">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>28.335000000000001</v>
       </c>
       <c r="R54" s="121">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.697000000000001</v>
       </c>
       <c r="S54" s="121">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>24.912500000000001</v>
       </c>
       <c r="T54" s="118">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>162.92624999999998</v>
       </c>
       <c r="U54" s="130">
+        <f t="shared" si="26"/>
+        <v>2.4912500000000004</v>
+      </c>
+      <c r="V54" s="130">
         <f t="shared" si="24"/>
-        <v>2.4912500000000004</v>
-      </c>
-      <c r="V54" s="130">
-        <f t="shared" si="22"/>
         <v>0.28485000000000005</v>
       </c>
       <c r="W54" s="204">
+        <f t="shared" si="27"/>
+        <v>165.70235</v>
+      </c>
+      <c r="X54" s="94">
+        <f t="shared" si="28"/>
+        <v>163.21109999999999</v>
+      </c>
+      <c r="Z54" s="270"/>
+    </row>
+    <row r="55" spans="8:26" x14ac:dyDescent="0.3">
+      <c r="H55" s="89">
         <f t="shared" si="25"/>
-        <v>165.70235</v>
-      </c>
-      <c r="X54" s="94">
-        <f t="shared" si="26"/>
-        <v>163.21109999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="8:24" x14ac:dyDescent="0.3">
-      <c r="H55" s="89">
-        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="I55" s="84">
@@ -7929,41 +8336,42 @@
         <v>39.19</v>
       </c>
       <c r="Q55" s="94">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>29.295000000000002</v>
       </c>
       <c r="R55" s="94">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.8890000000000011</v>
       </c>
       <c r="S55" s="94">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>24.912500000000001</v>
       </c>
       <c r="T55" s="119">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>168.44625000000002</v>
       </c>
       <c r="U55" s="117">
+        <f t="shared" si="26"/>
+        <v>2.4912500000000004</v>
+      </c>
+      <c r="V55" s="117">
         <f t="shared" si="24"/>
-        <v>2.4912500000000004</v>
-      </c>
-      <c r="V55" s="117">
-        <f t="shared" si="22"/>
         <v>0.29445000000000005</v>
       </c>
       <c r="W55" s="205">
+        <f t="shared" si="27"/>
+        <v>171.23195000000004</v>
+      </c>
+      <c r="X55" s="94">
+        <f t="shared" si="28"/>
+        <v>168.74070000000003</v>
+      </c>
+      <c r="Z55" s="270"/>
+    </row>
+    <row r="56" spans="8:26" x14ac:dyDescent="0.3">
+      <c r="H56" s="89">
         <f t="shared" si="25"/>
-        <v>171.23195000000004</v>
-      </c>
-      <c r="X55" s="94">
-        <f t="shared" si="26"/>
-        <v>168.74070000000003</v>
-      </c>
-    </row>
-    <row r="56" spans="8:24" x14ac:dyDescent="0.3">
-      <c r="H56" s="89">
-        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="I56" s="84">
@@ -7997,41 +8405,42 @@
         <v>38.700000000000017</v>
       </c>
       <c r="Q56" s="94">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>31.481499999999997</v>
       </c>
       <c r="R56" s="94">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.823999999999999</v>
       </c>
       <c r="S56" s="94">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>20.627500000000005</v>
       </c>
       <c r="T56" s="119">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>181.01862499999996</v>
       </c>
       <c r="U56" s="117">
+        <f t="shared" si="26"/>
+        <v>2.0627500000000007</v>
+      </c>
+      <c r="V56" s="117">
         <f t="shared" si="24"/>
-        <v>2.0627500000000007</v>
-      </c>
-      <c r="V56" s="117">
-        <f t="shared" si="22"/>
         <v>0.29119999999999996</v>
       </c>
       <c r="W56" s="205">
+        <f t="shared" si="27"/>
+        <v>183.37257499999996</v>
+      </c>
+      <c r="X56" s="94">
+        <f t="shared" si="28"/>
+        <v>181.30982499999996</v>
+      </c>
+      <c r="Z56" s="270"/>
+    </row>
+    <row r="57" spans="8:26" x14ac:dyDescent="0.3">
+      <c r="H57" s="89">
         <f t="shared" si="25"/>
-        <v>183.37257499999996</v>
-      </c>
-      <c r="X56" s="94">
-        <f t="shared" si="26"/>
-        <v>181.30982499999996</v>
-      </c>
-    </row>
-    <row r="57" spans="8:24" x14ac:dyDescent="0.3">
-      <c r="H57" s="89">
-        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="I57" s="84">
@@ -8065,41 +8474,42 @@
         <v>31.640000000000004</v>
       </c>
       <c r="Q57" s="94">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>33.988999999999997</v>
       </c>
       <c r="R57" s="94">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>6.2804999999999991</v>
       </c>
       <c r="S57" s="94">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>19.019500000000001</v>
       </c>
       <c r="T57" s="119">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>195.43674999999996</v>
       </c>
       <c r="U57" s="117">
+        <f t="shared" si="26"/>
+        <v>1.9019500000000003</v>
+      </c>
+      <c r="V57" s="117">
         <f t="shared" si="24"/>
-        <v>1.9019500000000003</v>
-      </c>
-      <c r="V57" s="117">
-        <f t="shared" si="22"/>
         <v>0.314025</v>
       </c>
       <c r="W57" s="205">
+        <f t="shared" si="27"/>
+        <v>197.65272499999995</v>
+      </c>
+      <c r="X57" s="94">
+        <f t="shared" si="28"/>
+        <v>195.75077499999995</v>
+      </c>
+      <c r="Z57" s="270"/>
+    </row>
+    <row r="58" spans="8:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H58" s="91">
         <f t="shared" si="25"/>
-        <v>197.65272499999995</v>
-      </c>
-      <c r="X57" s="94">
-        <f t="shared" si="26"/>
-        <v>195.75077499999995</v>
-      </c>
-    </row>
-    <row r="58" spans="8:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H58" s="91">
-        <f t="shared" si="23"/>
         <v>-1</v>
       </c>
       <c r="I58" s="87">
@@ -8133,39 +8543,40 @@
         <v>16.899999999999995</v>
       </c>
       <c r="Q58" s="95">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>38.068999999999996</v>
       </c>
       <c r="R58" s="95">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>7.0309999999999988</v>
       </c>
       <c r="S58" s="95">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>10.724999999999998</v>
       </c>
       <c r="T58" s="120">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>218.89674999999997</v>
       </c>
       <c r="U58" s="126">
+        <f t="shared" si="26"/>
+        <v>1.0724999999999998</v>
+      </c>
+      <c r="V58" s="126">
         <f t="shared" si="24"/>
-        <v>1.0724999999999998</v>
-      </c>
-      <c r="V58" s="126">
-        <f t="shared" si="22"/>
         <v>0.35154999999999997</v>
       </c>
       <c r="W58" s="206">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>220.32079999999996</v>
       </c>
       <c r="X58" s="95">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>219.24829999999997</v>
       </c>
-    </row>
-    <row r="59" spans="8:24" x14ac:dyDescent="0.3">
+      <c r="Z58" s="270"/>
+    </row>
+    <row r="59" spans="8:26" x14ac:dyDescent="0.3">
       <c r="S59" s="49" t="s">
         <v>31</v>
       </c>
@@ -8186,13 +8597,13 @@
         <v>3530.4031999999997</v>
       </c>
     </row>
-    <row r="60" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="60" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H60" s="49" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="61" spans="8:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="62" spans="8:24" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="8:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="8:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H62" s="123" t="s">
         <v>34</v>
       </c>
@@ -8215,7 +8626,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="63" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H63" s="112" t="str">
         <f>H34</f>
         <v>Cubierta</v>
@@ -8229,7 +8640,7 @@
         <v>242.60399999999998</v>
       </c>
       <c r="K63" s="83">
-        <f t="shared" ref="K63:K86" si="27">J63*$C$18</f>
+        <f t="shared" ref="K63:K86" si="29">J63*$C$18</f>
         <v>6.0651000000000002</v>
       </c>
       <c r="L63" s="174">
@@ -8241,7 +8652,7 @@
         <v>12.1302</v>
       </c>
       <c r="N63" s="131">
-        <f t="shared" ref="N63:N86" si="28">L63+M63</f>
+        <f t="shared" ref="N63:N86" si="30">L63+M63</f>
         <v>71.462699999999998</v>
       </c>
       <c r="S63" s="49" t="s">
@@ -8252,9 +8663,9 @@
         <v>11059.24556625</v>
       </c>
     </row>
-    <row r="64" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="64" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H64" s="167">
-        <f t="shared" ref="H64:H87" si="29">H35</f>
+        <f t="shared" ref="H64:H87" si="31">H35</f>
         <v>23</v>
       </c>
       <c r="I64" s="85">
@@ -8270,11 +8681,11 @@
         <v>3.7681</v>
       </c>
       <c r="L64" s="182">
-        <f t="shared" ref="L64" si="30">I64*$C$4</f>
+        <f t="shared" ref="L64" si="32">I64*$C$4</f>
         <v>36.922500000000007</v>
       </c>
       <c r="M64" s="183">
-        <f t="shared" ref="M64" si="31">K64*$C$5</f>
+        <f t="shared" ref="M64" si="33">K64*$C$5</f>
         <v>7.5362</v>
       </c>
       <c r="N64" s="184">
@@ -8284,7 +8695,7 @@
     </row>
     <row r="65" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H65" s="167">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>22</v>
       </c>
       <c r="I65" s="85">
@@ -8300,11 +8711,11 @@
         <v>3.7681</v>
       </c>
       <c r="L65" s="182">
-        <f t="shared" ref="L65:L87" si="32">I65*$C$4</f>
+        <f t="shared" ref="L65:L87" si="34">I65*$C$4</f>
         <v>36.922500000000007</v>
       </c>
       <c r="M65" s="183">
-        <f t="shared" ref="M65:M87" si="33">K65*$C$5</f>
+        <f t="shared" ref="M65:M87" si="35">K65*$C$5</f>
         <v>7.5362</v>
       </c>
       <c r="N65" s="184">
@@ -8321,7 +8732,7 @@
     </row>
     <row r="66" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H66" s="167">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>21</v>
       </c>
       <c r="I66" s="85">
@@ -8337,11 +8748,11 @@
         <v>3.7681</v>
       </c>
       <c r="L66" s="182">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M66" s="183">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.5362</v>
       </c>
       <c r="N66" s="184">
@@ -8358,7 +8769,7 @@
     </row>
     <row r="67" spans="8:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H67" s="167">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>20</v>
       </c>
       <c r="I67" s="85">
@@ -8374,11 +8785,11 @@
         <v>3.7681</v>
       </c>
       <c r="L67" s="182">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M67" s="183">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.5362</v>
       </c>
       <c r="N67" s="184">
@@ -8395,7 +8806,7 @@
     </row>
     <row r="68" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H68" s="167">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>19</v>
       </c>
       <c r="I68" s="85">
@@ -8411,11 +8822,11 @@
         <v>3.7681</v>
       </c>
       <c r="L68" s="182">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M68" s="183">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.5362</v>
       </c>
       <c r="N68" s="184">
@@ -8429,7 +8840,7 @@
     </row>
     <row r="69" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H69" s="167">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>18</v>
       </c>
       <c r="I69" s="85">
@@ -8445,11 +8856,11 @@
         <v>3.7681</v>
       </c>
       <c r="L69" s="182">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M69" s="183">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.5362</v>
       </c>
       <c r="N69" s="184">
@@ -8459,7 +8870,7 @@
     </row>
     <row r="70" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H70" s="167">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>17</v>
       </c>
       <c r="I70" s="85">
@@ -8475,11 +8886,11 @@
         <v>3.7681</v>
       </c>
       <c r="L70" s="182">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M70" s="183">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.5362</v>
       </c>
       <c r="N70" s="184">
@@ -8489,7 +8900,7 @@
     </row>
     <row r="71" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H71" s="167">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>16</v>
       </c>
       <c r="I71" s="85">
@@ -8505,11 +8916,11 @@
         <v>3.7681</v>
       </c>
       <c r="L71" s="182">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M71" s="183">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.5362</v>
       </c>
       <c r="N71" s="184">
@@ -8519,7 +8930,7 @@
     </row>
     <row r="72" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H72" s="167">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>15</v>
       </c>
       <c r="I72" s="85">
@@ -8535,11 +8946,11 @@
         <v>3.7681</v>
       </c>
       <c r="L72" s="182">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M72" s="183">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.5362</v>
       </c>
       <c r="N72" s="184">
@@ -8549,7 +8960,7 @@
     </row>
     <row r="73" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H73" s="167">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>14</v>
       </c>
       <c r="I73" s="85">
@@ -8565,11 +8976,11 @@
         <v>3.7681</v>
       </c>
       <c r="L73" s="182">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M73" s="183">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.5362</v>
       </c>
       <c r="N73" s="184">
@@ -8579,7 +8990,7 @@
     </row>
     <row r="74" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H74" s="167">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>13</v>
       </c>
       <c r="I74" s="85">
@@ -8595,11 +9006,11 @@
         <v>3.7681</v>
       </c>
       <c r="L74" s="182">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M74" s="183">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.5362</v>
       </c>
       <c r="N74" s="184">
@@ -8609,7 +9020,7 @@
     </row>
     <row r="75" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H75" s="167">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>12</v>
       </c>
       <c r="I75" s="85">
@@ -8625,11 +9036,11 @@
         <v>3.7681</v>
       </c>
       <c r="L75" s="182">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M75" s="183">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.5362</v>
       </c>
       <c r="N75" s="184">
@@ -8639,7 +9050,7 @@
     </row>
     <row r="76" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H76" s="167">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>11</v>
       </c>
       <c r="I76" s="85">
@@ -8655,11 +9066,11 @@
         <v>3.7681</v>
       </c>
       <c r="L76" s="182">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M76" s="183">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.5362</v>
       </c>
       <c r="N76" s="184">
@@ -8669,7 +9080,7 @@
     </row>
     <row r="77" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H77" s="167">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>10</v>
       </c>
       <c r="I77" s="85">
@@ -8685,11 +9096,11 @@
         <v>3.7681</v>
       </c>
       <c r="L77" s="182">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M77" s="183">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.5362</v>
       </c>
       <c r="N77" s="184">
@@ -8699,7 +9110,7 @@
     </row>
     <row r="78" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H78" s="167">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9</v>
       </c>
       <c r="I78" s="85">
@@ -8715,11 +9126,11 @@
         <v>3.7681</v>
       </c>
       <c r="L78" s="182">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M78" s="183">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.5362</v>
       </c>
       <c r="N78" s="184">
@@ -8729,7 +9140,7 @@
     </row>
     <row r="79" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H79" s="167">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
       <c r="I79" s="85">
@@ -8745,11 +9156,11 @@
         <v>3.7681</v>
       </c>
       <c r="L79" s="182">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M79" s="183">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.5362</v>
       </c>
       <c r="N79" s="184">
@@ -8759,7 +9170,7 @@
     </row>
     <row r="80" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H80" s="167">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>7</v>
       </c>
       <c r="I80" s="85">
@@ -8775,11 +9186,11 @@
         <v>3.7681</v>
       </c>
       <c r="L80" s="182">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M80" s="183">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.5362</v>
       </c>
       <c r="N80" s="184">
@@ -8789,7 +9200,7 @@
     </row>
     <row r="81" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H81" s="167">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>6</v>
       </c>
       <c r="I81" s="85">
@@ -8805,11 +9216,11 @@
         <v>3.7681</v>
       </c>
       <c r="L81" s="182">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M81" s="183">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.5362</v>
       </c>
       <c r="N81" s="184">
@@ -8819,7 +9230,7 @@
     </row>
     <row r="82" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H82" s="167">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="I82" s="85">
@@ -8835,11 +9246,11 @@
         <v>3.7681</v>
       </c>
       <c r="L82" s="182">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M82" s="183">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.5362</v>
       </c>
       <c r="N82" s="184">
@@ -8849,7 +9260,7 @@
     </row>
     <row r="83" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H83" s="167">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="I83" s="85">
@@ -8865,11 +9276,11 @@
         <v>3.7681</v>
       </c>
       <c r="L83" s="182">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M83" s="183">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.5362</v>
       </c>
       <c r="N83" s="184">
@@ -8879,7 +9290,7 @@
     </row>
     <row r="84" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H84" s="167">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="I84" s="85">
@@ -8895,11 +9306,11 @@
         <v>3.7681</v>
       </c>
       <c r="L84" s="182">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M84" s="183">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.5362</v>
       </c>
       <c r="N84" s="184">
@@ -8909,7 +9320,7 @@
     </row>
     <row r="85" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H85" s="113">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="I85" s="84">
@@ -8925,11 +9336,11 @@
         <v>3.7128999999999999</v>
       </c>
       <c r="L85" s="176">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>36.382500000000007</v>
       </c>
       <c r="M85" s="177">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.4257999999999997</v>
       </c>
       <c r="N85" s="178">
@@ -8939,7 +9350,7 @@
     </row>
     <row r="86" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H86" s="113">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="I86" s="84">
@@ -8955,11 +9366,11 @@
         <v>1.4129300000000002</v>
       </c>
       <c r="L86" s="176">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>40.448031250000007</v>
       </c>
       <c r="M86" s="177">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>2.8258600000000005</v>
       </c>
       <c r="N86" s="178">
@@ -8969,7 +9380,7 @@
     </row>
     <row r="87" spans="8:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H87" s="114">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-1</v>
       </c>
       <c r="I87" s="87">
@@ -8985,11 +9396,11 @@
         <v>1.0290125000000001</v>
       </c>
       <c r="L87" s="179">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>49.351750000000003</v>
       </c>
       <c r="M87" s="180">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>2.0580250000000002</v>
       </c>
       <c r="N87" s="181">
@@ -9042,8 +9453,8 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:AD26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="A13:XFD13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tarea 03/Cubicaciones.xlsx
+++ b/Tarea 03/Cubicaciones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0F9981AA-2313-4071-9AE1-FD2F65AD3845}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F07FE8AC-8B00-4CBB-AA5B-6745923D021F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -762,7 +762,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="148">
   <si>
     <t>Muros</t>
   </si>
@@ -819,9 +819,6 @@
   </si>
   <si>
     <t>% TauY</t>
-  </si>
-  <si>
-    <t>Eval</t>
   </si>
   <si>
     <t>Sobrado x</t>
@@ -1203,6 +1200,12 @@
   </si>
   <si>
     <t>Dist fuera</t>
+  </si>
+  <si>
+    <t>Densidad muro x</t>
+  </si>
+  <si>
+    <t>Densidad muro y</t>
   </si>
 </sst>
 </file>
@@ -2007,7 +2010,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="273">
+  <cellXfs count="278">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2685,81 +2688,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2770,7 +2698,6 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2818,6 +2745,99 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3164,43 +3184,43 @@
     <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="123" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="209" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="209" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="209" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="209" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="209" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" s="209" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" s="209" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="209" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="209" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="209" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" s="209" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" s="209" t="s">
+      <c r="J2" s="209" t="s">
+        <v>115</v>
+      </c>
+      <c r="K2" s="209" t="s">
+        <v>117</v>
+      </c>
+      <c r="L2" s="209" t="s">
+        <v>121</v>
+      </c>
+      <c r="M2" s="209" t="s">
         <v>123</v>
       </c>
-      <c r="H2" s="209" t="s">
-        <v>117</v>
-      </c>
-      <c r="I2" s="209" t="s">
-        <v>115</v>
-      </c>
-      <c r="J2" s="209" t="s">
-        <v>116</v>
-      </c>
-      <c r="K2" s="209" t="s">
+      <c r="N2" s="210" t="s">
         <v>118</v>
-      </c>
-      <c r="L2" s="209" t="s">
-        <v>122</v>
-      </c>
-      <c r="M2" s="209" t="s">
-        <v>124</v>
-      </c>
-      <c r="N2" s="210" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
@@ -3297,7 +3317,7 @@
         <v>40.357336224489792</v>
       </c>
       <c r="M4" s="139">
-        <f>L4/D4*(G4)</f>
+        <f t="shared" ref="M4:M27" si="2">L4/D4*(G4)</f>
         <v>3865.3530110183951</v>
       </c>
       <c r="N4" s="216">
@@ -3344,11 +3364,11 @@
         <v>435.96642000000003</v>
       </c>
       <c r="L5" s="208">
-        <f t="shared" ref="L5:L26" si="2">K5/9.8</f>
+        <f t="shared" ref="L5:L26" si="3">K5/9.8</f>
         <v>44.486369387755104</v>
       </c>
       <c r="M5" s="139">
-        <f>L5/D5*(G5)</f>
+        <f t="shared" si="2"/>
         <v>4260.8243741788156</v>
       </c>
       <c r="N5" s="216">
@@ -3395,11 +3415,11 @@
         <v>435.96642000000003</v>
       </c>
       <c r="L6" s="208">
+        <f t="shared" si="3"/>
+        <v>44.486369387755104</v>
+      </c>
+      <c r="M6" s="139">
         <f t="shared" si="2"/>
-        <v>44.486369387755104</v>
-      </c>
-      <c r="M6" s="139">
-        <f>L6/D6*(G6)</f>
         <v>4260.8243741788156</v>
       </c>
       <c r="N6" s="216">
@@ -3446,11 +3466,11 @@
         <v>435.96642000000003</v>
       </c>
       <c r="L7" s="208">
+        <f t="shared" si="3"/>
+        <v>44.486369387755104</v>
+      </c>
+      <c r="M7" s="139">
         <f t="shared" si="2"/>
-        <v>44.486369387755104</v>
-      </c>
-      <c r="M7" s="139">
-        <f>L7/D7*(G7)</f>
         <v>4260.8243741788156</v>
       </c>
       <c r="N7" s="216">
@@ -3497,11 +3517,11 @@
         <v>435.96642000000003</v>
       </c>
       <c r="L8" s="208">
+        <f t="shared" si="3"/>
+        <v>44.486369387755104</v>
+      </c>
+      <c r="M8" s="139">
         <f t="shared" si="2"/>
-        <v>44.486369387755104</v>
-      </c>
-      <c r="M8" s="139">
-        <f>L8/D8*(G8)</f>
         <v>4260.8243741788156</v>
       </c>
       <c r="N8" s="216">
@@ -3548,11 +3568,11 @@
         <v>435.96642000000003</v>
       </c>
       <c r="L9" s="208">
+        <f t="shared" si="3"/>
+        <v>44.486369387755104</v>
+      </c>
+      <c r="M9" s="139">
         <f t="shared" si="2"/>
-        <v>44.486369387755104</v>
-      </c>
-      <c r="M9" s="139">
-        <f>L9/D9*(G9)</f>
         <v>4260.8243741788156</v>
       </c>
       <c r="N9" s="216">
@@ -3599,11 +3619,11 @@
         <v>435.96642000000003</v>
       </c>
       <c r="L10" s="208">
+        <f t="shared" si="3"/>
+        <v>44.486369387755104</v>
+      </c>
+      <c r="M10" s="139">
         <f t="shared" si="2"/>
-        <v>44.486369387755104</v>
-      </c>
-      <c r="M10" s="139">
-        <f>L10/D10*(G10)</f>
         <v>4260.8243741788156</v>
       </c>
       <c r="N10" s="216">
@@ -3650,11 +3670,11 @@
         <v>435.96642000000003</v>
       </c>
       <c r="L11" s="208">
+        <f t="shared" si="3"/>
+        <v>44.486369387755104</v>
+      </c>
+      <c r="M11" s="139">
         <f t="shared" si="2"/>
-        <v>44.486369387755104</v>
-      </c>
-      <c r="M11" s="139">
-        <f>L11/D11*(G11)</f>
         <v>4260.8243741788156</v>
       </c>
       <c r="N11" s="216">
@@ -3701,11 +3721,11 @@
         <v>435.96642000000003</v>
       </c>
       <c r="L12" s="208">
+        <f t="shared" si="3"/>
+        <v>44.486369387755104</v>
+      </c>
+      <c r="M12" s="139">
         <f t="shared" si="2"/>
-        <v>44.486369387755104</v>
-      </c>
-      <c r="M12" s="139">
-        <f>L12/D12*(G12)</f>
         <v>4260.8243741788156</v>
       </c>
       <c r="N12" s="216">
@@ -3749,19 +3769,19 @@
       </c>
       <c r="K13" s="139">
         <f>'Pesos elementos'!U14</f>
-        <v>435.96642000000003</v>
+        <v>452.25916999999998</v>
       </c>
       <c r="L13" s="208">
+        <f t="shared" si="3"/>
+        <v>46.148894897959181</v>
+      </c>
+      <c r="M13" s="139">
         <f t="shared" si="2"/>
-        <v>44.486369387755104</v>
-      </c>
-      <c r="M13" s="139">
-        <f>L13/D13*(G13)</f>
-        <v>4260.8243741788156</v>
+        <v>4420.0580746147389</v>
       </c>
       <c r="N13" s="216">
         <f>'Pesos elementos'!V14</f>
-        <v>1.0628065128728947</v>
+        <v>1.1025252618825314</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
@@ -3796,23 +3816,23 @@
       </c>
       <c r="J14" s="139">
         <f>'Pesos elementos'!W44</f>
-        <v>132.61860000000001</v>
+        <v>165.20409999999998</v>
       </c>
       <c r="K14" s="139">
         <f>'Pesos elementos'!U15</f>
-        <v>435.96642000000003</v>
+        <v>468.55192</v>
       </c>
       <c r="L14" s="208">
+        <f t="shared" si="3"/>
+        <v>47.811420408163258</v>
+      </c>
+      <c r="M14" s="139">
         <f t="shared" si="2"/>
-        <v>44.486369387755104</v>
-      </c>
-      <c r="M14" s="139">
-        <f>L14/D14*(G14)</f>
-        <v>4260.8243741788156</v>
+        <v>4579.2917750506613</v>
       </c>
       <c r="N14" s="216">
         <f>'Pesos elementos'!V15</f>
-        <v>1.0628065128728947</v>
+        <v>1.1422440108921681</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
@@ -3847,23 +3867,23 @@
       </c>
       <c r="J15" s="139">
         <f>'Pesos elementos'!W45</f>
-        <v>132.61860000000001</v>
+        <v>165.20409999999998</v>
       </c>
       <c r="K15" s="139">
         <f>'Pesos elementos'!U16</f>
-        <v>435.96642000000003</v>
+        <v>468.55192</v>
       </c>
       <c r="L15" s="208">
+        <f t="shared" si="3"/>
+        <v>47.811420408163258</v>
+      </c>
+      <c r="M15" s="139">
         <f t="shared" si="2"/>
-        <v>44.486369387755104</v>
-      </c>
-      <c r="M15" s="139">
-        <f>L15/D15*(G15)</f>
-        <v>4260.8243741788156</v>
+        <v>4579.2917750506613</v>
       </c>
       <c r="N15" s="216">
         <f>'Pesos elementos'!V16</f>
-        <v>1.0628065128728947</v>
+        <v>1.1422440108921681</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
@@ -3898,23 +3918,23 @@
       </c>
       <c r="J16" s="139">
         <f>'Pesos elementos'!W46</f>
-        <v>132.61860000000001</v>
+        <v>165.20409999999998</v>
       </c>
       <c r="K16" s="139">
         <f>'Pesos elementos'!U17</f>
-        <v>435.96642000000003</v>
+        <v>468.55192</v>
       </c>
       <c r="L16" s="208">
+        <f t="shared" si="3"/>
+        <v>47.811420408163258</v>
+      </c>
+      <c r="M16" s="139">
         <f t="shared" si="2"/>
-        <v>44.486369387755104</v>
-      </c>
-      <c r="M16" s="139">
-        <f>L16/D16*(G16)</f>
-        <v>4260.8243741788156</v>
+        <v>4579.2917750506613</v>
       </c>
       <c r="N16" s="216">
         <f>'Pesos elementos'!V17</f>
-        <v>1.0628065128728947</v>
+        <v>1.1422440108921681</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
@@ -3949,23 +3969,23 @@
       </c>
       <c r="J17" s="139">
         <f>'Pesos elementos'!W47</f>
-        <v>132.61860000000001</v>
+        <v>165.20409999999998</v>
       </c>
       <c r="K17" s="139">
         <f>'Pesos elementos'!U18</f>
-        <v>435.96642000000003</v>
+        <v>468.55192</v>
       </c>
       <c r="L17" s="208">
+        <f t="shared" si="3"/>
+        <v>47.811420408163258</v>
+      </c>
+      <c r="M17" s="139">
         <f t="shared" si="2"/>
-        <v>44.486369387755104</v>
-      </c>
-      <c r="M17" s="139">
-        <f>L17/D17*(G17)</f>
-        <v>4260.8243741788156</v>
+        <v>4579.2917750506613</v>
       </c>
       <c r="N17" s="216">
         <f>'Pesos elementos'!V18</f>
-        <v>1.0628065128728947</v>
+        <v>1.1422440108921681</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
@@ -4000,23 +4020,23 @@
       </c>
       <c r="J18" s="139">
         <f>'Pesos elementos'!W48</f>
-        <v>132.61860000000001</v>
+        <v>165.20409999999998</v>
       </c>
       <c r="K18" s="139">
         <f>'Pesos elementos'!U19</f>
-        <v>435.96642000000003</v>
+        <v>468.55192</v>
       </c>
       <c r="L18" s="208">
+        <f t="shared" si="3"/>
+        <v>47.811420408163258</v>
+      </c>
+      <c r="M18" s="139">
         <f t="shared" si="2"/>
-        <v>44.486369387755104</v>
-      </c>
-      <c r="M18" s="139">
-        <f>L18/D18*(G18)</f>
-        <v>4260.8243741788156</v>
+        <v>4579.2917750506613</v>
       </c>
       <c r="N18" s="216">
         <f>'Pesos elementos'!V19</f>
-        <v>1.0628065128728947</v>
+        <v>1.1422440108921681</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
@@ -4051,23 +4071,23 @@
       </c>
       <c r="J19" s="139">
         <f>'Pesos elementos'!W49</f>
-        <v>132.61860000000001</v>
+        <v>165.20409999999998</v>
       </c>
       <c r="K19" s="139">
         <f>'Pesos elementos'!U20</f>
-        <v>452.25916999999998</v>
+        <v>468.55192</v>
       </c>
       <c r="L19" s="208">
+        <f t="shared" si="3"/>
+        <v>47.811420408163258</v>
+      </c>
+      <c r="M19" s="139">
         <f t="shared" si="2"/>
-        <v>46.148894897959181</v>
-      </c>
-      <c r="M19" s="139">
-        <f>L19/D19*(G19)</f>
-        <v>4420.0580746147389</v>
+        <v>4579.2917750506613</v>
       </c>
       <c r="N19" s="216">
         <f>'Pesos elementos'!V20</f>
-        <v>1.1025252618825314</v>
+        <v>1.1422440108921681</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
@@ -4109,11 +4129,11 @@
         <v>468.55192</v>
       </c>
       <c r="L20" s="208">
+        <f t="shared" si="3"/>
+        <v>47.811420408163258</v>
+      </c>
+      <c r="M20" s="139">
         <f t="shared" si="2"/>
-        <v>47.811420408163258</v>
-      </c>
-      <c r="M20" s="139">
-        <f>L20/D20*(G20)</f>
         <v>4579.2917750506613</v>
       </c>
       <c r="N20" s="216">
@@ -4160,11 +4180,11 @@
         <v>468.55192</v>
       </c>
       <c r="L21" s="208">
+        <f t="shared" si="3"/>
+        <v>47.811420408163258</v>
+      </c>
+      <c r="M21" s="139">
         <f t="shared" si="2"/>
-        <v>47.811420408163258</v>
-      </c>
-      <c r="M21" s="139">
-        <f>L21/D21*(G21)</f>
         <v>4579.2917750506613</v>
       </c>
       <c r="N21" s="216">
@@ -4211,11 +4231,11 @@
         <v>468.80104499999999</v>
       </c>
       <c r="L22" s="208">
+        <f t="shared" si="3"/>
+        <v>47.83684132653061</v>
+      </c>
+      <c r="M22" s="139">
         <f t="shared" si="2"/>
-        <v>47.83684132653061</v>
-      </c>
-      <c r="M22" s="139">
-        <f>L22/D22*(G22)</f>
         <v>4581.7265448483386</v>
       </c>
       <c r="N22" s="216">
@@ -4262,11 +4282,11 @@
         <v>469.05016999999998</v>
       </c>
       <c r="L23" s="208">
+        <f t="shared" si="3"/>
+        <v>47.862262244897956</v>
+      </c>
+      <c r="M23" s="139">
         <f t="shared" si="2"/>
-        <v>47.862262244897956</v>
-      </c>
-      <c r="M23" s="139">
-        <f>L23/D23*(G23)</f>
         <v>4584.1613146460149</v>
       </c>
       <c r="N23" s="216">
@@ -4313,11 +4333,11 @@
         <v>471.81497000000002</v>
       </c>
       <c r="L24" s="208">
+        <f t="shared" si="3"/>
+        <v>48.144384693877548</v>
+      </c>
+      <c r="M24" s="139">
         <f t="shared" si="2"/>
-        <v>48.144384693877548</v>
-      </c>
-      <c r="M24" s="139">
-        <f>L24/D24*(G24)</f>
         <v>4611.1824949234542</v>
       </c>
       <c r="N24" s="216">
@@ -4364,11 +4384,11 @@
         <v>480.3766425</v>
       </c>
       <c r="L25" s="208">
+        <f t="shared" si="3"/>
+        <v>49.018024744897957</v>
+      </c>
+      <c r="M25" s="139">
         <f t="shared" si="2"/>
-        <v>49.018024744897957</v>
-      </c>
-      <c r="M25" s="139">
-        <f>L25/D25*(G25)</f>
         <v>4686.0917548245352</v>
       </c>
       <c r="N25" s="216">
@@ -4415,11 +4435,11 @@
         <v>475.35311124999998</v>
       </c>
       <c r="L26" s="208">
+        <f t="shared" si="3"/>
+        <v>48.505419515306116</v>
+      </c>
+      <c r="M26" s="139">
         <f t="shared" si="2"/>
-        <v>48.505419515306116</v>
-      </c>
-      <c r="M26" s="139">
-        <f>L26/D26*(G26)</f>
         <v>6568.6629003294556</v>
       </c>
       <c r="N26" s="216">
@@ -4470,7 +4490,7 @@
         <v>68.419331377551018</v>
       </c>
       <c r="M27" s="133">
-        <f>L27/D27*(G27)</f>
+        <f t="shared" si="2"/>
         <v>9483.7529929157845</v>
       </c>
       <c r="N27" s="220">
@@ -4490,8 +4510,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="B2:AA88"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U29" sqref="U29"/>
+    <sheetView showGridLines="0" topLeftCell="G25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4523,13 +4543,13 @@
   <sheetData>
     <row r="2" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="48" t="s">
         <v>37</v>
-      </c>
-      <c r="H2" s="48" t="s">
-        <v>38</v>
       </c>
       <c r="I2" s="48"/>
     </row>
@@ -4541,67 +4561,67 @@
         <v>4</v>
       </c>
       <c r="E3" s="111" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F3" s="115" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="267" t="s">
-        <v>114</v>
+        <v>35</v>
+      </c>
+      <c r="H3" s="241" t="s">
+        <v>113</v>
       </c>
       <c r="I3" s="105" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="104" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="104" t="s">
+        <v>104</v>
+      </c>
+      <c r="L3" s="193" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="104" t="s">
-        <v>70</v>
-      </c>
-      <c r="K3" s="104" t="s">
-        <v>105</v>
-      </c>
-      <c r="L3" s="193" t="s">
-        <v>40</v>
-      </c>
       <c r="M3" s="194" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N3" s="187" t="s">
+        <v>66</v>
+      </c>
+      <c r="O3" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="O3" s="116" t="s">
-        <v>68</v>
-      </c>
       <c r="P3" s="116" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q3" s="116" t="s">
         <v>130</v>
       </c>
-      <c r="Q3" s="116" t="s">
-        <v>131</v>
-      </c>
       <c r="R3" s="116" t="s">
+        <v>108</v>
+      </c>
+      <c r="S3" s="116" t="s">
         <v>109</v>
       </c>
-      <c r="S3" s="116" t="s">
+      <c r="T3" s="116" t="s">
         <v>110</v>
       </c>
-      <c r="T3" s="116" t="s">
+      <c r="U3" s="192" t="s">
         <v>111</v>
       </c>
-      <c r="U3" s="192" t="s">
+      <c r="V3" s="192" t="s">
         <v>112</v>
       </c>
-      <c r="V3" s="192" t="s">
-        <v>113</v>
-      </c>
       <c r="X3" s="111" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y3" s="210" t="s">
         <v>143</v>
       </c>
-      <c r="Y3" s="210" t="s">
+      <c r="Z3" s="111" t="s">
         <v>144</v>
       </c>
-      <c r="Z3" s="111" t="s">
+      <c r="AA3" s="210" t="s">
         <v>145</v>
-      </c>
-      <c r="AA3" s="210" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.3">
@@ -4612,12 +4632,12 @@
         <v>2.5</v>
       </c>
       <c r="E4" s="112" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4" s="99">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H4" s="268" t="str">
+      <c r="H4" s="242" t="str">
         <f>E4</f>
         <v>Cubierta</v>
       </c>
@@ -4656,7 +4676,7 @@
         <v>0</v>
       </c>
       <c r="R4" s="117">
-        <f>N63</f>
+        <f t="shared" ref="R4:R28" si="0">N63</f>
         <v>71.462699999999998</v>
       </c>
       <c r="S4" s="118">
@@ -4675,14 +4695,14 @@
         <f>U4/(M4+J4)</f>
         <v>1.9643278552505168</v>
       </c>
-      <c r="X4" s="271">
+      <c r="X4" s="245">
         <f>O4+U34+V34+M63</f>
         <v>17.489470000000001</v>
       </c>
       <c r="Y4" s="216">
         <v>0</v>
       </c>
-      <c r="Z4" s="271">
+      <c r="Z4" s="245">
         <f>X4/L4</f>
         <v>0.41318914193914208</v>
       </c>
@@ -4704,11 +4724,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H5" s="89">
-        <f t="shared" ref="H5:H28" si="0">E5</f>
+        <f t="shared" ref="H5:H28" si="1">E5</f>
         <v>23</v>
       </c>
       <c r="I5" s="107">
-        <f t="shared" ref="I5:I25" si="1">$C$27</f>
+        <f t="shared" ref="I5:I25" si="2">$C$27</f>
         <v>0.16</v>
       </c>
       <c r="J5" s="71">
@@ -4719,57 +4739,57 @@
         <v>15.170000000000002</v>
       </c>
       <c r="L5" s="197">
-        <f t="shared" ref="L5" si="2">J5-K5</f>
+        <f t="shared" ref="L5" si="3">J5-K5</f>
         <v>395.03299999999996</v>
       </c>
       <c r="M5" s="198">
         <v>0</v>
       </c>
       <c r="N5" s="189">
-        <f t="shared" ref="N5" si="3">I5*J5*$C$4+M5*I5*$C$4</f>
+        <f t="shared" ref="N5" si="4">I5*J5*$C$4+M5*I5*$C$4</f>
         <v>164.0812</v>
       </c>
       <c r="O5" s="118">
-        <f t="shared" ref="O5" si="4">L5*($C$6*$C$19+$C$7*$C$20)</f>
+        <f t="shared" ref="O5" si="5">L5*($C$6*$C$19+$C$7*$C$20)</f>
         <v>45.428795000000001</v>
       </c>
       <c r="P5" s="118">
-        <f t="shared" ref="P5" si="5">L5*$C$14</f>
+        <f t="shared" ref="P5" si="6">L5*$C$14</f>
         <v>197.51649999999998</v>
       </c>
       <c r="Q5" s="118">
-        <f t="shared" ref="Q5" si="6">M5*$C$14</f>
+        <f t="shared" ref="Q5" si="7">M5*$C$14</f>
         <v>0</v>
       </c>
       <c r="R5" s="118">
-        <f>N64</f>
+        <f t="shared" si="0"/>
         <v>44.458700000000007</v>
       </c>
       <c r="S5" s="118">
-        <f>0.5*(W34+W35)</f>
+        <f t="shared" ref="S5:S28" si="8">0.5*(W34+W35)</f>
         <v>92.154075000000006</v>
       </c>
       <c r="T5" s="118">
-        <f t="shared" ref="T5" si="7">N5+O5+0.25*(P5+Q5)</f>
+        <f t="shared" ref="T5" si="9">N5+O5+0.25*(P5+Q5)</f>
         <v>258.88911999999999</v>
       </c>
       <c r="U5" s="184">
-        <f t="shared" ref="U5" si="8">SUM(R5:T5)</f>
+        <f t="shared" ref="U5" si="10">SUM(R5:T5)</f>
         <v>395.50189499999999</v>
       </c>
       <c r="V5" s="131">
-        <f t="shared" ref="V5" si="9">U5/(M5+J5)</f>
+        <f t="shared" ref="V5" si="11">U5/(M5+J5)</f>
         <v>0.96416139082356789</v>
       </c>
-      <c r="X5" s="271">
-        <f t="shared" ref="X5:X28" si="10">V35+U35+O5+M64</f>
+      <c r="X5" s="245">
+        <f t="shared" ref="X5:X28" si="12">V35+U35+O5+M64</f>
         <v>55.242595000000001</v>
       </c>
       <c r="Y5" s="216">
         <v>0</v>
       </c>
-      <c r="Z5" s="271">
-        <f t="shared" ref="Z5:Z28" si="11">X5/L5</f>
+      <c r="Z5" s="245">
+        <f t="shared" ref="Z5:Z28" si="13">X5/L5</f>
         <v>0.13984298780101917</v>
       </c>
       <c r="AA5" s="68">
@@ -4778,7 +4798,7 @@
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B6" s="55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="128">
         <f>0.04/0.02</f>
@@ -4791,11 +4811,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H6" s="89">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I6" s="107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
       <c r="J6" s="71">
@@ -4806,57 +4826,57 @@
         <v>15.170000000000002</v>
       </c>
       <c r="L6" s="197">
-        <f t="shared" ref="L5:L27" si="12">J6-K6</f>
+        <f t="shared" ref="L6:L27" si="14">J6-K6</f>
         <v>395.03299999999996</v>
       </c>
       <c r="M6" s="198">
         <v>0</v>
       </c>
       <c r="N6" s="189">
-        <f t="shared" ref="N6:N28" si="13">I6*J6*$C$4+M6*I6*$C$4</f>
+        <f t="shared" ref="N6:N28" si="15">I6*J6*$C$4+M6*I6*$C$4</f>
         <v>164.0812</v>
       </c>
       <c r="O6" s="118">
-        <f t="shared" ref="O5:O28" si="14">L6*($C$6*$C$19+$C$7*$C$20)</f>
+        <f t="shared" ref="O6:O28" si="16">L6*($C$6*$C$19+$C$7*$C$20)</f>
         <v>45.428795000000001</v>
       </c>
       <c r="P6" s="118">
-        <f t="shared" ref="P6:P28" si="15">L6*$C$14</f>
+        <f t="shared" ref="P6:P28" si="17">L6*$C$14</f>
         <v>197.51649999999998</v>
       </c>
       <c r="Q6" s="118">
-        <f t="shared" ref="Q6:Q27" si="16">M6*$C$14</f>
+        <f t="shared" ref="Q6:Q27" si="18">M6*$C$14</f>
         <v>0</v>
       </c>
       <c r="R6" s="118">
-        <f>N65</f>
+        <f t="shared" si="0"/>
         <v>44.458700000000007</v>
       </c>
       <c r="S6" s="118">
-        <f>0.5*(W35+W36)</f>
+        <f t="shared" si="8"/>
         <v>132.61860000000001</v>
       </c>
       <c r="T6" s="118">
-        <f t="shared" ref="T6:T28" si="17">N6+O6+0.25*(P6+Q6)</f>
+        <f t="shared" ref="T6:T28" si="19">N6+O6+0.25*(P6+Q6)</f>
         <v>258.88911999999999</v>
       </c>
       <c r="U6" s="184">
-        <f t="shared" ref="U6:U28" si="18">SUM(R6:T6)</f>
+        <f t="shared" ref="U6:U28" si="20">SUM(R6:T6)</f>
         <v>435.96642000000003</v>
       </c>
       <c r="V6" s="131">
-        <f t="shared" ref="V5:V28" si="19">U6/(M6+J6)</f>
+        <f t="shared" ref="V6:V28" si="21">U6/(M6+J6)</f>
         <v>1.0628065128728947</v>
       </c>
-      <c r="X6" s="271">
-        <f t="shared" si="10"/>
+      <c r="X6" s="245">
+        <f t="shared" si="12"/>
         <v>55.242595000000001</v>
       </c>
       <c r="Y6" s="216">
         <v>0</v>
       </c>
-      <c r="Z6" s="271">
-        <f t="shared" si="11"/>
+      <c r="Z6" s="245">
+        <f t="shared" si="13"/>
         <v>0.13984298780101917</v>
       </c>
       <c r="AA6" s="68">
@@ -4877,11 +4897,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H7" s="89">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I7" s="107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
       <c r="J7" s="71">
@@ -4892,57 +4912,57 @@
         <v>15.170000000000002</v>
       </c>
       <c r="L7" s="197">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>395.03299999999996</v>
       </c>
       <c r="M7" s="198">
         <v>0</v>
       </c>
       <c r="N7" s="189">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>164.0812</v>
       </c>
       <c r="O7" s="118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45.428795000000001</v>
       </c>
       <c r="P7" s="118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>197.51649999999998</v>
       </c>
       <c r="Q7" s="118">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R7" s="118">
-        <f>N66</f>
+        <f t="shared" si="0"/>
         <v>44.458700000000007</v>
       </c>
       <c r="S7" s="118">
-        <f>0.5*(W36+W37)</f>
+        <f t="shared" si="8"/>
         <v>132.61860000000001</v>
       </c>
       <c r="T7" s="118">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>258.88911999999999</v>
       </c>
       <c r="U7" s="184">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>435.96642000000003</v>
       </c>
       <c r="V7" s="184">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.0628065128728947</v>
       </c>
-      <c r="X7" s="271">
-        <f t="shared" si="10"/>
+      <c r="X7" s="245">
+        <f t="shared" si="12"/>
         <v>55.242595000000001</v>
       </c>
       <c r="Y7" s="216">
         <v>0</v>
       </c>
-      <c r="Z7" s="271">
-        <f t="shared" si="11"/>
+      <c r="Z7" s="245">
+        <f t="shared" si="13"/>
         <v>0.13984298780101917</v>
       </c>
       <c r="AA7" s="68">
@@ -4957,11 +4977,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H8" s="89">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I8" s="107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
       <c r="J8" s="71">
@@ -4972,57 +4992,57 @@
         <v>15.170000000000002</v>
       </c>
       <c r="L8" s="197">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>395.03299999999996</v>
       </c>
       <c r="M8" s="198">
         <v>0</v>
       </c>
       <c r="N8" s="189">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>164.0812</v>
       </c>
       <c r="O8" s="118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45.428795000000001</v>
       </c>
       <c r="P8" s="118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>197.51649999999998</v>
       </c>
       <c r="Q8" s="118">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R8" s="118">
-        <f>N67</f>
+        <f t="shared" si="0"/>
         <v>44.458700000000007</v>
       </c>
       <c r="S8" s="118">
-        <f>0.5*(W37+W38)</f>
+        <f t="shared" si="8"/>
         <v>132.61860000000001</v>
       </c>
       <c r="T8" s="118">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>258.88911999999999</v>
       </c>
       <c r="U8" s="184">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>435.96642000000003</v>
       </c>
       <c r="V8" s="184">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.0628065128728947</v>
       </c>
-      <c r="X8" s="271">
-        <f t="shared" si="10"/>
+      <c r="X8" s="245">
+        <f t="shared" si="12"/>
         <v>55.242595000000001</v>
       </c>
       <c r="Y8" s="216">
         <v>0</v>
       </c>
-      <c r="Z8" s="271">
-        <f t="shared" si="11"/>
+      <c r="Z8" s="245">
+        <f t="shared" si="13"/>
         <v>0.13984298780101917</v>
       </c>
       <c r="AA8" s="68">
@@ -5031,7 +5051,7 @@
     </row>
     <row r="9" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E9" s="113">
         <v>19</v>
@@ -5040,11 +5060,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H9" s="89">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I9" s="107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
       <c r="J9" s="71">
@@ -5055,57 +5075,57 @@
         <v>15.170000000000002</v>
       </c>
       <c r="L9" s="197">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>395.03299999999996</v>
       </c>
       <c r="M9" s="198">
         <v>0</v>
       </c>
       <c r="N9" s="189">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>164.0812</v>
       </c>
       <c r="O9" s="118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45.428795000000001</v>
       </c>
       <c r="P9" s="118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>197.51649999999998</v>
       </c>
       <c r="Q9" s="118">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R9" s="118">
-        <f>N68</f>
+        <f t="shared" si="0"/>
         <v>44.458700000000007</v>
       </c>
       <c r="S9" s="118">
-        <f>0.5*(W38+W39)</f>
+        <f t="shared" si="8"/>
         <v>132.61860000000001</v>
       </c>
       <c r="T9" s="118">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>258.88911999999999</v>
       </c>
       <c r="U9" s="184">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>435.96642000000003</v>
       </c>
       <c r="V9" s="184">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.0628065128728947</v>
       </c>
-      <c r="X9" s="271">
-        <f t="shared" si="10"/>
+      <c r="X9" s="245">
+        <f t="shared" si="12"/>
         <v>55.242595000000001</v>
       </c>
       <c r="Y9" s="216">
         <v>0</v>
       </c>
-      <c r="Z9" s="271">
-        <f t="shared" si="11"/>
+      <c r="Z9" s="245">
+        <f t="shared" si="13"/>
         <v>0.13984298780101917</v>
       </c>
       <c r="AA9" s="68">
@@ -5117,7 +5137,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="222" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" s="113">
         <v>18</v>
@@ -5126,11 +5146,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H10" s="89">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I10" s="107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
       <c r="J10" s="71">
@@ -5141,57 +5161,57 @@
         <v>15.170000000000002</v>
       </c>
       <c r="L10" s="197">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>395.03299999999996</v>
       </c>
       <c r="M10" s="198">
         <v>0</v>
       </c>
       <c r="N10" s="189">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>164.0812</v>
       </c>
       <c r="O10" s="118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45.428795000000001</v>
       </c>
       <c r="P10" s="118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>197.51649999999998</v>
       </c>
       <c r="Q10" s="118">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R10" s="118">
-        <f>N69</f>
+        <f t="shared" si="0"/>
         <v>44.458700000000007</v>
       </c>
       <c r="S10" s="118">
-        <f>0.5*(W39+W40)</f>
+        <f t="shared" si="8"/>
         <v>132.61860000000001</v>
       </c>
       <c r="T10" s="118">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>258.88911999999999</v>
       </c>
       <c r="U10" s="184">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>435.96642000000003</v>
       </c>
       <c r="V10" s="184">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.0628065128728947</v>
       </c>
-      <c r="X10" s="271">
-        <f t="shared" si="10"/>
+      <c r="X10" s="245">
+        <f t="shared" si="12"/>
         <v>55.242595000000001</v>
       </c>
       <c r="Y10" s="216">
         <v>0</v>
       </c>
-      <c r="Z10" s="271">
-        <f t="shared" si="11"/>
+      <c r="Z10" s="245">
+        <f t="shared" si="13"/>
         <v>0.13984298780101917</v>
       </c>
       <c r="AA10" s="68">
@@ -5200,7 +5220,7 @@
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B11" s="122" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" s="223">
         <v>0.1</v>
@@ -5212,11 +5232,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H11" s="89">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I11" s="107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
       <c r="J11" s="71">
@@ -5227,57 +5247,57 @@
         <v>15.170000000000002</v>
       </c>
       <c r="L11" s="197">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>395.03299999999996</v>
       </c>
       <c r="M11" s="198">
         <v>0</v>
       </c>
       <c r="N11" s="189">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>164.0812</v>
       </c>
       <c r="O11" s="118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45.428795000000001</v>
       </c>
       <c r="P11" s="118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>197.51649999999998</v>
       </c>
       <c r="Q11" s="118">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R11" s="118">
-        <f>N70</f>
+        <f t="shared" si="0"/>
         <v>44.458700000000007</v>
       </c>
       <c r="S11" s="118">
-        <f>0.5*(W40+W41)</f>
+        <f t="shared" si="8"/>
         <v>132.61860000000001</v>
       </c>
       <c r="T11" s="118">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>258.88911999999999</v>
       </c>
       <c r="U11" s="184">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>435.96642000000003</v>
       </c>
       <c r="V11" s="184">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.0628065128728947</v>
       </c>
-      <c r="X11" s="271">
-        <f t="shared" si="10"/>
+      <c r="X11" s="245">
+        <f t="shared" si="12"/>
         <v>55.242595000000001</v>
       </c>
       <c r="Y11" s="216">
         <v>0</v>
       </c>
-      <c r="Z11" s="271">
-        <f t="shared" si="11"/>
+      <c r="Z11" s="245">
+        <f t="shared" si="13"/>
         <v>0.13984298780101917</v>
       </c>
       <c r="AA11" s="68">
@@ -5286,7 +5306,7 @@
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B12" s="55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C12" s="224">
         <v>0.2</v>
@@ -5298,11 +5318,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H12" s="89">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I12" s="107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
       <c r="J12" s="71">
@@ -5313,57 +5333,57 @@
         <v>15.170000000000002</v>
       </c>
       <c r="L12" s="197">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>395.03299999999996</v>
       </c>
       <c r="M12" s="198">
         <v>0</v>
       </c>
       <c r="N12" s="189">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>164.0812</v>
       </c>
       <c r="O12" s="118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45.428795000000001</v>
       </c>
       <c r="P12" s="118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>197.51649999999998</v>
       </c>
       <c r="Q12" s="118">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R12" s="118">
-        <f>N71</f>
+        <f t="shared" si="0"/>
         <v>44.458700000000007</v>
       </c>
       <c r="S12" s="118">
-        <f>0.5*(W41+W42)</f>
+        <f t="shared" si="8"/>
         <v>132.61860000000001</v>
       </c>
       <c r="T12" s="118">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>258.88911999999999</v>
       </c>
       <c r="U12" s="184">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>435.96642000000003</v>
       </c>
       <c r="V12" s="184">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.0628065128728947</v>
       </c>
-      <c r="X12" s="271">
-        <f t="shared" si="10"/>
+      <c r="X12" s="245">
+        <f t="shared" si="12"/>
         <v>55.242595000000001</v>
       </c>
       <c r="Y12" s="216">
         <v>0</v>
       </c>
-      <c r="Z12" s="271">
-        <f t="shared" si="11"/>
+      <c r="Z12" s="245">
+        <f t="shared" si="13"/>
         <v>0.13984298780101917</v>
       </c>
       <c r="AA12" s="68">
@@ -5372,7 +5392,7 @@
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B13" s="55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C13" s="224">
         <v>0.4</v>
@@ -5384,11 +5404,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H13" s="89">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I13" s="107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
       <c r="J13" s="71">
@@ -5399,57 +5419,57 @@
         <v>15.170000000000002</v>
       </c>
       <c r="L13" s="197">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>395.03299999999996</v>
       </c>
       <c r="M13" s="198">
         <v>0</v>
       </c>
       <c r="N13" s="189">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>164.0812</v>
       </c>
       <c r="O13" s="118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45.428795000000001</v>
       </c>
       <c r="P13" s="118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>197.51649999999998</v>
       </c>
       <c r="Q13" s="118">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R13" s="118">
-        <f>N72</f>
+        <f t="shared" si="0"/>
         <v>44.458700000000007</v>
       </c>
       <c r="S13" s="118">
-        <f>0.5*(W42+W43)</f>
+        <f t="shared" si="8"/>
         <v>132.61860000000001</v>
       </c>
       <c r="T13" s="118">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>258.88911999999999</v>
       </c>
       <c r="U13" s="184">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>435.96642000000003</v>
       </c>
       <c r="V13" s="184">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.0628065128728947</v>
       </c>
-      <c r="X13" s="271">
-        <f t="shared" si="10"/>
+      <c r="X13" s="245">
+        <f t="shared" si="12"/>
         <v>55.242595000000001</v>
       </c>
       <c r="Y13" s="216">
         <v>0</v>
       </c>
-      <c r="Z13" s="271">
-        <f t="shared" si="11"/>
+      <c r="Z13" s="245">
+        <f t="shared" si="13"/>
         <v>0.13984298780101917</v>
       </c>
       <c r="AA13" s="68">
@@ -5458,7 +5478,7 @@
     </row>
     <row r="14" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C14" s="225">
         <v>0.5</v>
@@ -5470,11 +5490,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H14" s="89">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I14" s="107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
       <c r="J14" s="71">
@@ -5485,58 +5505,58 @@
         <v>15.170000000000002</v>
       </c>
       <c r="L14" s="197">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>395.03299999999996</v>
       </c>
       <c r="M14" s="198">
         <v>0</v>
       </c>
       <c r="N14" s="189">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>164.0812</v>
       </c>
       <c r="O14" s="118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45.428795000000001</v>
       </c>
       <c r="P14" s="118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>197.51649999999998</v>
       </c>
       <c r="Q14" s="118">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R14" s="118">
-        <f>N73</f>
+        <f t="shared" si="0"/>
         <v>44.458700000000007</v>
       </c>
       <c r="S14" s="118">
-        <f>0.5*(W43+W44)</f>
-        <v>132.61860000000001</v>
+        <f t="shared" si="8"/>
+        <v>148.91135</v>
       </c>
       <c r="T14" s="118">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>258.88911999999999</v>
       </c>
       <c r="U14" s="184">
-        <f t="shared" si="18"/>
-        <v>435.96642000000003</v>
+        <f t="shared" si="20"/>
+        <v>452.25916999999998</v>
       </c>
       <c r="V14" s="184">
-        <f t="shared" si="19"/>
-        <v>1.0628065128728947</v>
-      </c>
-      <c r="X14" s="271">
-        <f t="shared" si="10"/>
-        <v>55.242595000000001</v>
+        <f t="shared" si="21"/>
+        <v>1.1025252618825314</v>
+      </c>
+      <c r="X14" s="245">
+        <f t="shared" si="12"/>
+        <v>55.242845000000003</v>
       </c>
       <c r="Y14" s="216">
         <v>0</v>
       </c>
-      <c r="Z14" s="271">
-        <f t="shared" si="11"/>
-        <v>0.13984298780101917</v>
+      <c r="Z14" s="245">
+        <f t="shared" si="13"/>
+        <v>0.13984362065953987</v>
       </c>
       <c r="AA14" s="68">
         <v>0</v>
@@ -5550,11 +5570,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H15" s="89">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I15" s="107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
       <c r="J15" s="71">
@@ -5565,58 +5585,58 @@
         <v>15.170000000000002</v>
       </c>
       <c r="L15" s="197">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>395.03299999999996</v>
       </c>
       <c r="M15" s="198">
         <v>0</v>
       </c>
       <c r="N15" s="189">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>164.0812</v>
       </c>
       <c r="O15" s="118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45.428795000000001</v>
       </c>
       <c r="P15" s="118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>197.51649999999998</v>
       </c>
       <c r="Q15" s="118">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R15" s="118">
-        <f>N74</f>
+        <f t="shared" si="0"/>
         <v>44.458700000000007</v>
       </c>
       <c r="S15" s="118">
-        <f>0.5*(W44+W45)</f>
-        <v>132.61860000000001</v>
+        <f t="shared" si="8"/>
+        <v>165.20409999999998</v>
       </c>
       <c r="T15" s="118">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>258.88911999999999</v>
       </c>
       <c r="U15" s="184">
-        <f t="shared" si="18"/>
-        <v>435.96642000000003</v>
+        <f t="shared" si="20"/>
+        <v>468.55192</v>
       </c>
       <c r="V15" s="184">
-        <f t="shared" si="19"/>
-        <v>1.0628065128728947</v>
-      </c>
-      <c r="X15" s="271">
-        <f t="shared" si="10"/>
-        <v>55.242595000000001</v>
+        <f t="shared" si="21"/>
+        <v>1.1422440108921681</v>
+      </c>
+      <c r="X15" s="245">
+        <f t="shared" si="12"/>
+        <v>55.242845000000003</v>
       </c>
       <c r="Y15" s="216">
         <v>0</v>
       </c>
-      <c r="Z15" s="271">
-        <f t="shared" si="11"/>
-        <v>0.13984298780101917</v>
+      <c r="Z15" s="245">
+        <f t="shared" si="13"/>
+        <v>0.13984362065953987</v>
       </c>
       <c r="AA15" s="68">
         <v>0</v>
@@ -5624,7 +5644,7 @@
     </row>
     <row r="16" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="113">
         <v>12</v>
@@ -5633,11 +5653,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H16" s="89">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I16" s="107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
       <c r="J16" s="71">
@@ -5648,58 +5668,58 @@
         <v>15.170000000000002</v>
       </c>
       <c r="L16" s="197">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>395.03299999999996</v>
       </c>
       <c r="M16" s="198">
         <v>0</v>
       </c>
       <c r="N16" s="189">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>164.0812</v>
       </c>
       <c r="O16" s="118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45.428795000000001</v>
       </c>
       <c r="P16" s="118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>197.51649999999998</v>
       </c>
       <c r="Q16" s="118">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R16" s="118">
-        <f>N75</f>
+        <f t="shared" si="0"/>
         <v>44.458700000000007</v>
       </c>
       <c r="S16" s="118">
-        <f>0.5*(W45+W46)</f>
-        <v>132.61860000000001</v>
+        <f t="shared" si="8"/>
+        <v>165.20409999999998</v>
       </c>
       <c r="T16" s="118">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>258.88911999999999</v>
       </c>
       <c r="U16" s="184">
-        <f t="shared" si="18"/>
-        <v>435.96642000000003</v>
+        <f t="shared" si="20"/>
+        <v>468.55192</v>
       </c>
       <c r="V16" s="184">
-        <f t="shared" si="19"/>
-        <v>1.0628065128728947</v>
-      </c>
-      <c r="X16" s="271">
-        <f t="shared" si="10"/>
-        <v>55.242595000000001</v>
+        <f t="shared" si="21"/>
+        <v>1.1422440108921681</v>
+      </c>
+      <c r="X16" s="245">
+        <f t="shared" si="12"/>
+        <v>55.242845000000003</v>
       </c>
       <c r="Y16" s="216">
         <v>0</v>
       </c>
-      <c r="Z16" s="271">
-        <f t="shared" si="11"/>
-        <v>0.13984298780101917</v>
+      <c r="Z16" s="245">
+        <f t="shared" si="13"/>
+        <v>0.13984362065953987</v>
       </c>
       <c r="AA16" s="68">
         <v>0</v>
@@ -5710,7 +5730,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" s="113">
         <v>11</v>
@@ -5719,11 +5739,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H17" s="89">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I17" s="107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
       <c r="J17" s="71">
@@ -5734,58 +5754,58 @@
         <v>15.170000000000002</v>
       </c>
       <c r="L17" s="197">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>395.03299999999996</v>
       </c>
       <c r="M17" s="198">
         <v>0</v>
       </c>
       <c r="N17" s="189">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>164.0812</v>
       </c>
       <c r="O17" s="118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45.428795000000001</v>
       </c>
       <c r="P17" s="118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>197.51649999999998</v>
       </c>
       <c r="Q17" s="118">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R17" s="118">
-        <f>N76</f>
+        <f t="shared" si="0"/>
         <v>44.458700000000007</v>
       </c>
       <c r="S17" s="118">
-        <f>0.5*(W46+W47)</f>
-        <v>132.61860000000001</v>
+        <f t="shared" si="8"/>
+        <v>165.20409999999998</v>
       </c>
       <c r="T17" s="118">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>258.88911999999999</v>
       </c>
       <c r="U17" s="184">
-        <f t="shared" si="18"/>
-        <v>435.96642000000003</v>
+        <f t="shared" si="20"/>
+        <v>468.55192</v>
       </c>
       <c r="V17" s="184">
-        <f t="shared" si="19"/>
-        <v>1.0628065128728947</v>
-      </c>
-      <c r="X17" s="271">
-        <f t="shared" si="10"/>
-        <v>55.242595000000001</v>
+        <f t="shared" si="21"/>
+        <v>1.1422440108921681</v>
+      </c>
+      <c r="X17" s="245">
+        <f t="shared" si="12"/>
+        <v>55.242845000000003</v>
       </c>
       <c r="Y17" s="216">
         <v>0</v>
       </c>
-      <c r="Z17" s="271">
-        <f t="shared" si="11"/>
-        <v>0.13984298780101917</v>
+      <c r="Z17" s="245">
+        <f t="shared" si="13"/>
+        <v>0.13984362065953987</v>
       </c>
       <c r="AA17" s="68">
         <v>0</v>
@@ -5806,11 +5826,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H18" s="89">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I18" s="107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
       <c r="J18" s="71">
@@ -5821,58 +5841,58 @@
         <v>15.170000000000002</v>
       </c>
       <c r="L18" s="197">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>395.03299999999996</v>
       </c>
       <c r="M18" s="198">
         <v>0</v>
       </c>
       <c r="N18" s="189">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>164.0812</v>
       </c>
       <c r="O18" s="118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45.428795000000001</v>
       </c>
       <c r="P18" s="118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>197.51649999999998</v>
       </c>
       <c r="Q18" s="118">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R18" s="118">
-        <f>N77</f>
+        <f t="shared" si="0"/>
         <v>44.458700000000007</v>
       </c>
       <c r="S18" s="118">
-        <f>0.5*(W47+W48)</f>
-        <v>132.61860000000001</v>
+        <f t="shared" si="8"/>
+        <v>165.20409999999998</v>
       </c>
       <c r="T18" s="118">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>258.88911999999999</v>
       </c>
       <c r="U18" s="184">
-        <f t="shared" si="18"/>
-        <v>435.96642000000003</v>
+        <f t="shared" si="20"/>
+        <v>468.55192</v>
       </c>
       <c r="V18" s="184">
-        <f t="shared" si="19"/>
-        <v>1.0628065128728947</v>
-      </c>
-      <c r="X18" s="271">
-        <f t="shared" si="10"/>
-        <v>55.242595000000001</v>
+        <f t="shared" si="21"/>
+        <v>1.1422440108921681</v>
+      </c>
+      <c r="X18" s="245">
+        <f t="shared" si="12"/>
+        <v>55.242845000000003</v>
       </c>
       <c r="Y18" s="216">
         <v>0</v>
       </c>
-      <c r="Z18" s="271">
-        <f t="shared" si="11"/>
-        <v>0.13984298780101917</v>
+      <c r="Z18" s="245">
+        <f t="shared" si="13"/>
+        <v>0.13984362065953987</v>
       </c>
       <c r="AA18" s="68">
         <v>0</v>
@@ -5880,7 +5900,7 @@
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B19" s="60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="54">
         <v>0.02</v>
@@ -5892,11 +5912,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H19" s="89">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I19" s="107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
       <c r="J19" s="71">
@@ -5907,58 +5927,58 @@
         <v>15.170000000000002</v>
       </c>
       <c r="L19" s="197">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>395.03299999999996</v>
       </c>
       <c r="M19" s="198">
         <v>0</v>
       </c>
       <c r="N19" s="189">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>164.0812</v>
       </c>
       <c r="O19" s="118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45.428795000000001</v>
       </c>
       <c r="P19" s="118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>197.51649999999998</v>
       </c>
       <c r="Q19" s="118">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R19" s="118">
-        <f>N78</f>
+        <f t="shared" si="0"/>
         <v>44.458700000000007</v>
       </c>
       <c r="S19" s="118">
-        <f>0.5*(W48+W49)</f>
-        <v>132.61860000000001</v>
+        <f t="shared" si="8"/>
+        <v>165.20409999999998</v>
       </c>
       <c r="T19" s="118">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>258.88911999999999</v>
       </c>
       <c r="U19" s="184">
-        <f t="shared" si="18"/>
-        <v>435.96642000000003</v>
+        <f t="shared" si="20"/>
+        <v>468.55192</v>
       </c>
       <c r="V19" s="184">
-        <f t="shared" si="19"/>
-        <v>1.0628065128728947</v>
-      </c>
-      <c r="X19" s="271">
-        <f t="shared" si="10"/>
-        <v>55.242595000000001</v>
+        <f t="shared" si="21"/>
+        <v>1.1422440108921681</v>
+      </c>
+      <c r="X19" s="245">
+        <f t="shared" si="12"/>
+        <v>55.242845000000003</v>
       </c>
       <c r="Y19" s="216">
         <v>0</v>
       </c>
-      <c r="Z19" s="271">
-        <f t="shared" si="11"/>
-        <v>0.13984298780101917</v>
+      <c r="Z19" s="245">
+        <f t="shared" si="13"/>
+        <v>0.13984362065953987</v>
       </c>
       <c r="AA19" s="68">
         <v>0</v>
@@ -5978,11 +5998,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H20" s="89">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I20" s="107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
       <c r="J20" s="71">
@@ -5993,57 +6013,57 @@
         <v>15.170000000000002</v>
       </c>
       <c r="L20" s="197">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>395.03299999999996</v>
       </c>
       <c r="M20" s="198">
         <v>0</v>
       </c>
       <c r="N20" s="189">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>164.0812</v>
       </c>
       <c r="O20" s="118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45.428795000000001</v>
       </c>
       <c r="P20" s="118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>197.51649999999998</v>
       </c>
       <c r="Q20" s="118">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R20" s="118">
-        <f>N79</f>
+        <f t="shared" si="0"/>
         <v>44.458700000000007</v>
       </c>
       <c r="S20" s="118">
-        <f>0.5*(W49+W50)</f>
-        <v>148.91135</v>
+        <f t="shared" si="8"/>
+        <v>165.20409999999998</v>
       </c>
       <c r="T20" s="118">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>258.88911999999999</v>
       </c>
       <c r="U20" s="184">
-        <f t="shared" si="18"/>
-        <v>452.25916999999998</v>
+        <f t="shared" si="20"/>
+        <v>468.55192</v>
       </c>
       <c r="V20" s="184">
-        <f t="shared" si="19"/>
-        <v>1.1025252618825314</v>
-      </c>
-      <c r="X20" s="271">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
+        <v>1.1422440108921681</v>
+      </c>
+      <c r="X20" s="245">
+        <f t="shared" si="12"/>
         <v>55.242845000000003</v>
       </c>
       <c r="Y20" s="216">
         <v>0</v>
       </c>
-      <c r="Z20" s="271">
-        <f t="shared" si="11"/>
+      <c r="Z20" s="245">
+        <f t="shared" si="13"/>
         <v>0.13984362065953987</v>
       </c>
       <c r="AA20" s="68">
@@ -6058,11 +6078,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H21" s="89">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I21" s="107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
       <c r="J21" s="71">
@@ -6073,57 +6093,57 @@
         <v>15.170000000000002</v>
       </c>
       <c r="L21" s="197">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>395.03299999999996</v>
       </c>
       <c r="M21" s="198">
         <v>0</v>
       </c>
       <c r="N21" s="189">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>164.0812</v>
       </c>
       <c r="O21" s="118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45.428795000000001</v>
       </c>
       <c r="P21" s="118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>197.51649999999998</v>
       </c>
       <c r="Q21" s="118">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R21" s="118">
-        <f>N80</f>
+        <f t="shared" si="0"/>
         <v>44.458700000000007</v>
       </c>
       <c r="S21" s="118">
-        <f>0.5*(W50+W51)</f>
+        <f t="shared" si="8"/>
         <v>165.20409999999998</v>
       </c>
       <c r="T21" s="118">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>258.88911999999999</v>
       </c>
       <c r="U21" s="184">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>468.55192</v>
       </c>
       <c r="V21" s="184">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.1422440108921681</v>
       </c>
-      <c r="X21" s="271">
-        <f t="shared" si="10"/>
+      <c r="X21" s="245">
+        <f t="shared" si="12"/>
         <v>55.242845000000003</v>
       </c>
       <c r="Y21" s="216">
         <v>0</v>
       </c>
-      <c r="Z21" s="271">
-        <f t="shared" si="11"/>
+      <c r="Z21" s="245">
+        <f t="shared" si="13"/>
         <v>0.13984362065953987</v>
       </c>
       <c r="AA21" s="68">
@@ -6138,11 +6158,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H22" s="89">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I22" s="107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
       <c r="J22" s="71">
@@ -6153,57 +6173,57 @@
         <v>15.170000000000002</v>
       </c>
       <c r="L22" s="197">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>395.03299999999996</v>
       </c>
       <c r="M22" s="198">
         <v>0</v>
       </c>
       <c r="N22" s="189">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>164.0812</v>
       </c>
       <c r="O22" s="118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45.428795000000001</v>
       </c>
       <c r="P22" s="118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>197.51649999999998</v>
       </c>
       <c r="Q22" s="118">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R22" s="118">
-        <f>N81</f>
+        <f t="shared" si="0"/>
         <v>44.458700000000007</v>
       </c>
       <c r="S22" s="118">
-        <f>0.5*(W51+W52)</f>
+        <f t="shared" si="8"/>
         <v>165.20409999999998</v>
       </c>
       <c r="T22" s="118">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>258.88911999999999</v>
       </c>
       <c r="U22" s="184">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>468.55192</v>
       </c>
       <c r="V22" s="184">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.1422440108921681</v>
       </c>
-      <c r="X22" s="271">
-        <f t="shared" si="10"/>
+      <c r="X22" s="245">
+        <f t="shared" si="12"/>
         <v>55.242845000000003</v>
       </c>
       <c r="Y22" s="216">
         <v>0</v>
       </c>
-      <c r="Z22" s="271">
-        <f t="shared" si="11"/>
+      <c r="Z22" s="245">
+        <f t="shared" si="13"/>
         <v>0.13984362065953987</v>
       </c>
       <c r="AA22" s="68">
@@ -6212,10 +6232,10 @@
     </row>
     <row r="23" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="124" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" s="113">
         <v>5</v>
@@ -6224,11 +6244,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H23" s="89">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I23" s="107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
       <c r="J23" s="71">
@@ -6239,57 +6259,57 @@
         <v>15.170000000000002</v>
       </c>
       <c r="L23" s="197">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>395.03299999999996</v>
       </c>
       <c r="M23" s="198">
         <v>0</v>
       </c>
       <c r="N23" s="189">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>164.0812</v>
       </c>
       <c r="O23" s="118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45.428795000000001</v>
       </c>
       <c r="P23" s="118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>197.51649999999998</v>
       </c>
       <c r="Q23" s="118">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R23" s="118">
-        <f>N82</f>
+        <f t="shared" si="0"/>
         <v>44.458700000000007</v>
       </c>
       <c r="S23" s="118">
-        <f>0.5*(W52+W53)</f>
+        <f t="shared" si="8"/>
         <v>165.45322499999997</v>
       </c>
       <c r="T23" s="118">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>258.88911999999999</v>
       </c>
       <c r="U23" s="184">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>468.80104499999999</v>
       </c>
       <c r="V23" s="184">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.1428513321453038</v>
       </c>
-      <c r="X23" s="271">
-        <f t="shared" si="10"/>
+      <c r="X23" s="245">
+        <f t="shared" si="12"/>
         <v>55.741095000000001</v>
       </c>
       <c r="Y23" s="216">
         <v>0</v>
       </c>
-      <c r="Z23" s="271">
-        <f t="shared" si="11"/>
+      <c r="Z23" s="245">
+        <f t="shared" si="13"/>
         <v>0.14110490769125619</v>
       </c>
       <c r="AA23" s="68">
@@ -6298,7 +6318,7 @@
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B24" s="65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="66">
         <f>17/100</f>
@@ -6311,11 +6331,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H24" s="89">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I24" s="107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
       <c r="J24" s="71">
@@ -6326,57 +6346,57 @@
         <v>15.170000000000002</v>
       </c>
       <c r="L24" s="197">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>395.03299999999996</v>
       </c>
       <c r="M24" s="198">
         <v>0</v>
       </c>
       <c r="N24" s="189">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>164.0812</v>
       </c>
       <c r="O24" s="118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45.428795000000001</v>
       </c>
       <c r="P24" s="118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>197.51649999999998</v>
       </c>
       <c r="Q24" s="118">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R24" s="118">
-        <f>N83</f>
+        <f t="shared" si="0"/>
         <v>44.458700000000007</v>
       </c>
       <c r="S24" s="118">
-        <f>0.5*(W53+W54)</f>
+        <f t="shared" si="8"/>
         <v>165.70235</v>
       </c>
       <c r="T24" s="118">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>258.88911999999999</v>
       </c>
       <c r="U24" s="184">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>469.05016999999998</v>
       </c>
       <c r="V24" s="184">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.1434586533984394</v>
       </c>
-      <c r="X24" s="271">
-        <f t="shared" si="10"/>
+      <c r="X24" s="245">
+        <f t="shared" si="12"/>
         <v>55.741095000000001</v>
       </c>
       <c r="Y24" s="216">
         <v>0</v>
       </c>
-      <c r="Z24" s="271">
-        <f t="shared" si="11"/>
+      <c r="Z24" s="245">
+        <f t="shared" si="13"/>
         <v>0.14110490769125619</v>
       </c>
       <c r="AA24" s="68">
@@ -6385,7 +6405,7 @@
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B25" s="67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="68">
         <v>0.16</v>
@@ -6397,11 +6417,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H25" s="89">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I25" s="107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
       <c r="J25" s="71">
@@ -6412,57 +6432,57 @@
         <v>15.170000000000002</v>
       </c>
       <c r="L25" s="197">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>395.03299999999996</v>
       </c>
       <c r="M25" s="198">
         <v>0</v>
       </c>
       <c r="N25" s="189">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>164.0812</v>
       </c>
       <c r="O25" s="118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45.428795000000001</v>
       </c>
       <c r="P25" s="118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>197.51649999999998</v>
       </c>
       <c r="Q25" s="118">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R25" s="118">
-        <f>N84</f>
+        <f t="shared" si="0"/>
         <v>44.458700000000007</v>
       </c>
       <c r="S25" s="118">
-        <f>0.5*(W54+W55)</f>
+        <f t="shared" si="8"/>
         <v>168.46715</v>
       </c>
       <c r="T25" s="118">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>258.88911999999999</v>
       </c>
       <c r="U25" s="184">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>471.81497000000002</v>
       </c>
       <c r="V25" s="184">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.1501987308722756</v>
       </c>
-      <c r="X25" s="271">
-        <f t="shared" si="10"/>
+      <c r="X25" s="245">
+        <f t="shared" si="12"/>
         <v>55.750695</v>
       </c>
       <c r="Y25" s="216">
         <v>0</v>
       </c>
-      <c r="Z25" s="271">
-        <f t="shared" si="11"/>
+      <c r="Z25" s="245">
+        <f t="shared" si="13"/>
         <v>0.14112920945845031</v>
       </c>
       <c r="AA25" s="68">
@@ -6471,7 +6491,7 @@
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B26" s="67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="68">
         <v>0.16</v>
@@ -6483,7 +6503,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H26" s="89">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I26" s="108">
@@ -6498,57 +6518,57 @@
         <v>14.930000000000001</v>
       </c>
       <c r="L26" s="199">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>395.77199999999999</v>
       </c>
       <c r="M26" s="200">
         <v>0</v>
       </c>
       <c r="N26" s="190">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>164.2808</v>
       </c>
       <c r="O26" s="119">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45.513780000000004</v>
       </c>
       <c r="P26" s="119">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>197.886</v>
       </c>
       <c r="Q26" s="119">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R26" s="119">
-        <f>N85</f>
+        <f t="shared" si="0"/>
         <v>43.80830000000001</v>
       </c>
       <c r="S26" s="119">
-        <f>0.5*(W55+W56)</f>
+        <f t="shared" si="8"/>
         <v>177.30226249999998</v>
       </c>
       <c r="T26" s="119">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>259.26607999999999</v>
       </c>
       <c r="U26" s="178">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>480.3766425</v>
       </c>
       <c r="V26" s="178">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.1696476825045896</v>
       </c>
-      <c r="X26" s="271">
-        <f t="shared" si="10"/>
+      <c r="X26" s="245">
+        <f t="shared" si="12"/>
         <v>55.293530000000004</v>
       </c>
       <c r="Y26" s="216">
         <v>0</v>
       </c>
-      <c r="Z26" s="271">
-        <f t="shared" si="11"/>
+      <c r="Z26" s="245">
+        <f t="shared" si="13"/>
         <v>0.13971056567922946</v>
       </c>
       <c r="AA26" s="68">
@@ -6557,7 +6577,7 @@
     </row>
     <row r="27" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="68">
         <v>0.16</v>
@@ -6569,7 +6589,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H27" s="89">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I27" s="108">
@@ -6584,57 +6604,57 @@
         <v>26.774750000000001</v>
       </c>
       <c r="L27" s="199">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>150.77424999999999</v>
       </c>
       <c r="M27" s="200">
         <v>255.92599999999999</v>
       </c>
       <c r="N27" s="190">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>173.39</v>
       </c>
       <c r="O27" s="119">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>17.339038750000004</v>
       </c>
       <c r="P27" s="119">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>75.387124999999997</v>
       </c>
       <c r="Q27" s="119">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>127.96299999999999</v>
       </c>
       <c r="R27" s="119">
-        <f>N86</f>
+        <f t="shared" si="0"/>
         <v>43.273891250000005</v>
       </c>
       <c r="S27" s="119">
-        <f>0.5*(W56+W57)</f>
+        <f t="shared" si="8"/>
         <v>190.51264999999995</v>
       </c>
       <c r="T27" s="119">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>241.56657000000001</v>
       </c>
       <c r="U27" s="178">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>475.35311124999998</v>
       </c>
       <c r="V27" s="178">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.0966102110848375</v>
       </c>
-      <c r="X27" s="271">
-        <f t="shared" si="10"/>
+      <c r="X27" s="245">
+        <f t="shared" si="12"/>
         <v>22.380873750000006</v>
       </c>
       <c r="Y27" s="216">
         <v>0</v>
       </c>
-      <c r="Z27" s="271">
-        <f t="shared" si="11"/>
+      <c r="Z27" s="245">
+        <f t="shared" si="13"/>
         <v>0.14843962911438796</v>
       </c>
       <c r="AA27" s="68">
@@ -6644,7 +6664,7 @@
     </row>
     <row r="28" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="70">
         <v>0.16</v>
@@ -6656,7 +6676,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H28" s="91">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="I28" s="109">
@@ -6678,15 +6698,15 @@
         <v>514.17600000000004</v>
       </c>
       <c r="N28" s="191">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>305.77135000000004</v>
       </c>
       <c r="O28" s="120">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>19.199997500000002</v>
       </c>
       <c r="P28" s="120">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>83.478250000000003</v>
       </c>
       <c r="Q28" s="120">
@@ -6694,34 +6714,34 @@
         <v>257.08800000000002</v>
       </c>
       <c r="R28" s="120">
-        <f>N87</f>
+        <f t="shared" si="0"/>
         <v>51.409775000000003</v>
       </c>
       <c r="S28" s="120">
-        <f>0.5*(W57+W58)</f>
+        <f t="shared" si="8"/>
         <v>208.98676249999994</v>
       </c>
       <c r="T28" s="120">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>410.11291000000006</v>
       </c>
       <c r="U28" s="181">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>670.50944750000008</v>
       </c>
       <c r="V28" s="181">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.93195950237816605</v>
       </c>
-      <c r="X28" s="272">
-        <f t="shared" si="10"/>
+      <c r="X28" s="246">
+        <f t="shared" si="12"/>
         <v>22.682072500000004</v>
       </c>
       <c r="Y28" s="220">
         <v>0</v>
       </c>
-      <c r="Z28" s="272">
-        <f t="shared" si="11"/>
+      <c r="Z28" s="246">
+        <f t="shared" si="13"/>
         <v>0.13585618110106526</v>
       </c>
       <c r="AA28" s="70">
@@ -6731,39 +6751,39 @@
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.3">
       <c r="M29" s="49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N29" s="186">
-        <f>SUM(N4:N28)</f>
+        <f t="shared" ref="N29:U29" si="22">SUM(N4:N28)</f>
         <v>4116.6265500000009</v>
       </c>
       <c r="O29" s="186">
-        <f>SUM(O4:O28)</f>
+        <f t="shared" si="22"/>
         <v>1040.9252312500003</v>
       </c>
       <c r="P29" s="186">
-        <f>SUM(P4:P28)</f>
+        <f t="shared" si="22"/>
         <v>4525.761875000002</v>
       </c>
       <c r="Q29" s="186">
-        <f>SUM(Q4:Q28)</f>
+        <f t="shared" si="22"/>
         <v>385.05100000000004</v>
       </c>
       <c r="R29" s="186">
-        <f>SUM(R4:R28)</f>
+        <f t="shared" si="22"/>
         <v>1143.5873662500003</v>
       </c>
       <c r="S29" s="186">
-        <f>SUM(S4:S28)</f>
-        <v>3530.4031999999997</v>
+        <f t="shared" si="22"/>
+        <v>3725.9161999999997</v>
       </c>
       <c r="T29" s="185">
-        <f>SUM(T4:T28)</f>
+        <f t="shared" si="22"/>
         <v>6385.2549999999983</v>
       </c>
       <c r="U29" s="185">
-        <f>SUM(U4:U28)</f>
-        <v>11059.24556625</v>
+        <f t="shared" si="22"/>
+        <v>11254.758566250001</v>
       </c>
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.3">
@@ -6771,53 +6791,53 @@
     </row>
     <row r="31" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H31" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="N31" s="73"/>
+    </row>
+    <row r="32" spans="2:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H32" s="250" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" s="247" t="s">
+        <v>58</v>
+      </c>
+      <c r="J32" s="248"/>
+      <c r="K32" s="248"/>
+      <c r="L32" s="249"/>
+      <c r="M32" s="260" t="s">
+        <v>57</v>
+      </c>
+      <c r="N32" s="261"/>
+      <c r="O32" s="261"/>
+      <c r="P32" s="262"/>
+      <c r="Q32" s="256" t="s">
+        <v>61</v>
+      </c>
+      <c r="R32" s="256" t="s">
+        <v>71</v>
+      </c>
+      <c r="S32" s="256" t="s">
+        <v>62</v>
+      </c>
+      <c r="T32" s="252" t="s">
         <v>60</v>
       </c>
-      <c r="N31" s="73"/>
-    </row>
-    <row r="32" spans="2:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H32" s="238" t="s">
-        <v>34</v>
-      </c>
-      <c r="I32" s="235" t="s">
-        <v>59</v>
-      </c>
-      <c r="J32" s="236"/>
-      <c r="K32" s="236"/>
-      <c r="L32" s="237"/>
-      <c r="M32" s="231" t="s">
-        <v>58</v>
-      </c>
-      <c r="N32" s="232"/>
-      <c r="O32" s="232"/>
-      <c r="P32" s="233"/>
-      <c r="Q32" s="227" t="s">
-        <v>62</v>
-      </c>
-      <c r="R32" s="227" t="s">
+      <c r="U32" s="254" t="s">
+        <v>63</v>
+      </c>
+      <c r="V32" s="254" t="s">
+        <v>70</v>
+      </c>
+      <c r="W32" s="258" t="s">
         <v>72</v>
       </c>
-      <c r="S32" s="227" t="s">
-        <v>63</v>
-      </c>
-      <c r="T32" s="240" t="s">
-        <v>61</v>
-      </c>
-      <c r="U32" s="242" t="s">
-        <v>64</v>
-      </c>
-      <c r="V32" s="242" t="s">
-        <v>71</v>
-      </c>
-      <c r="W32" s="229" t="s">
-        <v>73</v>
-      </c>
-      <c r="X32" s="227" t="s">
-        <v>120</v>
+      <c r="X32" s="256" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="8:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H33" s="239"/>
+      <c r="H33" s="251"/>
       <c r="I33" s="100" t="s">
         <v>13</v>
       </c>
@@ -6825,10 +6845,10 @@
         <v>14</v>
       </c>
       <c r="K33" s="101" t="s">
+        <v>49</v>
+      </c>
+      <c r="L33" s="102" t="s">
         <v>50</v>
-      </c>
-      <c r="L33" s="102" t="s">
-        <v>51</v>
       </c>
       <c r="M33" s="100" t="s">
         <v>13</v>
@@ -6837,19 +6857,19 @@
         <v>14</v>
       </c>
       <c r="O33" s="101" t="s">
+        <v>49</v>
+      </c>
+      <c r="P33" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="P33" s="103" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q33" s="234"/>
-      <c r="R33" s="234"/>
-      <c r="S33" s="234"/>
-      <c r="T33" s="241"/>
-      <c r="U33" s="243"/>
-      <c r="V33" s="243"/>
-      <c r="W33" s="230"/>
-      <c r="X33" s="228"/>
+      <c r="Q33" s="263"/>
+      <c r="R33" s="263"/>
+      <c r="S33" s="263"/>
+      <c r="T33" s="253"/>
+      <c r="U33" s="255"/>
+      <c r="V33" s="255"/>
+      <c r="W33" s="259"/>
+      <c r="X33" s="257"/>
     </row>
     <row r="34" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H34" s="96" t="str">
@@ -6887,19 +6907,19 @@
         <v>8.7000000000000028</v>
       </c>
       <c r="Q34" s="99">
-        <f t="shared" ref="Q34:Q58" si="20">J34*L34+I34*K34</f>
+        <f t="shared" ref="Q34:Q58" si="23">J34*L34+I34*K34</f>
         <v>8.9039999999999999</v>
       </c>
       <c r="R34" s="99">
-        <f t="shared" ref="R34:R58" si="21">2*(L34+2*$C$18+J34)*$C$18+2*(K34+2*$C$18+I34)*$C$18</f>
+        <f t="shared" ref="R34:R58" si="24">2*(L34+2*$C$18+J34)*$C$18+2*(K34+2*$C$18+I34)*$C$18</f>
         <v>2.2509999999999999</v>
       </c>
       <c r="S34" s="99">
-        <f t="shared" ref="S34:S58" si="22">M34*O34+N34*P34</f>
+        <f t="shared" ref="S34:S58" si="25">M34*O34+N34*P34</f>
         <v>3.7900000000000009</v>
       </c>
       <c r="T34" s="117">
-        <f t="shared" ref="T34:T58" si="23">Q34*F4*$C$4</f>
+        <f t="shared" ref="T34:T58" si="26">Q34*F4*$C$4</f>
         <v>51.197999999999993</v>
       </c>
       <c r="U34" s="125">
@@ -6907,7 +6927,7 @@
         <v>0.37900000000000011</v>
       </c>
       <c r="V34" s="125">
-        <f t="shared" ref="V34:V58" si="24">R34*$C$18*$C$5</f>
+        <f t="shared" ref="V34:V58" si="27">R34*$C$18*$C$5</f>
         <v>0.11255</v>
       </c>
       <c r="W34" s="203">
@@ -6922,7 +6942,7 @@
     </row>
     <row r="35" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H35" s="90">
-        <f t="shared" ref="H35:H58" si="25">E5</f>
+        <f t="shared" ref="H35:H58" si="28">E5</f>
         <v>23</v>
       </c>
       <c r="I35" s="85">
@@ -6956,42 +6976,42 @@
         <v>39.19</v>
       </c>
       <c r="Q35" s="121">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>22.668000000000003</v>
       </c>
       <c r="R35" s="121">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>5.6920000000000011</v>
       </c>
       <c r="S35" s="121">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>19.93</v>
       </c>
       <c r="T35" s="118">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>130.34100000000001</v>
       </c>
       <c r="U35" s="130">
-        <f t="shared" ref="U35:U58" si="26">S35*$C$11</f>
+        <f t="shared" ref="U35:U58" si="29">S35*$C$11</f>
         <v>1.9930000000000001</v>
       </c>
       <c r="V35" s="130">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.28460000000000008</v>
       </c>
       <c r="W35" s="204">
-        <f t="shared" ref="W35:W58" si="27">T35+U35+V35</f>
+        <f t="shared" ref="W35:W58" si="30">T35+U35+V35</f>
         <v>132.61860000000001</v>
       </c>
       <c r="X35" s="94">
-        <f t="shared" ref="X35:X58" si="28">T35+V35</f>
+        <f t="shared" ref="X35:X58" si="31">T35+V35</f>
         <v>130.62560000000002</v>
       </c>
       <c r="Z35" s="72"/>
     </row>
     <row r="36" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H36" s="90">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>22</v>
       </c>
       <c r="I36" s="85">
@@ -7025,42 +7045,42 @@
         <v>39.19</v>
       </c>
       <c r="Q36" s="121">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>22.668000000000003</v>
       </c>
       <c r="R36" s="121">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>5.6920000000000011</v>
       </c>
       <c r="S36" s="121">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>19.93</v>
       </c>
       <c r="T36" s="118">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>130.34100000000001</v>
       </c>
       <c r="U36" s="130">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.9930000000000001</v>
       </c>
       <c r="V36" s="130">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.28460000000000008</v>
       </c>
       <c r="W36" s="204">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>132.61860000000001</v>
       </c>
       <c r="X36" s="94">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>130.62560000000002</v>
       </c>
       <c r="Z36" s="72"/>
     </row>
     <row r="37" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H37" s="90">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>21</v>
       </c>
       <c r="I37" s="85">
@@ -7094,42 +7114,42 @@
         <v>39.19</v>
       </c>
       <c r="Q37" s="121">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>22.668000000000003</v>
       </c>
       <c r="R37" s="121">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>5.6920000000000011</v>
       </c>
       <c r="S37" s="121">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>19.93</v>
       </c>
       <c r="T37" s="118">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>130.34100000000001</v>
       </c>
       <c r="U37" s="130">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.9930000000000001</v>
       </c>
       <c r="V37" s="130">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.28460000000000008</v>
       </c>
       <c r="W37" s="204">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>132.61860000000001</v>
       </c>
       <c r="X37" s="94">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>130.62560000000002</v>
       </c>
       <c r="Z37" s="72"/>
     </row>
     <row r="38" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H38" s="90">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="I38" s="85">
@@ -7163,42 +7183,42 @@
         <v>39.19</v>
       </c>
       <c r="Q38" s="121">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>22.668000000000003</v>
       </c>
       <c r="R38" s="121">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>5.6920000000000011</v>
       </c>
       <c r="S38" s="121">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>19.93</v>
       </c>
       <c r="T38" s="118">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>130.34100000000001</v>
       </c>
       <c r="U38" s="130">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.9930000000000001</v>
       </c>
       <c r="V38" s="130">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.28460000000000008</v>
       </c>
       <c r="W38" s="204">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>132.61860000000001</v>
       </c>
       <c r="X38" s="94">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>130.62560000000002</v>
       </c>
       <c r="Z38" s="72"/>
     </row>
     <row r="39" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H39" s="90">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>19</v>
       </c>
       <c r="I39" s="85">
@@ -7232,19 +7252,19 @@
         <v>39.19</v>
       </c>
       <c r="Q39" s="121">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>22.668000000000003</v>
       </c>
       <c r="R39" s="121">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>5.6920000000000011</v>
       </c>
       <c r="S39" s="121">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>19.93</v>
       </c>
       <c r="T39" s="118">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>130.34100000000001</v>
       </c>
       <c r="U39" s="130">
@@ -7252,22 +7272,22 @@
         <v>1.9930000000000001</v>
       </c>
       <c r="V39" s="130">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.28460000000000008</v>
       </c>
       <c r="W39" s="204">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>132.61860000000001</v>
       </c>
       <c r="X39" s="94">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>130.62560000000002</v>
       </c>
       <c r="Z39" s="72"/>
     </row>
     <row r="40" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H40" s="90">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>18</v>
       </c>
       <c r="I40" s="85">
@@ -7301,42 +7321,42 @@
         <v>39.19</v>
       </c>
       <c r="Q40" s="121">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>22.668000000000003</v>
       </c>
       <c r="R40" s="121">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>5.6920000000000011</v>
       </c>
       <c r="S40" s="121">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>19.93</v>
       </c>
       <c r="T40" s="118">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>130.34100000000001</v>
       </c>
       <c r="U40" s="130">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.9930000000000001</v>
       </c>
       <c r="V40" s="130">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.28460000000000008</v>
       </c>
       <c r="W40" s="204">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>132.61860000000001</v>
       </c>
       <c r="X40" s="94">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>130.62560000000002</v>
       </c>
       <c r="Z40" s="72"/>
     </row>
     <row r="41" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H41" s="90">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>17</v>
       </c>
       <c r="I41" s="85">
@@ -7370,42 +7390,42 @@
         <v>39.19</v>
       </c>
       <c r="Q41" s="121">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>22.668000000000003</v>
       </c>
       <c r="R41" s="121">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>5.6920000000000011</v>
       </c>
       <c r="S41" s="121">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>19.93</v>
       </c>
       <c r="T41" s="118">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>130.34100000000001</v>
       </c>
       <c r="U41" s="130">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.9930000000000001</v>
       </c>
       <c r="V41" s="130">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.28460000000000008</v>
       </c>
       <c r="W41" s="204">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>132.61860000000001</v>
       </c>
       <c r="X41" s="94">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>130.62560000000002</v>
       </c>
       <c r="Z41" s="72"/>
     </row>
     <row r="42" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H42" s="90">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>16</v>
       </c>
       <c r="I42" s="85">
@@ -7439,42 +7459,42 @@
         <v>39.19</v>
       </c>
       <c r="Q42" s="121">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>22.668000000000003</v>
       </c>
       <c r="R42" s="121">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>5.6920000000000011</v>
       </c>
       <c r="S42" s="121">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>19.93</v>
       </c>
       <c r="T42" s="118">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>130.34100000000001</v>
       </c>
       <c r="U42" s="130">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.9930000000000001</v>
       </c>
       <c r="V42" s="130">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.28460000000000008</v>
       </c>
       <c r="W42" s="204">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>132.61860000000001</v>
       </c>
       <c r="X42" s="94">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>130.62560000000002</v>
       </c>
       <c r="Z42" s="72"/>
     </row>
     <row r="43" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H43" s="90">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>15</v>
       </c>
       <c r="I43" s="85">
@@ -7508,51 +7528,51 @@
         <v>39.19</v>
       </c>
       <c r="Q43" s="121">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>22.668000000000003</v>
       </c>
       <c r="R43" s="121">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>5.6920000000000011</v>
       </c>
       <c r="S43" s="121">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>19.93</v>
       </c>
       <c r="T43" s="118">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>130.34100000000001</v>
       </c>
       <c r="U43" s="130">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.9930000000000001</v>
       </c>
       <c r="V43" s="130">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.28460000000000008</v>
       </c>
       <c r="W43" s="204">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>132.61860000000001</v>
       </c>
       <c r="X43" s="94">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>130.62560000000002</v>
       </c>
       <c r="Z43" s="72"/>
     </row>
     <row r="44" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H44" s="90">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>14</v>
       </c>
       <c r="I44" s="85">
         <f>'Verificación corte muros'!K13</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="J44" s="71">
         <f>'Verificación corte muros'!L13</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="K44" s="71">
         <f>'Distancias muros'!$C$4</f>
@@ -7577,51 +7597,51 @@
         <v>39.19</v>
       </c>
       <c r="Q44" s="121">
-        <f t="shared" si="20"/>
-        <v>22.668000000000003</v>
+        <f t="shared" si="23"/>
+        <v>28.335000000000001</v>
       </c>
       <c r="R44" s="121">
-        <f t="shared" si="21"/>
-        <v>5.6920000000000011</v>
+        <f t="shared" si="24"/>
+        <v>5.697000000000001</v>
       </c>
       <c r="S44" s="121">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>19.93</v>
       </c>
       <c r="T44" s="118">
-        <f t="shared" si="23"/>
-        <v>130.34100000000001</v>
+        <f t="shared" si="26"/>
+        <v>162.92624999999998</v>
       </c>
       <c r="U44" s="130">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.9930000000000001</v>
       </c>
       <c r="V44" s="130">
-        <f t="shared" si="24"/>
-        <v>0.28460000000000008</v>
+        <f t="shared" si="27"/>
+        <v>0.28485000000000005</v>
       </c>
       <c r="W44" s="204">
-        <f t="shared" si="27"/>
-        <v>132.61860000000001</v>
+        <f t="shared" si="30"/>
+        <v>165.20409999999998</v>
       </c>
       <c r="X44" s="94">
-        <f t="shared" si="28"/>
-        <v>130.62560000000002</v>
+        <f t="shared" si="31"/>
+        <v>163.21109999999999</v>
       </c>
       <c r="Z44" s="72"/>
     </row>
     <row r="45" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H45" s="90">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>13</v>
       </c>
       <c r="I45" s="85">
         <f>'Verificación corte muros'!K14</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="J45" s="71">
         <f>'Verificación corte muros'!L14</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="K45" s="71">
         <f>'Distancias muros'!$C$4</f>
@@ -7646,51 +7666,51 @@
         <v>39.19</v>
       </c>
       <c r="Q45" s="121">
-        <f t="shared" si="20"/>
-        <v>22.668000000000003</v>
+        <f t="shared" si="23"/>
+        <v>28.335000000000001</v>
       </c>
       <c r="R45" s="121">
-        <f t="shared" si="21"/>
-        <v>5.6920000000000011</v>
+        <f t="shared" si="24"/>
+        <v>5.697000000000001</v>
       </c>
       <c r="S45" s="121">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>19.93</v>
       </c>
       <c r="T45" s="118">
-        <f t="shared" si="23"/>
-        <v>130.34100000000001</v>
+        <f t="shared" si="26"/>
+        <v>162.92624999999998</v>
       </c>
       <c r="U45" s="130">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.9930000000000001</v>
       </c>
       <c r="V45" s="130">
-        <f t="shared" si="24"/>
-        <v>0.28460000000000008</v>
+        <f t="shared" si="27"/>
+        <v>0.28485000000000005</v>
       </c>
       <c r="W45" s="204">
-        <f t="shared" si="27"/>
-        <v>132.61860000000001</v>
+        <f t="shared" si="30"/>
+        <v>165.20409999999998</v>
       </c>
       <c r="X45" s="94">
-        <f t="shared" si="28"/>
-        <v>130.62560000000002</v>
+        <f t="shared" si="31"/>
+        <v>163.21109999999999</v>
       </c>
       <c r="Z45" s="72"/>
     </row>
     <row r="46" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H46" s="90">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>12</v>
       </c>
       <c r="I46" s="85">
         <f>'Verificación corte muros'!K15</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="J46" s="71">
         <f>'Verificación corte muros'!L15</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="K46" s="71">
         <f>'Distancias muros'!$C$4</f>
@@ -7715,51 +7735,51 @@
         <v>39.19</v>
       </c>
       <c r="Q46" s="121">
-        <f t="shared" si="20"/>
-        <v>22.668000000000003</v>
+        <f t="shared" si="23"/>
+        <v>28.335000000000001</v>
       </c>
       <c r="R46" s="121">
-        <f t="shared" si="21"/>
-        <v>5.6920000000000011</v>
+        <f t="shared" si="24"/>
+        <v>5.697000000000001</v>
       </c>
       <c r="S46" s="121">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>19.93</v>
       </c>
       <c r="T46" s="118">
-        <f t="shared" si="23"/>
-        <v>130.34100000000001</v>
+        <f t="shared" si="26"/>
+        <v>162.92624999999998</v>
       </c>
       <c r="U46" s="130">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.9930000000000001</v>
       </c>
       <c r="V46" s="130">
-        <f t="shared" si="24"/>
-        <v>0.28460000000000008</v>
+        <f t="shared" si="27"/>
+        <v>0.28485000000000005</v>
       </c>
       <c r="W46" s="204">
-        <f t="shared" si="27"/>
-        <v>132.61860000000001</v>
+        <f t="shared" si="30"/>
+        <v>165.20409999999998</v>
       </c>
       <c r="X46" s="94">
-        <f t="shared" si="28"/>
-        <v>130.62560000000002</v>
+        <f t="shared" si="31"/>
+        <v>163.21109999999999</v>
       </c>
       <c r="Z46" s="72"/>
     </row>
     <row r="47" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H47" s="90">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>11</v>
       </c>
       <c r="I47" s="85">
         <f>'Verificación corte muros'!K16</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="J47" s="71">
         <f>'Verificación corte muros'!L16</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="K47" s="71">
         <f>'Distancias muros'!$C$4</f>
@@ -7784,51 +7804,51 @@
         <v>39.19</v>
       </c>
       <c r="Q47" s="121">
-        <f t="shared" si="20"/>
-        <v>22.668000000000003</v>
+        <f t="shared" si="23"/>
+        <v>28.335000000000001</v>
       </c>
       <c r="R47" s="121">
-        <f t="shared" si="21"/>
-        <v>5.6920000000000011</v>
+        <f t="shared" si="24"/>
+        <v>5.697000000000001</v>
       </c>
       <c r="S47" s="121">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>19.93</v>
       </c>
       <c r="T47" s="118">
-        <f t="shared" si="23"/>
-        <v>130.34100000000001</v>
+        <f t="shared" si="26"/>
+        <v>162.92624999999998</v>
       </c>
       <c r="U47" s="130">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.9930000000000001</v>
       </c>
       <c r="V47" s="130">
-        <f t="shared" si="24"/>
-        <v>0.28460000000000008</v>
+        <f t="shared" si="27"/>
+        <v>0.28485000000000005</v>
       </c>
       <c r="W47" s="204">
-        <f t="shared" si="27"/>
-        <v>132.61860000000001</v>
+        <f t="shared" si="30"/>
+        <v>165.20409999999998</v>
       </c>
       <c r="X47" s="94">
-        <f t="shared" si="28"/>
-        <v>130.62560000000002</v>
-      </c>
-      <c r="Z47" s="270"/>
+        <f t="shared" si="31"/>
+        <v>163.21109999999999</v>
+      </c>
+      <c r="Z47" s="244"/>
     </row>
     <row r="48" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H48" s="90">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="I48" s="85">
         <f>'Verificación corte muros'!K17</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="J48" s="71">
         <f>'Verificación corte muros'!L17</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="K48" s="71">
         <f>'Distancias muros'!$C$4</f>
@@ -7853,51 +7873,51 @@
         <v>39.19</v>
       </c>
       <c r="Q48" s="121">
-        <f t="shared" si="20"/>
-        <v>22.668000000000003</v>
+        <f t="shared" si="23"/>
+        <v>28.335000000000001</v>
       </c>
       <c r="R48" s="121">
-        <f t="shared" si="21"/>
-        <v>5.6920000000000011</v>
+        <f t="shared" si="24"/>
+        <v>5.697000000000001</v>
       </c>
       <c r="S48" s="121">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>19.93</v>
       </c>
       <c r="T48" s="118">
-        <f t="shared" si="23"/>
-        <v>130.34100000000001</v>
+        <f t="shared" si="26"/>
+        <v>162.92624999999998</v>
       </c>
       <c r="U48" s="130">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.9930000000000001</v>
       </c>
       <c r="V48" s="130">
-        <f t="shared" si="24"/>
-        <v>0.28460000000000008</v>
+        <f t="shared" si="27"/>
+        <v>0.28485000000000005</v>
       </c>
       <c r="W48" s="204">
-        <f t="shared" si="27"/>
-        <v>132.61860000000001</v>
+        <f t="shared" si="30"/>
+        <v>165.20409999999998</v>
       </c>
       <c r="X48" s="94">
-        <f t="shared" si="28"/>
-        <v>130.62560000000002</v>
-      </c>
-      <c r="Z48" s="270"/>
+        <f t="shared" si="31"/>
+        <v>163.21109999999999</v>
+      </c>
+      <c r="Z48" s="244"/>
     </row>
     <row r="49" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H49" s="90">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>9</v>
       </c>
       <c r="I49" s="85">
         <f>'Verificación corte muros'!K18</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="J49" s="71">
         <f>'Verificación corte muros'!L18</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="K49" s="71">
         <f>'Distancias muros'!$C$4</f>
@@ -7922,42 +7942,42 @@
         <v>39.19</v>
       </c>
       <c r="Q49" s="121">
-        <f t="shared" si="20"/>
-        <v>22.668000000000003</v>
+        <f t="shared" si="23"/>
+        <v>28.335000000000001</v>
       </c>
       <c r="R49" s="121">
-        <f t="shared" si="21"/>
-        <v>5.6920000000000011</v>
+        <f t="shared" si="24"/>
+        <v>5.697000000000001</v>
       </c>
       <c r="S49" s="121">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>19.93</v>
       </c>
       <c r="T49" s="118">
-        <f t="shared" si="23"/>
-        <v>130.34100000000001</v>
+        <f t="shared" si="26"/>
+        <v>162.92624999999998</v>
       </c>
       <c r="U49" s="130">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.9930000000000001</v>
       </c>
       <c r="V49" s="130">
-        <f t="shared" si="24"/>
-        <v>0.28460000000000008</v>
+        <f t="shared" si="27"/>
+        <v>0.28485000000000005</v>
       </c>
       <c r="W49" s="204">
-        <f t="shared" si="27"/>
-        <v>132.61860000000001</v>
+        <f t="shared" si="30"/>
+        <v>165.20409999999998</v>
       </c>
       <c r="X49" s="94">
-        <f t="shared" si="28"/>
-        <v>130.62560000000002</v>
-      </c>
-      <c r="Z49" s="270"/>
+        <f t="shared" si="31"/>
+        <v>163.21109999999999</v>
+      </c>
+      <c r="Z49" s="244"/>
     </row>
     <row r="50" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H50" s="90">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>8</v>
       </c>
       <c r="I50" s="85">
@@ -7991,42 +8011,42 @@
         <v>39.19</v>
       </c>
       <c r="Q50" s="121">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>28.335000000000001</v>
       </c>
       <c r="R50" s="121">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>5.697000000000001</v>
       </c>
       <c r="S50" s="121">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>19.93</v>
       </c>
       <c r="T50" s="118">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>162.92624999999998</v>
       </c>
       <c r="U50" s="130">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.9930000000000001</v>
       </c>
       <c r="V50" s="130">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.28485000000000005</v>
       </c>
       <c r="W50" s="204">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>165.20409999999998</v>
       </c>
       <c r="X50" s="94">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>163.21109999999999</v>
       </c>
-      <c r="Z50" s="270"/>
+      <c r="Z50" s="244"/>
     </row>
     <row r="51" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H51" s="90">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>7</v>
       </c>
       <c r="I51" s="85">
@@ -8060,42 +8080,42 @@
         <v>39.19</v>
       </c>
       <c r="Q51" s="121">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>28.335000000000001</v>
       </c>
       <c r="R51" s="121">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>5.697000000000001</v>
       </c>
       <c r="S51" s="121">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>19.93</v>
       </c>
       <c r="T51" s="118">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>162.92624999999998</v>
       </c>
       <c r="U51" s="130">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.9930000000000001</v>
       </c>
       <c r="V51" s="130">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.28485000000000005</v>
       </c>
       <c r="W51" s="204">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>165.20409999999998</v>
       </c>
       <c r="X51" s="94">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>163.21109999999999</v>
       </c>
-      <c r="Z51" s="270"/>
+      <c r="Z51" s="244"/>
     </row>
     <row r="52" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H52" s="90">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>6</v>
       </c>
       <c r="I52" s="85">
@@ -8129,42 +8149,42 @@
         <v>39.19</v>
       </c>
       <c r="Q52" s="121">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>28.335000000000001</v>
       </c>
       <c r="R52" s="121">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>5.697000000000001</v>
       </c>
       <c r="S52" s="121">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>19.93</v>
       </c>
       <c r="T52" s="118">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>162.92624999999998</v>
       </c>
       <c r="U52" s="130">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.9930000000000001</v>
       </c>
       <c r="V52" s="130">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.28485000000000005</v>
       </c>
       <c r="W52" s="204">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>165.20409999999998</v>
       </c>
       <c r="X52" s="94">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>163.21109999999999</v>
       </c>
-      <c r="Z52" s="270"/>
+      <c r="Z52" s="244"/>
     </row>
     <row r="53" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H53" s="90">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="I53" s="85">
@@ -8198,42 +8218,42 @@
         <v>39.19</v>
       </c>
       <c r="Q53" s="121">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>28.335000000000001</v>
       </c>
       <c r="R53" s="121">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>5.697000000000001</v>
       </c>
       <c r="S53" s="121">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>24.912500000000001</v>
       </c>
       <c r="T53" s="118">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>162.92624999999998</v>
       </c>
       <c r="U53" s="130">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>2.4912500000000004</v>
       </c>
       <c r="V53" s="130">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.28485000000000005</v>
       </c>
       <c r="W53" s="204">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>165.70235</v>
       </c>
       <c r="X53" s="94">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>163.21109999999999</v>
       </c>
-      <c r="Z53" s="270"/>
+      <c r="Z53" s="244"/>
     </row>
     <row r="54" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H54" s="90">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="I54" s="85">
@@ -8267,42 +8287,42 @@
         <v>39.19</v>
       </c>
       <c r="Q54" s="121">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>28.335000000000001</v>
       </c>
       <c r="R54" s="121">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>5.697000000000001</v>
       </c>
       <c r="S54" s="121">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>24.912500000000001</v>
       </c>
       <c r="T54" s="118">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>162.92624999999998</v>
       </c>
       <c r="U54" s="130">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>2.4912500000000004</v>
       </c>
       <c r="V54" s="130">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.28485000000000005</v>
       </c>
       <c r="W54" s="204">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>165.70235</v>
       </c>
       <c r="X54" s="94">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>163.21109999999999</v>
       </c>
-      <c r="Z54" s="270"/>
+      <c r="Z54" s="244"/>
     </row>
     <row r="55" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H55" s="89">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="I55" s="84">
@@ -8336,42 +8356,42 @@
         <v>39.19</v>
       </c>
       <c r="Q55" s="94">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>29.295000000000002</v>
       </c>
       <c r="R55" s="94">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>5.8890000000000011</v>
       </c>
       <c r="S55" s="94">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>24.912500000000001</v>
       </c>
       <c r="T55" s="119">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>168.44625000000002</v>
       </c>
       <c r="U55" s="117">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>2.4912500000000004</v>
       </c>
       <c r="V55" s="117">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.29445000000000005</v>
       </c>
       <c r="W55" s="205">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>171.23195000000004</v>
       </c>
       <c r="X55" s="94">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>168.74070000000003</v>
       </c>
-      <c r="Z55" s="270"/>
+      <c r="Z55" s="244"/>
     </row>
     <row r="56" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H56" s="89">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="I56" s="84">
@@ -8405,42 +8425,42 @@
         <v>38.700000000000017</v>
       </c>
       <c r="Q56" s="94">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>31.481499999999997</v>
       </c>
       <c r="R56" s="94">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>5.823999999999999</v>
       </c>
       <c r="S56" s="94">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>20.627500000000005</v>
       </c>
       <c r="T56" s="119">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>181.01862499999996</v>
       </c>
       <c r="U56" s="117">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>2.0627500000000007</v>
       </c>
       <c r="V56" s="117">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.29119999999999996</v>
       </c>
       <c r="W56" s="205">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>183.37257499999996</v>
       </c>
       <c r="X56" s="94">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>181.30982499999996</v>
       </c>
-      <c r="Z56" s="270"/>
+      <c r="Z56" s="244"/>
     </row>
     <row r="57" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H57" s="89">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I57" s="84">
@@ -8474,42 +8494,42 @@
         <v>31.640000000000004</v>
       </c>
       <c r="Q57" s="94">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>33.988999999999997</v>
       </c>
       <c r="R57" s="94">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>6.2804999999999991</v>
       </c>
       <c r="S57" s="94">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>19.019500000000001</v>
       </c>
       <c r="T57" s="119">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>195.43674999999996</v>
       </c>
       <c r="U57" s="117">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.9019500000000003</v>
       </c>
       <c r="V57" s="117">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.314025</v>
       </c>
       <c r="W57" s="205">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>197.65272499999995</v>
       </c>
       <c r="X57" s="94">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>195.75077499999995</v>
       </c>
-      <c r="Z57" s="270"/>
+      <c r="Z57" s="244"/>
     </row>
     <row r="58" spans="8:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H58" s="91">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>-1</v>
       </c>
       <c r="I58" s="87">
@@ -8543,46 +8563,46 @@
         <v>16.899999999999995</v>
       </c>
       <c r="Q58" s="95">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>38.068999999999996</v>
       </c>
       <c r="R58" s="95">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>7.0309999999999988</v>
       </c>
       <c r="S58" s="95">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>10.724999999999998</v>
       </c>
       <c r="T58" s="120">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>218.89674999999997</v>
       </c>
       <c r="U58" s="126">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.0724999999999998</v>
       </c>
       <c r="V58" s="126">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.35154999999999997</v>
       </c>
       <c r="W58" s="206">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>220.32079999999996</v>
       </c>
       <c r="X58" s="95">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>219.24829999999997</v>
       </c>
-      <c r="Z58" s="270"/>
+      <c r="Z58" s="244"/>
     </row>
     <row r="59" spans="8:26" x14ac:dyDescent="0.3">
       <c r="S59" s="49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T59" s="72">
         <f>SUM(T34:T58)</f>
-        <v>3584.742624999999</v>
+        <v>3780.2541249999995</v>
       </c>
       <c r="U59" s="72">
         <f>SUM(U34:U58)</f>
@@ -8590,40 +8610,40 @@
       </c>
       <c r="V59" s="72">
         <f>SUM(V34:V58)</f>
-        <v>7.057025000000003</v>
+        <v>7.058525000000003</v>
       </c>
       <c r="W59" s="185">
         <f>SUM(W34:W58)-W58*0.5</f>
-        <v>3530.4031999999997</v>
+        <v>3725.9161999999997</v>
       </c>
     </row>
     <row r="60" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H60" s="49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="8:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="62" spans="8:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H62" s="123" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I62" s="168" t="s">
+        <v>101</v>
+      </c>
+      <c r="J62" s="169" t="s">
+        <v>92</v>
+      </c>
+      <c r="K62" s="170" t="s">
         <v>102</v>
       </c>
-      <c r="J62" s="169" t="s">
-        <v>93</v>
-      </c>
-      <c r="K62" s="170" t="s">
-        <v>103</v>
-      </c>
       <c r="L62" s="171" t="s">
+        <v>99</v>
+      </c>
+      <c r="M62" s="172" t="s">
         <v>100</v>
       </c>
-      <c r="M62" s="172" t="s">
-        <v>101</v>
-      </c>
       <c r="N62" s="173" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="8:26" x14ac:dyDescent="0.3">
@@ -8640,7 +8660,7 @@
         <v>242.60399999999998</v>
       </c>
       <c r="K63" s="83">
-        <f t="shared" ref="K63:K86" si="29">J63*$C$18</f>
+        <f t="shared" ref="K63" si="32">J63*$C$18</f>
         <v>6.0651000000000002</v>
       </c>
       <c r="L63" s="174">
@@ -8652,20 +8672,20 @@
         <v>12.1302</v>
       </c>
       <c r="N63" s="131">
-        <f t="shared" ref="N63:N86" si="30">L63+M63</f>
+        <f t="shared" ref="N63" si="33">L63+M63</f>
         <v>71.462699999999998</v>
       </c>
       <c r="S63" s="49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="T63" s="72">
         <f>U29</f>
-        <v>11059.24556625</v>
+        <v>11254.758566250001</v>
       </c>
     </row>
     <row r="64" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H64" s="167">
-        <f t="shared" ref="H64:H87" si="31">H35</f>
+        <f t="shared" ref="H64:H87" si="34">H35</f>
         <v>23</v>
       </c>
       <c r="I64" s="85">
@@ -8677,25 +8697,25 @@
         <v>150.72399999999999</v>
       </c>
       <c r="K64" s="71">
-        <f>J64*$C$18</f>
+        <f t="shared" ref="K64:K87" si="35">J64*$C$18</f>
         <v>3.7681</v>
       </c>
       <c r="L64" s="182">
-        <f t="shared" ref="L64" si="32">I64*$C$4</f>
+        <f t="shared" ref="L64" si="36">I64*$C$4</f>
         <v>36.922500000000007</v>
       </c>
       <c r="M64" s="183">
-        <f t="shared" ref="M64" si="33">K64*$C$5</f>
+        <f t="shared" ref="M64" si="37">K64*$C$5</f>
         <v>7.5362</v>
       </c>
       <c r="N64" s="184">
-        <f>L64+M64</f>
+        <f t="shared" ref="N64:N87" si="38">L64+M64</f>
         <v>44.458700000000007</v>
       </c>
     </row>
     <row r="65" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H65" s="167">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>22</v>
       </c>
       <c r="I65" s="85">
@@ -8707,23 +8727,23 @@
         <v>150.72399999999999</v>
       </c>
       <c r="K65" s="71">
-        <f>J65*$C$18</f>
+        <f t="shared" si="35"/>
         <v>3.7681</v>
       </c>
       <c r="L65" s="182">
-        <f t="shared" ref="L65:L87" si="34">I65*$C$4</f>
+        <f t="shared" ref="L65:L87" si="39">I65*$C$4</f>
         <v>36.922500000000007</v>
       </c>
       <c r="M65" s="183">
-        <f t="shared" ref="M65:M87" si="35">K65*$C$5</f>
+        <f t="shared" ref="M65:M87" si="40">K65*$C$5</f>
         <v>7.5362</v>
       </c>
       <c r="N65" s="184">
-        <f>L65+M65</f>
+        <f t="shared" si="38"/>
         <v>44.458700000000007</v>
       </c>
       <c r="S65" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T65" s="72">
         <f>T29</f>
@@ -8732,7 +8752,7 @@
     </row>
     <row r="66" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H66" s="167">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>21</v>
       </c>
       <c r="I66" s="85">
@@ -8744,32 +8764,32 @@
         <v>150.72399999999999</v>
       </c>
       <c r="K66" s="71">
-        <f>J66*$C$18</f>
+        <f t="shared" si="35"/>
         <v>3.7681</v>
       </c>
       <c r="L66" s="182">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M66" s="183">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>7.5362</v>
       </c>
       <c r="N66" s="184">
-        <f>L66+M66</f>
+        <f t="shared" si="38"/>
         <v>44.458700000000007</v>
       </c>
       <c r="S66" s="49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T66" s="72">
         <f>W59</f>
-        <v>3530.4031999999997</v>
+        <v>3725.9161999999997</v>
       </c>
     </row>
     <row r="67" spans="8:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H67" s="167">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>20</v>
       </c>
       <c r="I67" s="85">
@@ -8781,23 +8801,23 @@
         <v>150.72399999999999</v>
       </c>
       <c r="K67" s="71">
-        <f>J67*$C$18</f>
+        <f t="shared" si="35"/>
         <v>3.7681</v>
       </c>
       <c r="L67" s="182">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M67" s="183">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>7.5362</v>
       </c>
       <c r="N67" s="184">
-        <f>L67+M67</f>
+        <f t="shared" si="38"/>
         <v>44.458700000000007</v>
       </c>
       <c r="S67" s="132" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="T67" s="133">
         <f>N88</f>
@@ -8806,7 +8826,7 @@
     </row>
     <row r="68" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H68" s="167">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>19</v>
       </c>
       <c r="I68" s="85">
@@ -8818,29 +8838,29 @@
         <v>150.72399999999999</v>
       </c>
       <c r="K68" s="71">
-        <f>J68*$C$18</f>
+        <f t="shared" si="35"/>
         <v>3.7681</v>
       </c>
       <c r="L68" s="182">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M68" s="183">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>7.5362</v>
       </c>
       <c r="N68" s="184">
-        <f>L68+M68</f>
+        <f t="shared" si="38"/>
         <v>44.458700000000007</v>
       </c>
       <c r="T68" s="72">
         <f>SUM(T65:T67)</f>
-        <v>11059.245566249998</v>
+        <v>11254.758566249997</v>
       </c>
     </row>
     <row r="69" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H69" s="167">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>18</v>
       </c>
       <c r="I69" s="85">
@@ -8852,25 +8872,25 @@
         <v>150.72399999999999</v>
       </c>
       <c r="K69" s="71">
-        <f>J69*$C$18</f>
+        <f t="shared" si="35"/>
         <v>3.7681</v>
       </c>
       <c r="L69" s="182">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M69" s="183">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>7.5362</v>
       </c>
       <c r="N69" s="184">
-        <f>L69+M69</f>
+        <f t="shared" si="38"/>
         <v>44.458700000000007</v>
       </c>
     </row>
     <row r="70" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H70" s="167">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>17</v>
       </c>
       <c r="I70" s="85">
@@ -8882,25 +8902,25 @@
         <v>150.72399999999999</v>
       </c>
       <c r="K70" s="71">
-        <f>J70*$C$18</f>
+        <f t="shared" si="35"/>
         <v>3.7681</v>
       </c>
       <c r="L70" s="182">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M70" s="183">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>7.5362</v>
       </c>
       <c r="N70" s="184">
-        <f>L70+M70</f>
+        <f t="shared" si="38"/>
         <v>44.458700000000007</v>
       </c>
     </row>
     <row r="71" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H71" s="167">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>16</v>
       </c>
       <c r="I71" s="85">
@@ -8912,25 +8932,25 @@
         <v>150.72399999999999</v>
       </c>
       <c r="K71" s="71">
-        <f>J71*$C$18</f>
+        <f t="shared" si="35"/>
         <v>3.7681</v>
       </c>
       <c r="L71" s="182">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M71" s="183">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>7.5362</v>
       </c>
       <c r="N71" s="184">
-        <f>L71+M71</f>
+        <f t="shared" si="38"/>
         <v>44.458700000000007</v>
       </c>
     </row>
     <row r="72" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H72" s="167">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>15</v>
       </c>
       <c r="I72" s="85">
@@ -8942,25 +8962,25 @@
         <v>150.72399999999999</v>
       </c>
       <c r="K72" s="71">
-        <f>J72*$C$18</f>
+        <f t="shared" si="35"/>
         <v>3.7681</v>
       </c>
       <c r="L72" s="182">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M72" s="183">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>7.5362</v>
       </c>
       <c r="N72" s="184">
-        <f>L72+M72</f>
+        <f t="shared" si="38"/>
         <v>44.458700000000007</v>
       </c>
     </row>
     <row r="73" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H73" s="167">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>14</v>
       </c>
       <c r="I73" s="85">
@@ -8972,25 +8992,25 @@
         <v>150.72399999999999</v>
       </c>
       <c r="K73" s="71">
-        <f>J73*$C$18</f>
+        <f t="shared" si="35"/>
         <v>3.7681</v>
       </c>
       <c r="L73" s="182">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M73" s="183">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>7.5362</v>
       </c>
       <c r="N73" s="184">
-        <f>L73+M73</f>
+        <f t="shared" si="38"/>
         <v>44.458700000000007</v>
       </c>
     </row>
     <row r="74" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H74" s="167">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>13</v>
       </c>
       <c r="I74" s="85">
@@ -9002,25 +9022,25 @@
         <v>150.72399999999999</v>
       </c>
       <c r="K74" s="71">
-        <f>J74*$C$18</f>
+        <f t="shared" si="35"/>
         <v>3.7681</v>
       </c>
       <c r="L74" s="182">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M74" s="183">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>7.5362</v>
       </c>
       <c r="N74" s="184">
-        <f>L74+M74</f>
+        <f t="shared" si="38"/>
         <v>44.458700000000007</v>
       </c>
     </row>
     <row r="75" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H75" s="167">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>12</v>
       </c>
       <c r="I75" s="85">
@@ -9032,25 +9052,25 @@
         <v>150.72399999999999</v>
       </c>
       <c r="K75" s="71">
-        <f>J75*$C$18</f>
+        <f t="shared" si="35"/>
         <v>3.7681</v>
       </c>
       <c r="L75" s="182">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M75" s="183">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>7.5362</v>
       </c>
       <c r="N75" s="184">
-        <f>L75+M75</f>
+        <f t="shared" si="38"/>
         <v>44.458700000000007</v>
       </c>
     </row>
     <row r="76" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H76" s="167">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>11</v>
       </c>
       <c r="I76" s="85">
@@ -9062,25 +9082,25 @@
         <v>150.72399999999999</v>
       </c>
       <c r="K76" s="71">
-        <f>J76*$C$18</f>
+        <f t="shared" si="35"/>
         <v>3.7681</v>
       </c>
       <c r="L76" s="182">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M76" s="183">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>7.5362</v>
       </c>
       <c r="N76" s="184">
-        <f>L76+M76</f>
+        <f t="shared" si="38"/>
         <v>44.458700000000007</v>
       </c>
     </row>
     <row r="77" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H77" s="167">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="I77" s="85">
@@ -9092,25 +9112,25 @@
         <v>150.72399999999999</v>
       </c>
       <c r="K77" s="71">
-        <f>J77*$C$18</f>
+        <f t="shared" si="35"/>
         <v>3.7681</v>
       </c>
       <c r="L77" s="182">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M77" s="183">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>7.5362</v>
       </c>
       <c r="N77" s="184">
-        <f>L77+M77</f>
+        <f t="shared" si="38"/>
         <v>44.458700000000007</v>
       </c>
     </row>
     <row r="78" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H78" s="167">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>9</v>
       </c>
       <c r="I78" s="85">
@@ -9122,25 +9142,25 @@
         <v>150.72399999999999</v>
       </c>
       <c r="K78" s="71">
-        <f>J78*$C$18</f>
+        <f t="shared" si="35"/>
         <v>3.7681</v>
       </c>
       <c r="L78" s="182">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M78" s="183">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>7.5362</v>
       </c>
       <c r="N78" s="184">
-        <f>L78+M78</f>
+        <f t="shared" si="38"/>
         <v>44.458700000000007</v>
       </c>
     </row>
     <row r="79" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H79" s="167">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>8</v>
       </c>
       <c r="I79" s="85">
@@ -9152,25 +9172,25 @@
         <v>150.72399999999999</v>
       </c>
       <c r="K79" s="71">
-        <f>J79*$C$18</f>
+        <f t="shared" si="35"/>
         <v>3.7681</v>
       </c>
       <c r="L79" s="182">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M79" s="183">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>7.5362</v>
       </c>
       <c r="N79" s="184">
-        <f>L79+M79</f>
+        <f t="shared" si="38"/>
         <v>44.458700000000007</v>
       </c>
     </row>
     <row r="80" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H80" s="167">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>7</v>
       </c>
       <c r="I80" s="85">
@@ -9182,25 +9202,25 @@
         <v>150.72399999999999</v>
       </c>
       <c r="K80" s="71">
-        <f>J80*$C$18</f>
+        <f t="shared" si="35"/>
         <v>3.7681</v>
       </c>
       <c r="L80" s="182">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M80" s="183">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>7.5362</v>
       </c>
       <c r="N80" s="184">
-        <f>L80+M80</f>
+        <f t="shared" si="38"/>
         <v>44.458700000000007</v>
       </c>
     </row>
     <row r="81" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H81" s="167">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>6</v>
       </c>
       <c r="I81" s="85">
@@ -9212,25 +9232,25 @@
         <v>150.72399999999999</v>
       </c>
       <c r="K81" s="71">
-        <f>J81*$C$18</f>
+        <f t="shared" si="35"/>
         <v>3.7681</v>
       </c>
       <c r="L81" s="182">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M81" s="183">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>7.5362</v>
       </c>
       <c r="N81" s="184">
-        <f>L81+M81</f>
+        <f t="shared" si="38"/>
         <v>44.458700000000007</v>
       </c>
     </row>
     <row r="82" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H82" s="167">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="I82" s="85">
@@ -9242,25 +9262,25 @@
         <v>150.72399999999999</v>
       </c>
       <c r="K82" s="71">
-        <f>J82*$C$18</f>
+        <f t="shared" si="35"/>
         <v>3.7681</v>
       </c>
       <c r="L82" s="182">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M82" s="183">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>7.5362</v>
       </c>
       <c r="N82" s="184">
-        <f>L82+M82</f>
+        <f t="shared" si="38"/>
         <v>44.458700000000007</v>
       </c>
     </row>
     <row r="83" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H83" s="167">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>4</v>
       </c>
       <c r="I83" s="85">
@@ -9272,25 +9292,25 @@
         <v>150.72399999999999</v>
       </c>
       <c r="K83" s="71">
-        <f>J83*$C$18</f>
+        <f t="shared" si="35"/>
         <v>3.7681</v>
       </c>
       <c r="L83" s="182">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M83" s="183">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>7.5362</v>
       </c>
       <c r="N83" s="184">
-        <f>L83+M83</f>
+        <f t="shared" si="38"/>
         <v>44.458700000000007</v>
       </c>
     </row>
     <row r="84" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H84" s="167">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>3</v>
       </c>
       <c r="I84" s="85">
@@ -9302,25 +9322,25 @@
         <v>150.72399999999999</v>
       </c>
       <c r="K84" s="71">
-        <f>J84*$C$18</f>
+        <f t="shared" si="35"/>
         <v>3.7681</v>
       </c>
       <c r="L84" s="182">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>36.922500000000007</v>
       </c>
       <c r="M84" s="183">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>7.5362</v>
       </c>
       <c r="N84" s="184">
-        <f>L84+M84</f>
+        <f t="shared" si="38"/>
         <v>44.458700000000007</v>
       </c>
     </row>
     <row r="85" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H85" s="113">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>2</v>
       </c>
       <c r="I85" s="84">
@@ -9332,25 +9352,25 @@
         <v>148.51599999999999</v>
       </c>
       <c r="K85" s="64">
-        <f>J85*$C$18</f>
+        <f t="shared" si="35"/>
         <v>3.7128999999999999</v>
       </c>
       <c r="L85" s="176">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>36.382500000000007</v>
       </c>
       <c r="M85" s="177">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>7.4257999999999997</v>
       </c>
       <c r="N85" s="178">
-        <f>L85+M85</f>
+        <f t="shared" si="38"/>
         <v>43.80830000000001</v>
       </c>
     </row>
     <row r="86" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H86" s="113">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="I86" s="84">
@@ -9362,25 +9382,25 @@
         <v>56.51720000000001</v>
       </c>
       <c r="K86" s="64">
-        <f>J86*$C$18</f>
+        <f t="shared" si="35"/>
         <v>1.4129300000000002</v>
       </c>
       <c r="L86" s="176">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>40.448031250000007</v>
       </c>
       <c r="M86" s="177">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>2.8258600000000005</v>
       </c>
       <c r="N86" s="178">
-        <f>L86+M86</f>
+        <f t="shared" si="38"/>
         <v>43.273891250000005</v>
       </c>
     </row>
     <row r="87" spans="8:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H87" s="114">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-1</v>
       </c>
       <c r="I87" s="87">
@@ -9392,25 +9412,25 @@
         <v>41.160499999999999</v>
       </c>
       <c r="K87" s="88">
-        <f>J87*$C$18</f>
+        <f t="shared" si="35"/>
         <v>1.0290125000000001</v>
       </c>
       <c r="L87" s="179">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>49.351750000000003</v>
       </c>
       <c r="M87" s="180">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>2.0580250000000002</v>
       </c>
       <c r="N87" s="181">
-        <f>L87+M87</f>
+        <f t="shared" si="38"/>
         <v>51.409775000000003</v>
       </c>
     </row>
     <row r="88" spans="8:14" x14ac:dyDescent="0.3">
       <c r="K88" s="49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L88" s="72">
         <f>SUM(L63:L87)</f>
@@ -9427,17 +9447,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="V32:V33"/>
     <mergeCell ref="X32:X33"/>
     <mergeCell ref="W32:W33"/>
     <mergeCell ref="M32:P32"/>
     <mergeCell ref="Q32:Q33"/>
     <mergeCell ref="R32:R33"/>
     <mergeCell ref="S32:S33"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="V32:V33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9451,10 +9471,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A282A9DD-DDA8-407B-9F67-055CDE136535}">
   <sheetPr codeName="Hoja3"/>
-  <dimension ref="A1:AD26"/>
+  <dimension ref="A1:AG26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9472,28 +9492,29 @@
     <col min="13" max="14" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="3.109375" customWidth="1"/>
-    <col min="19" max="19" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.109375" customWidth="1"/>
-    <col min="24" max="24" width="4.44140625" customWidth="1"/>
-    <col min="25" max="25" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.109375" customWidth="1"/>
+    <col min="20" max="20" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.109375" customWidth="1"/>
+    <col min="25" max="25" width="4.44140625" customWidth="1"/>
+    <col min="26" max="26" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F1" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -9531,41 +9552,50 @@
       <c r="P2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="S2" s="243"/>
+      <c r="T2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="W2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="269"/>
-      <c r="S2" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="V2" s="8" t="s">
+      <c r="X2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y2" s="259" t="s">
+      <c r="Z2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA2" s="233" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB2" s="234" t="s">
         <v>132</v>
       </c>
-      <c r="Z2" s="260" t="s">
+      <c r="AC2" s="236" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD2" s="235" t="s">
         <v>133</v>
       </c>
-      <c r="AA2" s="262" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB2" s="261" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE2" s="235" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -9588,79 +9618,86 @@
       <c r="J3" s="13">
         <v>58.86</v>
       </c>
-      <c r="K3" s="253">
+      <c r="K3" s="228">
         <v>0.2</v>
       </c>
-      <c r="L3" s="254">
+      <c r="L3" s="229">
         <v>0.2</v>
       </c>
       <c r="M3" s="14">
-        <f>I3*K3*$D$6*100*100</f>
+        <f t="shared" ref="M3:M26" si="0">I3*K3*$D$6*100*100</f>
         <v>762.72000000000025</v>
       </c>
       <c r="N3" s="12">
-        <f>J3*L3*$D$6*100*100</f>
+        <f t="shared" ref="N3:N26" si="1">J3*L3*$D$6*100*100</f>
         <v>824.04000000000008</v>
       </c>
       <c r="O3" s="15">
-        <f>H3/M3</f>
+        <f t="shared" ref="O3:O26" si="2">H3/M3</f>
         <v>6.9546791745332473E-2</v>
       </c>
       <c r="P3" s="16">
-        <f>H3/N3</f>
+        <f t="shared" ref="P3:P26" si="3">H3/N3</f>
         <v>6.4371546284160946E-2</v>
       </c>
-      <c r="Q3" s="17" t="str">
-        <f>IF(OR(M3&lt;H3,N3&lt;H3),"MALO","WENO")</f>
-        <v>WENO</v>
-      </c>
-      <c r="R3" s="26"/>
-      <c r="S3" s="14">
+      <c r="Q3" s="274">
+        <f>'Pesos elementos'!I35*'Pesos elementos'!K35/('Pesos elementos'!$L5+'Pesos elementos'!$M5)</f>
+        <v>2.7582505765341134E-2</v>
+      </c>
+      <c r="R3" s="276">
+        <f>'Pesos elementos'!J35*'Pesos elementos'!L35/('Pesos elementos'!$L5+'Pesos elementos'!$M5)</f>
+        <v>2.9800042021805778E-2</v>
+      </c>
+      <c r="S3" s="26"/>
+      <c r="T3" s="14">
         <f>'Pesos elementos'!F5</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="T3" s="13">
-        <f t="shared" ref="T3:T24" si="0">S3+T4</f>
+      <c r="U3" s="13">
+        <f t="shared" ref="U3:U24" si="4">T3+U4</f>
         <v>55.199999999999974</v>
       </c>
-      <c r="V3" s="18">
-        <f>M3-H3</f>
+      <c r="W3" s="18">
+        <f t="shared" ref="W3:W26" si="5">M3-H3</f>
         <v>709.67527100000029</v>
       </c>
-      <c r="W3" s="19">
-        <f>N3-H3</f>
+      <c r="X3" s="19">
+        <f t="shared" ref="X3:X26" si="6">N3-H3</f>
         <v>770.99527100000012</v>
       </c>
-      <c r="Y3" s="14">
+      <c r="Z3" s="10">
+        <v>23</v>
+      </c>
+      <c r="AA3" s="14">
         <f>'Pesos elementos'!U5+'Pesos elementos'!U4</f>
         <v>530.44728999999995</v>
       </c>
-      <c r="Z3" s="12">
-        <f>Y3</f>
+      <c r="AB3" s="12">
+        <f>AA3</f>
         <v>530.44728999999995</v>
       </c>
-      <c r="AA3" s="263">
+      <c r="AC3" s="237">
         <v>20</v>
       </c>
-      <c r="AB3" s="257">
-        <f>AA3*30*0.35*(I3*K3+J3*L3)</f>
+      <c r="AD3" s="231">
+        <f>AC3*30*0.35*(I3*K3+J3*L3)</f>
         <v>4760.2800000000007</v>
       </c>
-      <c r="AC3" s="252">
-        <f>AB3-Z3</f>
+      <c r="AE3" s="272">
+        <f>AB3/AD3</f>
+        <v>0.11143195148184558</v>
+      </c>
+      <c r="AG3" s="227">
+        <f>AD3-AB3</f>
         <v>4229.8327100000006</v>
       </c>
-      <c r="AD3" s="256">
-        <f>Z3/AB3</f>
-        <v>0.11143195148184558</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D4" s="46">
         <v>0.1</v>
@@ -9683,79 +9720,86 @@
       <c r="J4" s="13">
         <v>58.86</v>
       </c>
-      <c r="K4" s="253">
+      <c r="K4" s="228">
         <v>0.2</v>
       </c>
-      <c r="L4" s="254">
+      <c r="L4" s="229">
         <v>0.2</v>
       </c>
       <c r="M4" s="14">
-        <f>I4*K4*$D$6*100*100</f>
+        <f t="shared" si="0"/>
         <v>762.72000000000025</v>
       </c>
       <c r="N4" s="12">
-        <f>J4*L4*$D$6*100*100</f>
+        <f t="shared" si="1"/>
         <v>824.04000000000008</v>
       </c>
       <c r="O4" s="15">
-        <f>H4/M4</f>
+        <f t="shared" si="2"/>
         <v>0.12670622377805743</v>
       </c>
       <c r="P4" s="16">
-        <f>H4/N4</f>
+        <f t="shared" si="3"/>
         <v>0.11727752414931313</v>
       </c>
-      <c r="Q4" s="17" t="str">
-        <f>IF(OR(M4&lt;H4,N4&lt;H4),"MALO","WENO")</f>
-        <v>WENO</v>
-      </c>
-      <c r="R4" s="26"/>
-      <c r="S4" s="14">
+      <c r="Q4" s="274">
+        <f>'Pesos elementos'!I36*'Pesos elementos'!K36/('Pesos elementos'!$L6+'Pesos elementos'!$M6)</f>
+        <v>2.7582505765341134E-2</v>
+      </c>
+      <c r="R4" s="276">
+        <f>'Pesos elementos'!J36*'Pesos elementos'!L36/('Pesos elementos'!$L6+'Pesos elementos'!$M6)</f>
+        <v>2.9800042021805778E-2</v>
+      </c>
+      <c r="S4" s="26"/>
+      <c r="T4" s="14">
         <f>'Pesos elementos'!F6</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="T4" s="13">
-        <f t="shared" si="0"/>
+      <c r="U4" s="13">
+        <f t="shared" si="4"/>
         <v>52.899999999999977</v>
       </c>
-      <c r="V4" s="18">
-        <f>M4-H4</f>
+      <c r="W4" s="18">
+        <f t="shared" si="5"/>
         <v>666.07862900000032</v>
       </c>
-      <c r="W4" s="19">
-        <f>N4-H4</f>
+      <c r="X4" s="19">
+        <f t="shared" si="6"/>
         <v>727.39862900000003</v>
       </c>
-      <c r="Y4" s="14">
+      <c r="Z4" s="10">
+        <v>22</v>
+      </c>
+      <c r="AA4" s="14">
         <f>'Pesos elementos'!U6</f>
         <v>435.96642000000003</v>
       </c>
-      <c r="Z4" s="12">
-        <f>Y4+Z3</f>
+      <c r="AB4" s="12">
+        <f>AA4+AB3</f>
         <v>966.41371000000004</v>
       </c>
-      <c r="AA4" s="263">
+      <c r="AC4" s="237">
         <v>20</v>
       </c>
-      <c r="AB4" s="257">
-        <f>AA4*30*0.35*(I4*K4+J4*L4)</f>
+      <c r="AD4" s="231">
+        <f>AC4*30*0.35*(I4*K4+J4*L4)</f>
         <v>4760.2800000000007</v>
       </c>
-      <c r="AC4" s="252">
-        <f>AB4-Z4</f>
+      <c r="AE4" s="272">
+        <f>AB4/AD4</f>
+        <v>0.20301614820976915</v>
+      </c>
+      <c r="AG4" s="227">
+        <f>AD4-AB4</f>
         <v>3793.8662900000008</v>
       </c>
-      <c r="AD4" s="256">
-        <f>Z4/AB4</f>
-        <v>0.20301614820976915</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D5" s="2">
         <v>7</v>
@@ -9770,7 +9814,7 @@
         <v>43.596642000000003</v>
       </c>
       <c r="H5" s="11">
-        <f t="shared" ref="H5:H26" si="1">G5+H4</f>
+        <f t="shared" ref="H5:H26" si="7">G5+H4</f>
         <v>140.238013</v>
       </c>
       <c r="I5" s="12">
@@ -9779,79 +9823,87 @@
       <c r="J5" s="13">
         <v>58.86</v>
       </c>
-      <c r="K5" s="253">
+      <c r="K5" s="228">
         <v>0.2</v>
       </c>
-      <c r="L5" s="254">
+      <c r="L5" s="229">
         <v>0.2</v>
       </c>
       <c r="M5" s="14">
-        <f>I5*K5*$D$6*100*100</f>
+        <f t="shared" si="0"/>
         <v>762.72000000000025</v>
       </c>
       <c r="N5" s="12">
-        <f>J5*L5*$D$6*100*100</f>
+        <f t="shared" si="1"/>
         <v>824.04000000000008</v>
       </c>
       <c r="O5" s="15">
-        <f>H5/M5</f>
+        <f t="shared" si="2"/>
         <v>0.1838656558107824</v>
       </c>
       <c r="P5" s="16">
-        <f>H5/N5</f>
+        <f t="shared" si="3"/>
         <v>0.1701835020144653</v>
       </c>
-      <c r="Q5" s="17" t="str">
-        <f>IF(OR(M5&lt;H5,N5&lt;H5),"MALO","WENO")</f>
-        <v>WENO</v>
-      </c>
-      <c r="R5" s="26"/>
-      <c r="S5" s="14">
+      <c r="Q5" s="274">
+        <f>'Pesos elementos'!I37*'Pesos elementos'!K37/('Pesos elementos'!$L7+'Pesos elementos'!$M7)</f>
+        <v>2.7582505765341134E-2</v>
+      </c>
+      <c r="R5" s="276">
+        <f>'Pesos elementos'!J37*'Pesos elementos'!L37/('Pesos elementos'!$L7+'Pesos elementos'!$M7)</f>
+        <v>2.9800042021805778E-2</v>
+      </c>
+      <c r="S5" s="26"/>
+      <c r="T5" s="14">
         <f>'Pesos elementos'!F7</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="T5" s="13">
-        <f t="shared" si="0"/>
+      <c r="U5" s="13">
+        <f t="shared" si="4"/>
         <v>50.59999999999998</v>
       </c>
-      <c r="V5" s="21">
-        <f>M5-H5</f>
+      <c r="W5" s="21">
+        <f t="shared" si="5"/>
         <v>622.48198700000023</v>
       </c>
-      <c r="W5" s="22">
-        <f>N5-H5</f>
+      <c r="X5" s="22">
+        <f t="shared" si="6"/>
         <v>683.80198700000005</v>
       </c>
-      <c r="Y5" s="14">
+      <c r="Z5" s="10">
+        <f>Z4-1</f>
+        <v>21</v>
+      </c>
+      <c r="AA5" s="14">
         <f>'Pesos elementos'!U7</f>
         <v>435.96642000000003</v>
       </c>
-      <c r="Z5" s="12">
-        <f t="shared" ref="Z5:Z26" si="2">Y5+Z4</f>
+      <c r="AB5" s="12">
+        <f t="shared" ref="AB5:AB26" si="8">AA5+AB4</f>
         <v>1402.38013</v>
       </c>
-      <c r="AA5" s="263">
+      <c r="AC5" s="237">
         <v>20</v>
       </c>
-      <c r="AB5" s="257">
-        <f>AA5*30*0.35*(I5*K5+J5*L5)</f>
+      <c r="AD5" s="231">
+        <f>AC5*30*0.35*(I5*K5+J5*L5)</f>
         <v>4760.2800000000007</v>
       </c>
-      <c r="AC5" s="252">
-        <f>AB5-Z5</f>
+      <c r="AE5" s="272">
+        <f>AB5/AD5</f>
+        <v>0.29460034493769272</v>
+      </c>
+      <c r="AG5" s="227">
+        <f>AD5-AB5</f>
         <v>3357.8998700000006</v>
       </c>
-      <c r="AD5" s="256">
-        <f>Z5/AB5</f>
-        <v>0.29460034493769272</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2">
         <f>D5/1000</f>
@@ -9859,7 +9911,7 @@
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="10">
-        <f t="shared" ref="F6:F25" si="3">F5-1</f>
+        <f t="shared" ref="F6:F25" si="9">F5-1</f>
         <v>20</v>
       </c>
       <c r="G6" s="29">
@@ -9867,7 +9919,7 @@
         <v>43.596642000000003</v>
       </c>
       <c r="H6" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>183.834655</v>
       </c>
       <c r="I6" s="12">
@@ -9876,76 +9928,84 @@
       <c r="J6" s="13">
         <v>58.86</v>
       </c>
-      <c r="K6" s="253">
+      <c r="K6" s="228">
         <v>0.2</v>
       </c>
-      <c r="L6" s="254">
+      <c r="L6" s="229">
         <v>0.2</v>
       </c>
       <c r="M6" s="14">
-        <f>I6*K6*$D$6*100*100</f>
+        <f t="shared" si="0"/>
         <v>762.72000000000025</v>
       </c>
       <c r="N6" s="12">
-        <f>J6*L6*$D$6*100*100</f>
+        <f t="shared" si="1"/>
         <v>824.04000000000008</v>
       </c>
       <c r="O6" s="15">
-        <f>H6/M6</f>
+        <f t="shared" si="2"/>
         <v>0.24102508784350737</v>
       </c>
       <c r="P6" s="16">
-        <f>H6/N6</f>
+        <f t="shared" si="3"/>
         <v>0.22308947987961747</v>
       </c>
-      <c r="Q6" s="17" t="str">
-        <f>IF(OR(M6&lt;H6,N6&lt;H6),"MALO","WENO")</f>
-        <v>WENO</v>
-      </c>
-      <c r="R6" s="26"/>
-      <c r="S6" s="14">
+      <c r="Q6" s="274">
+        <f>'Pesos elementos'!I38*'Pesos elementos'!K38/('Pesos elementos'!$L8+'Pesos elementos'!$M8)</f>
+        <v>2.7582505765341134E-2</v>
+      </c>
+      <c r="R6" s="276">
+        <f>'Pesos elementos'!J38*'Pesos elementos'!L38/('Pesos elementos'!$L8+'Pesos elementos'!$M8)</f>
+        <v>2.9800042021805778E-2</v>
+      </c>
+      <c r="S6" s="26"/>
+      <c r="T6" s="14">
         <f>'Pesos elementos'!F8</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="T6" s="13">
-        <f t="shared" si="0"/>
+      <c r="U6" s="13">
+        <f t="shared" si="4"/>
         <v>48.299999999999983</v>
       </c>
-      <c r="V6" s="21">
-        <f>M6-H6</f>
+      <c r="W6" s="21">
+        <f t="shared" si="5"/>
         <v>578.88534500000026</v>
       </c>
-      <c r="W6" s="22">
-        <f>N6-H6</f>
+      <c r="X6" s="22">
+        <f t="shared" si="6"/>
         <v>640.20534500000008</v>
       </c>
-      <c r="Y6" s="14">
+      <c r="Z6" s="10">
+        <f t="shared" ref="Z6:Z25" si="10">Z5-1</f>
+        <v>20</v>
+      </c>
+      <c r="AA6" s="14">
         <f>'Pesos elementos'!U8</f>
         <v>435.96642000000003</v>
       </c>
-      <c r="Z6" s="12">
-        <f t="shared" si="2"/>
+      <c r="AB6" s="12">
+        <f t="shared" si="8"/>
         <v>1838.34655</v>
       </c>
-      <c r="AA6" s="263">
+      <c r="AC6" s="237">
         <v>20</v>
       </c>
-      <c r="AB6" s="257">
-        <f>AA6*30*0.35*(I6*K6+J6*L6)</f>
+      <c r="AD6" s="231">
+        <f>AC6*30*0.35*(I6*K6+J6*L6)</f>
         <v>4760.2800000000007</v>
       </c>
-      <c r="AC6" s="252">
-        <f>AB6-Z6</f>
+      <c r="AE6" s="272">
+        <f>AB6/AD6</f>
+        <v>0.38618454166561628</v>
+      </c>
+      <c r="AG6" s="227">
+        <f>AD6-AB6</f>
         <v>2921.9334500000004</v>
       </c>
-      <c r="AD6" s="256">
-        <f>Z6/AB6</f>
-        <v>0.38618454166561628</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="F7" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="G7" s="29">
@@ -9953,7 +10013,7 @@
         <v>43.596642000000003</v>
       </c>
       <c r="H7" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>227.431297</v>
       </c>
       <c r="I7" s="12">
@@ -9962,77 +10022,85 @@
       <c r="J7" s="13">
         <v>58.86</v>
       </c>
-      <c r="K7" s="253">
+      <c r="K7" s="228">
         <v>0.2</v>
       </c>
-      <c r="L7" s="254">
+      <c r="L7" s="229">
         <v>0.2</v>
       </c>
       <c r="M7" s="14">
-        <f>I7*K7*$D$6*100*100</f>
+        <f t="shared" si="0"/>
         <v>762.72000000000025</v>
       </c>
       <c r="N7" s="12">
-        <f>J7*L7*$D$6*100*100</f>
+        <f t="shared" si="1"/>
         <v>824.04000000000008</v>
       </c>
       <c r="O7" s="15">
-        <f>H7/M7</f>
+        <f t="shared" si="2"/>
         <v>0.29818451987623235</v>
       </c>
       <c r="P7" s="16">
-        <f>H7/N7</f>
+        <f t="shared" si="3"/>
         <v>0.27599545774476963</v>
       </c>
-      <c r="Q7" s="17" t="str">
-        <f>IF(OR(M7&lt;H7,N7&lt;H7),"MALO","WENO")</f>
-        <v>WENO</v>
-      </c>
-      <c r="R7" s="26"/>
-      <c r="S7" s="14">
+      <c r="Q7" s="274">
+        <f>'Pesos elementos'!I39*'Pesos elementos'!K39/('Pesos elementos'!$L9+'Pesos elementos'!$M9)</f>
+        <v>2.7582505765341134E-2</v>
+      </c>
+      <c r="R7" s="276">
+        <f>'Pesos elementos'!J39*'Pesos elementos'!L39/('Pesos elementos'!$L9+'Pesos elementos'!$M9)</f>
+        <v>2.9800042021805778E-2</v>
+      </c>
+      <c r="S7" s="26"/>
+      <c r="T7" s="14">
         <f>'Pesos elementos'!F9</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="T7" s="13">
-        <f t="shared" si="0"/>
+      <c r="U7" s="13">
+        <f t="shared" si="4"/>
         <v>45.999999999999986</v>
       </c>
-      <c r="V7" s="21">
-        <f>M7-H7</f>
+      <c r="W7" s="21">
+        <f t="shared" si="5"/>
         <v>535.28870300000028</v>
       </c>
-      <c r="W7" s="22">
-        <f>N7-H7</f>
+      <c r="X7" s="22">
+        <f t="shared" si="6"/>
         <v>596.60870300000011</v>
       </c>
-      <c r="Y7" s="14">
+      <c r="Z7" s="10">
+        <f t="shared" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="AA7" s="14">
         <f>'Pesos elementos'!U9</f>
         <v>435.96642000000003</v>
       </c>
-      <c r="Z7" s="12">
-        <f t="shared" si="2"/>
+      <c r="AB7" s="12">
+        <f t="shared" si="8"/>
         <v>2274.31297</v>
       </c>
-      <c r="AA7" s="263">
+      <c r="AC7" s="237">
         <v>20</v>
       </c>
-      <c r="AB7" s="257">
-        <f>AA7*30*0.35*(I7*K7+J7*L7)</f>
+      <c r="AD7" s="231">
+        <f>AC7*30*0.35*(I7*K7+J7*L7)</f>
         <v>4760.2800000000007</v>
       </c>
-      <c r="AC7" s="252">
-        <f>AB7-Z7</f>
+      <c r="AE7" s="272">
+        <f>AB7/AD7</f>
+        <v>0.47776873839353978</v>
+      </c>
+      <c r="AG7" s="227">
+        <f>AD7-AB7</f>
         <v>2485.9670300000007</v>
       </c>
-      <c r="AD7" s="256">
-        <f>Z7/AB7</f>
-        <v>0.47776873839353978</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="24"/>
       <c r="F8" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="G8" s="29">
@@ -10040,7 +10108,7 @@
         <v>43.596642000000003</v>
       </c>
       <c r="H8" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>271.027939</v>
       </c>
       <c r="I8" s="12">
@@ -10049,80 +10117,88 @@
       <c r="J8" s="13">
         <v>58.86</v>
       </c>
-      <c r="K8" s="253">
+      <c r="K8" s="228">
         <v>0.2</v>
       </c>
-      <c r="L8" s="254">
+      <c r="L8" s="229">
         <v>0.2</v>
       </c>
       <c r="M8" s="14">
-        <f>I8*K8*$D$6*100*100</f>
+        <f t="shared" si="0"/>
         <v>762.72000000000025</v>
       </c>
       <c r="N8" s="12">
-        <f>J8*L8*$D$6*100*100</f>
+        <f t="shared" si="1"/>
         <v>824.04000000000008</v>
       </c>
       <c r="O8" s="15">
-        <f>H8/M8</f>
+        <f t="shared" si="2"/>
         <v>0.35534395190895729</v>
       </c>
       <c r="P8" s="16">
-        <f>H8/N8</f>
+        <f t="shared" si="3"/>
         <v>0.3289014356099218</v>
       </c>
-      <c r="Q8" s="17" t="str">
-        <f>IF(OR(M8&lt;H8,N8&lt;H8),"MALO","WENO")</f>
-        <v>WENO</v>
-      </c>
-      <c r="R8" s="26"/>
-      <c r="S8" s="14">
+      <c r="Q8" s="274">
+        <f>'Pesos elementos'!I40*'Pesos elementos'!K40/('Pesos elementos'!$L10+'Pesos elementos'!$M10)</f>
+        <v>2.7582505765341134E-2</v>
+      </c>
+      <c r="R8" s="276">
+        <f>'Pesos elementos'!J40*'Pesos elementos'!L40/('Pesos elementos'!$L10+'Pesos elementos'!$M10)</f>
+        <v>2.9800042021805778E-2</v>
+      </c>
+      <c r="S8" s="26"/>
+      <c r="T8" s="14">
         <f>'Pesos elementos'!F10</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="T8" s="13">
-        <f t="shared" si="0"/>
+      <c r="U8" s="13">
+        <f t="shared" si="4"/>
         <v>43.699999999999989</v>
       </c>
-      <c r="V8" s="21">
-        <f>M8-H8</f>
+      <c r="W8" s="21">
+        <f t="shared" si="5"/>
         <v>491.69206100000025</v>
       </c>
-      <c r="W8" s="22">
-        <f>N8-H8</f>
+      <c r="X8" s="22">
+        <f t="shared" si="6"/>
         <v>553.01206100000013</v>
       </c>
-      <c r="Y8" s="14">
+      <c r="Z8" s="10">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="AA8" s="14">
         <f>'Pesos elementos'!U10</f>
         <v>435.96642000000003</v>
       </c>
-      <c r="Z8" s="12">
-        <f t="shared" si="2"/>
+      <c r="AB8" s="12">
+        <f t="shared" si="8"/>
         <v>2710.2793900000001</v>
       </c>
-      <c r="AA8" s="263">
+      <c r="AC8" s="237">
         <v>20</v>
       </c>
-      <c r="AB8" s="257">
-        <f>AA8*30*0.35*(I8*K8+J8*L8)</f>
+      <c r="AD8" s="231">
+        <f>AC8*30*0.35*(I8*K8+J8*L8)</f>
         <v>4760.2800000000007</v>
       </c>
-      <c r="AC8" s="252">
-        <f>AB8-Z8</f>
+      <c r="AE8" s="272">
+        <f>AB8/AD8</f>
+        <v>0.56935293512146334</v>
+      </c>
+      <c r="AG8" s="227">
+        <f>AD8-AB8</f>
         <v>2050.0006100000005</v>
       </c>
-      <c r="AD8" s="256">
-        <f>Z8/AB8</f>
-        <v>0.56935293512146334</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="25"/>
       <c r="C9" s="26"/>
       <c r="D9" s="24"/>
       <c r="F9" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="G9" s="29">
@@ -10130,7 +10206,7 @@
         <v>43.596642000000003</v>
       </c>
       <c r="H9" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>314.62458100000003</v>
       </c>
       <c r="I9" s="12">
@@ -10139,80 +10215,88 @@
       <c r="J9" s="13">
         <v>58.86</v>
       </c>
-      <c r="K9" s="253">
+      <c r="K9" s="228">
         <v>0.2</v>
       </c>
-      <c r="L9" s="254">
+      <c r="L9" s="229">
         <v>0.2</v>
       </c>
       <c r="M9" s="14">
-        <f>I9*K9*$D$6*100*100</f>
+        <f t="shared" si="0"/>
         <v>762.72000000000025</v>
       </c>
       <c r="N9" s="12">
-        <f>J9*L9*$D$6*100*100</f>
+        <f t="shared" si="1"/>
         <v>824.04000000000008</v>
       </c>
       <c r="O9" s="15">
-        <f>H9/M9</f>
+        <f t="shared" si="2"/>
         <v>0.41250338394168229</v>
       </c>
       <c r="P9" s="16">
-        <f>H9/N9</f>
+        <f t="shared" si="3"/>
         <v>0.38180741347507402</v>
       </c>
-      <c r="Q9" s="17" t="str">
-        <f>IF(OR(M9&lt;H9,N9&lt;H9),"MALO","WENO")</f>
-        <v>WENO</v>
-      </c>
-      <c r="R9" s="26"/>
-      <c r="S9" s="14">
+      <c r="Q9" s="274">
+        <f>'Pesos elementos'!I41*'Pesos elementos'!K41/('Pesos elementos'!$L11+'Pesos elementos'!$M11)</f>
+        <v>2.7582505765341134E-2</v>
+      </c>
+      <c r="R9" s="276">
+        <f>'Pesos elementos'!J41*'Pesos elementos'!L41/('Pesos elementos'!$L11+'Pesos elementos'!$M11)</f>
+        <v>2.9800042021805778E-2</v>
+      </c>
+      <c r="S9" s="26"/>
+      <c r="T9" s="14">
         <f>'Pesos elementos'!F11</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="T9" s="13">
-        <f t="shared" si="0"/>
+      <c r="U9" s="13">
+        <f t="shared" si="4"/>
         <v>41.399999999999991</v>
       </c>
-      <c r="V9" s="21">
-        <f>M9-H9</f>
+      <c r="W9" s="21">
+        <f t="shared" si="5"/>
         <v>448.09541900000022</v>
       </c>
-      <c r="W9" s="22">
-        <f>N9-H9</f>
+      <c r="X9" s="22">
+        <f t="shared" si="6"/>
         <v>509.41541900000004</v>
       </c>
-      <c r="Y9" s="14">
+      <c r="Z9" s="10">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="AA9" s="14">
         <f>'Pesos elementos'!U11</f>
         <v>435.96642000000003</v>
       </c>
-      <c r="Z9" s="12">
-        <f t="shared" si="2"/>
+      <c r="AB9" s="12">
+        <f t="shared" si="8"/>
         <v>3146.2458100000003</v>
       </c>
-      <c r="AA9" s="263">
+      <c r="AC9" s="237">
         <v>20</v>
       </c>
-      <c r="AB9" s="257">
-        <f>AA9*30*0.35*(I9*K9+J9*L9)</f>
+      <c r="AD9" s="231">
+        <f>AC9*30*0.35*(I9*K9+J9*L9)</f>
         <v>4760.2800000000007</v>
       </c>
-      <c r="AC9" s="252">
-        <f>AB9-Z9</f>
+      <c r="AE9" s="272">
+        <f>AB9/AD9</f>
+        <v>0.66093713184938696</v>
+      </c>
+      <c r="AG9" s="227">
+        <f>AD9-AB9</f>
         <v>1614.0341900000003</v>
       </c>
-      <c r="AD9" s="256">
-        <f>Z9/AB9</f>
-        <v>0.66093713184938696</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="24"/>
       <c r="B10" s="25"/>
       <c r="C10" s="26"/>
       <c r="D10" s="24"/>
       <c r="F10" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="G10" s="29">
@@ -10220,7 +10304,7 @@
         <v>43.596642000000003</v>
       </c>
       <c r="H10" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>358.22122300000001</v>
       </c>
       <c r="I10" s="12">
@@ -10229,80 +10313,88 @@
       <c r="J10" s="13">
         <v>58.86</v>
       </c>
-      <c r="K10" s="253">
+      <c r="K10" s="228">
         <v>0.2</v>
       </c>
-      <c r="L10" s="254">
+      <c r="L10" s="229">
         <v>0.2</v>
       </c>
       <c r="M10" s="14">
-        <f>I10*K10*$D$6*100*100</f>
+        <f t="shared" si="0"/>
         <v>762.72000000000025</v>
       </c>
       <c r="N10" s="12">
-        <f>J10*L10*$D$6*100*100</f>
+        <f t="shared" si="1"/>
         <v>824.04000000000008</v>
       </c>
       <c r="O10" s="15">
-        <f>H10/M10</f>
+        <f t="shared" si="2"/>
         <v>0.46966281597440723</v>
       </c>
       <c r="P10" s="16">
-        <f>H10/N10</f>
+        <f t="shared" si="3"/>
         <v>0.43471339134022619</v>
       </c>
-      <c r="Q10" s="17" t="str">
-        <f>IF(OR(M10&lt;H10,N10&lt;H10),"MALO","WENO")</f>
-        <v>WENO</v>
-      </c>
-      <c r="R10" s="26"/>
-      <c r="S10" s="14">
+      <c r="Q10" s="274">
+        <f>'Pesos elementos'!I42*'Pesos elementos'!K42/('Pesos elementos'!$L12+'Pesos elementos'!$M12)</f>
+        <v>2.7582505765341134E-2</v>
+      </c>
+      <c r="R10" s="276">
+        <f>'Pesos elementos'!J42*'Pesos elementos'!L42/('Pesos elementos'!$L12+'Pesos elementos'!$M12)</f>
+        <v>2.9800042021805778E-2</v>
+      </c>
+      <c r="S10" s="26"/>
+      <c r="T10" s="14">
         <f>'Pesos elementos'!F12</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="T10" s="13">
-        <f t="shared" si="0"/>
+      <c r="U10" s="13">
+        <f t="shared" si="4"/>
         <v>39.099999999999994</v>
       </c>
-      <c r="V10" s="21">
-        <f>M10-H10</f>
+      <c r="W10" s="21">
+        <f t="shared" si="5"/>
         <v>404.49877700000025</v>
       </c>
-      <c r="W10" s="22">
-        <f>N10-H10</f>
+      <c r="X10" s="22">
+        <f t="shared" si="6"/>
         <v>465.81877700000007</v>
       </c>
-      <c r="Y10" s="14">
+      <c r="Z10" s="10">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="AA10" s="14">
         <f>'Pesos elementos'!U12</f>
         <v>435.96642000000003</v>
       </c>
-      <c r="Z10" s="12">
-        <f t="shared" si="2"/>
+      <c r="AB10" s="12">
+        <f t="shared" si="8"/>
         <v>3582.2122300000005</v>
       </c>
-      <c r="AA10" s="263">
+      <c r="AC10" s="237">
         <v>20</v>
       </c>
-      <c r="AB10" s="257">
-        <f>AA10*30*0.35*(I10*K10+J10*L10)</f>
+      <c r="AD10" s="231">
+        <f>AC10*30*0.35*(I10*K10+J10*L10)</f>
         <v>4760.2800000000007</v>
       </c>
-      <c r="AC10" s="252">
-        <f>AB10-Z10</f>
+      <c r="AE10" s="272">
+        <f>AB10/AD10</f>
+        <v>0.75252132857731058</v>
+      </c>
+      <c r="AG10" s="227">
+        <f>AD10-AB10</f>
         <v>1178.0677700000001</v>
       </c>
-      <c r="AD10" s="256">
-        <f>Z10/AB10</f>
-        <v>0.75252132857731058</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="24"/>
       <c r="B11" s="25"/>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
       <c r="F11" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="G11" s="29">
@@ -10310,7 +10402,7 @@
         <v>43.596642000000003</v>
       </c>
       <c r="H11" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>401.81786499999998</v>
       </c>
       <c r="I11" s="12">
@@ -10319,89 +10411,97 @@
       <c r="J11" s="13">
         <v>58.86</v>
       </c>
-      <c r="K11" s="253">
+      <c r="K11" s="228">
         <v>0.2</v>
       </c>
-      <c r="L11" s="254">
+      <c r="L11" s="229">
         <v>0.2</v>
       </c>
       <c r="M11" s="14">
-        <f>I11*K11*$D$6*100*100</f>
+        <f t="shared" si="0"/>
         <v>762.72000000000025</v>
       </c>
       <c r="N11" s="12">
-        <f>J11*L11*$D$6*100*100</f>
+        <f t="shared" si="1"/>
         <v>824.04000000000008</v>
       </c>
       <c r="O11" s="15">
-        <f>H11/M11</f>
+        <f t="shared" si="2"/>
         <v>0.52682224800713218</v>
       </c>
       <c r="P11" s="16">
-        <f>H11/N11</f>
+        <f t="shared" si="3"/>
         <v>0.48761936920537829</v>
       </c>
-      <c r="Q11" s="17" t="str">
-        <f>IF(OR(M11&lt;H11,N11&lt;H11),"MALO","WENO")</f>
-        <v>WENO</v>
-      </c>
-      <c r="R11" s="26"/>
-      <c r="S11" s="14">
+      <c r="Q11" s="274">
+        <f>'Pesos elementos'!I43*'Pesos elementos'!K43/('Pesos elementos'!$L13+'Pesos elementos'!$M13)</f>
+        <v>2.7582505765341134E-2</v>
+      </c>
+      <c r="R11" s="276">
+        <f>'Pesos elementos'!J43*'Pesos elementos'!L43/('Pesos elementos'!$L13+'Pesos elementos'!$M13)</f>
+        <v>2.9800042021805778E-2</v>
+      </c>
+      <c r="S11" s="26"/>
+      <c r="T11" s="14">
         <f>'Pesos elementos'!F13</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="T11" s="13">
-        <f t="shared" si="0"/>
+      <c r="U11" s="13">
+        <f t="shared" si="4"/>
         <v>36.799999999999997</v>
       </c>
-      <c r="V11" s="21">
-        <f>M11-H11</f>
+      <c r="W11" s="21">
+        <f t="shared" si="5"/>
         <v>360.90213500000027</v>
       </c>
-      <c r="W11" s="22">
-        <f>N11-H11</f>
+      <c r="X11" s="22">
+        <f t="shared" si="6"/>
         <v>422.22213500000009</v>
       </c>
-      <c r="Y11" s="14">
+      <c r="Z11" s="10">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="AA11" s="14">
         <f>'Pesos elementos'!U13</f>
         <v>435.96642000000003</v>
       </c>
-      <c r="Z11" s="12">
-        <f t="shared" si="2"/>
+      <c r="AB11" s="12">
+        <f t="shared" si="8"/>
         <v>4018.1786500000007</v>
       </c>
-      <c r="AA11" s="263">
+      <c r="AC11" s="237">
         <v>20</v>
       </c>
-      <c r="AB11" s="257">
-        <f>AA11*30*0.35*(I11*K11+J11*L11)</f>
+      <c r="AD11" s="231">
+        <f>AC11*30*0.35*(I11*K11+J11*L11)</f>
         <v>4760.2800000000007</v>
       </c>
-      <c r="AC11" s="252">
-        <f>AB11-Z11</f>
+      <c r="AE11" s="272">
+        <f>AB11/AD11</f>
+        <v>0.84410552530523419</v>
+      </c>
+      <c r="AG11" s="227">
+        <f>AD11-AB11</f>
         <v>742.10134999999991</v>
       </c>
-      <c r="AD11" s="256">
-        <f>Z11/AB11</f>
-        <v>0.84410552530523419</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="24"/>
       <c r="B12" s="25"/>
       <c r="C12" s="26"/>
       <c r="D12" s="24"/>
       <c r="F12" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="G12" s="29">
         <f>('Pesos elementos'!U14)*$D$4</f>
-        <v>43.596642000000003</v>
+        <v>45.225917000000003</v>
       </c>
       <c r="H12" s="11">
-        <f t="shared" si="1"/>
-        <v>445.41450699999996</v>
+        <f t="shared" si="7"/>
+        <v>447.04378199999996</v>
       </c>
       <c r="I12" s="12">
         <v>54.480000000000011</v>
@@ -10409,89 +10509,97 @@
       <c r="J12" s="13">
         <v>58.86</v>
       </c>
-      <c r="K12" s="253">
+      <c r="K12" s="228">
         <v>0.2</v>
       </c>
-      <c r="L12" s="254">
+      <c r="L12" s="229">
         <v>0.2</v>
       </c>
       <c r="M12" s="14">
-        <f>I12*K12*$D$6*100*100</f>
+        <f t="shared" si="0"/>
         <v>762.72000000000025</v>
       </c>
       <c r="N12" s="12">
-        <f>J12*L12*$D$6*100*100</f>
+        <f t="shared" si="1"/>
         <v>824.04000000000008</v>
       </c>
       <c r="O12" s="15">
-        <f>H12/M12</f>
-        <v>0.58398168003985707</v>
+        <f t="shared" si="2"/>
+        <v>0.5861178178099431</v>
       </c>
       <c r="P12" s="16">
-        <f>H12/N12</f>
-        <v>0.54052534707053046</v>
-      </c>
-      <c r="Q12" s="17" t="str">
-        <f>IF(OR(M12&lt;H12,N12&lt;H12),"MALO","WENO")</f>
-        <v>WENO</v>
-      </c>
-      <c r="R12" s="26"/>
-      <c r="S12" s="14">
+        <f t="shared" si="3"/>
+        <v>0.54250252657637965</v>
+      </c>
+      <c r="Q12" s="274">
+        <f>'Pesos elementos'!I44*'Pesos elementos'!K44/('Pesos elementos'!$L14+'Pesos elementos'!$M14)</f>
+        <v>3.4478132206676414E-2</v>
+      </c>
+      <c r="R12" s="276">
+        <f>'Pesos elementos'!J44*'Pesos elementos'!L44/('Pesos elementos'!$L14+'Pesos elementos'!$M14)</f>
+        <v>3.7250052527257223E-2</v>
+      </c>
+      <c r="S12" s="26"/>
+      <c r="T12" s="14">
         <f>'Pesos elementos'!F14</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="T12" s="13">
-        <f t="shared" si="0"/>
+      <c r="U12" s="13">
+        <f t="shared" si="4"/>
         <v>34.5</v>
       </c>
-      <c r="V12" s="21">
-        <f>M12-H12</f>
-        <v>317.3054930000003</v>
-      </c>
-      <c r="W12" s="22">
-        <f>N12-H12</f>
-        <v>378.62549300000012</v>
-      </c>
-      <c r="Y12" s="14">
+      <c r="W12" s="21">
+        <f t="shared" si="5"/>
+        <v>315.67621800000029</v>
+      </c>
+      <c r="X12" s="22">
+        <f t="shared" si="6"/>
+        <v>376.99621800000011</v>
+      </c>
+      <c r="Z12" s="10">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="AA12" s="14">
         <f>'Pesos elementos'!U14</f>
-        <v>435.96642000000003</v>
-      </c>
-      <c r="Z12" s="12">
-        <f t="shared" si="2"/>
-        <v>4454.1450700000005</v>
-      </c>
-      <c r="AA12" s="263">
+        <v>452.25916999999998</v>
+      </c>
+      <c r="AB12" s="12">
+        <f t="shared" si="8"/>
+        <v>4470.437820000001</v>
+      </c>
+      <c r="AC12" s="237">
         <v>20</v>
       </c>
-      <c r="AB12" s="257">
-        <f>AA12*30*0.35*(I12*K12+J12*L12)</f>
+      <c r="AD12" s="231">
+        <f>AC12*30*0.35*(I12*K12+J12*L12)</f>
         <v>4760.2800000000007</v>
       </c>
-      <c r="AC12" s="252">
-        <f>AB12-Z12</f>
-        <v>306.13493000000017</v>
-      </c>
-      <c r="AD12" s="256">
-        <f>Z12/AB12</f>
-        <v>0.9356897220331577</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE12" s="272">
+        <f>AB12/AD12</f>
+        <v>0.93911236733973635</v>
+      </c>
+      <c r="AG12" s="227">
+        <f>AD12-AB12</f>
+        <v>289.84217999999964</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="24"/>
       <c r="B13" s="25"/>
       <c r="C13" s="26"/>
       <c r="D13" s="24"/>
       <c r="F13" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="G13" s="29">
         <f>('Pesos elementos'!U15)*$D$4</f>
-        <v>43.596642000000003</v>
+        <v>46.855192000000002</v>
       </c>
       <c r="H13" s="11">
-        <f t="shared" si="1"/>
-        <v>489.01114899999993</v>
+        <f t="shared" si="7"/>
+        <v>493.89897399999995</v>
       </c>
       <c r="I13" s="12">
         <v>54.480000000000011</v>
@@ -10499,89 +10607,97 @@
       <c r="J13" s="13">
         <v>58.86</v>
       </c>
-      <c r="K13" s="253">
-        <v>0.2</v>
-      </c>
-      <c r="L13" s="254">
-        <v>0.2</v>
+      <c r="K13" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="L13" s="230">
+        <v>0.25</v>
       </c>
       <c r="M13" s="14">
-        <f>I13*K13*$D$6*100*100</f>
-        <v>762.72000000000025</v>
+        <f t="shared" si="0"/>
+        <v>953.4000000000002</v>
       </c>
       <c r="N13" s="12">
-        <f>J13*L13*$D$6*100*100</f>
-        <v>824.04000000000008</v>
+        <f t="shared" si="1"/>
+        <v>1030.05</v>
       </c>
       <c r="O13" s="15">
-        <f>H13/M13</f>
-        <v>0.64114111207258206</v>
+        <f t="shared" si="2"/>
+        <v>0.51803962030627215</v>
       </c>
       <c r="P13" s="16">
-        <f>H13/N13</f>
-        <v>0.59343132493568262</v>
-      </c>
-      <c r="Q13" s="17" t="str">
-        <f>IF(OR(M13&lt;H13,N13&lt;H13),"MALO","WENO")</f>
-        <v>WENO</v>
-      </c>
-      <c r="R13" s="26"/>
-      <c r="S13" s="14">
+        <f t="shared" si="3"/>
+        <v>0.47949029076258431</v>
+      </c>
+      <c r="Q13" s="274">
+        <f>'Pesos elementos'!I45*'Pesos elementos'!K45/('Pesos elementos'!$L15+'Pesos elementos'!$M15)</f>
+        <v>3.4478132206676414E-2</v>
+      </c>
+      <c r="R13" s="276">
+        <f>'Pesos elementos'!J45*'Pesos elementos'!L45/('Pesos elementos'!$L15+'Pesos elementos'!$M15)</f>
+        <v>3.7250052527257223E-2</v>
+      </c>
+      <c r="S13" s="26"/>
+      <c r="T13" s="14">
         <f>'Pesos elementos'!F15</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="T13" s="13">
-        <f t="shared" si="0"/>
+      <c r="U13" s="13">
+        <f t="shared" si="4"/>
         <v>32.200000000000003</v>
       </c>
-      <c r="V13" s="21">
-        <f>M13-H13</f>
-        <v>273.70885100000032</v>
-      </c>
-      <c r="W13" s="22">
-        <f>N13-H13</f>
-        <v>335.02885100000015</v>
-      </c>
-      <c r="Y13" s="14">
+      <c r="W13" s="21">
+        <f t="shared" si="5"/>
+        <v>459.50102600000025</v>
+      </c>
+      <c r="X13" s="22">
+        <f t="shared" si="6"/>
+        <v>536.151026</v>
+      </c>
+      <c r="Z13" s="10">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="AA13" s="14">
         <f>'Pesos elementos'!U15</f>
-        <v>435.96642000000003</v>
-      </c>
-      <c r="Z13" s="12">
-        <f t="shared" si="2"/>
-        <v>4890.1114900000002</v>
-      </c>
-      <c r="AA13" s="264">
+        <v>468.55192</v>
+      </c>
+      <c r="AB13" s="12">
+        <f t="shared" si="8"/>
+        <v>4938.9897400000009</v>
+      </c>
+      <c r="AC13" s="238">
         <v>30</v>
       </c>
-      <c r="AB13" s="257">
-        <f>AA13*30*0.35*(I13*K13+J13*L13)</f>
-        <v>7140.420000000001</v>
-      </c>
-      <c r="AC13" s="252">
-        <f>AB13-Z13</f>
-        <v>2250.3085100000008</v>
-      </c>
-      <c r="AD13" s="256">
-        <f>Z13/AB13</f>
-        <v>0.68484927917405414</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AD13" s="231">
+        <f>AC13*30*0.35*(I13*K13+J13*L13)</f>
+        <v>8925.5249999999996</v>
+      </c>
+      <c r="AE13" s="272">
+        <f>AB13/AD13</f>
+        <v>0.5533556558297692</v>
+      </c>
+      <c r="AG13" s="227">
+        <f>AD13-AB13</f>
+        <v>3986.5352599999987</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="24"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
       <c r="D14" s="24"/>
       <c r="F14" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="G14" s="29">
         <f>('Pesos elementos'!U16)*$D$4</f>
-        <v>43.596642000000003</v>
+        <v>46.855192000000002</v>
       </c>
       <c r="H14" s="11">
-        <f t="shared" si="1"/>
-        <v>532.60779099999991</v>
+        <f t="shared" si="7"/>
+        <v>540.75416599999994</v>
       </c>
       <c r="I14" s="12">
         <v>54.480000000000011</v>
@@ -10589,89 +10705,97 @@
       <c r="J14" s="13">
         <v>58.86</v>
       </c>
-      <c r="K14" s="253">
-        <v>0.2</v>
-      </c>
-      <c r="L14" s="254">
-        <v>0.2</v>
+      <c r="K14" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="L14" s="230">
+        <v>0.25</v>
       </c>
       <c r="M14" s="14">
-        <f>I14*K14*$D$6*100*100</f>
-        <v>762.72000000000025</v>
+        <f t="shared" si="0"/>
+        <v>953.4000000000002</v>
       </c>
       <c r="N14" s="12">
-        <f>J14*L14*$D$6*100*100</f>
-        <v>824.04000000000008</v>
+        <f t="shared" si="1"/>
+        <v>1030.05</v>
       </c>
       <c r="O14" s="15">
-        <f>H14/M14</f>
-        <v>0.69830054410530695</v>
+        <f t="shared" si="2"/>
+        <v>0.56718498636458969</v>
       </c>
       <c r="P14" s="16">
-        <f>H14/N14</f>
-        <v>0.64633730280083479</v>
-      </c>
-      <c r="Q14" s="17" t="str">
-        <f>IF(OR(M14&lt;H14,N14&lt;H14),"MALO","WENO")</f>
-        <v>WENO</v>
-      </c>
-      <c r="R14" s="26"/>
-      <c r="S14" s="14">
+        <f t="shared" si="3"/>
+        <v>0.52497856026406486</v>
+      </c>
+      <c r="Q14" s="274">
+        <f>'Pesos elementos'!I46*'Pesos elementos'!K46/('Pesos elementos'!$L16+'Pesos elementos'!$M16)</f>
+        <v>3.4478132206676414E-2</v>
+      </c>
+      <c r="R14" s="276">
+        <f>'Pesos elementos'!J46*'Pesos elementos'!L46/('Pesos elementos'!$L16+'Pesos elementos'!$M16)</f>
+        <v>3.7250052527257223E-2</v>
+      </c>
+      <c r="S14" s="26"/>
+      <c r="T14" s="14">
         <f>'Pesos elementos'!F16</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="T14" s="13">
-        <f t="shared" si="0"/>
+      <c r="U14" s="13">
+        <f t="shared" si="4"/>
         <v>29.900000000000006</v>
       </c>
-      <c r="V14" s="21">
-        <f>M14-H14</f>
-        <v>230.11220900000035</v>
-      </c>
-      <c r="W14" s="22">
-        <f>N14-H14</f>
-        <v>291.43220900000017</v>
-      </c>
-      <c r="Y14" s="14">
+      <c r="W14" s="21">
+        <f t="shared" si="5"/>
+        <v>412.64583400000026</v>
+      </c>
+      <c r="X14" s="22">
+        <f t="shared" si="6"/>
+        <v>489.29583400000001</v>
+      </c>
+      <c r="Z14" s="10">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="AA14" s="14">
         <f>'Pesos elementos'!U16</f>
-        <v>435.96642000000003</v>
-      </c>
-      <c r="Z14" s="12">
-        <f t="shared" si="2"/>
-        <v>5326.07791</v>
-      </c>
-      <c r="AA14" s="264">
+        <v>468.55192</v>
+      </c>
+      <c r="AB14" s="12">
+        <f t="shared" si="8"/>
+        <v>5407.5416600000008</v>
+      </c>
+      <c r="AC14" s="238">
         <v>30</v>
       </c>
-      <c r="AB14" s="257">
-        <f>AA14*30*0.35*(I14*K14+J14*L14)</f>
-        <v>7140.420000000001</v>
-      </c>
-      <c r="AC14" s="252">
-        <f>AB14-Z14</f>
-        <v>1814.342090000001</v>
-      </c>
-      <c r="AD14" s="256">
-        <f>Z14/AB14</f>
-        <v>0.7459054103260031</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AD14" s="231">
+        <f>AC14*30*0.35*(I14*K14+J14*L14)</f>
+        <v>8925.5249999999996</v>
+      </c>
+      <c r="AE14" s="272">
+        <f>AB14/AD14</f>
+        <v>0.60585138241167902</v>
+      </c>
+      <c r="AG14" s="227">
+        <f>AD14-AB14</f>
+        <v>3517.9833399999989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
       <c r="B15" s="25"/>
       <c r="C15" s="26"/>
       <c r="D15" s="24"/>
       <c r="F15" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="G15" s="29">
         <f>('Pesos elementos'!U17)*$D$4</f>
-        <v>43.596642000000003</v>
+        <v>46.855192000000002</v>
       </c>
       <c r="H15" s="11">
-        <f t="shared" si="1"/>
-        <v>576.20443299999988</v>
+        <f t="shared" si="7"/>
+        <v>587.60935799999993</v>
       </c>
       <c r="I15" s="12">
         <v>54.480000000000011</v>
@@ -10679,89 +10803,97 @@
       <c r="J15" s="13">
         <v>58.86</v>
       </c>
-      <c r="K15" s="253">
-        <v>0.2</v>
-      </c>
-      <c r="L15" s="254">
-        <v>0.2</v>
+      <c r="K15" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="L15" s="230">
+        <v>0.25</v>
       </c>
       <c r="M15" s="14">
-        <f>I15*K15*$D$6*100*100</f>
-        <v>762.72000000000025</v>
+        <f t="shared" si="0"/>
+        <v>953.4000000000002</v>
       </c>
       <c r="N15" s="12">
-        <f>J15*L15*$D$6*100*100</f>
-        <v>824.04000000000008</v>
+        <f t="shared" si="1"/>
+        <v>1030.05</v>
       </c>
       <c r="O15" s="15">
-        <f>H15/M15</f>
-        <v>0.75545997613803195</v>
+        <f t="shared" si="2"/>
+        <v>0.61633035242290723</v>
       </c>
       <c r="P15" s="16">
-        <f>H15/N15</f>
-        <v>0.69924328066598684</v>
-      </c>
-      <c r="Q15" s="17" t="str">
-        <f>IF(OR(M15&lt;H15,N15&lt;H15),"MALO","WENO")</f>
-        <v>WENO</v>
-      </c>
-      <c r="R15" s="26"/>
-      <c r="S15" s="14">
+        <f t="shared" si="3"/>
+        <v>0.5704668297655453</v>
+      </c>
+      <c r="Q15" s="274">
+        <f>'Pesos elementos'!I47*'Pesos elementos'!K47/('Pesos elementos'!$L17+'Pesos elementos'!$M17)</f>
+        <v>3.4478132206676414E-2</v>
+      </c>
+      <c r="R15" s="276">
+        <f>'Pesos elementos'!J47*'Pesos elementos'!L47/('Pesos elementos'!$L17+'Pesos elementos'!$M17)</f>
+        <v>3.7250052527257223E-2</v>
+      </c>
+      <c r="S15" s="26"/>
+      <c r="T15" s="14">
         <f>'Pesos elementos'!F17</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="T15" s="13">
-        <f t="shared" si="0"/>
+      <c r="U15" s="13">
+        <f t="shared" si="4"/>
         <v>27.600000000000005</v>
       </c>
-      <c r="V15" s="21">
-        <f>M15-H15</f>
-        <v>186.51556700000037</v>
-      </c>
-      <c r="W15" s="22">
-        <f>N15-H15</f>
-        <v>247.8355670000002</v>
-      </c>
-      <c r="Y15" s="14">
+      <c r="W15" s="21">
+        <f t="shared" si="5"/>
+        <v>365.79064200000028</v>
+      </c>
+      <c r="X15" s="22">
+        <f t="shared" si="6"/>
+        <v>442.44064200000003</v>
+      </c>
+      <c r="Z15" s="10">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="AA15" s="14">
         <f>'Pesos elementos'!U17</f>
-        <v>435.96642000000003</v>
-      </c>
-      <c r="Z15" s="12">
-        <f t="shared" si="2"/>
-        <v>5762.0443299999997</v>
-      </c>
-      <c r="AA15" s="264">
+        <v>468.55192</v>
+      </c>
+      <c r="AB15" s="12">
+        <f t="shared" si="8"/>
+        <v>5876.0935800000007</v>
+      </c>
+      <c r="AC15" s="238">
         <v>30</v>
       </c>
-      <c r="AB15" s="257">
-        <f>AA15*30*0.35*(I15*K15+J15*L15)</f>
-        <v>7140.420000000001</v>
-      </c>
-      <c r="AC15" s="252">
-        <f>AB15-Z15</f>
-        <v>1378.3756700000013</v>
-      </c>
-      <c r="AD15" s="256">
-        <f>Z15/AB15</f>
-        <v>0.80696154147795218</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AD15" s="231">
+        <f>AC15*30*0.35*(I15*K15+J15*L15)</f>
+        <v>8925.5249999999996</v>
+      </c>
+      <c r="AE15" s="272">
+        <f>AB15/AD15</f>
+        <v>0.65834710899358873</v>
+      </c>
+      <c r="AG15" s="227">
+        <f>AD15-AB15</f>
+        <v>3049.431419999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="24"/>
       <c r="B16" s="25"/>
       <c r="C16" s="26"/>
       <c r="D16" s="24"/>
       <c r="F16" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="G16" s="29">
         <f>('Pesos elementos'!U18)*$D$4</f>
-        <v>43.596642000000003</v>
+        <v>46.855192000000002</v>
       </c>
       <c r="H16" s="11">
-        <f t="shared" si="1"/>
-        <v>619.80107499999986</v>
+        <f t="shared" si="7"/>
+        <v>634.46454999999992</v>
       </c>
       <c r="I16" s="12">
         <v>54.480000000000011</v>
@@ -10769,89 +10901,97 @@
       <c r="J16" s="13">
         <v>58.86</v>
       </c>
-      <c r="K16" s="253">
-        <v>0.2</v>
-      </c>
-      <c r="L16" s="254">
-        <v>0.2</v>
+      <c r="K16" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="L16" s="230">
+        <v>0.25</v>
       </c>
       <c r="M16" s="14">
-        <f>I16*K16*$D$6*100*100</f>
-        <v>762.72000000000025</v>
+        <f t="shared" si="0"/>
+        <v>953.4000000000002</v>
       </c>
       <c r="N16" s="12">
-        <f>J16*L16*$D$6*100*100</f>
-        <v>824.04000000000008</v>
+        <f t="shared" si="1"/>
+        <v>1030.05</v>
       </c>
       <c r="O16" s="15">
-        <f>H16/M16</f>
-        <v>0.81261940817075684</v>
+        <f t="shared" si="2"/>
+        <v>0.66547571848122489</v>
       </c>
       <c r="P16" s="16">
-        <f>H16/N16</f>
-        <v>0.75214925853113901</v>
-      </c>
-      <c r="Q16" s="17" t="str">
-        <f>IF(OR(M16&lt;H16,N16&lt;H16),"MALO","WENO")</f>
-        <v>WENO</v>
-      </c>
-      <c r="R16" s="26"/>
-      <c r="S16" s="14">
+        <f t="shared" si="3"/>
+        <v>0.61595509926702585</v>
+      </c>
+      <c r="Q16" s="274">
+        <f>'Pesos elementos'!I48*'Pesos elementos'!K48/('Pesos elementos'!$L18+'Pesos elementos'!$M18)</f>
+        <v>3.4478132206676414E-2</v>
+      </c>
+      <c r="R16" s="276">
+        <f>'Pesos elementos'!J48*'Pesos elementos'!L48/('Pesos elementos'!$L18+'Pesos elementos'!$M18)</f>
+        <v>3.7250052527257223E-2</v>
+      </c>
+      <c r="S16" s="26"/>
+      <c r="T16" s="14">
         <f>'Pesos elementos'!F18</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="T16" s="13">
-        <f t="shared" si="0"/>
+      <c r="U16" s="13">
+        <f t="shared" si="4"/>
         <v>25.300000000000004</v>
       </c>
-      <c r="V16" s="21">
-        <f>M16-H16</f>
-        <v>142.9189250000004</v>
-      </c>
-      <c r="W16" s="22">
-        <f>N16-H16</f>
-        <v>204.23892500000022</v>
-      </c>
-      <c r="Y16" s="14">
+      <c r="W16" s="21">
+        <f t="shared" si="5"/>
+        <v>318.93545000000029</v>
+      </c>
+      <c r="X16" s="22">
+        <f t="shared" si="6"/>
+        <v>395.58545000000004</v>
+      </c>
+      <c r="Z16" s="10">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="AA16" s="14">
         <f>'Pesos elementos'!U18</f>
-        <v>435.96642000000003</v>
-      </c>
-      <c r="Z16" s="12">
-        <f t="shared" si="2"/>
-        <v>6198.0107499999995</v>
-      </c>
-      <c r="AA16" s="264">
+        <v>468.55192</v>
+      </c>
+      <c r="AB16" s="12">
+        <f t="shared" si="8"/>
+        <v>6344.6455000000005</v>
+      </c>
+      <c r="AC16" s="238">
         <v>30</v>
       </c>
-      <c r="AB16" s="257">
-        <f>AA16*30*0.35*(I16*K16+J16*L16)</f>
-        <v>7140.420000000001</v>
-      </c>
-      <c r="AC16" s="252">
-        <f>AB16-Z16</f>
-        <v>942.40925000000152</v>
-      </c>
-      <c r="AD16" s="256">
-        <f>Z16/AB16</f>
-        <v>0.86801767262990115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AD16" s="231">
+        <f>AC16*30*0.35*(I16*K16+J16*L16)</f>
+        <v>8925.5249999999996</v>
+      </c>
+      <c r="AE16" s="272">
+        <f>AB16/AD16</f>
+        <v>0.71084283557549843</v>
+      </c>
+      <c r="AG16" s="227">
+        <f>AD16-AB16</f>
+        <v>2580.8794999999991</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" s="24"/>
       <c r="B17" s="25"/>
       <c r="C17" s="26"/>
       <c r="D17" s="24"/>
       <c r="F17" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="G17" s="29">
         <f>('Pesos elementos'!U19)*$D$4</f>
-        <v>43.596642000000003</v>
+        <v>46.855192000000002</v>
       </c>
       <c r="H17" s="11">
-        <f t="shared" si="1"/>
-        <v>663.39771699999983</v>
+        <f t="shared" si="7"/>
+        <v>681.31974199999991</v>
       </c>
       <c r="I17" s="12">
         <v>54.480000000000011</v>
@@ -10859,89 +10999,97 @@
       <c r="J17" s="13">
         <v>58.86</v>
       </c>
-      <c r="K17" s="253">
-        <v>0.2</v>
-      </c>
-      <c r="L17" s="254">
-        <v>0.2</v>
+      <c r="K17" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="L17" s="230">
+        <v>0.25</v>
       </c>
       <c r="M17" s="14">
-        <f>I17*K17*$D$6*100*100</f>
-        <v>762.72000000000025</v>
+        <f t="shared" si="0"/>
+        <v>953.4000000000002</v>
       </c>
       <c r="N17" s="12">
-        <f>J17*L17*$D$6*100*100</f>
-        <v>824.04000000000008</v>
+        <f t="shared" si="1"/>
+        <v>1030.05</v>
       </c>
       <c r="O17" s="15">
-        <f>H17/M17</f>
-        <v>0.86977884020348173</v>
+        <f t="shared" si="2"/>
+        <v>0.71462108453954243</v>
       </c>
       <c r="P17" s="16">
-        <f>H17/N17</f>
-        <v>0.80505523639629117</v>
-      </c>
-      <c r="Q17" s="17" t="str">
-        <f>IF(OR(M17&lt;H17,N17&lt;H17),"MALO","WENO")</f>
-        <v>WENO</v>
-      </c>
-      <c r="R17" s="26"/>
-      <c r="S17" s="14">
+        <f t="shared" si="3"/>
+        <v>0.66144336876850629</v>
+      </c>
+      <c r="Q17" s="274">
+        <f>'Pesos elementos'!I49*'Pesos elementos'!K49/('Pesos elementos'!$L19+'Pesos elementos'!$M19)</f>
+        <v>3.4478132206676414E-2</v>
+      </c>
+      <c r="R17" s="276">
+        <f>'Pesos elementos'!J49*'Pesos elementos'!L49/('Pesos elementos'!$L19+'Pesos elementos'!$M19)</f>
+        <v>3.7250052527257223E-2</v>
+      </c>
+      <c r="S17" s="26"/>
+      <c r="T17" s="14">
         <f>'Pesos elementos'!F19</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="T17" s="13">
-        <f t="shared" si="0"/>
+      <c r="U17" s="13">
+        <f t="shared" si="4"/>
         <v>23.000000000000004</v>
       </c>
-      <c r="V17" s="21">
-        <f>M17-H17</f>
-        <v>99.322283000000425</v>
-      </c>
-      <c r="W17" s="22">
-        <f>N17-H17</f>
-        <v>160.64228300000025</v>
-      </c>
-      <c r="Y17" s="14">
+      <c r="W17" s="21">
+        <f t="shared" si="5"/>
+        <v>272.0802580000003</v>
+      </c>
+      <c r="X17" s="22">
+        <f t="shared" si="6"/>
+        <v>348.73025800000005</v>
+      </c>
+      <c r="Z17" s="10">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="AA17" s="14">
         <f>'Pesos elementos'!U19</f>
-        <v>435.96642000000003</v>
-      </c>
-      <c r="Z17" s="12">
-        <f t="shared" si="2"/>
-        <v>6633.9771699999992</v>
-      </c>
-      <c r="AA17" s="264">
+        <v>468.55192</v>
+      </c>
+      <c r="AB17" s="12">
+        <f t="shared" si="8"/>
+        <v>6813.1974200000004</v>
+      </c>
+      <c r="AC17" s="238">
         <v>30</v>
       </c>
-      <c r="AB17" s="257">
-        <f>AA17*30*0.35*(I17*K17+J17*L17)</f>
-        <v>7140.420000000001</v>
-      </c>
-      <c r="AC17" s="252">
-        <f>AB17-Z17</f>
-        <v>506.44283000000178</v>
-      </c>
-      <c r="AD17" s="256">
-        <f>Z17/AB17</f>
-        <v>0.92907380378185012</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AD17" s="231">
+        <f>AC17*30*0.35*(I17*K17+J17*L17)</f>
+        <v>8925.5249999999996</v>
+      </c>
+      <c r="AE17" s="272">
+        <f>AB17/AD17</f>
+        <v>0.76333856215740814</v>
+      </c>
+      <c r="AG17" s="227">
+        <f>AD17-AB17</f>
+        <v>2112.3275799999992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" s="24"/>
       <c r="B18" s="25"/>
       <c r="C18" s="26"/>
       <c r="D18" s="24"/>
       <c r="F18" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="G18" s="29">
         <f>('Pesos elementos'!U20)*$D$4</f>
-        <v>45.225917000000003</v>
+        <v>46.855192000000002</v>
       </c>
       <c r="H18" s="11">
-        <f t="shared" si="1"/>
-        <v>708.62363399999981</v>
+        <f t="shared" si="7"/>
+        <v>728.17493399999989</v>
       </c>
       <c r="I18" s="12">
         <v>54.480000000000011</v>
@@ -10949,80 +11097,88 @@
       <c r="J18" s="13">
         <v>58.86</v>
       </c>
-      <c r="K18" s="253">
-        <v>0.2</v>
-      </c>
-      <c r="L18" s="254">
-        <v>0.2</v>
+      <c r="K18" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="L18" s="230">
+        <v>0.25</v>
       </c>
       <c r="M18" s="14">
-        <f>I18*K18*$D$6*100*100</f>
-        <v>762.72000000000025</v>
+        <f t="shared" si="0"/>
+        <v>953.4000000000002</v>
       </c>
       <c r="N18" s="12">
-        <f>J18*L18*$D$6*100*100</f>
-        <v>824.04000000000008</v>
+        <f t="shared" si="1"/>
+        <v>1030.05</v>
       </c>
       <c r="O18" s="15">
-        <f>H18/M18</f>
-        <v>0.92907441000629276</v>
+        <f t="shared" si="2"/>
+        <v>0.76376645059785997</v>
       </c>
       <c r="P18" s="16">
-        <f>H18/N18</f>
-        <v>0.85993839376729253</v>
-      </c>
-      <c r="Q18" s="17" t="str">
-        <f>IF(OR(M18&lt;H18,N18&lt;H18),"MALO","WENO")</f>
-        <v>WENO</v>
-      </c>
-      <c r="R18" s="26"/>
-      <c r="S18" s="14">
+        <f t="shared" si="3"/>
+        <v>0.70693163826998684</v>
+      </c>
+      <c r="Q18" s="274">
+        <f>'Pesos elementos'!I50*'Pesos elementos'!K50/('Pesos elementos'!$L20+'Pesos elementos'!$M20)</f>
+        <v>3.4478132206676414E-2</v>
+      </c>
+      <c r="R18" s="276">
+        <f>'Pesos elementos'!J50*'Pesos elementos'!L50/('Pesos elementos'!$L20+'Pesos elementos'!$M20)</f>
+        <v>3.7250052527257223E-2</v>
+      </c>
+      <c r="S18" s="26"/>
+      <c r="T18" s="14">
         <f>'Pesos elementos'!F20</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="T18" s="13">
-        <f t="shared" si="0"/>
+      <c r="U18" s="13">
+        <f t="shared" si="4"/>
         <v>20.700000000000003</v>
       </c>
-      <c r="V18" s="21">
-        <f>M18-H18</f>
-        <v>54.096366000000444</v>
-      </c>
-      <c r="W18" s="22">
-        <f>N18-H18</f>
-        <v>115.41636600000027</v>
-      </c>
-      <c r="Y18" s="14">
+      <c r="W18" s="21">
+        <f t="shared" si="5"/>
+        <v>225.22506600000031</v>
+      </c>
+      <c r="X18" s="22">
+        <f t="shared" si="6"/>
+        <v>301.87506600000006</v>
+      </c>
+      <c r="Z18" s="10">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="AA18" s="14">
         <f>'Pesos elementos'!U20</f>
-        <v>452.25916999999998</v>
-      </c>
-      <c r="Z18" s="12">
-        <f t="shared" si="2"/>
-        <v>7086.2363399999995</v>
-      </c>
-      <c r="AA18" s="264">
+        <v>468.55192</v>
+      </c>
+      <c r="AB18" s="12">
+        <f t="shared" si="8"/>
+        <v>7281.7493400000003</v>
+      </c>
+      <c r="AC18" s="238">
         <v>30</v>
       </c>
-      <c r="AB18" s="257">
-        <f>AA18*30*0.35*(I18*K18+J18*L18)</f>
-        <v>7140.420000000001</v>
-      </c>
-      <c r="AC18" s="252">
-        <f>AB18-Z18</f>
-        <v>54.18366000000151</v>
-      </c>
-      <c r="AD18" s="256">
-        <f>Z18/AB18</f>
-        <v>0.99241169847151822</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AD18" s="231">
+        <f>AC18*30*0.35*(I18*K18+J18*L18)</f>
+        <v>8925.5249999999996</v>
+      </c>
+      <c r="AE18" s="272">
+        <f>AB18/AD18</f>
+        <v>0.81583428873931796</v>
+      </c>
+      <c r="AG18" s="227">
+        <f>AD18-AB18</f>
+        <v>1643.7756599999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" s="24"/>
       <c r="B19" s="25"/>
       <c r="C19" s="26"/>
       <c r="D19" s="24"/>
       <c r="F19" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="G19" s="29">
@@ -11030,8 +11186,8 @@
         <v>46.855192000000002</v>
       </c>
       <c r="H19" s="11">
-        <f t="shared" si="1"/>
-        <v>755.4788259999998</v>
+        <f t="shared" si="7"/>
+        <v>775.03012599999988</v>
       </c>
       <c r="I19" s="12">
         <v>54.480000000000011</v>
@@ -11042,76 +11198,84 @@
       <c r="K19" s="27">
         <v>0.25</v>
       </c>
-      <c r="L19" s="255">
+      <c r="L19" s="230">
         <v>0.25</v>
       </c>
       <c r="M19" s="14">
-        <f>I19*K19*$D$6*100*100</f>
+        <f t="shared" si="0"/>
         <v>953.4000000000002</v>
       </c>
       <c r="N19" s="12">
-        <f>J19*L19*$D$6*100*100</f>
+        <f t="shared" si="1"/>
         <v>1030.05</v>
       </c>
       <c r="O19" s="15">
-        <f>H19/M19</f>
-        <v>0.79240489406335179</v>
+        <f t="shared" si="2"/>
+        <v>0.81291181665617762</v>
       </c>
       <c r="P19" s="16">
-        <f>H19/N19</f>
-        <v>0.73343898451531464</v>
-      </c>
-      <c r="Q19" s="17" t="str">
-        <f>IF(OR(M19&lt;H19,N19&lt;H19),"MALO","WENO")</f>
-        <v>WENO</v>
-      </c>
-      <c r="R19" s="26"/>
-      <c r="S19" s="14">
+        <f t="shared" si="3"/>
+        <v>0.75241990777146728</v>
+      </c>
+      <c r="Q19" s="274">
+        <f>'Pesos elementos'!I51*'Pesos elementos'!K51/('Pesos elementos'!$L21+'Pesos elementos'!$M21)</f>
+        <v>3.4478132206676414E-2</v>
+      </c>
+      <c r="R19" s="276">
+        <f>'Pesos elementos'!J51*'Pesos elementos'!L51/('Pesos elementos'!$L21+'Pesos elementos'!$M21)</f>
+        <v>3.7250052527257223E-2</v>
+      </c>
+      <c r="S19" s="26"/>
+      <c r="T19" s="14">
         <f>'Pesos elementos'!F21</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="T19" s="13">
-        <f t="shared" si="0"/>
+      <c r="U19" s="13">
+        <f t="shared" si="4"/>
         <v>18.400000000000002</v>
       </c>
-      <c r="V19" s="21">
-        <f>M19-H19</f>
-        <v>197.92117400000041</v>
-      </c>
-      <c r="W19" s="22">
-        <f>N19-H19</f>
-        <v>274.57117400000016</v>
-      </c>
-      <c r="Y19" s="14">
+      <c r="W19" s="21">
+        <f t="shared" si="5"/>
+        <v>178.36987400000032</v>
+      </c>
+      <c r="X19" s="22">
+        <f t="shared" si="6"/>
+        <v>255.01987400000007</v>
+      </c>
+      <c r="Z19" s="10">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="AA19" s="14">
         <f>'Pesos elementos'!U21</f>
         <v>468.55192</v>
       </c>
-      <c r="Z19" s="12">
-        <f t="shared" si="2"/>
-        <v>7554.7882599999994</v>
-      </c>
-      <c r="AA19" s="265">
+      <c r="AB19" s="12">
+        <f t="shared" si="8"/>
+        <v>7750.3012600000002</v>
+      </c>
+      <c r="AC19" s="239">
         <v>35</v>
       </c>
-      <c r="AB19" s="257">
-        <f>AA19*30*0.35*(I19*K19+J19*L19)</f>
+      <c r="AD19" s="231">
+        <f>AC19*30*0.35*(I19*K19+J19*L19)</f>
         <v>10413.112500000001</v>
       </c>
-      <c r="AC19" s="252">
-        <f>AB19-Z19</f>
-        <v>2858.3242400000017</v>
-      </c>
-      <c r="AD19" s="256">
-        <f>Z19/AB19</f>
-        <v>0.72550721602210666</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE19" s="272">
+        <f>AB19/AD19</f>
+        <v>0.7442828702753379</v>
+      </c>
+      <c r="AG19" s="227">
+        <f>AD19-AB19</f>
+        <v>2662.8112400000009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" s="24"/>
       <c r="B20" s="25"/>
       <c r="D20" s="26"/>
       <c r="F20" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="G20" s="29">
@@ -11119,8 +11283,8 @@
         <v>46.855192000000002</v>
       </c>
       <c r="H20" s="11">
-        <f t="shared" si="1"/>
-        <v>802.33401799999979</v>
+        <f t="shared" si="7"/>
+        <v>821.88531799999987</v>
       </c>
       <c r="I20" s="12">
         <v>54.480000000000011</v>
@@ -11131,77 +11295,85 @@
       <c r="K20" s="27">
         <v>0.25</v>
       </c>
-      <c r="L20" s="255">
+      <c r="L20" s="230">
         <v>0.25</v>
       </c>
       <c r="M20" s="14">
-        <f>I20*K20*$D$6*100*100</f>
+        <f t="shared" si="0"/>
         <v>953.4000000000002</v>
       </c>
       <c r="N20" s="12">
-        <f>J20*L20*$D$6*100*100</f>
+        <f t="shared" si="1"/>
         <v>1030.05</v>
       </c>
       <c r="O20" s="15">
-        <f>H20/M20</f>
-        <v>0.84155026012166945</v>
+        <f t="shared" si="2"/>
+        <v>0.86205718271449516</v>
       </c>
       <c r="P20" s="16">
-        <f>H20/N20</f>
-        <v>0.77892725401679508</v>
-      </c>
-      <c r="Q20" s="17" t="str">
-        <f>IF(OR(M20&lt;H20,N20&lt;H20),"MALO","WENO")</f>
-        <v>WENO</v>
-      </c>
-      <c r="R20" s="26"/>
-      <c r="S20" s="14">
+        <f t="shared" si="3"/>
+        <v>0.79790817727294783</v>
+      </c>
+      <c r="Q20" s="274">
+        <f>'Pesos elementos'!I52*'Pesos elementos'!K52/('Pesos elementos'!$L22+'Pesos elementos'!$M22)</f>
+        <v>3.4478132206676414E-2</v>
+      </c>
+      <c r="R20" s="276">
+        <f>'Pesos elementos'!J52*'Pesos elementos'!L52/('Pesos elementos'!$L22+'Pesos elementos'!$M22)</f>
+        <v>3.7250052527257223E-2</v>
+      </c>
+      <c r="S20" s="26"/>
+      <c r="T20" s="14">
         <f>'Pesos elementos'!F22</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="T20" s="13">
-        <f t="shared" si="0"/>
+      <c r="U20" s="13">
+        <f t="shared" si="4"/>
         <v>16.100000000000001</v>
       </c>
-      <c r="V20" s="21">
-        <f>M20-H20</f>
-        <v>151.06598200000042</v>
-      </c>
-      <c r="W20" s="22">
-        <f>N20-H20</f>
-        <v>227.71598200000017</v>
-      </c>
-      <c r="Y20" s="14">
+      <c r="W20" s="21">
+        <f t="shared" si="5"/>
+        <v>131.51468200000033</v>
+      </c>
+      <c r="X20" s="22">
+        <f t="shared" si="6"/>
+        <v>208.16468200000008</v>
+      </c>
+      <c r="Z20" s="10">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="AA20" s="14">
         <f>'Pesos elementos'!U22</f>
         <v>468.55192</v>
       </c>
-      <c r="Z20" s="12">
-        <f t="shared" si="2"/>
-        <v>8023.3401799999992</v>
-      </c>
-      <c r="AA20" s="265">
+      <c r="AB20" s="12">
+        <f t="shared" si="8"/>
+        <v>8218.8531800000001</v>
+      </c>
+      <c r="AC20" s="239">
         <v>35</v>
       </c>
-      <c r="AB20" s="257">
-        <f>AA20*30*0.35*(I20*K20+J20*L20)</f>
+      <c r="AD20" s="231">
+        <f>AC20*30*0.35*(I20*K20+J20*L20)</f>
         <v>10413.112500000001</v>
       </c>
-      <c r="AC20" s="252">
-        <f>AB20-Z20</f>
-        <v>2389.7723200000019</v>
-      </c>
-      <c r="AD20" s="256">
-        <f>Z20/AB20</f>
-        <v>0.770503553092315</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE20" s="272">
+        <f>AB20/AD20</f>
+        <v>0.78927920734554624</v>
+      </c>
+      <c r="AG20" s="227">
+        <f>AD20-AB20</f>
+        <v>2194.259320000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" s="24"/>
       <c r="B21" s="25"/>
       <c r="C21" s="26"/>
       <c r="D21" s="24"/>
       <c r="F21" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="G21" s="29">
@@ -11209,8 +11381,8 @@
         <v>46.880104500000002</v>
       </c>
       <c r="H21" s="11">
-        <f t="shared" si="1"/>
-        <v>849.2141224999998</v>
+        <f t="shared" si="7"/>
+        <v>868.76542249999989</v>
       </c>
       <c r="I21" s="12">
         <v>54.480000000000011</v>
@@ -11225,69 +11397,77 @@
         <v>0.25</v>
       </c>
       <c r="M21" s="14">
-        <f>I21*K21*$D$6*100*100</f>
+        <f t="shared" si="0"/>
         <v>953.4000000000002</v>
       </c>
       <c r="N21" s="12">
-        <f>J21*L21*$D$6*100*100</f>
+        <f t="shared" si="1"/>
         <v>1030.05</v>
       </c>
       <c r="O21" s="15">
-        <f>H21/M21</f>
-        <v>0.89072175634570971</v>
+        <f t="shared" si="2"/>
+        <v>0.91122867893853543</v>
       </c>
       <c r="P21" s="16">
-        <f>H21/N21</f>
-        <v>0.8244397092374155</v>
-      </c>
-      <c r="Q21" s="17" t="str">
-        <f>IF(OR(M21&lt;H21,N21&lt;H21),"MALO","WENO")</f>
-        <v>WENO</v>
-      </c>
-      <c r="R21" s="26"/>
-      <c r="S21" s="14">
+        <f t="shared" si="3"/>
+        <v>0.84342063249356825</v>
+      </c>
+      <c r="Q21" s="274">
+        <f>'Pesos elementos'!I53*'Pesos elementos'!K53/('Pesos elementos'!$L23+'Pesos elementos'!$M23)</f>
+        <v>3.4478132206676414E-2</v>
+      </c>
+      <c r="R21" s="276">
+        <f>'Pesos elementos'!J53*'Pesos elementos'!L53/('Pesos elementos'!$L23+'Pesos elementos'!$M23)</f>
+        <v>3.7250052527257223E-2</v>
+      </c>
+      <c r="S21" s="26"/>
+      <c r="T21" s="14">
         <f>'Pesos elementos'!F23</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="T21" s="13">
-        <f t="shared" si="0"/>
+      <c r="U21" s="13">
+        <f t="shared" si="4"/>
         <v>13.8</v>
       </c>
-      <c r="V21" s="21">
-        <f>M21-H21</f>
-        <v>104.1858775000004</v>
-      </c>
-      <c r="W21" s="22">
-        <f>N21-H21</f>
-        <v>180.83587750000015</v>
-      </c>
-      <c r="Y21" s="14">
+      <c r="W21" s="21">
+        <f t="shared" si="5"/>
+        <v>84.634577500000319</v>
+      </c>
+      <c r="X21" s="22">
+        <f t="shared" si="6"/>
+        <v>161.28457750000007</v>
+      </c>
+      <c r="Z21" s="10">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="AA21" s="14">
         <f>'Pesos elementos'!U23</f>
         <v>468.80104499999999</v>
       </c>
-      <c r="Z21" s="12">
-        <f t="shared" si="2"/>
-        <v>8492.1412249999994</v>
-      </c>
-      <c r="AA21" s="265">
+      <c r="AB21" s="12">
+        <f t="shared" si="8"/>
+        <v>8687.6542250000002</v>
+      </c>
+      <c r="AC21" s="239">
         <v>35</v>
       </c>
-      <c r="AB21" s="257">
-        <f>AA21*30*0.35*(I21*K21+J21*L21)</f>
+      <c r="AD21" s="231">
+        <f>AC21*30*0.35*(I21*K21+J21*L21)</f>
         <v>10413.112500000001</v>
       </c>
-      <c r="AC21" s="252">
-        <f>AB21-Z21</f>
-        <v>1920.9712750000017</v>
-      </c>
-      <c r="AD21" s="256">
-        <f>Z21/AB21</f>
-        <v>0.81552381432544774</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE21" s="272">
+        <f>AB21/AD21</f>
+        <v>0.83429946857867898</v>
+      </c>
+      <c r="AG21" s="227">
+        <f>AD21-AB21</f>
+        <v>1725.4582750000009</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="F22" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="G22" s="29">
@@ -11295,8 +11475,8 @@
         <v>46.905017000000001</v>
       </c>
       <c r="H22" s="11">
-        <f t="shared" si="1"/>
-        <v>896.11913949999985</v>
+        <f t="shared" si="7"/>
+        <v>915.67043949999993</v>
       </c>
       <c r="I22" s="12">
         <v>54.480000000000011</v>
@@ -11311,69 +11491,77 @@
         <v>0.25</v>
       </c>
       <c r="M22" s="14">
-        <f>I22*K22*$D$6*100*100</f>
+        <f t="shared" si="0"/>
         <v>953.4000000000002</v>
       </c>
       <c r="N22" s="12">
-        <f>J22*L22*$D$6*100*100</f>
+        <f t="shared" si="1"/>
         <v>1030.05</v>
       </c>
       <c r="O22" s="15">
-        <f>H22/M22</f>
-        <v>0.93991938273547271</v>
+        <f t="shared" si="2"/>
+        <v>0.96042630532829842</v>
       </c>
       <c r="P22" s="16">
-        <f>H22/N22</f>
-        <v>0.86997635017717578</v>
-      </c>
-      <c r="Q22" s="17" t="str">
-        <f>IF(OR(M22&lt;H22,N22&lt;H22),"MALO","WENO")</f>
-        <v>WENO</v>
-      </c>
-      <c r="R22" s="26"/>
-      <c r="S22" s="14">
+        <f t="shared" si="3"/>
+        <v>0.88895727343332842</v>
+      </c>
+      <c r="Q22" s="274">
+        <f>'Pesos elementos'!I54*'Pesos elementos'!K54/('Pesos elementos'!$L24+'Pesos elementos'!$M24)</f>
+        <v>3.4478132206676414E-2</v>
+      </c>
+      <c r="R22" s="276">
+        <f>'Pesos elementos'!J54*'Pesos elementos'!L54/('Pesos elementos'!$L24+'Pesos elementos'!$M24)</f>
+        <v>3.7250052527257223E-2</v>
+      </c>
+      <c r="S22" s="26"/>
+      <c r="T22" s="14">
         <f>'Pesos elementos'!F24</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="T22" s="13">
-        <f t="shared" si="0"/>
+      <c r="U22" s="13">
+        <f t="shared" si="4"/>
         <v>11.5</v>
       </c>
-      <c r="V22" s="21">
-        <f>M22-H22</f>
-        <v>57.280860500000358</v>
-      </c>
-      <c r="W22" s="22">
-        <f>N22-H22</f>
-        <v>133.93086050000011</v>
-      </c>
-      <c r="Y22" s="14">
+      <c r="W22" s="21">
+        <f t="shared" si="5"/>
+        <v>37.729560500000275</v>
+      </c>
+      <c r="X22" s="22">
+        <f t="shared" si="6"/>
+        <v>114.37956050000003</v>
+      </c>
+      <c r="Z22" s="10">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="AA22" s="14">
         <f>'Pesos elementos'!U24</f>
         <v>469.05016999999998</v>
       </c>
-      <c r="Z22" s="12">
-        <f t="shared" si="2"/>
-        <v>8961.1913949999998</v>
-      </c>
-      <c r="AA22" s="265">
+      <c r="AB22" s="12">
+        <f t="shared" si="8"/>
+        <v>9156.7043950000007</v>
+      </c>
+      <c r="AC22" s="239">
         <v>35</v>
       </c>
-      <c r="AB22" s="257">
-        <f>AA22*30*0.35*(I22*K22+J22*L22)</f>
+      <c r="AD22" s="231">
+        <f>AC22*30*0.35*(I22*K22+J22*L22)</f>
         <v>10413.112500000001</v>
       </c>
-      <c r="AC22" s="252">
-        <f>AB22-Z22</f>
-        <v>1451.9211050000013</v>
-      </c>
-      <c r="AD22" s="256">
-        <f>Z22/AB22</f>
-        <v>0.86056799972150488</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE22" s="272">
+        <f>AB22/AD22</f>
+        <v>0.87934365397473613</v>
+      </c>
+      <c r="AG22" s="227">
+        <f>AD22-AB22</f>
+        <v>1256.4081050000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="F23" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="G23" s="29">
@@ -11381,8 +11569,8 @@
         <v>47.181497000000007</v>
       </c>
       <c r="H23" s="11">
-        <f t="shared" si="1"/>
-        <v>943.30063649999988</v>
+        <f t="shared" si="7"/>
+        <v>962.85193649999997</v>
       </c>
       <c r="I23" s="12">
         <v>54.480000000000011</v>
@@ -11397,70 +11585,78 @@
         <v>0.25</v>
       </c>
       <c r="M23" s="14">
-        <f>I23*K23*$D$6*100*100</f>
+        <f t="shared" si="0"/>
         <v>953.4000000000002</v>
       </c>
       <c r="N23" s="12">
-        <f>J23*L23*$D$6*100*100</f>
+        <f t="shared" si="1"/>
         <v>1030.05</v>
       </c>
       <c r="O23" s="15">
-        <f>H23/M23</f>
-        <v>0.98940700283196947</v>
+        <f t="shared" si="2"/>
+        <v>1.0099139254247953</v>
       </c>
       <c r="P23" s="16">
-        <f>H23/N23</f>
-        <v>0.91578140527158869</v>
-      </c>
-      <c r="Q23" s="17" t="str">
-        <f>IF(OR(M23&lt;H23,N23&lt;H23),"MALO","WENO")</f>
-        <v>WENO</v>
-      </c>
-      <c r="R23" s="26"/>
-      <c r="S23" s="14">
+        <f t="shared" si="3"/>
+        <v>0.93476232852774133</v>
+      </c>
+      <c r="Q23" s="274">
+        <f>'Pesos elementos'!I55*'Pesos elementos'!K55/('Pesos elementos'!$L25+'Pesos elementos'!$M25)</f>
+        <v>3.6908308926089733E-2</v>
+      </c>
+      <c r="R23" s="276">
+        <f>'Pesos elementos'!J55*'Pesos elementos'!L55/('Pesos elementos'!$L25+'Pesos elementos'!$M25)</f>
+        <v>3.7250052527257223E-2</v>
+      </c>
+      <c r="S23" s="26"/>
+      <c r="T23" s="14">
         <f>'Pesos elementos'!F25</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="T23" s="13">
-        <f t="shared" si="0"/>
+      <c r="U23" s="13">
+        <f t="shared" si="4"/>
         <v>9.1999999999999993</v>
       </c>
-      <c r="V23" s="21">
-        <f>M23-H23</f>
-        <v>10.099363500000322</v>
-      </c>
-      <c r="W23" s="22">
-        <f>N23-H23</f>
-        <v>86.749363500000072</v>
-      </c>
-      <c r="Y23" s="14">
+      <c r="W23" s="21">
+        <f t="shared" si="5"/>
+        <v>-9.4519364999997606</v>
+      </c>
+      <c r="X23" s="22">
+        <f t="shared" si="6"/>
+        <v>67.198063499999989</v>
+      </c>
+      <c r="Z23" s="10">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="AA23" s="14">
         <f>'Pesos elementos'!U25</f>
         <v>471.81497000000002</v>
       </c>
-      <c r="Z23" s="12">
-        <f t="shared" si="2"/>
-        <v>9433.0063649999993</v>
-      </c>
-      <c r="AA23" s="265">
+      <c r="AB23" s="12">
+        <f t="shared" si="8"/>
+        <v>9628.5193650000001</v>
+      </c>
+      <c r="AC23" s="239">
         <v>35</v>
       </c>
-      <c r="AB23" s="257">
-        <f>AA23*30*0.35*(I23*K23+J23*L23)</f>
+      <c r="AD23" s="231">
+        <f>AC23*30*0.35*(I23*K23+J23*L23)</f>
         <v>10413.112500000001</v>
       </c>
-      <c r="AC23" s="252">
-        <f>AB23-Z23</f>
-        <v>980.10613500000181</v>
-      </c>
-      <c r="AD23" s="256">
-        <f>Z23/AB23</f>
-        <v>0.90587769651004901</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE23" s="272">
+        <f>AB23/AD23</f>
+        <v>0.92465335076328037</v>
+      </c>
+      <c r="AG23" s="227">
+        <f>AD23-AB23</f>
+        <v>784.59313500000098</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="C24" s="4"/>
       <c r="F24" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="G24" s="29">
@@ -11468,8 +11664,8 @@
         <v>48.037664250000006</v>
       </c>
       <c r="H24" s="11">
-        <f t="shared" si="1"/>
-        <v>991.33830074999992</v>
+        <f t="shared" si="7"/>
+        <v>1010.88960075</v>
       </c>
       <c r="I24" s="12">
         <v>58.320000000000014</v>
@@ -11484,69 +11680,77 @@
         <v>0.25</v>
       </c>
       <c r="M24" s="14">
-        <f>I24*K24*$D$6*100*100</f>
+        <f t="shared" si="0"/>
         <v>1020.6000000000004</v>
       </c>
       <c r="N24" s="12">
-        <f>J24*L24*$D$6*100*100</f>
+        <f t="shared" si="1"/>
         <v>1030.05</v>
       </c>
       <c r="O24" s="15">
-        <f>H24/M24</f>
-        <v>0.97132892489711886</v>
+        <f t="shared" si="2"/>
+        <v>0.99048559744268039</v>
       </c>
       <c r="P24" s="16">
-        <f>H24/N24</f>
-        <v>0.96241765035677873</v>
-      </c>
-      <c r="Q24" s="17" t="str">
-        <f>IF(OR(M24&lt;H24,N24&lt;H24),"MALO","WENO")</f>
-        <v>WENO</v>
-      </c>
-      <c r="R24" s="26"/>
-      <c r="S24" s="14">
+        <f t="shared" si="3"/>
+        <v>0.98139857361293148</v>
+      </c>
+      <c r="Q24" s="274">
+        <f>'Pesos elementos'!I56*'Pesos elementos'!K56/('Pesos elementos'!$L26+'Pesos elementos'!$M26)</f>
+        <v>4.1280080450360308E-2</v>
+      </c>
+      <c r="R24" s="276">
+        <f>'Pesos elementos'!J56*'Pesos elementos'!L56/('Pesos elementos'!$L26+'Pesos elementos'!$M26)</f>
+        <v>3.8264455292441095E-2</v>
+      </c>
+      <c r="S24" s="26"/>
+      <c r="T24" s="14">
         <f>'Pesos elementos'!F26</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="T24" s="13">
-        <f t="shared" si="0"/>
+      <c r="U24" s="13">
+        <f t="shared" si="4"/>
         <v>6.8999999999999995</v>
       </c>
-      <c r="V24" s="21">
-        <f>M24-H24</f>
-        <v>29.261699250000447</v>
-      </c>
-      <c r="W24" s="22">
-        <f>N24-H24</f>
-        <v>38.711699250000038</v>
-      </c>
-      <c r="Y24" s="14">
+      <c r="W24" s="21">
+        <f t="shared" si="5"/>
+        <v>9.7103992500003642</v>
+      </c>
+      <c r="X24" s="22">
+        <f t="shared" si="6"/>
+        <v>19.160399249999955</v>
+      </c>
+      <c r="Z24" s="10">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="AA24" s="14">
         <f>'Pesos elementos'!U26</f>
         <v>480.3766425</v>
       </c>
-      <c r="Z24" s="12">
-        <f t="shared" si="2"/>
-        <v>9913.3830074999987</v>
-      </c>
-      <c r="AA24" s="265">
+      <c r="AB24" s="12">
+        <f t="shared" si="8"/>
+        <v>10108.8960075</v>
+      </c>
+      <c r="AC24" s="239">
         <v>35</v>
       </c>
-      <c r="AB24" s="257">
-        <f>AA24*30*0.35*(I24*K24+J24*L24)</f>
+      <c r="AD24" s="231">
+        <f>AC24*30*0.35*(I24*K24+J24*L24)</f>
         <v>10765.9125</v>
       </c>
-      <c r="AC24" s="252">
-        <f>AB24-Z24</f>
-        <v>852.52949250000165</v>
-      </c>
-      <c r="AD24" s="256">
-        <f>Z24/AB24</f>
-        <v>0.92081214736790762</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE24" s="272">
+        <f>AB24/AD24</f>
+        <v>0.93897252160464795</v>
+      </c>
+      <c r="AG24" s="227">
+        <f>AD24-AB24</f>
+        <v>657.01649250000082</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="F25" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G25" s="29">
@@ -11554,8 +11758,8 @@
         <v>47.535311125</v>
       </c>
       <c r="H25" s="11">
-        <f t="shared" si="1"/>
-        <v>1038.8736118749998</v>
+        <f t="shared" si="7"/>
+        <v>1058.4249118749999</v>
       </c>
       <c r="I25" s="12">
         <v>65.349999999999994</v>
@@ -11570,67 +11774,75 @@
         <v>0.3</v>
       </c>
       <c r="M25" s="14">
-        <f>I25*K25*$D$6*100*100</f>
+        <f t="shared" si="0"/>
         <v>1143.625</v>
       </c>
       <c r="N25" s="12">
-        <f>J25*L25*$D$6*100*100</f>
+        <f t="shared" si="1"/>
         <v>1060.0799999999997</v>
       </c>
       <c r="O25" s="15">
-        <f>H25/M25</f>
-        <v>0.90840407640179244</v>
+        <f t="shared" si="2"/>
+        <v>0.92549997759317948</v>
       </c>
       <c r="P25" s="16">
-        <f>H25/N25</f>
-        <v>0.97999548324183094</v>
-      </c>
-      <c r="Q25" s="17" t="str">
-        <f>IF(OR(M25&lt;H25,N25&lt;H25),"MALO","WENO")</f>
-        <v>WENO</v>
-      </c>
-      <c r="R25" s="26"/>
-      <c r="S25" s="14">
+        <f t="shared" si="3"/>
+        <v>0.99843871394140082</v>
+      </c>
+      <c r="Q25" s="274">
+        <f>'Pesos elementos'!I57*'Pesos elementos'!K57/('Pesos elementos'!$L27+'Pesos elementos'!$M27)</f>
+        <v>4.3016939379801215E-2</v>
+      </c>
+      <c r="R25" s="276">
+        <f>'Pesos elementos'!J57*'Pesos elementos'!L57/('Pesos elementos'!$L27+'Pesos elementos'!$M27)</f>
+        <v>4.0555667226661408E-2</v>
+      </c>
+      <c r="S25" s="26"/>
+      <c r="T25" s="14">
         <f>'Pesos elementos'!F27</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="T25" s="13">
-        <f>S25+T26</f>
+      <c r="U25" s="13">
+        <f>T25+U26</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="V25" s="21">
-        <f>M25-H25</f>
-        <v>104.75138812500018</v>
-      </c>
-      <c r="W25" s="22">
-        <f>N25-H25</f>
-        <v>21.206388124999876</v>
-      </c>
-      <c r="Y25" s="14">
+      <c r="W25" s="21">
+        <f t="shared" si="5"/>
+        <v>85.200088125000093</v>
+      </c>
+      <c r="X25" s="22">
+        <f t="shared" si="6"/>
+        <v>1.6550881249997929</v>
+      </c>
+      <c r="Z25" s="10">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AA25" s="14">
         <f>'Pesos elementos'!U27</f>
         <v>475.35311124999998</v>
       </c>
-      <c r="Z25" s="12">
-        <f t="shared" si="2"/>
-        <v>10388.736118749999</v>
-      </c>
-      <c r="AA25" s="265">
+      <c r="AB25" s="12">
+        <f t="shared" si="8"/>
+        <v>10584.24911875</v>
+      </c>
+      <c r="AC25" s="239">
         <v>35</v>
       </c>
-      <c r="AB25" s="257">
-        <f>AA25*30*0.35*(I25*K25+J25*L25)</f>
+      <c r="AD25" s="231">
+        <f>AC25*30*0.35*(I25*K25+J25*L25)</f>
         <v>11569.451249999998</v>
       </c>
-      <c r="AC25" s="252">
-        <f>AB25-Z25</f>
-        <v>1180.7151312499991</v>
-      </c>
-      <c r="AD25" s="256">
-        <f>Z25/AB25</f>
-        <v>0.89794545084841437</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AE25" s="272">
+        <f>AB25/AD25</f>
+        <v>0.91484452374091652</v>
+      </c>
+      <c r="AG25" s="227">
+        <f>AD25-AB25</f>
+        <v>985.20213124999827</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F26" s="33">
         <v>-1</v>
       </c>
@@ -11639,8 +11851,8 @@
         <v>67.050944750000014</v>
       </c>
       <c r="H26" s="35">
-        <f t="shared" si="1"/>
-        <v>1105.9245566249999</v>
+        <f t="shared" si="7"/>
+        <v>1125.475856625</v>
       </c>
       <c r="I26" s="36">
         <v>69.97999999999999</v>
@@ -11655,83 +11867,90 @@
         <v>0.3</v>
       </c>
       <c r="M26" s="40">
-        <f>I26*K26*$D$6*100*100</f>
+        <f t="shared" si="0"/>
         <v>1224.6499999999999</v>
       </c>
       <c r="N26" s="36">
-        <f>J26*L26*$D$6*100*100</f>
+        <f t="shared" si="1"/>
         <v>1154.58</v>
       </c>
       <c r="O26" s="41">
-        <f>H26/M26</f>
-        <v>0.9030535717347814</v>
+        <f t="shared" si="2"/>
+        <v>0.91901837800596098</v>
       </c>
       <c r="P26" s="42">
-        <f>H26/N26</f>
-        <v>0.95785875090942163</v>
-      </c>
-      <c r="Q26" s="17" t="str">
-        <f>IF(OR(M26&lt;H26,N26&lt;H26),"MALO","WENO")</f>
-        <v>WENO</v>
-      </c>
-      <c r="R26" s="26"/>
-      <c r="S26" s="40">
+        <f t="shared" si="3"/>
+        <v>0.97479244108247165</v>
+      </c>
+      <c r="Q26" s="275">
+        <f>'Pesos elementos'!I58*'Pesos elementos'!K58/('Pesos elementos'!$L28+'Pesos elementos'!$M28)</f>
+        <v>2.8790286765056721E-2</v>
+      </c>
+      <c r="R26" s="277">
+        <f>'Pesos elementos'!J58*'Pesos elementos'!L58/('Pesos elementos'!$L28+'Pesos elementos'!$M28)</f>
+        <v>2.7100454023262721E-2</v>
+      </c>
+      <c r="S26" s="26"/>
+      <c r="T26" s="40">
         <f>'Pesos elementos'!F28</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="T26" s="37">
-        <f>S26</f>
+      <c r="U26" s="37">
+        <f>T26</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="V26" s="44">
-        <f>M26-H26</f>
-        <v>118.72544337499994</v>
-      </c>
-      <c r="W26" s="45">
-        <f>N26-H26</f>
-        <v>48.655443375000004</v>
-      </c>
-      <c r="Y26" s="40">
+      <c r="W26" s="44">
+        <f t="shared" si="5"/>
+        <v>99.174143374999858</v>
+      </c>
+      <c r="X26" s="45">
+        <f t="shared" si="6"/>
+        <v>29.104143374999921</v>
+      </c>
+      <c r="Z26" s="33">
+        <v>-1</v>
+      </c>
+      <c r="AA26" s="40">
         <f>'Pesos elementos'!U28</f>
         <v>670.50944750000008</v>
       </c>
-      <c r="Z26" s="36">
-        <f t="shared" si="2"/>
-        <v>11059.24556625</v>
-      </c>
-      <c r="AA26" s="266">
+      <c r="AB26" s="36">
+        <f t="shared" si="8"/>
+        <v>11254.758566250001</v>
+      </c>
+      <c r="AC26" s="240">
         <v>35</v>
       </c>
-      <c r="AB26" s="258">
-        <f>AA26*30*0.35*(I26*K26+J26*L26)</f>
+      <c r="AD26" s="232">
+        <f>AC26*30*0.35*(I26*K26+J26*L26)</f>
         <v>12490.957499999999</v>
       </c>
-      <c r="AC26" s="252">
-        <f>AB26-Z26</f>
-        <v>1431.7119337499989</v>
-      </c>
-      <c r="AD26" s="256">
-        <f>Z26/AB26</f>
-        <v>0.88538012928552523</v>
+      <c r="AE26" s="273">
+        <f>AB26/AD26</f>
+        <v>0.90103249220486115</v>
+      </c>
+      <c r="AG26" s="227">
+        <f>AD26-AB26</f>
+        <v>1236.1989337499981</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="V4:W26">
+  <conditionalFormatting sqref="W4:X26">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC4:AC26">
+  <conditionalFormatting sqref="AG4:AG26">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V3:W3">
+  <conditionalFormatting sqref="W3:X3">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC3">
+  <conditionalFormatting sqref="AG3">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -11772,125 +11991,125 @@
   <sheetData>
     <row r="1" spans="1:27" s="141" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="142" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="244" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="245"/>
-      <c r="E1" s="245"/>
-      <c r="F1" s="246" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="264" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="265"/>
+      <c r="E1" s="265"/>
+      <c r="F1" s="266" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="267"/>
+      <c r="H1" s="267"/>
+      <c r="I1" s="264" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="265"/>
+      <c r="K1" s="265"/>
+      <c r="L1" s="265"/>
+      <c r="M1" s="265"/>
+      <c r="N1" s="265"/>
+      <c r="O1" s="265"/>
+      <c r="P1" s="265"/>
+      <c r="Q1" s="265"/>
+      <c r="S1" s="266" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="247"/>
-      <c r="H1" s="247"/>
-      <c r="I1" s="244" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="245"/>
-      <c r="K1" s="245"/>
-      <c r="L1" s="245"/>
-      <c r="M1" s="245"/>
-      <c r="N1" s="245"/>
-      <c r="O1" s="245"/>
-      <c r="P1" s="245"/>
-      <c r="Q1" s="245"/>
-      <c r="S1" s="246" t="s">
-        <v>57</v>
-      </c>
-      <c r="T1" s="247"/>
-      <c r="U1" s="247"/>
-      <c r="V1" s="247"/>
-      <c r="W1" s="247"/>
-      <c r="X1" s="247"/>
-      <c r="Y1" s="247"/>
-      <c r="Z1" s="247"/>
+      <c r="T1" s="267"/>
+      <c r="U1" s="267"/>
+      <c r="V1" s="267"/>
+      <c r="W1" s="267"/>
+      <c r="X1" s="267"/>
+      <c r="Y1" s="267"/>
+      <c r="Z1" s="267"/>
       <c r="AA1" s="146"/>
     </row>
     <row r="2" spans="1:27" s="132" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="132" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="164" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="165" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="132" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="132" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="132" t="s">
+      <c r="F2" s="140" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="145" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="145" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="165" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="140" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="145" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" s="145" t="s">
-        <v>78</v>
-      </c>
-      <c r="I2" s="165" t="s">
+      <c r="J2" s="132" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="132" t="s">
+      <c r="K2" s="132" t="s">
         <v>80</v>
       </c>
-      <c r="K2" s="132" t="s">
+      <c r="L2" s="166" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="166" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" s="166" t="s">
+        <v>84</v>
+      </c>
+      <c r="O2" s="166" t="s">
+        <v>87</v>
+      </c>
+      <c r="P2" s="166" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q2" s="166" t="s">
+        <v>86</v>
+      </c>
+      <c r="R2" s="166" t="s">
+        <v>89</v>
+      </c>
+      <c r="S2" s="140" t="s">
         <v>81</v>
       </c>
-      <c r="L2" s="166" t="s">
+      <c r="T2" s="145" t="s">
+        <v>88</v>
+      </c>
+      <c r="U2" s="145" t="s">
         <v>83</v>
       </c>
-      <c r="M2" s="166" t="s">
+      <c r="V2" s="145" t="s">
         <v>84</v>
       </c>
-      <c r="N2" s="166" t="s">
-        <v>85</v>
-      </c>
-      <c r="O2" s="166" t="s">
-        <v>88</v>
-      </c>
-      <c r="P2" s="166" t="s">
+      <c r="W2" s="145" t="s">
+        <v>87</v>
+      </c>
+      <c r="X2" s="145" t="s">
         <v>86</v>
       </c>
-      <c r="Q2" s="166" t="s">
-        <v>87</v>
-      </c>
-      <c r="R2" s="166" t="s">
+      <c r="Y2" s="145" t="s">
         <v>90</v>
       </c>
-      <c r="S2" s="140" t="s">
+      <c r="Z2" s="145" t="s">
         <v>82</v>
-      </c>
-      <c r="T2" s="145" t="s">
-        <v>89</v>
-      </c>
-      <c r="U2" s="145" t="s">
-        <v>84</v>
-      </c>
-      <c r="V2" s="145" t="s">
-        <v>85</v>
-      </c>
-      <c r="W2" s="145" t="s">
-        <v>88</v>
-      </c>
-      <c r="X2" s="145" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y2" s="145" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z2" s="145" t="s">
-        <v>83</v>
       </c>
       <c r="AA2" s="165"/>
     </row>
     <row r="3" spans="1:27" s="132" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="132" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" s="164">
         <v>1</v>
@@ -11971,7 +12190,7 @@
     </row>
     <row r="4" spans="1:27" s="132" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="132" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" s="164">
         <v>0.16</v>
@@ -12052,7 +12271,7 @@
     </row>
     <row r="5" spans="1:27" s="141" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="141" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="163">
         <f>SUM(B12:B76)</f>
@@ -12158,7 +12377,7 @@
     </row>
     <row r="6" spans="1:27" s="132" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="132" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="162">
         <v>0.2</v>
@@ -12239,7 +12458,7 @@
     </row>
     <row r="7" spans="1:27" s="132" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="132" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" s="162">
         <v>0.9</v>
@@ -12320,7 +12539,7 @@
     </row>
     <row r="8" spans="1:27" s="132" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="132" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" s="162">
         <f>B5*B6</f>
@@ -12426,7 +12645,7 @@
     </row>
     <row r="9" spans="1:27" s="132" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="132" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" s="162">
         <f>2*B7*B5</f>
@@ -12532,7 +12751,7 @@
     </row>
     <row r="10" spans="1:27" s="132" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="132" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10" s="162">
         <f>B3*(B9+B5*B6-B4*B5)</f>
@@ -12638,7 +12857,7 @@
     </row>
     <row r="11" spans="1:27" s="141" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="141" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B11" s="163">
         <f t="shared" ref="B11:Z11" si="6">B5*B6*B7</f>
@@ -18390,34 +18609,34 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="248" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="249"/>
-      <c r="D3" s="250" t="s">
+      <c r="B3" s="268" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="269"/>
+      <c r="D3" s="270" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="271"/>
+      <c r="F3" s="269" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="251"/>
-      <c r="F3" s="249" t="s">
+      <c r="G3" s="269"/>
+      <c r="H3" s="270" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="271"/>
+      <c r="J3" s="269" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="249"/>
-      <c r="H3" s="250" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="251"/>
-      <c r="J3" s="249" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" s="249"/>
-      <c r="L3" s="250" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="251"/>
+      <c r="K3" s="269"/>
+      <c r="L3" s="270" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="271"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="76">
         <f t="shared" ref="B4:M4" si="0">SUM(B5:B54)</f>
@@ -18470,40 +18689,40 @@
     </row>
     <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="79" t="s">
-        <v>54</v>
-      </c>
       <c r="D5" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="43" t="s">
-        <v>54</v>
-      </c>
       <c r="F5" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="79" t="s">
-        <v>54</v>
-      </c>
       <c r="H5" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="43" t="s">
-        <v>54</v>
-      </c>
       <c r="J5" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="79" t="s">
-        <v>54</v>
-      </c>
       <c r="L5" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="43" t="s">
         <v>53</v>
-      </c>
-      <c r="M5" s="43" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -28030,38 +28249,38 @@
     <row r="1" spans="1:13" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" s="75" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="75" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="248" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="249"/>
-      <c r="D3" s="250" t="s">
+      <c r="B3" s="268" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="269"/>
+      <c r="D3" s="270" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="271"/>
+      <c r="F3" s="269" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="251"/>
-      <c r="F3" s="249" t="s">
+      <c r="G3" s="269"/>
+      <c r="H3" s="270" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="271"/>
+      <c r="J3" s="269" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="249"/>
-      <c r="H3" s="250" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="251"/>
-      <c r="J3" s="249" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" s="249"/>
-      <c r="L3" s="250" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="251"/>
+      <c r="K3" s="269"/>
+      <c r="L3" s="270" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="271"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="76">
         <f t="shared" ref="B4:M4" si="0">SUM(B5:B54)</f>
@@ -28114,40 +28333,40 @@
     </row>
     <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="79" t="s">
-        <v>54</v>
-      </c>
       <c r="D5" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="43" t="s">
-        <v>54</v>
-      </c>
       <c r="F5" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="79" t="s">
-        <v>54</v>
-      </c>
       <c r="H5" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="43" t="s">
-        <v>54</v>
-      </c>
       <c r="J5" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="79" t="s">
-        <v>54</v>
-      </c>
       <c r="L5" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="43" t="s">
         <v>53</v>
-      </c>
-      <c r="M5" s="43" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">

--- a/Tarea 03/Cubicaciones.xlsx
+++ b/Tarea 03/Cubicaciones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F07FE8AC-8B00-4CBB-AA5B-6745923D021F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F871B29B-DB00-4E5F-9CD3-7EF98A3BAD14}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3769,19 +3769,19 @@
       </c>
       <c r="K13" s="139">
         <f>'Pesos elementos'!U14</f>
-        <v>452.25916999999998</v>
+        <v>452.50829500000003</v>
       </c>
       <c r="L13" s="208">
         <f t="shared" si="3"/>
-        <v>46.148894897959181</v>
+        <v>46.174315816326533</v>
       </c>
       <c r="M13" s="139">
         <f t="shared" si="2"/>
-        <v>4420.0580746147389</v>
+        <v>4422.4928444124162</v>
       </c>
       <c r="N13" s="216">
         <f>'Pesos elementos'!V14</f>
-        <v>1.1025252618825314</v>
+        <v>1.1031325831356671</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
@@ -3816,23 +3816,23 @@
       </c>
       <c r="J14" s="139">
         <f>'Pesos elementos'!W44</f>
-        <v>165.20409999999998</v>
+        <v>165.70235</v>
       </c>
       <c r="K14" s="139">
         <f>'Pesos elementos'!U15</f>
-        <v>468.55192</v>
+        <v>469.05016999999998</v>
       </c>
       <c r="L14" s="208">
         <f t="shared" si="3"/>
-        <v>47.811420408163258</v>
+        <v>47.862262244897956</v>
       </c>
       <c r="M14" s="139">
         <f t="shared" si="2"/>
-        <v>4579.2917750506613</v>
+        <v>4584.1613146460149</v>
       </c>
       <c r="N14" s="216">
         <f>'Pesos elementos'!V15</f>
-        <v>1.1422440108921681</v>
+        <v>1.1434586533984394</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
@@ -3867,23 +3867,23 @@
       </c>
       <c r="J15" s="139">
         <f>'Pesos elementos'!W45</f>
-        <v>165.20409999999998</v>
+        <v>165.70235</v>
       </c>
       <c r="K15" s="139">
         <f>'Pesos elementos'!U16</f>
-        <v>468.55192</v>
+        <v>469.05016999999998</v>
       </c>
       <c r="L15" s="208">
         <f t="shared" si="3"/>
-        <v>47.811420408163258</v>
+        <v>47.862262244897956</v>
       </c>
       <c r="M15" s="139">
         <f t="shared" si="2"/>
-        <v>4579.2917750506613</v>
+        <v>4584.1613146460149</v>
       </c>
       <c r="N15" s="216">
         <f>'Pesos elementos'!V16</f>
-        <v>1.1422440108921681</v>
+        <v>1.1434586533984394</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
@@ -3918,23 +3918,23 @@
       </c>
       <c r="J16" s="139">
         <f>'Pesos elementos'!W46</f>
-        <v>165.20409999999998</v>
+        <v>165.70235</v>
       </c>
       <c r="K16" s="139">
         <f>'Pesos elementos'!U17</f>
-        <v>468.55192</v>
+        <v>469.05016999999998</v>
       </c>
       <c r="L16" s="208">
         <f t="shared" si="3"/>
-        <v>47.811420408163258</v>
+        <v>47.862262244897956</v>
       </c>
       <c r="M16" s="139">
         <f t="shared" si="2"/>
-        <v>4579.2917750506613</v>
+        <v>4584.1613146460149</v>
       </c>
       <c r="N16" s="216">
         <f>'Pesos elementos'!V17</f>
-        <v>1.1422440108921681</v>
+        <v>1.1434586533984394</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
@@ -3969,23 +3969,23 @@
       </c>
       <c r="J17" s="139">
         <f>'Pesos elementos'!W47</f>
-        <v>165.20409999999998</v>
+        <v>165.70235</v>
       </c>
       <c r="K17" s="139">
         <f>'Pesos elementos'!U18</f>
-        <v>468.55192</v>
+        <v>469.05016999999998</v>
       </c>
       <c r="L17" s="208">
         <f t="shared" si="3"/>
-        <v>47.811420408163258</v>
+        <v>47.862262244897956</v>
       </c>
       <c r="M17" s="139">
         <f t="shared" si="2"/>
-        <v>4579.2917750506613</v>
+        <v>4584.1613146460149</v>
       </c>
       <c r="N17" s="216">
         <f>'Pesos elementos'!V18</f>
-        <v>1.1422440108921681</v>
+        <v>1.1434586533984394</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
@@ -4020,23 +4020,23 @@
       </c>
       <c r="J18" s="139">
         <f>'Pesos elementos'!W48</f>
-        <v>165.20409999999998</v>
+        <v>165.70235</v>
       </c>
       <c r="K18" s="139">
         <f>'Pesos elementos'!U19</f>
-        <v>468.55192</v>
+        <v>469.05016999999998</v>
       </c>
       <c r="L18" s="208">
         <f t="shared" si="3"/>
-        <v>47.811420408163258</v>
+        <v>47.862262244897956</v>
       </c>
       <c r="M18" s="139">
         <f t="shared" si="2"/>
-        <v>4579.2917750506613</v>
+        <v>4584.1613146460149</v>
       </c>
       <c r="N18" s="216">
         <f>'Pesos elementos'!V19</f>
-        <v>1.1422440108921681</v>
+        <v>1.1434586533984394</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
@@ -4071,23 +4071,23 @@
       </c>
       <c r="J19" s="139">
         <f>'Pesos elementos'!W49</f>
-        <v>165.20409999999998</v>
+        <v>165.70235</v>
       </c>
       <c r="K19" s="139">
         <f>'Pesos elementos'!U20</f>
-        <v>468.55192</v>
+        <v>469.05016999999998</v>
       </c>
       <c r="L19" s="208">
         <f t="shared" si="3"/>
-        <v>47.811420408163258</v>
+        <v>47.862262244897956</v>
       </c>
       <c r="M19" s="139">
         <f t="shared" si="2"/>
-        <v>4579.2917750506613</v>
+        <v>4584.1613146460149</v>
       </c>
       <c r="N19" s="216">
         <f>'Pesos elementos'!V20</f>
-        <v>1.1422440108921681</v>
+        <v>1.1434586533984394</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
@@ -4122,23 +4122,23 @@
       </c>
       <c r="J20" s="139">
         <f>'Pesos elementos'!W50</f>
-        <v>165.20409999999998</v>
+        <v>165.70235</v>
       </c>
       <c r="K20" s="139">
         <f>'Pesos elementos'!U21</f>
-        <v>468.55192</v>
+        <v>469.05016999999998</v>
       </c>
       <c r="L20" s="208">
         <f t="shared" si="3"/>
-        <v>47.811420408163258</v>
+        <v>47.862262244897956</v>
       </c>
       <c r="M20" s="139">
         <f t="shared" si="2"/>
-        <v>4579.2917750506613</v>
+        <v>4584.1613146460149</v>
       </c>
       <c r="N20" s="216">
         <f>'Pesos elementos'!V21</f>
-        <v>1.1422440108921681</v>
+        <v>1.1434586533984394</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
@@ -4173,23 +4173,23 @@
       </c>
       <c r="J21" s="139">
         <f>'Pesos elementos'!W51</f>
-        <v>165.20409999999998</v>
+        <v>165.70235</v>
       </c>
       <c r="K21" s="139">
         <f>'Pesos elementos'!U22</f>
-        <v>468.55192</v>
+        <v>469.05016999999998</v>
       </c>
       <c r="L21" s="208">
         <f t="shared" si="3"/>
-        <v>47.811420408163258</v>
+        <v>47.862262244897956</v>
       </c>
       <c r="M21" s="139">
         <f t="shared" si="2"/>
-        <v>4579.2917750506613</v>
+        <v>4584.1613146460149</v>
       </c>
       <c r="N21" s="216">
         <f>'Pesos elementos'!V22</f>
-        <v>1.1422440108921681</v>
+        <v>1.1434586533984394</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
@@ -4224,23 +4224,23 @@
       </c>
       <c r="J22" s="139">
         <f>'Pesos elementos'!W52</f>
-        <v>165.20409999999998</v>
+        <v>165.70235</v>
       </c>
       <c r="K22" s="139">
         <f>'Pesos elementos'!U23</f>
-        <v>468.80104499999999</v>
+        <v>469.05016999999998</v>
       </c>
       <c r="L22" s="208">
         <f t="shared" si="3"/>
-        <v>47.83684132653061</v>
+        <v>47.862262244897956</v>
       </c>
       <c r="M22" s="139">
         <f t="shared" si="2"/>
-        <v>4581.7265448483386</v>
+        <v>4584.1613146460149</v>
       </c>
       <c r="N22" s="216">
         <f>'Pesos elementos'!V23</f>
-        <v>1.1428513321453038</v>
+        <v>1.1434586533984394</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
@@ -4510,8 +4510,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="B2:AA88"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView showGridLines="0" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5533,7 +5533,7 @@
       </c>
       <c r="S14" s="118">
         <f t="shared" si="8"/>
-        <v>148.91135</v>
+        <v>149.16047500000002</v>
       </c>
       <c r="T14" s="118">
         <f t="shared" si="19"/>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="U14" s="184">
         <f t="shared" si="20"/>
-        <v>452.25916999999998</v>
+        <v>452.50829500000003</v>
       </c>
       <c r="V14" s="184">
         <f t="shared" si="21"/>
-        <v>1.1025252618825314</v>
+        <v>1.1031325831356671</v>
       </c>
       <c r="X14" s="245">
         <f t="shared" si="12"/>
-        <v>55.242845000000003</v>
+        <v>55.741095000000001</v>
       </c>
       <c r="Y14" s="216">
         <v>0</v>
       </c>
       <c r="Z14" s="245">
         <f t="shared" si="13"/>
-        <v>0.13984362065953987</v>
+        <v>0.14110490769125619</v>
       </c>
       <c r="AA14" s="68">
         <v>0</v>
@@ -5613,7 +5613,7 @@
       </c>
       <c r="S15" s="118">
         <f t="shared" si="8"/>
-        <v>165.20409999999998</v>
+        <v>165.70235</v>
       </c>
       <c r="T15" s="118">
         <f t="shared" si="19"/>
@@ -5621,22 +5621,22 @@
       </c>
       <c r="U15" s="184">
         <f t="shared" si="20"/>
-        <v>468.55192</v>
+        <v>469.05016999999998</v>
       </c>
       <c r="V15" s="184">
         <f t="shared" si="21"/>
-        <v>1.1422440108921681</v>
+        <v>1.1434586533984394</v>
       </c>
       <c r="X15" s="245">
         <f t="shared" si="12"/>
-        <v>55.242845000000003</v>
+        <v>55.741095000000001</v>
       </c>
       <c r="Y15" s="216">
         <v>0</v>
       </c>
       <c r="Z15" s="245">
         <f t="shared" si="13"/>
-        <v>0.13984362065953987</v>
+        <v>0.14110490769125619</v>
       </c>
       <c r="AA15" s="68">
         <v>0</v>
@@ -5696,7 +5696,7 @@
       </c>
       <c r="S16" s="118">
         <f t="shared" si="8"/>
-        <v>165.20409999999998</v>
+        <v>165.70235</v>
       </c>
       <c r="T16" s="118">
         <f t="shared" si="19"/>
@@ -5704,22 +5704,22 @@
       </c>
       <c r="U16" s="184">
         <f t="shared" si="20"/>
-        <v>468.55192</v>
+        <v>469.05016999999998</v>
       </c>
       <c r="V16" s="184">
         <f t="shared" si="21"/>
-        <v>1.1422440108921681</v>
+        <v>1.1434586533984394</v>
       </c>
       <c r="X16" s="245">
         <f t="shared" si="12"/>
-        <v>55.242845000000003</v>
+        <v>55.741095000000001</v>
       </c>
       <c r="Y16" s="216">
         <v>0</v>
       </c>
       <c r="Z16" s="245">
         <f t="shared" si="13"/>
-        <v>0.13984362065953987</v>
+        <v>0.14110490769125619</v>
       </c>
       <c r="AA16" s="68">
         <v>0</v>
@@ -5782,7 +5782,7 @@
       </c>
       <c r="S17" s="118">
         <f t="shared" si="8"/>
-        <v>165.20409999999998</v>
+        <v>165.70235</v>
       </c>
       <c r="T17" s="118">
         <f t="shared" si="19"/>
@@ -5790,22 +5790,22 @@
       </c>
       <c r="U17" s="184">
         <f t="shared" si="20"/>
-        <v>468.55192</v>
+        <v>469.05016999999998</v>
       </c>
       <c r="V17" s="184">
         <f t="shared" si="21"/>
-        <v>1.1422440108921681</v>
+        <v>1.1434586533984394</v>
       </c>
       <c r="X17" s="245">
         <f t="shared" si="12"/>
-        <v>55.242845000000003</v>
+        <v>55.741095000000001</v>
       </c>
       <c r="Y17" s="216">
         <v>0</v>
       </c>
       <c r="Z17" s="245">
         <f t="shared" si="13"/>
-        <v>0.13984362065953987</v>
+        <v>0.14110490769125619</v>
       </c>
       <c r="AA17" s="68">
         <v>0</v>
@@ -5869,7 +5869,7 @@
       </c>
       <c r="S18" s="118">
         <f t="shared" si="8"/>
-        <v>165.20409999999998</v>
+        <v>165.70235</v>
       </c>
       <c r="T18" s="118">
         <f t="shared" si="19"/>
@@ -5877,22 +5877,22 @@
       </c>
       <c r="U18" s="184">
         <f t="shared" si="20"/>
-        <v>468.55192</v>
+        <v>469.05016999999998</v>
       </c>
       <c r="V18" s="184">
         <f t="shared" si="21"/>
-        <v>1.1422440108921681</v>
+        <v>1.1434586533984394</v>
       </c>
       <c r="X18" s="245">
         <f t="shared" si="12"/>
-        <v>55.242845000000003</v>
+        <v>55.741095000000001</v>
       </c>
       <c r="Y18" s="216">
         <v>0</v>
       </c>
       <c r="Z18" s="245">
         <f t="shared" si="13"/>
-        <v>0.13984362065953987</v>
+        <v>0.14110490769125619</v>
       </c>
       <c r="AA18" s="68">
         <v>0</v>
@@ -5955,7 +5955,7 @@
       </c>
       <c r="S19" s="118">
         <f t="shared" si="8"/>
-        <v>165.20409999999998</v>
+        <v>165.70235</v>
       </c>
       <c r="T19" s="118">
         <f t="shared" si="19"/>
@@ -5963,22 +5963,22 @@
       </c>
       <c r="U19" s="184">
         <f t="shared" si="20"/>
-        <v>468.55192</v>
+        <v>469.05016999999998</v>
       </c>
       <c r="V19" s="184">
         <f t="shared" si="21"/>
-        <v>1.1422440108921681</v>
+        <v>1.1434586533984394</v>
       </c>
       <c r="X19" s="245">
         <f t="shared" si="12"/>
-        <v>55.242845000000003</v>
+        <v>55.741095000000001</v>
       </c>
       <c r="Y19" s="216">
         <v>0</v>
       </c>
       <c r="Z19" s="245">
         <f t="shared" si="13"/>
-        <v>0.13984362065953987</v>
+        <v>0.14110490769125619</v>
       </c>
       <c r="AA19" s="68">
         <v>0</v>
@@ -6041,7 +6041,7 @@
       </c>
       <c r="S20" s="118">
         <f t="shared" si="8"/>
-        <v>165.20409999999998</v>
+        <v>165.70235</v>
       </c>
       <c r="T20" s="118">
         <f t="shared" si="19"/>
@@ -6049,22 +6049,22 @@
       </c>
       <c r="U20" s="184">
         <f t="shared" si="20"/>
-        <v>468.55192</v>
+        <v>469.05016999999998</v>
       </c>
       <c r="V20" s="184">
         <f t="shared" si="21"/>
-        <v>1.1422440108921681</v>
+        <v>1.1434586533984394</v>
       </c>
       <c r="X20" s="245">
         <f t="shared" si="12"/>
-        <v>55.242845000000003</v>
+        <v>55.741095000000001</v>
       </c>
       <c r="Y20" s="216">
         <v>0</v>
       </c>
       <c r="Z20" s="245">
         <f t="shared" si="13"/>
-        <v>0.13984362065953987</v>
+        <v>0.14110490769125619</v>
       </c>
       <c r="AA20" s="68">
         <v>0</v>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="S21" s="118">
         <f t="shared" si="8"/>
-        <v>165.20409999999998</v>
+        <v>165.70235</v>
       </c>
       <c r="T21" s="118">
         <f t="shared" si="19"/>
@@ -6129,22 +6129,22 @@
       </c>
       <c r="U21" s="184">
         <f t="shared" si="20"/>
-        <v>468.55192</v>
+        <v>469.05016999999998</v>
       </c>
       <c r="V21" s="184">
         <f t="shared" si="21"/>
-        <v>1.1422440108921681</v>
+        <v>1.1434586533984394</v>
       </c>
       <c r="X21" s="245">
         <f t="shared" si="12"/>
-        <v>55.242845000000003</v>
+        <v>55.741095000000001</v>
       </c>
       <c r="Y21" s="216">
         <v>0</v>
       </c>
       <c r="Z21" s="245">
         <f t="shared" si="13"/>
-        <v>0.13984362065953987</v>
+        <v>0.14110490769125619</v>
       </c>
       <c r="AA21" s="68">
         <v>0</v>
@@ -6201,7 +6201,7 @@
       </c>
       <c r="S22" s="118">
         <f t="shared" si="8"/>
-        <v>165.20409999999998</v>
+        <v>165.70235</v>
       </c>
       <c r="T22" s="118">
         <f t="shared" si="19"/>
@@ -6209,22 +6209,22 @@
       </c>
       <c r="U22" s="184">
         <f t="shared" si="20"/>
-        <v>468.55192</v>
+        <v>469.05016999999998</v>
       </c>
       <c r="V22" s="184">
         <f t="shared" si="21"/>
-        <v>1.1422440108921681</v>
+        <v>1.1434586533984394</v>
       </c>
       <c r="X22" s="245">
         <f t="shared" si="12"/>
-        <v>55.242845000000003</v>
+        <v>55.741095000000001</v>
       </c>
       <c r="Y22" s="216">
         <v>0</v>
       </c>
       <c r="Z22" s="245">
         <f t="shared" si="13"/>
-        <v>0.13984362065953987</v>
+        <v>0.14110490769125619</v>
       </c>
       <c r="AA22" s="68">
         <v>0</v>
@@ -6287,7 +6287,7 @@
       </c>
       <c r="S23" s="118">
         <f t="shared" si="8"/>
-        <v>165.45322499999997</v>
+        <v>165.70235</v>
       </c>
       <c r="T23" s="118">
         <f t="shared" si="19"/>
@@ -6295,11 +6295,11 @@
       </c>
       <c r="U23" s="184">
         <f t="shared" si="20"/>
-        <v>468.80104499999999</v>
+        <v>469.05016999999998</v>
       </c>
       <c r="V23" s="184">
         <f t="shared" si="21"/>
-        <v>1.1428513321453038</v>
+        <v>1.1434586533984394</v>
       </c>
       <c r="X23" s="245">
         <f t="shared" si="12"/>
@@ -6775,7 +6775,7 @@
       </c>
       <c r="S29" s="186">
         <f t="shared" si="22"/>
-        <v>3725.9161999999997</v>
+        <v>3730.4004500000001</v>
       </c>
       <c r="T29" s="185">
         <f t="shared" si="22"/>
@@ -6783,7 +6783,7 @@
       </c>
       <c r="U29" s="185">
         <f t="shared" si="22"/>
-        <v>11254.758566250001</v>
+        <v>11259.242816250004</v>
       </c>
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.3">
@@ -7583,10 +7583,10 @@
         <v>58.86</v>
       </c>
       <c r="M44" s="85">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="N44" s="71">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="O44" s="71">
         <f>'Distancias tabiques'!$C$4</f>
@@ -7606,7 +7606,7 @@
       </c>
       <c r="S44" s="121">
         <f t="shared" si="25"/>
-        <v>19.93</v>
+        <v>24.912500000000001</v>
       </c>
       <c r="T44" s="118">
         <f t="shared" si="26"/>
@@ -7614,7 +7614,7 @@
       </c>
       <c r="U44" s="130">
         <f t="shared" si="29"/>
-        <v>1.9930000000000001</v>
+        <v>2.4912500000000004</v>
       </c>
       <c r="V44" s="130">
         <f t="shared" si="27"/>
@@ -7622,7 +7622,7 @@
       </c>
       <c r="W44" s="204">
         <f t="shared" si="30"/>
-        <v>165.20409999999998</v>
+        <v>165.70235</v>
       </c>
       <c r="X44" s="94">
         <f t="shared" si="31"/>
@@ -7652,10 +7652,10 @@
         <v>58.86</v>
       </c>
       <c r="M45" s="85">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="N45" s="71">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="O45" s="71">
         <f>'Distancias tabiques'!$C$4</f>
@@ -7675,7 +7675,7 @@
       </c>
       <c r="S45" s="121">
         <f t="shared" si="25"/>
-        <v>19.93</v>
+        <v>24.912500000000001</v>
       </c>
       <c r="T45" s="118">
         <f t="shared" si="26"/>
@@ -7683,7 +7683,7 @@
       </c>
       <c r="U45" s="130">
         <f t="shared" si="29"/>
-        <v>1.9930000000000001</v>
+        <v>2.4912500000000004</v>
       </c>
       <c r="V45" s="130">
         <f t="shared" si="27"/>
@@ -7691,7 +7691,7 @@
       </c>
       <c r="W45" s="204">
         <f t="shared" si="30"/>
-        <v>165.20409999999998</v>
+        <v>165.70235</v>
       </c>
       <c r="X45" s="94">
         <f t="shared" si="31"/>
@@ -7721,10 +7721,10 @@
         <v>58.86</v>
       </c>
       <c r="M46" s="85">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="N46" s="71">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="O46" s="71">
         <f>'Distancias tabiques'!$C$4</f>
@@ -7744,7 +7744,7 @@
       </c>
       <c r="S46" s="121">
         <f t="shared" si="25"/>
-        <v>19.93</v>
+        <v>24.912500000000001</v>
       </c>
       <c r="T46" s="118">
         <f t="shared" si="26"/>
@@ -7752,7 +7752,7 @@
       </c>
       <c r="U46" s="130">
         <f t="shared" si="29"/>
-        <v>1.9930000000000001</v>
+        <v>2.4912500000000004</v>
       </c>
       <c r="V46" s="130">
         <f t="shared" si="27"/>
@@ -7760,7 +7760,7 @@
       </c>
       <c r="W46" s="204">
         <f t="shared" si="30"/>
-        <v>165.20409999999998</v>
+        <v>165.70235</v>
       </c>
       <c r="X46" s="94">
         <f t="shared" si="31"/>
@@ -7790,10 +7790,10 @@
         <v>58.86</v>
       </c>
       <c r="M47" s="85">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="N47" s="71">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="O47" s="71">
         <f>'Distancias tabiques'!$C$4</f>
@@ -7813,7 +7813,7 @@
       </c>
       <c r="S47" s="121">
         <f t="shared" si="25"/>
-        <v>19.93</v>
+        <v>24.912500000000001</v>
       </c>
       <c r="T47" s="118">
         <f t="shared" si="26"/>
@@ -7821,7 +7821,7 @@
       </c>
       <c r="U47" s="130">
         <f t="shared" si="29"/>
-        <v>1.9930000000000001</v>
+        <v>2.4912500000000004</v>
       </c>
       <c r="V47" s="130">
         <f t="shared" si="27"/>
@@ -7829,7 +7829,7 @@
       </c>
       <c r="W47" s="204">
         <f t="shared" si="30"/>
-        <v>165.20409999999998</v>
+        <v>165.70235</v>
       </c>
       <c r="X47" s="94">
         <f t="shared" si="31"/>
@@ -7859,10 +7859,10 @@
         <v>58.86</v>
       </c>
       <c r="M48" s="85">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="N48" s="71">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="O48" s="71">
         <f>'Distancias tabiques'!$C$4</f>
@@ -7882,7 +7882,7 @@
       </c>
       <c r="S48" s="121">
         <f t="shared" si="25"/>
-        <v>19.93</v>
+        <v>24.912500000000001</v>
       </c>
       <c r="T48" s="118">
         <f t="shared" si="26"/>
@@ -7890,7 +7890,7 @@
       </c>
       <c r="U48" s="130">
         <f t="shared" si="29"/>
-        <v>1.9930000000000001</v>
+        <v>2.4912500000000004</v>
       </c>
       <c r="V48" s="130">
         <f t="shared" si="27"/>
@@ -7898,7 +7898,7 @@
       </c>
       <c r="W48" s="204">
         <f t="shared" si="30"/>
-        <v>165.20409999999998</v>
+        <v>165.70235</v>
       </c>
       <c r="X48" s="94">
         <f t="shared" si="31"/>
@@ -7928,10 +7928,10 @@
         <v>58.86</v>
       </c>
       <c r="M49" s="85">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="N49" s="71">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="O49" s="71">
         <f>'Distancias tabiques'!$C$4</f>
@@ -7951,7 +7951,7 @@
       </c>
       <c r="S49" s="121">
         <f t="shared" si="25"/>
-        <v>19.93</v>
+        <v>24.912500000000001</v>
       </c>
       <c r="T49" s="118">
         <f t="shared" si="26"/>
@@ -7959,7 +7959,7 @@
       </c>
       <c r="U49" s="130">
         <f t="shared" si="29"/>
-        <v>1.9930000000000001</v>
+        <v>2.4912500000000004</v>
       </c>
       <c r="V49" s="130">
         <f t="shared" si="27"/>
@@ -7967,7 +7967,7 @@
       </c>
       <c r="W49" s="204">
         <f t="shared" si="30"/>
-        <v>165.20409999999998</v>
+        <v>165.70235</v>
       </c>
       <c r="X49" s="94">
         <f t="shared" si="31"/>
@@ -7997,10 +7997,10 @@
         <v>58.86</v>
       </c>
       <c r="M50" s="85">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="N50" s="71">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="O50" s="71">
         <f>'Distancias tabiques'!$C$4</f>
@@ -8020,7 +8020,7 @@
       </c>
       <c r="S50" s="121">
         <f t="shared" si="25"/>
-        <v>19.93</v>
+        <v>24.912500000000001</v>
       </c>
       <c r="T50" s="118">
         <f t="shared" si="26"/>
@@ -8028,7 +8028,7 @@
       </c>
       <c r="U50" s="130">
         <f t="shared" si="29"/>
-        <v>1.9930000000000001</v>
+        <v>2.4912500000000004</v>
       </c>
       <c r="V50" s="130">
         <f t="shared" si="27"/>
@@ -8036,7 +8036,7 @@
       </c>
       <c r="W50" s="204">
         <f t="shared" si="30"/>
-        <v>165.20409999999998</v>
+        <v>165.70235</v>
       </c>
       <c r="X50" s="94">
         <f t="shared" si="31"/>
@@ -8066,10 +8066,10 @@
         <v>58.86</v>
       </c>
       <c r="M51" s="85">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="N51" s="71">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="O51" s="71">
         <f>'Distancias tabiques'!$C$4</f>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="S51" s="121">
         <f t="shared" si="25"/>
-        <v>19.93</v>
+        <v>24.912500000000001</v>
       </c>
       <c r="T51" s="118">
         <f t="shared" si="26"/>
@@ -8097,7 +8097,7 @@
       </c>
       <c r="U51" s="130">
         <f t="shared" si="29"/>
-        <v>1.9930000000000001</v>
+        <v>2.4912500000000004</v>
       </c>
       <c r="V51" s="130">
         <f t="shared" si="27"/>
@@ -8105,7 +8105,7 @@
       </c>
       <c r="W51" s="204">
         <f t="shared" si="30"/>
-        <v>165.20409999999998</v>
+        <v>165.70235</v>
       </c>
       <c r="X51" s="94">
         <f t="shared" si="31"/>
@@ -8135,10 +8135,10 @@
         <v>58.86</v>
       </c>
       <c r="M52" s="85">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="N52" s="71">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="O52" s="71">
         <f>'Distancias tabiques'!$C$4</f>
@@ -8158,7 +8158,7 @@
       </c>
       <c r="S52" s="121">
         <f t="shared" si="25"/>
-        <v>19.93</v>
+        <v>24.912500000000001</v>
       </c>
       <c r="T52" s="118">
         <f t="shared" si="26"/>
@@ -8166,7 +8166,7 @@
       </c>
       <c r="U52" s="130">
         <f t="shared" si="29"/>
-        <v>1.9930000000000001</v>
+        <v>2.4912500000000004</v>
       </c>
       <c r="V52" s="130">
         <f t="shared" si="27"/>
@@ -8174,7 +8174,7 @@
       </c>
       <c r="W52" s="204">
         <f t="shared" si="30"/>
-        <v>165.20409999999998</v>
+        <v>165.70235</v>
       </c>
       <c r="X52" s="94">
         <f t="shared" si="31"/>
@@ -8606,7 +8606,7 @@
       </c>
       <c r="U59" s="72">
         <f>SUM(U34:U58)</f>
-        <v>48.763949999999994</v>
+        <v>53.248200000000004</v>
       </c>
       <c r="V59" s="72">
         <f>SUM(V34:V58)</f>
@@ -8614,7 +8614,7 @@
       </c>
       <c r="W59" s="185">
         <f>SUM(W34:W58)-W58*0.5</f>
-        <v>3725.9161999999997</v>
+        <v>3730.4004500000001</v>
       </c>
     </row>
     <row r="60" spans="8:26" x14ac:dyDescent="0.3">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="T63" s="72">
         <f>U29</f>
-        <v>11254.758566250001</v>
+        <v>11259.242816250004</v>
       </c>
     </row>
     <row r="64" spans="8:26" x14ac:dyDescent="0.3">
@@ -8784,7 +8784,7 @@
       </c>
       <c r="T66" s="72">
         <f>W59</f>
-        <v>3725.9161999999997</v>
+        <v>3730.4004500000001</v>
       </c>
     </row>
     <row r="67" spans="8:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8855,7 +8855,7 @@
       </c>
       <c r="T68" s="72">
         <f>SUM(T65:T67)</f>
-        <v>11254.758566249997</v>
+        <v>11259.242816249998</v>
       </c>
     </row>
     <row r="69" spans="8:20" x14ac:dyDescent="0.3">
@@ -9474,7 +9474,7 @@
   <dimension ref="A1:AG26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12"/>
+      <selection activeCell="AD9" sqref="AD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10497,11 +10497,11 @@
       </c>
       <c r="G12" s="29">
         <f>('Pesos elementos'!U14)*$D$4</f>
-        <v>45.225917000000003</v>
+        <v>45.250829500000009</v>
       </c>
       <c r="H12" s="11">
         <f t="shared" si="7"/>
-        <v>447.04378199999996</v>
+        <v>447.06869449999999</v>
       </c>
       <c r="I12" s="12">
         <v>54.480000000000011</v>
@@ -10525,11 +10525,11 @@
       </c>
       <c r="O12" s="15">
         <f t="shared" si="2"/>
-        <v>0.5861178178099431</v>
+        <v>0.58615048051709651</v>
       </c>
       <c r="P12" s="16">
         <f t="shared" si="3"/>
-        <v>0.54250252657637965</v>
+        <v>0.54253275872530449</v>
       </c>
       <c r="Q12" s="274">
         <f>'Pesos elementos'!I44*'Pesos elementos'!K44/('Pesos elementos'!$L14+'Pesos elementos'!$M14)</f>
@@ -10550,11 +10550,11 @@
       </c>
       <c r="W12" s="21">
         <f t="shared" si="5"/>
-        <v>315.67621800000029</v>
+        <v>315.65130550000026</v>
       </c>
       <c r="X12" s="22">
         <f t="shared" si="6"/>
-        <v>376.99621800000011</v>
+        <v>376.97130550000008</v>
       </c>
       <c r="Z12" s="10">
         <f t="shared" si="10"/>
@@ -10562,11 +10562,11 @@
       </c>
       <c r="AA12" s="14">
         <f>'Pesos elementos'!U14</f>
-        <v>452.25916999999998</v>
+        <v>452.50829500000003</v>
       </c>
       <c r="AB12" s="12">
         <f t="shared" si="8"/>
-        <v>4470.437820000001</v>
+        <v>4470.6869450000004</v>
       </c>
       <c r="AC12" s="237">
         <v>20</v>
@@ -10577,11 +10577,11 @@
       </c>
       <c r="AE12" s="272">
         <f>AB12/AD12</f>
-        <v>0.93911236733973635</v>
+        <v>0.9391647014461334</v>
       </c>
       <c r="AG12" s="227">
         <f>AD12-AB12</f>
-        <v>289.84217999999964</v>
+        <v>289.59305500000028</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
@@ -10595,11 +10595,11 @@
       </c>
       <c r="G13" s="29">
         <f>('Pesos elementos'!U15)*$D$4</f>
-        <v>46.855192000000002</v>
+        <v>46.905017000000001</v>
       </c>
       <c r="H13" s="11">
         <f t="shared" si="7"/>
-        <v>493.89897399999995</v>
+        <v>493.97371149999998</v>
       </c>
       <c r="I13" s="12">
         <v>54.480000000000011</v>
@@ -10623,11 +10623,11 @@
       </c>
       <c r="O13" s="15">
         <f t="shared" si="2"/>
-        <v>0.51803962030627215</v>
+        <v>0.51811801080344022</v>
       </c>
       <c r="P13" s="16">
         <f t="shared" si="3"/>
-        <v>0.47949029076258431</v>
+        <v>0.47956284792000387</v>
       </c>
       <c r="Q13" s="274">
         <f>'Pesos elementos'!I45*'Pesos elementos'!K45/('Pesos elementos'!$L15+'Pesos elementos'!$M15)</f>
@@ -10648,11 +10648,11 @@
       </c>
       <c r="W13" s="21">
         <f t="shared" si="5"/>
-        <v>459.50102600000025</v>
+        <v>459.42628850000023</v>
       </c>
       <c r="X13" s="22">
         <f t="shared" si="6"/>
-        <v>536.151026</v>
+        <v>536.07628849999992</v>
       </c>
       <c r="Z13" s="10">
         <f t="shared" si="10"/>
@@ -10660,11 +10660,11 @@
       </c>
       <c r="AA13" s="14">
         <f>'Pesos elementos'!U15</f>
-        <v>468.55192</v>
+        <v>469.05016999999998</v>
       </c>
       <c r="AB13" s="12">
         <f t="shared" si="8"/>
-        <v>4938.9897400000009</v>
+        <v>4939.7371149999999</v>
       </c>
       <c r="AC13" s="238">
         <v>30</v>
@@ -10675,11 +10675,11 @@
       </c>
       <c r="AE13" s="272">
         <f>AB13/AD13</f>
-        <v>0.5533556558297692</v>
+        <v>0.55343939040000445</v>
       </c>
       <c r="AG13" s="227">
         <f>AD13-AB13</f>
-        <v>3986.5352599999987</v>
+        <v>3985.7878849999997</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
@@ -10693,11 +10693,11 @@
       </c>
       <c r="G14" s="29">
         <f>('Pesos elementos'!U16)*$D$4</f>
-        <v>46.855192000000002</v>
+        <v>46.905017000000001</v>
       </c>
       <c r="H14" s="11">
         <f t="shared" si="7"/>
-        <v>540.75416599999994</v>
+        <v>540.87872849999997</v>
       </c>
       <c r="I14" s="12">
         <v>54.480000000000011</v>
@@ -10721,11 +10721,11 @@
       </c>
       <c r="O14" s="15">
         <f t="shared" si="2"/>
-        <v>0.56718498636458969</v>
+        <v>0.5673156371932031</v>
       </c>
       <c r="P14" s="16">
         <f t="shared" si="3"/>
-        <v>0.52497856026406486</v>
+        <v>0.5250994888597641</v>
       </c>
       <c r="Q14" s="274">
         <f>'Pesos elementos'!I46*'Pesos elementos'!K46/('Pesos elementos'!$L16+'Pesos elementos'!$M16)</f>
@@ -10746,11 +10746,11 @@
       </c>
       <c r="W14" s="21">
         <f t="shared" si="5"/>
-        <v>412.64583400000026</v>
+        <v>412.52127150000024</v>
       </c>
       <c r="X14" s="22">
         <f t="shared" si="6"/>
-        <v>489.29583400000001</v>
+        <v>489.17127149999999</v>
       </c>
       <c r="Z14" s="10">
         <f t="shared" si="10"/>
@@ -10758,11 +10758,11 @@
       </c>
       <c r="AA14" s="14">
         <f>'Pesos elementos'!U16</f>
-        <v>468.55192</v>
+        <v>469.05016999999998</v>
       </c>
       <c r="AB14" s="12">
         <f t="shared" si="8"/>
-        <v>5407.5416600000008</v>
+        <v>5408.7872850000003</v>
       </c>
       <c r="AC14" s="238">
         <v>30</v>
@@ -10773,11 +10773,11 @@
       </c>
       <c r="AE14" s="272">
         <f>AB14/AD14</f>
-        <v>0.60585138241167902</v>
+        <v>0.60599094002873788</v>
       </c>
       <c r="AG14" s="227">
         <f>AD14-AB14</f>
-        <v>3517.9833399999989</v>
+        <v>3516.7377149999993</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
@@ -10791,11 +10791,11 @@
       </c>
       <c r="G15" s="29">
         <f>('Pesos elementos'!U17)*$D$4</f>
-        <v>46.855192000000002</v>
+        <v>46.905017000000001</v>
       </c>
       <c r="H15" s="11">
         <f t="shared" si="7"/>
-        <v>587.60935799999993</v>
+        <v>587.78374550000001</v>
       </c>
       <c r="I15" s="12">
         <v>54.480000000000011</v>
@@ -10819,11 +10819,11 @@
       </c>
       <c r="O15" s="15">
         <f t="shared" si="2"/>
-        <v>0.61633035242290723</v>
+        <v>0.6165132635829661</v>
       </c>
       <c r="P15" s="16">
         <f t="shared" si="3"/>
-        <v>0.5704668297655453</v>
+        <v>0.57063612979952438</v>
       </c>
       <c r="Q15" s="274">
         <f>'Pesos elementos'!I47*'Pesos elementos'!K47/('Pesos elementos'!$L17+'Pesos elementos'!$M17)</f>
@@ -10844,11 +10844,11 @@
       </c>
       <c r="W15" s="21">
         <f t="shared" si="5"/>
-        <v>365.79064200000028</v>
+        <v>365.6162545000002</v>
       </c>
       <c r="X15" s="22">
         <f t="shared" si="6"/>
-        <v>442.44064200000003</v>
+        <v>442.26625449999995</v>
       </c>
       <c r="Z15" s="10">
         <f t="shared" si="10"/>
@@ -10856,11 +10856,11 @@
       </c>
       <c r="AA15" s="14">
         <f>'Pesos elementos'!U17</f>
-        <v>468.55192</v>
+        <v>469.05016999999998</v>
       </c>
       <c r="AB15" s="12">
         <f t="shared" si="8"/>
-        <v>5876.0935800000007</v>
+        <v>5877.8374550000008</v>
       </c>
       <c r="AC15" s="238">
         <v>30</v>
@@ -10871,11 +10871,11 @@
       </c>
       <c r="AE15" s="272">
         <f>AB15/AD15</f>
-        <v>0.65834710899358873</v>
+        <v>0.6585424896574712</v>
       </c>
       <c r="AG15" s="227">
         <f>AD15-AB15</f>
-        <v>3049.431419999999</v>
+        <v>3047.6875449999989</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
@@ -10889,11 +10889,11 @@
       </c>
       <c r="G16" s="29">
         <f>('Pesos elementos'!U18)*$D$4</f>
-        <v>46.855192000000002</v>
+        <v>46.905017000000001</v>
       </c>
       <c r="H16" s="11">
         <f t="shared" si="7"/>
-        <v>634.46454999999992</v>
+        <v>634.68876250000005</v>
       </c>
       <c r="I16" s="12">
         <v>54.480000000000011</v>
@@ -10917,11 +10917,11 @@
       </c>
       <c r="O16" s="15">
         <f t="shared" si="2"/>
-        <v>0.66547571848122489</v>
+        <v>0.66571088997272909</v>
       </c>
       <c r="P16" s="16">
         <f t="shared" si="3"/>
-        <v>0.61595509926702585</v>
+        <v>0.61617277073928456</v>
       </c>
       <c r="Q16" s="274">
         <f>'Pesos elementos'!I48*'Pesos elementos'!K48/('Pesos elementos'!$L18+'Pesos elementos'!$M18)</f>
@@ -10942,11 +10942,11 @@
       </c>
       <c r="W16" s="21">
         <f t="shared" si="5"/>
-        <v>318.93545000000029</v>
+        <v>318.71123750000015</v>
       </c>
       <c r="X16" s="22">
         <f t="shared" si="6"/>
-        <v>395.58545000000004</v>
+        <v>395.3612374999999</v>
       </c>
       <c r="Z16" s="10">
         <f t="shared" si="10"/>
@@ -10954,11 +10954,11 @@
       </c>
       <c r="AA16" s="14">
         <f>'Pesos elementos'!U18</f>
-        <v>468.55192</v>
+        <v>469.05016999999998</v>
       </c>
       <c r="AB16" s="12">
         <f t="shared" si="8"/>
-        <v>6344.6455000000005</v>
+        <v>6346.8876250000012</v>
       </c>
       <c r="AC16" s="238">
         <v>30</v>
@@ -10969,11 +10969,11 @@
       </c>
       <c r="AE16" s="272">
         <f>AB16/AD16</f>
-        <v>0.71084283557549843</v>
+        <v>0.71109403928620463</v>
       </c>
       <c r="AG16" s="227">
         <f>AD16-AB16</f>
-        <v>2580.8794999999991</v>
+        <v>2578.6373749999984</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.3">
@@ -10987,11 +10987,11 @@
       </c>
       <c r="G17" s="29">
         <f>('Pesos elementos'!U19)*$D$4</f>
-        <v>46.855192000000002</v>
+        <v>46.905017000000001</v>
       </c>
       <c r="H17" s="11">
         <f t="shared" si="7"/>
-        <v>681.31974199999991</v>
+        <v>681.5937795000001</v>
       </c>
       <c r="I17" s="12">
         <v>54.480000000000011</v>
@@ -11015,11 +11015,11 @@
       </c>
       <c r="O17" s="15">
         <f t="shared" si="2"/>
-        <v>0.71462108453954243</v>
+        <v>0.71490851636249209</v>
       </c>
       <c r="P17" s="16">
         <f t="shared" si="3"/>
-        <v>0.66144336876850629</v>
+        <v>0.66170941167904485</v>
       </c>
       <c r="Q17" s="274">
         <f>'Pesos elementos'!I49*'Pesos elementos'!K49/('Pesos elementos'!$L19+'Pesos elementos'!$M19)</f>
@@ -11040,11 +11040,11 @@
       </c>
       <c r="W17" s="21">
         <f t="shared" si="5"/>
-        <v>272.0802580000003</v>
+        <v>271.80622050000011</v>
       </c>
       <c r="X17" s="22">
         <f t="shared" si="6"/>
-        <v>348.73025800000005</v>
+        <v>348.45622049999986</v>
       </c>
       <c r="Z17" s="10">
         <f t="shared" si="10"/>
@@ -11052,11 +11052,11 @@
       </c>
       <c r="AA17" s="14">
         <f>'Pesos elementos'!U19</f>
-        <v>468.55192</v>
+        <v>469.05016999999998</v>
       </c>
       <c r="AB17" s="12">
         <f t="shared" si="8"/>
-        <v>6813.1974200000004</v>
+        <v>6815.9377950000016</v>
       </c>
       <c r="AC17" s="238">
         <v>30</v>
@@ -11067,11 +11067,11 @@
       </c>
       <c r="AE17" s="272">
         <f>AB17/AD17</f>
-        <v>0.76333856215740814</v>
+        <v>0.76364558891493795</v>
       </c>
       <c r="AG17" s="227">
         <f>AD17-AB17</f>
-        <v>2112.3275799999992</v>
+        <v>2109.587204999998</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.3">
@@ -11085,11 +11085,11 @@
       </c>
       <c r="G18" s="29">
         <f>('Pesos elementos'!U20)*$D$4</f>
-        <v>46.855192000000002</v>
+        <v>46.905017000000001</v>
       </c>
       <c r="H18" s="11">
         <f t="shared" si="7"/>
-        <v>728.17493399999989</v>
+        <v>728.49879650000014</v>
       </c>
       <c r="I18" s="12">
         <v>54.480000000000011</v>
@@ -11113,11 +11113,11 @@
       </c>
       <c r="O18" s="15">
         <f t="shared" si="2"/>
-        <v>0.76376645059785997</v>
+        <v>0.76410614275225508</v>
       </c>
       <c r="P18" s="16">
         <f t="shared" si="3"/>
-        <v>0.70693163826998684</v>
+        <v>0.70724605261880513</v>
       </c>
       <c r="Q18" s="274">
         <f>'Pesos elementos'!I50*'Pesos elementos'!K50/('Pesos elementos'!$L20+'Pesos elementos'!$M20)</f>
@@ -11138,11 +11138,11 @@
       </c>
       <c r="W18" s="21">
         <f t="shared" si="5"/>
-        <v>225.22506600000031</v>
+        <v>224.90120350000007</v>
       </c>
       <c r="X18" s="22">
         <f t="shared" si="6"/>
-        <v>301.87506600000006</v>
+        <v>301.55120349999981</v>
       </c>
       <c r="Z18" s="10">
         <f t="shared" si="10"/>
@@ -11150,11 +11150,11 @@
       </c>
       <c r="AA18" s="14">
         <f>'Pesos elementos'!U20</f>
-        <v>468.55192</v>
+        <v>469.05016999999998</v>
       </c>
       <c r="AB18" s="12">
         <f t="shared" si="8"/>
-        <v>7281.7493400000003</v>
+        <v>7284.9879650000021</v>
       </c>
       <c r="AC18" s="238">
         <v>30</v>
@@ -11165,11 +11165,11 @@
       </c>
       <c r="AE18" s="272">
         <f>AB18/AD18</f>
-        <v>0.81583428873931796</v>
+        <v>0.81619713854367137</v>
       </c>
       <c r="AG18" s="227">
         <f>AD18-AB18</f>
-        <v>1643.7756599999993</v>
+        <v>1640.5370349999976</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.3">
@@ -11183,11 +11183,11 @@
       </c>
       <c r="G19" s="29">
         <f>('Pesos elementos'!U21)*$D$4</f>
-        <v>46.855192000000002</v>
+        <v>46.905017000000001</v>
       </c>
       <c r="H19" s="11">
         <f t="shared" si="7"/>
-        <v>775.03012599999988</v>
+        <v>775.40381350000018</v>
       </c>
       <c r="I19" s="12">
         <v>54.480000000000011</v>
@@ -11211,11 +11211,11 @@
       </c>
       <c r="O19" s="15">
         <f t="shared" si="2"/>
-        <v>0.81291181665617762</v>
+        <v>0.81330376914201807</v>
       </c>
       <c r="P19" s="16">
         <f t="shared" si="3"/>
-        <v>0.75241990777146728</v>
+        <v>0.75278269355856531</v>
       </c>
       <c r="Q19" s="274">
         <f>'Pesos elementos'!I51*'Pesos elementos'!K51/('Pesos elementos'!$L21+'Pesos elementos'!$M21)</f>
@@ -11236,11 +11236,11 @@
       </c>
       <c r="W19" s="21">
         <f t="shared" si="5"/>
-        <v>178.36987400000032</v>
+        <v>177.99618650000002</v>
       </c>
       <c r="X19" s="22">
         <f t="shared" si="6"/>
-        <v>255.01987400000007</v>
+        <v>254.64618649999977</v>
       </c>
       <c r="Z19" s="10">
         <f t="shared" si="10"/>
@@ -11248,11 +11248,11 @@
       </c>
       <c r="AA19" s="14">
         <f>'Pesos elementos'!U21</f>
-        <v>468.55192</v>
+        <v>469.05016999999998</v>
       </c>
       <c r="AB19" s="12">
         <f t="shared" si="8"/>
-        <v>7750.3012600000002</v>
+        <v>7754.0381350000025</v>
       </c>
       <c r="AC19" s="239">
         <v>35</v>
@@ -11263,11 +11263,11 @@
       </c>
       <c r="AE19" s="272">
         <f>AB19/AD19</f>
-        <v>0.7442828702753379</v>
+        <v>0.74464173271920397</v>
       </c>
       <c r="AG19" s="227">
         <f>AD19-AB19</f>
-        <v>2662.8112400000009</v>
+        <v>2659.0743649999986</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
@@ -11280,11 +11280,11 @@
       </c>
       <c r="G20" s="29">
         <f>('Pesos elementos'!U22)*$D$4</f>
-        <v>46.855192000000002</v>
+        <v>46.905017000000001</v>
       </c>
       <c r="H20" s="11">
         <f t="shared" si="7"/>
-        <v>821.88531799999987</v>
+        <v>822.30883050000023</v>
       </c>
       <c r="I20" s="12">
         <v>54.480000000000011</v>
@@ -11308,11 +11308,11 @@
       </c>
       <c r="O20" s="15">
         <f t="shared" si="2"/>
-        <v>0.86205718271449516</v>
+        <v>0.86250139553178107</v>
       </c>
       <c r="P20" s="16">
         <f t="shared" si="3"/>
-        <v>0.79790817727294783</v>
+        <v>0.79831933449832559</v>
       </c>
       <c r="Q20" s="274">
         <f>'Pesos elementos'!I52*'Pesos elementos'!K52/('Pesos elementos'!$L22+'Pesos elementos'!$M22)</f>
@@ -11333,11 +11333,11 @@
       </c>
       <c r="W20" s="21">
         <f t="shared" si="5"/>
-        <v>131.51468200000033</v>
+        <v>131.09116949999998</v>
       </c>
       <c r="X20" s="22">
         <f t="shared" si="6"/>
-        <v>208.16468200000008</v>
+        <v>207.74116949999973</v>
       </c>
       <c r="Z20" s="10">
         <f t="shared" si="10"/>
@@ -11345,11 +11345,11 @@
       </c>
       <c r="AA20" s="14">
         <f>'Pesos elementos'!U22</f>
-        <v>468.55192</v>
+        <v>469.05016999999998</v>
       </c>
       <c r="AB20" s="12">
         <f t="shared" si="8"/>
-        <v>8218.8531800000001</v>
+        <v>8223.0883050000029</v>
       </c>
       <c r="AC20" s="239">
         <v>35</v>
@@ -11360,11 +11360,11 @@
       </c>
       <c r="AE20" s="272">
         <f>AB20/AD20</f>
-        <v>0.78927920734554624</v>
+        <v>0.78968591811526112</v>
       </c>
       <c r="AG20" s="227">
         <f>AD20-AB20</f>
-        <v>2194.259320000001</v>
+        <v>2190.0241949999981</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.3">
@@ -11378,11 +11378,11 @@
       </c>
       <c r="G21" s="29">
         <f>('Pesos elementos'!U23)*$D$4</f>
-        <v>46.880104500000002</v>
+        <v>46.905017000000001</v>
       </c>
       <c r="H21" s="11">
         <f t="shared" si="7"/>
-        <v>868.76542249999989</v>
+        <v>869.21384750000027</v>
       </c>
       <c r="I21" s="12">
         <v>54.480000000000011</v>
@@ -11406,11 +11406,11 @@
       </c>
       <c r="O21" s="15">
         <f t="shared" si="2"/>
-        <v>0.91122867893853543</v>
+        <v>0.91169902192154406</v>
       </c>
       <c r="P21" s="16">
         <f t="shared" si="3"/>
-        <v>0.84342063249356825</v>
+        <v>0.84385597543808588</v>
       </c>
       <c r="Q21" s="274">
         <f>'Pesos elementos'!I53*'Pesos elementos'!K53/('Pesos elementos'!$L23+'Pesos elementos'!$M23)</f>
@@ -11431,11 +11431,11 @@
       </c>
       <c r="W21" s="21">
         <f t="shared" si="5"/>
-        <v>84.634577500000319</v>
+        <v>84.186152499999935</v>
       </c>
       <c r="X21" s="22">
         <f t="shared" si="6"/>
-        <v>161.28457750000007</v>
+        <v>160.83615249999968</v>
       </c>
       <c r="Z21" s="10">
         <f t="shared" si="10"/>
@@ -11443,11 +11443,11 @@
       </c>
       <c r="AA21" s="14">
         <f>'Pesos elementos'!U23</f>
-        <v>468.80104499999999</v>
+        <v>469.05016999999998</v>
       </c>
       <c r="AB21" s="12">
         <f t="shared" si="8"/>
-        <v>8687.6542250000002</v>
+        <v>8692.1384750000034</v>
       </c>
       <c r="AC21" s="239">
         <v>35</v>
@@ -11458,11 +11458,11 @@
       </c>
       <c r="AE21" s="272">
         <f>AB21/AD21</f>
-        <v>0.83429946857867898</v>
+        <v>0.83473010351131827</v>
       </c>
       <c r="AG21" s="227">
         <f>AD21-AB21</f>
-        <v>1725.4582750000009</v>
+        <v>1720.9740249999977</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.3">
@@ -11476,7 +11476,7 @@
       </c>
       <c r="H22" s="11">
         <f t="shared" si="7"/>
-        <v>915.67043949999993</v>
+        <v>916.11886450000031</v>
       </c>
       <c r="I22" s="12">
         <v>54.480000000000011</v>
@@ -11500,11 +11500,11 @@
       </c>
       <c r="O22" s="15">
         <f t="shared" si="2"/>
-        <v>0.96042630532829842</v>
+        <v>0.96089664831130706</v>
       </c>
       <c r="P22" s="16">
         <f t="shared" si="3"/>
-        <v>0.88895727343332842</v>
+        <v>0.88939261637784606</v>
       </c>
       <c r="Q22" s="274">
         <f>'Pesos elementos'!I54*'Pesos elementos'!K54/('Pesos elementos'!$L24+'Pesos elementos'!$M24)</f>
@@ -11525,11 +11525,11 @@
       </c>
       <c r="W22" s="21">
         <f t="shared" si="5"/>
-        <v>37.729560500000275</v>
+        <v>37.281135499999891</v>
       </c>
       <c r="X22" s="22">
         <f t="shared" si="6"/>
-        <v>114.37956050000003</v>
+        <v>113.93113549999964</v>
       </c>
       <c r="Z22" s="10">
         <f t="shared" si="10"/>
@@ -11541,7 +11541,7 @@
       </c>
       <c r="AB22" s="12">
         <f t="shared" si="8"/>
-        <v>9156.7043950000007</v>
+        <v>9161.1886450000038</v>
       </c>
       <c r="AC22" s="239">
         <v>35</v>
@@ -11552,11 +11552,11 @@
       </c>
       <c r="AE22" s="272">
         <f>AB22/AD22</f>
-        <v>0.87934365397473613</v>
+        <v>0.87977428890737552</v>
       </c>
       <c r="AG22" s="227">
         <f>AD22-AB22</f>
-        <v>1256.4081050000004</v>
+        <v>1251.9238549999973</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.3">
@@ -11570,7 +11570,7 @@
       </c>
       <c r="H23" s="11">
         <f t="shared" si="7"/>
-        <v>962.85193649999997</v>
+        <v>963.30036150000035</v>
       </c>
       <c r="I23" s="12">
         <v>54.480000000000011</v>
@@ -11594,11 +11594,11 @@
       </c>
       <c r="O23" s="15">
         <f t="shared" si="2"/>
-        <v>1.0099139254247953</v>
+        <v>1.0103842684078037</v>
       </c>
       <c r="P23" s="16">
         <f t="shared" si="3"/>
-        <v>0.93476232852774133</v>
+        <v>0.93519767147225896</v>
       </c>
       <c r="Q23" s="274">
         <f>'Pesos elementos'!I55*'Pesos elementos'!K55/('Pesos elementos'!$L25+'Pesos elementos'!$M25)</f>
@@ -11619,11 +11619,11 @@
       </c>
       <c r="W23" s="21">
         <f t="shared" si="5"/>
-        <v>-9.4519364999997606</v>
+        <v>-9.9003615000001446</v>
       </c>
       <c r="X23" s="22">
         <f t="shared" si="6"/>
-        <v>67.198063499999989</v>
+        <v>66.749638499999605</v>
       </c>
       <c r="Z23" s="10">
         <f t="shared" si="10"/>
@@ -11635,7 +11635,7 @@
       </c>
       <c r="AB23" s="12">
         <f t="shared" si="8"/>
-        <v>9628.5193650000001</v>
+        <v>9633.0036150000033</v>
       </c>
       <c r="AC23" s="239">
         <v>35</v>
@@ -11646,11 +11646,11 @@
       </c>
       <c r="AE23" s="272">
         <f>AB23/AD23</f>
-        <v>0.92465335076328037</v>
+        <v>0.92508398569591965</v>
       </c>
       <c r="AG23" s="227">
         <f>AD23-AB23</f>
-        <v>784.59313500000098</v>
+        <v>780.10888499999783</v>
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.3">
@@ -11665,7 +11665,7 @@
       </c>
       <c r="H24" s="11">
         <f t="shared" si="7"/>
-        <v>1010.88960075</v>
+        <v>1011.3380257500004</v>
       </c>
       <c r="I24" s="12">
         <v>58.320000000000014</v>
@@ -11689,11 +11689,11 @@
       </c>
       <c r="O24" s="15">
         <f t="shared" si="2"/>
-        <v>0.99048559744268039</v>
+        <v>0.99092497134038804</v>
       </c>
       <c r="P24" s="16">
         <f t="shared" si="3"/>
-        <v>0.98139857361293148</v>
+        <v>0.98183391655744912</v>
       </c>
       <c r="Q24" s="274">
         <f>'Pesos elementos'!I56*'Pesos elementos'!K56/('Pesos elementos'!$L26+'Pesos elementos'!$M26)</f>
@@ -11714,11 +11714,11 @@
       </c>
       <c r="W24" s="21">
         <f t="shared" si="5"/>
-        <v>9.7103992500003642</v>
+        <v>9.2619742499999802</v>
       </c>
       <c r="X24" s="22">
         <f t="shared" si="6"/>
-        <v>19.160399249999955</v>
+        <v>18.711974249999571</v>
       </c>
       <c r="Z24" s="10">
         <f t="shared" si="10"/>
@@ -11730,7 +11730,7 @@
       </c>
       <c r="AB24" s="12">
         <f t="shared" si="8"/>
-        <v>10108.8960075</v>
+        <v>10113.380257500003</v>
       </c>
       <c r="AC24" s="239">
         <v>35</v>
@@ -11741,11 +11741,11 @@
       </c>
       <c r="AE24" s="272">
         <f>AB24/AD24</f>
-        <v>0.93897252160464795</v>
+        <v>0.9393890445886498</v>
       </c>
       <c r="AG24" s="227">
         <f>AD24-AB24</f>
-        <v>657.01649250000082</v>
+        <v>652.53224249999766</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
@@ -11759,7 +11759,7 @@
       </c>
       <c r="H25" s="11">
         <f t="shared" si="7"/>
-        <v>1058.4249118749999</v>
+        <v>1058.8733368750004</v>
       </c>
       <c r="I25" s="12">
         <v>65.349999999999994</v>
@@ -11783,11 +11783,11 @@
       </c>
       <c r="O25" s="15">
         <f t="shared" si="2"/>
-        <v>0.92549997759317948</v>
+        <v>0.92589208602033046</v>
       </c>
       <c r="P25" s="16">
         <f t="shared" si="3"/>
-        <v>0.99843871394140082</v>
+        <v>0.99886172446890864</v>
       </c>
       <c r="Q25" s="274">
         <f>'Pesos elementos'!I57*'Pesos elementos'!K57/('Pesos elementos'!$L27+'Pesos elementos'!$M27)</f>
@@ -11808,11 +11808,11 @@
       </c>
       <c r="W25" s="21">
         <f t="shared" si="5"/>
-        <v>85.200088125000093</v>
+        <v>84.751663124999595</v>
       </c>
       <c r="X25" s="22">
         <f t="shared" si="6"/>
-        <v>1.6550881249997929</v>
+        <v>1.2066631249992952</v>
       </c>
       <c r="Z25" s="10">
         <f t="shared" si="10"/>
@@ -11824,7 +11824,7 @@
       </c>
       <c r="AB25" s="12">
         <f t="shared" si="8"/>
-        <v>10584.24911875</v>
+        <v>10588.733368750003</v>
       </c>
       <c r="AC25" s="239">
         <v>35</v>
@@ -11835,11 +11835,11 @@
       </c>
       <c r="AE25" s="272">
         <f>AB25/AD25</f>
-        <v>0.91484452374091652</v>
+        <v>0.91523211775061541</v>
       </c>
       <c r="AG25" s="227">
         <f>AD25-AB25</f>
-        <v>985.20213124999827</v>
+        <v>980.71788124999512</v>
       </c>
     </row>
     <row r="26" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11852,7 +11852,7 @@
       </c>
       <c r="H26" s="35">
         <f t="shared" si="7"/>
-        <v>1125.475856625</v>
+        <v>1125.9242816250005</v>
       </c>
       <c r="I26" s="36">
         <v>69.97999999999999</v>
@@ -11876,11 +11876,11 @@
       </c>
       <c r="O26" s="41">
         <f t="shared" si="2"/>
-        <v>0.91901837800596098</v>
+        <v>0.9193845438492636</v>
       </c>
       <c r="P26" s="42">
         <f t="shared" si="3"/>
-        <v>0.97479244108247165</v>
+        <v>0.97518082906771342</v>
       </c>
       <c r="Q26" s="275">
         <f>'Pesos elementos'!I58*'Pesos elementos'!K58/('Pesos elementos'!$L28+'Pesos elementos'!$M28)</f>
@@ -11901,11 +11901,11 @@
       </c>
       <c r="W26" s="44">
         <f t="shared" si="5"/>
-        <v>99.174143374999858</v>
+        <v>98.72571837499936</v>
       </c>
       <c r="X26" s="45">
         <f t="shared" si="6"/>
-        <v>29.104143374999921</v>
+        <v>28.655718374999424</v>
       </c>
       <c r="Z26" s="33">
         <v>-1</v>
@@ -11916,7 +11916,7 @@
       </c>
       <c r="AB26" s="36">
         <f t="shared" si="8"/>
-        <v>11254.758566250001</v>
+        <v>11259.242816250004</v>
       </c>
       <c r="AC26" s="240">
         <v>35</v>
@@ -11927,11 +11927,11 @@
       </c>
       <c r="AE26" s="273">
         <f>AB26/AD26</f>
-        <v>0.90103249220486115</v>
+        <v>0.9013914919052447</v>
       </c>
       <c r="AG26" s="227">
         <f>AD26-AB26</f>
-        <v>1236.1989337499981</v>
+        <v>1231.7146837499949</v>
       </c>
     </row>
   </sheetData>
@@ -11966,7 +11966,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B26" sqref="B26"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tarea 03/Cubicaciones.xlsx
+++ b/Tarea 03/Cubicaciones.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F871B29B-DB00-4E5F-9CD3-7EF98A3BAD14}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0F26DE96-868A-44F6-9720-CA472067259F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cubicaciones" sheetId="5" r:id="rId1"/>
@@ -762,7 +762,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="150">
   <si>
     <t>Muros</t>
   </si>
@@ -1207,6 +1207,12 @@
   <si>
     <t>Densidad muro y</t>
   </si>
+  <si>
+    <t>ex (m)</t>
+  </si>
+  <si>
+    <t>ey (m)</t>
+  </si>
 </sst>
 </file>
 
@@ -1318,7 +1324,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -2005,12 +2011,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="278">
+  <cellXfs count="283">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2746,6 +2763,48 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2773,30 +2832,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2821,22 +2856,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3167,7 +3199,7 @@
   <dimension ref="B1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6796,48 +6828,48 @@
       <c r="N31" s="73"/>
     </row>
     <row r="32" spans="2:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H32" s="250" t="s">
+      <c r="H32" s="264" t="s">
         <v>33</v>
       </c>
-      <c r="I32" s="247" t="s">
+      <c r="I32" s="261" t="s">
         <v>58</v>
       </c>
-      <c r="J32" s="248"/>
-      <c r="K32" s="248"/>
-      <c r="L32" s="249"/>
-      <c r="M32" s="260" t="s">
+      <c r="J32" s="262"/>
+      <c r="K32" s="262"/>
+      <c r="L32" s="263"/>
+      <c r="M32" s="257" t="s">
         <v>57</v>
       </c>
-      <c r="N32" s="261"/>
-      <c r="O32" s="261"/>
-      <c r="P32" s="262"/>
-      <c r="Q32" s="256" t="s">
+      <c r="N32" s="258"/>
+      <c r="O32" s="258"/>
+      <c r="P32" s="259"/>
+      <c r="Q32" s="253" t="s">
         <v>61</v>
       </c>
-      <c r="R32" s="256" t="s">
+      <c r="R32" s="253" t="s">
         <v>71</v>
       </c>
-      <c r="S32" s="256" t="s">
+      <c r="S32" s="253" t="s">
         <v>62</v>
       </c>
-      <c r="T32" s="252" t="s">
+      <c r="T32" s="266" t="s">
         <v>60</v>
       </c>
-      <c r="U32" s="254" t="s">
+      <c r="U32" s="268" t="s">
         <v>63</v>
       </c>
-      <c r="V32" s="254" t="s">
+      <c r="V32" s="268" t="s">
         <v>70</v>
       </c>
-      <c r="W32" s="258" t="s">
+      <c r="W32" s="255" t="s">
         <v>72</v>
       </c>
-      <c r="X32" s="256" t="s">
+      <c r="X32" s="253" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="33" spans="8:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H33" s="251"/>
+      <c r="H33" s="265"/>
       <c r="I33" s="100" t="s">
         <v>13</v>
       </c>
@@ -6862,14 +6894,14 @@
       <c r="P33" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="Q33" s="263"/>
-      <c r="R33" s="263"/>
-      <c r="S33" s="263"/>
-      <c r="T33" s="253"/>
-      <c r="U33" s="255"/>
-      <c r="V33" s="255"/>
-      <c r="W33" s="259"/>
-      <c r="X33" s="257"/>
+      <c r="Q33" s="260"/>
+      <c r="R33" s="260"/>
+      <c r="S33" s="260"/>
+      <c r="T33" s="267"/>
+      <c r="U33" s="269"/>
+      <c r="V33" s="269"/>
+      <c r="W33" s="256"/>
+      <c r="X33" s="254"/>
     </row>
     <row r="34" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H34" s="96" t="str">
@@ -9447,17 +9479,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="V32:V33"/>
     <mergeCell ref="X32:X33"/>
     <mergeCell ref="W32:W33"/>
     <mergeCell ref="M32:P32"/>
     <mergeCell ref="Q32:Q33"/>
     <mergeCell ref="R32:R33"/>
     <mergeCell ref="S32:S33"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="V32:V33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9471,10 +9503,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A282A9DD-DDA8-407B-9F67-055CDE136535}">
   <sheetPr codeName="Hoja3"/>
-  <dimension ref="A1:AG26"/>
+  <dimension ref="A1:AG52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD9" sqref="AD9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9640,11 +9672,11 @@
         <f t="shared" ref="P3:P26" si="3">H3/N3</f>
         <v>6.4371546284160946E-2</v>
       </c>
-      <c r="Q3" s="274">
+      <c r="Q3" s="249">
         <f>'Pesos elementos'!I35*'Pesos elementos'!K35/('Pesos elementos'!$L5+'Pesos elementos'!$M5)</f>
         <v>2.7582505765341134E-2</v>
       </c>
-      <c r="R3" s="276">
+      <c r="R3" s="251">
         <f>'Pesos elementos'!J35*'Pesos elementos'!L35/('Pesos elementos'!$L5+'Pesos elementos'!$M5)</f>
         <v>2.9800042021805778E-2</v>
       </c>
@@ -9680,15 +9712,15 @@
         <v>20</v>
       </c>
       <c r="AD3" s="231">
-        <f>AC3*30*0.35*(I3*K3+J3*L3)</f>
+        <f t="shared" ref="AD3:AD26" si="7">AC3*30*0.35*(I3*K3+J3*L3)</f>
         <v>4760.2800000000007</v>
       </c>
-      <c r="AE3" s="272">
-        <f>AB3/AD3</f>
+      <c r="AE3" s="247">
+        <f t="shared" ref="AE3:AE26" si="8">AB3/AD3</f>
         <v>0.11143195148184558</v>
       </c>
       <c r="AG3" s="227">
-        <f>AD3-AB3</f>
+        <f t="shared" ref="AG3:AG26" si="9">AD3-AB3</f>
         <v>4229.8327100000006</v>
       </c>
     </row>
@@ -9742,11 +9774,11 @@
         <f t="shared" si="3"/>
         <v>0.11727752414931313</v>
       </c>
-      <c r="Q4" s="274">
+      <c r="Q4" s="249">
         <f>'Pesos elementos'!I36*'Pesos elementos'!K36/('Pesos elementos'!$L6+'Pesos elementos'!$M6)</f>
         <v>2.7582505765341134E-2</v>
       </c>
-      <c r="R4" s="276">
+      <c r="R4" s="251">
         <f>'Pesos elementos'!J36*'Pesos elementos'!L36/('Pesos elementos'!$L6+'Pesos elementos'!$M6)</f>
         <v>2.9800042021805778E-2</v>
       </c>
@@ -9782,15 +9814,15 @@
         <v>20</v>
       </c>
       <c r="AD4" s="231">
-        <f>AC4*30*0.35*(I4*K4+J4*L4)</f>
+        <f t="shared" si="7"/>
         <v>4760.2800000000007</v>
       </c>
-      <c r="AE4" s="272">
-        <f>AB4/AD4</f>
+      <c r="AE4" s="247">
+        <f t="shared" si="8"/>
         <v>0.20301614820976915</v>
       </c>
       <c r="AG4" s="227">
-        <f>AD4-AB4</f>
+        <f t="shared" si="9"/>
         <v>3793.8662900000008</v>
       </c>
     </row>
@@ -9814,7 +9846,7 @@
         <v>43.596642000000003</v>
       </c>
       <c r="H5" s="11">
-        <f t="shared" ref="H5:H26" si="7">G5+H4</f>
+        <f t="shared" ref="H5:H26" si="10">G5+H4</f>
         <v>140.238013</v>
       </c>
       <c r="I5" s="12">
@@ -9845,11 +9877,11 @@
         <f t="shared" si="3"/>
         <v>0.1701835020144653</v>
       </c>
-      <c r="Q5" s="274">
+      <c r="Q5" s="249">
         <f>'Pesos elementos'!I37*'Pesos elementos'!K37/('Pesos elementos'!$L7+'Pesos elementos'!$M7)</f>
         <v>2.7582505765341134E-2</v>
       </c>
-      <c r="R5" s="276">
+      <c r="R5" s="251">
         <f>'Pesos elementos'!J37*'Pesos elementos'!L37/('Pesos elementos'!$L7+'Pesos elementos'!$M7)</f>
         <v>2.9800042021805778E-2</v>
       </c>
@@ -9879,22 +9911,22 @@
         <v>435.96642000000003</v>
       </c>
       <c r="AB5" s="12">
-        <f t="shared" ref="AB5:AB26" si="8">AA5+AB4</f>
+        <f t="shared" ref="AB5:AB26" si="11">AA5+AB4</f>
         <v>1402.38013</v>
       </c>
       <c r="AC5" s="237">
         <v>20</v>
       </c>
       <c r="AD5" s="231">
-        <f>AC5*30*0.35*(I5*K5+J5*L5)</f>
+        <f t="shared" si="7"/>
         <v>4760.2800000000007</v>
       </c>
-      <c r="AE5" s="272">
-        <f>AB5/AD5</f>
+      <c r="AE5" s="247">
+        <f t="shared" si="8"/>
         <v>0.29460034493769272</v>
       </c>
       <c r="AG5" s="227">
-        <f>AD5-AB5</f>
+        <f t="shared" si="9"/>
         <v>3357.8998700000006</v>
       </c>
     </row>
@@ -9911,7 +9943,7 @@
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="10">
-        <f t="shared" ref="F6:F25" si="9">F5-1</f>
+        <f t="shared" ref="F6:F25" si="12">F5-1</f>
         <v>20</v>
       </c>
       <c r="G6" s="29">
@@ -9919,7 +9951,7 @@
         <v>43.596642000000003</v>
       </c>
       <c r="H6" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>183.834655</v>
       </c>
       <c r="I6" s="12">
@@ -9950,11 +9982,11 @@
         <f t="shared" si="3"/>
         <v>0.22308947987961747</v>
       </c>
-      <c r="Q6" s="274">
+      <c r="Q6" s="249">
         <f>'Pesos elementos'!I38*'Pesos elementos'!K38/('Pesos elementos'!$L8+'Pesos elementos'!$M8)</f>
         <v>2.7582505765341134E-2</v>
       </c>
-      <c r="R6" s="276">
+      <c r="R6" s="251">
         <f>'Pesos elementos'!J38*'Pesos elementos'!L38/('Pesos elementos'!$L8+'Pesos elementos'!$M8)</f>
         <v>2.9800042021805778E-2</v>
       </c>
@@ -9976,7 +10008,7 @@
         <v>640.20534500000008</v>
       </c>
       <c r="Z6" s="10">
-        <f t="shared" ref="Z6:Z25" si="10">Z5-1</f>
+        <f t="shared" ref="Z6:Z25" si="13">Z5-1</f>
         <v>20</v>
       </c>
       <c r="AA6" s="14">
@@ -9984,28 +10016,28 @@
         <v>435.96642000000003</v>
       </c>
       <c r="AB6" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1838.34655</v>
       </c>
       <c r="AC6" s="237">
         <v>20</v>
       </c>
       <c r="AD6" s="231">
-        <f>AC6*30*0.35*(I6*K6+J6*L6)</f>
+        <f t="shared" si="7"/>
         <v>4760.2800000000007</v>
       </c>
-      <c r="AE6" s="272">
-        <f>AB6/AD6</f>
+      <c r="AE6" s="247">
+        <f t="shared" si="8"/>
         <v>0.38618454166561628</v>
       </c>
       <c r="AG6" s="227">
-        <f>AD6-AB6</f>
+        <f t="shared" si="9"/>
         <v>2921.9334500000004</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="F7" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>19</v>
       </c>
       <c r="G7" s="29">
@@ -10013,7 +10045,7 @@
         <v>43.596642000000003</v>
       </c>
       <c r="H7" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>227.431297</v>
       </c>
       <c r="I7" s="12">
@@ -10044,11 +10076,11 @@
         <f t="shared" si="3"/>
         <v>0.27599545774476963</v>
       </c>
-      <c r="Q7" s="274">
+      <c r="Q7" s="249">
         <f>'Pesos elementos'!I39*'Pesos elementos'!K39/('Pesos elementos'!$L9+'Pesos elementos'!$M9)</f>
         <v>2.7582505765341134E-2</v>
       </c>
-      <c r="R7" s="276">
+      <c r="R7" s="251">
         <f>'Pesos elementos'!J39*'Pesos elementos'!L39/('Pesos elementos'!$L9+'Pesos elementos'!$M9)</f>
         <v>2.9800042021805778E-2</v>
       </c>
@@ -10070,7 +10102,7 @@
         <v>596.60870300000011</v>
       </c>
       <c r="Z7" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="AA7" s="14">
@@ -10078,29 +10110,29 @@
         <v>435.96642000000003</v>
       </c>
       <c r="AB7" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2274.31297</v>
       </c>
       <c r="AC7" s="237">
         <v>20</v>
       </c>
       <c r="AD7" s="231">
-        <f>AC7*30*0.35*(I7*K7+J7*L7)</f>
+        <f t="shared" si="7"/>
         <v>4760.2800000000007</v>
       </c>
-      <c r="AE7" s="272">
-        <f>AB7/AD7</f>
+      <c r="AE7" s="247">
+        <f t="shared" si="8"/>
         <v>0.47776873839353978</v>
       </c>
       <c r="AG7" s="227">
-        <f>AD7-AB7</f>
+        <f t="shared" si="9"/>
         <v>2485.9670300000007</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="24"/>
       <c r="F8" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>18</v>
       </c>
       <c r="G8" s="29">
@@ -10108,7 +10140,7 @@
         <v>43.596642000000003</v>
       </c>
       <c r="H8" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>271.027939</v>
       </c>
       <c r="I8" s="12">
@@ -10139,11 +10171,11 @@
         <f t="shared" si="3"/>
         <v>0.3289014356099218</v>
       </c>
-      <c r="Q8" s="274">
+      <c r="Q8" s="249">
         <f>'Pesos elementos'!I40*'Pesos elementos'!K40/('Pesos elementos'!$L10+'Pesos elementos'!$M10)</f>
         <v>2.7582505765341134E-2</v>
       </c>
-      <c r="R8" s="276">
+      <c r="R8" s="251">
         <f>'Pesos elementos'!J40*'Pesos elementos'!L40/('Pesos elementos'!$L10+'Pesos elementos'!$M10)</f>
         <v>2.9800042021805778E-2</v>
       </c>
@@ -10165,7 +10197,7 @@
         <v>553.01206100000013</v>
       </c>
       <c r="Z8" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="AA8" s="14">
@@ -10173,22 +10205,22 @@
         <v>435.96642000000003</v>
       </c>
       <c r="AB8" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2710.2793900000001</v>
       </c>
       <c r="AC8" s="237">
         <v>20</v>
       </c>
       <c r="AD8" s="231">
-        <f>AC8*30*0.35*(I8*K8+J8*L8)</f>
+        <f t="shared" si="7"/>
         <v>4760.2800000000007</v>
       </c>
-      <c r="AE8" s="272">
-        <f>AB8/AD8</f>
+      <c r="AE8" s="247">
+        <f t="shared" si="8"/>
         <v>0.56935293512146334</v>
       </c>
       <c r="AG8" s="227">
-        <f>AD8-AB8</f>
+        <f t="shared" si="9"/>
         <v>2050.0006100000005</v>
       </c>
     </row>
@@ -10198,7 +10230,7 @@
       <c r="C9" s="26"/>
       <c r="D9" s="24"/>
       <c r="F9" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="G9" s="29">
@@ -10206,7 +10238,7 @@
         <v>43.596642000000003</v>
       </c>
       <c r="H9" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>314.62458100000003</v>
       </c>
       <c r="I9" s="12">
@@ -10237,11 +10269,11 @@
         <f t="shared" si="3"/>
         <v>0.38180741347507402</v>
       </c>
-      <c r="Q9" s="274">
+      <c r="Q9" s="249">
         <f>'Pesos elementos'!I41*'Pesos elementos'!K41/('Pesos elementos'!$L11+'Pesos elementos'!$M11)</f>
         <v>2.7582505765341134E-2</v>
       </c>
-      <c r="R9" s="276">
+      <c r="R9" s="251">
         <f>'Pesos elementos'!J41*'Pesos elementos'!L41/('Pesos elementos'!$L11+'Pesos elementos'!$M11)</f>
         <v>2.9800042021805778E-2</v>
       </c>
@@ -10263,7 +10295,7 @@
         <v>509.41541900000004</v>
       </c>
       <c r="Z9" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="AA9" s="14">
@@ -10271,22 +10303,22 @@
         <v>435.96642000000003</v>
       </c>
       <c r="AB9" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3146.2458100000003</v>
       </c>
       <c r="AC9" s="237">
         <v>20</v>
       </c>
       <c r="AD9" s="231">
-        <f>AC9*30*0.35*(I9*K9+J9*L9)</f>
+        <f t="shared" si="7"/>
         <v>4760.2800000000007</v>
       </c>
-      <c r="AE9" s="272">
-        <f>AB9/AD9</f>
+      <c r="AE9" s="247">
+        <f t="shared" si="8"/>
         <v>0.66093713184938696</v>
       </c>
       <c r="AG9" s="227">
-        <f>AD9-AB9</f>
+        <f t="shared" si="9"/>
         <v>1614.0341900000003</v>
       </c>
     </row>
@@ -10296,7 +10328,7 @@
       <c r="C10" s="26"/>
       <c r="D10" s="24"/>
       <c r="F10" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="G10" s="29">
@@ -10304,7 +10336,7 @@
         <v>43.596642000000003</v>
       </c>
       <c r="H10" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>358.22122300000001</v>
       </c>
       <c r="I10" s="12">
@@ -10335,11 +10367,11 @@
         <f t="shared" si="3"/>
         <v>0.43471339134022619</v>
       </c>
-      <c r="Q10" s="274">
+      <c r="Q10" s="249">
         <f>'Pesos elementos'!I42*'Pesos elementos'!K42/('Pesos elementos'!$L12+'Pesos elementos'!$M12)</f>
         <v>2.7582505765341134E-2</v>
       </c>
-      <c r="R10" s="276">
+      <c r="R10" s="251">
         <f>'Pesos elementos'!J42*'Pesos elementos'!L42/('Pesos elementos'!$L12+'Pesos elementos'!$M12)</f>
         <v>2.9800042021805778E-2</v>
       </c>
@@ -10361,7 +10393,7 @@
         <v>465.81877700000007</v>
       </c>
       <c r="Z10" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="AA10" s="14">
@@ -10369,22 +10401,22 @@
         <v>435.96642000000003</v>
       </c>
       <c r="AB10" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3582.2122300000005</v>
       </c>
       <c r="AC10" s="237">
         <v>20</v>
       </c>
       <c r="AD10" s="231">
-        <f>AC10*30*0.35*(I10*K10+J10*L10)</f>
+        <f t="shared" si="7"/>
         <v>4760.2800000000007</v>
       </c>
-      <c r="AE10" s="272">
-        <f>AB10/AD10</f>
+      <c r="AE10" s="247">
+        <f t="shared" si="8"/>
         <v>0.75252132857731058</v>
       </c>
       <c r="AG10" s="227">
-        <f>AD10-AB10</f>
+        <f t="shared" si="9"/>
         <v>1178.0677700000001</v>
       </c>
     </row>
@@ -10394,7 +10426,7 @@
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
       <c r="F11" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="G11" s="29">
@@ -10402,7 +10434,7 @@
         <v>43.596642000000003</v>
       </c>
       <c r="H11" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>401.81786499999998</v>
       </c>
       <c r="I11" s="12">
@@ -10433,11 +10465,11 @@
         <f t="shared" si="3"/>
         <v>0.48761936920537829</v>
       </c>
-      <c r="Q11" s="274">
+      <c r="Q11" s="249">
         <f>'Pesos elementos'!I43*'Pesos elementos'!K43/('Pesos elementos'!$L13+'Pesos elementos'!$M13)</f>
         <v>2.7582505765341134E-2</v>
       </c>
-      <c r="R11" s="276">
+      <c r="R11" s="251">
         <f>'Pesos elementos'!J43*'Pesos elementos'!L43/('Pesos elementos'!$L13+'Pesos elementos'!$M13)</f>
         <v>2.9800042021805778E-2</v>
       </c>
@@ -10459,7 +10491,7 @@
         <v>422.22213500000009</v>
       </c>
       <c r="Z11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="AA11" s="14">
@@ -10467,22 +10499,22 @@
         <v>435.96642000000003</v>
       </c>
       <c r="AB11" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4018.1786500000007</v>
       </c>
       <c r="AC11" s="237">
         <v>20</v>
       </c>
       <c r="AD11" s="231">
-        <f>AC11*30*0.35*(I11*K11+J11*L11)</f>
+        <f t="shared" si="7"/>
         <v>4760.2800000000007</v>
       </c>
-      <c r="AE11" s="272">
-        <f>AB11/AD11</f>
+      <c r="AE11" s="247">
+        <f t="shared" si="8"/>
         <v>0.84410552530523419</v>
       </c>
       <c r="AG11" s="227">
-        <f>AD11-AB11</f>
+        <f t="shared" si="9"/>
         <v>742.10134999999991</v>
       </c>
     </row>
@@ -10492,7 +10524,7 @@
       <c r="C12" s="26"/>
       <c r="D12" s="24"/>
       <c r="F12" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="G12" s="29">
@@ -10500,7 +10532,7 @@
         <v>45.250829500000009</v>
       </c>
       <c r="H12" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>447.06869449999999</v>
       </c>
       <c r="I12" s="12">
@@ -10531,11 +10563,11 @@
         <f t="shared" si="3"/>
         <v>0.54253275872530449</v>
       </c>
-      <c r="Q12" s="274">
+      <c r="Q12" s="249">
         <f>'Pesos elementos'!I44*'Pesos elementos'!K44/('Pesos elementos'!$L14+'Pesos elementos'!$M14)</f>
         <v>3.4478132206676414E-2</v>
       </c>
-      <c r="R12" s="276">
+      <c r="R12" s="251">
         <f>'Pesos elementos'!J44*'Pesos elementos'!L44/('Pesos elementos'!$L14+'Pesos elementos'!$M14)</f>
         <v>3.7250052527257223E-2</v>
       </c>
@@ -10557,7 +10589,7 @@
         <v>376.97130550000008</v>
       </c>
       <c r="Z12" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="AA12" s="14">
@@ -10565,22 +10597,22 @@
         <v>452.50829500000003</v>
       </c>
       <c r="AB12" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4470.6869450000004</v>
       </c>
       <c r="AC12" s="237">
         <v>20</v>
       </c>
       <c r="AD12" s="231">
-        <f>AC12*30*0.35*(I12*K12+J12*L12)</f>
+        <f t="shared" si="7"/>
         <v>4760.2800000000007</v>
       </c>
-      <c r="AE12" s="272">
-        <f>AB12/AD12</f>
+      <c r="AE12" s="247">
+        <f t="shared" si="8"/>
         <v>0.9391647014461334</v>
       </c>
       <c r="AG12" s="227">
-        <f>AD12-AB12</f>
+        <f t="shared" si="9"/>
         <v>289.59305500000028</v>
       </c>
     </row>
@@ -10590,7 +10622,7 @@
       <c r="C13" s="26"/>
       <c r="D13" s="24"/>
       <c r="F13" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="G13" s="29">
@@ -10598,7 +10630,7 @@
         <v>46.905017000000001</v>
       </c>
       <c r="H13" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>493.97371149999998</v>
       </c>
       <c r="I13" s="12">
@@ -10629,11 +10661,11 @@
         <f t="shared" si="3"/>
         <v>0.47956284792000387</v>
       </c>
-      <c r="Q13" s="274">
+      <c r="Q13" s="249">
         <f>'Pesos elementos'!I45*'Pesos elementos'!K45/('Pesos elementos'!$L15+'Pesos elementos'!$M15)</f>
         <v>3.4478132206676414E-2</v>
       </c>
-      <c r="R13" s="276">
+      <c r="R13" s="251">
         <f>'Pesos elementos'!J45*'Pesos elementos'!L45/('Pesos elementos'!$L15+'Pesos elementos'!$M15)</f>
         <v>3.7250052527257223E-2</v>
       </c>
@@ -10655,7 +10687,7 @@
         <v>536.07628849999992</v>
       </c>
       <c r="Z13" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="AA13" s="14">
@@ -10663,22 +10695,22 @@
         <v>469.05016999999998</v>
       </c>
       <c r="AB13" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4939.7371149999999</v>
       </c>
       <c r="AC13" s="238">
         <v>30</v>
       </c>
       <c r="AD13" s="231">
-        <f>AC13*30*0.35*(I13*K13+J13*L13)</f>
+        <f t="shared" si="7"/>
         <v>8925.5249999999996</v>
       </c>
-      <c r="AE13" s="272">
-        <f>AB13/AD13</f>
+      <c r="AE13" s="247">
+        <f t="shared" si="8"/>
         <v>0.55343939040000445</v>
       </c>
       <c r="AG13" s="227">
-        <f>AD13-AB13</f>
+        <f t="shared" si="9"/>
         <v>3985.7878849999997</v>
       </c>
     </row>
@@ -10688,7 +10720,7 @@
       <c r="C14" s="25"/>
       <c r="D14" s="24"/>
       <c r="F14" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="G14" s="29">
@@ -10696,7 +10728,7 @@
         <v>46.905017000000001</v>
       </c>
       <c r="H14" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>540.87872849999997</v>
       </c>
       <c r="I14" s="12">
@@ -10727,11 +10759,11 @@
         <f t="shared" si="3"/>
         <v>0.5250994888597641</v>
       </c>
-      <c r="Q14" s="274">
+      <c r="Q14" s="249">
         <f>'Pesos elementos'!I46*'Pesos elementos'!K46/('Pesos elementos'!$L16+'Pesos elementos'!$M16)</f>
         <v>3.4478132206676414E-2</v>
       </c>
-      <c r="R14" s="276">
+      <c r="R14" s="251">
         <f>'Pesos elementos'!J46*'Pesos elementos'!L46/('Pesos elementos'!$L16+'Pesos elementos'!$M16)</f>
         <v>3.7250052527257223E-2</v>
       </c>
@@ -10753,7 +10785,7 @@
         <v>489.17127149999999</v>
       </c>
       <c r="Z14" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="AA14" s="14">
@@ -10761,22 +10793,22 @@
         <v>469.05016999999998</v>
       </c>
       <c r="AB14" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5408.7872850000003</v>
       </c>
       <c r="AC14" s="238">
         <v>30</v>
       </c>
       <c r="AD14" s="231">
-        <f>AC14*30*0.35*(I14*K14+J14*L14)</f>
+        <f t="shared" si="7"/>
         <v>8925.5249999999996</v>
       </c>
-      <c r="AE14" s="272">
-        <f>AB14/AD14</f>
+      <c r="AE14" s="247">
+        <f t="shared" si="8"/>
         <v>0.60599094002873788</v>
       </c>
       <c r="AG14" s="227">
-        <f>AD14-AB14</f>
+        <f t="shared" si="9"/>
         <v>3516.7377149999993</v>
       </c>
     </row>
@@ -10786,7 +10818,7 @@
       <c r="C15" s="26"/>
       <c r="D15" s="24"/>
       <c r="F15" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="G15" s="29">
@@ -10794,7 +10826,7 @@
         <v>46.905017000000001</v>
       </c>
       <c r="H15" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>587.78374550000001</v>
       </c>
       <c r="I15" s="12">
@@ -10825,11 +10857,11 @@
         <f t="shared" si="3"/>
         <v>0.57063612979952438</v>
       </c>
-      <c r="Q15" s="274">
+      <c r="Q15" s="249">
         <f>'Pesos elementos'!I47*'Pesos elementos'!K47/('Pesos elementos'!$L17+'Pesos elementos'!$M17)</f>
         <v>3.4478132206676414E-2</v>
       </c>
-      <c r="R15" s="276">
+      <c r="R15" s="251">
         <f>'Pesos elementos'!J47*'Pesos elementos'!L47/('Pesos elementos'!$L17+'Pesos elementos'!$M17)</f>
         <v>3.7250052527257223E-2</v>
       </c>
@@ -10851,7 +10883,7 @@
         <v>442.26625449999995</v>
       </c>
       <c r="Z15" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="AA15" s="14">
@@ -10859,22 +10891,22 @@
         <v>469.05016999999998</v>
       </c>
       <c r="AB15" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5877.8374550000008</v>
       </c>
       <c r="AC15" s="238">
         <v>30</v>
       </c>
       <c r="AD15" s="231">
-        <f>AC15*30*0.35*(I15*K15+J15*L15)</f>
+        <f t="shared" si="7"/>
         <v>8925.5249999999996</v>
       </c>
-      <c r="AE15" s="272">
-        <f>AB15/AD15</f>
+      <c r="AE15" s="247">
+        <f t="shared" si="8"/>
         <v>0.6585424896574712</v>
       </c>
       <c r="AG15" s="227">
-        <f>AD15-AB15</f>
+        <f t="shared" si="9"/>
         <v>3047.6875449999989</v>
       </c>
     </row>
@@ -10884,7 +10916,7 @@
       <c r="C16" s="26"/>
       <c r="D16" s="24"/>
       <c r="F16" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="G16" s="29">
@@ -10892,7 +10924,7 @@
         <v>46.905017000000001</v>
       </c>
       <c r="H16" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>634.68876250000005</v>
       </c>
       <c r="I16" s="12">
@@ -10923,11 +10955,11 @@
         <f t="shared" si="3"/>
         <v>0.61617277073928456</v>
       </c>
-      <c r="Q16" s="274">
+      <c r="Q16" s="249">
         <f>'Pesos elementos'!I48*'Pesos elementos'!K48/('Pesos elementos'!$L18+'Pesos elementos'!$M18)</f>
         <v>3.4478132206676414E-2</v>
       </c>
-      <c r="R16" s="276">
+      <c r="R16" s="251">
         <f>'Pesos elementos'!J48*'Pesos elementos'!L48/('Pesos elementos'!$L18+'Pesos elementos'!$M18)</f>
         <v>3.7250052527257223E-2</v>
       </c>
@@ -10949,7 +10981,7 @@
         <v>395.3612374999999</v>
       </c>
       <c r="Z16" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="AA16" s="14">
@@ -10957,22 +10989,22 @@
         <v>469.05016999999998</v>
       </c>
       <c r="AB16" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6346.8876250000012</v>
       </c>
       <c r="AC16" s="238">
         <v>30</v>
       </c>
       <c r="AD16" s="231">
-        <f>AC16*30*0.35*(I16*K16+J16*L16)</f>
+        <f t="shared" si="7"/>
         <v>8925.5249999999996</v>
       </c>
-      <c r="AE16" s="272">
-        <f>AB16/AD16</f>
+      <c r="AE16" s="247">
+        <f t="shared" si="8"/>
         <v>0.71109403928620463</v>
       </c>
       <c r="AG16" s="227">
-        <f>AD16-AB16</f>
+        <f t="shared" si="9"/>
         <v>2578.6373749999984</v>
       </c>
     </row>
@@ -10982,7 +11014,7 @@
       <c r="C17" s="26"/>
       <c r="D17" s="24"/>
       <c r="F17" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="G17" s="29">
@@ -10990,7 +11022,7 @@
         <v>46.905017000000001</v>
       </c>
       <c r="H17" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>681.5937795000001</v>
       </c>
       <c r="I17" s="12">
@@ -11021,11 +11053,11 @@
         <f t="shared" si="3"/>
         <v>0.66170941167904485</v>
       </c>
-      <c r="Q17" s="274">
+      <c r="Q17" s="249">
         <f>'Pesos elementos'!I49*'Pesos elementos'!K49/('Pesos elementos'!$L19+'Pesos elementos'!$M19)</f>
         <v>3.4478132206676414E-2</v>
       </c>
-      <c r="R17" s="276">
+      <c r="R17" s="251">
         <f>'Pesos elementos'!J49*'Pesos elementos'!L49/('Pesos elementos'!$L19+'Pesos elementos'!$M19)</f>
         <v>3.7250052527257223E-2</v>
       </c>
@@ -11047,7 +11079,7 @@
         <v>348.45622049999986</v>
       </c>
       <c r="Z17" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="AA17" s="14">
@@ -11055,22 +11087,22 @@
         <v>469.05016999999998</v>
       </c>
       <c r="AB17" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6815.9377950000016</v>
       </c>
       <c r="AC17" s="238">
         <v>30</v>
       </c>
       <c r="AD17" s="231">
-        <f>AC17*30*0.35*(I17*K17+J17*L17)</f>
+        <f t="shared" si="7"/>
         <v>8925.5249999999996</v>
       </c>
-      <c r="AE17" s="272">
-        <f>AB17/AD17</f>
+      <c r="AE17" s="247">
+        <f t="shared" si="8"/>
         <v>0.76364558891493795</v>
       </c>
       <c r="AG17" s="227">
-        <f>AD17-AB17</f>
+        <f t="shared" si="9"/>
         <v>2109.587204999998</v>
       </c>
     </row>
@@ -11080,7 +11112,7 @@
       <c r="C18" s="26"/>
       <c r="D18" s="24"/>
       <c r="F18" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="G18" s="29">
@@ -11088,7 +11120,7 @@
         <v>46.905017000000001</v>
       </c>
       <c r="H18" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>728.49879650000014</v>
       </c>
       <c r="I18" s="12">
@@ -11119,11 +11151,11 @@
         <f t="shared" si="3"/>
         <v>0.70724605261880513</v>
       </c>
-      <c r="Q18" s="274">
+      <c r="Q18" s="249">
         <f>'Pesos elementos'!I50*'Pesos elementos'!K50/('Pesos elementos'!$L20+'Pesos elementos'!$M20)</f>
         <v>3.4478132206676414E-2</v>
       </c>
-      <c r="R18" s="276">
+      <c r="R18" s="251">
         <f>'Pesos elementos'!J50*'Pesos elementos'!L50/('Pesos elementos'!$L20+'Pesos elementos'!$M20)</f>
         <v>3.7250052527257223E-2</v>
       </c>
@@ -11145,7 +11177,7 @@
         <v>301.55120349999981</v>
       </c>
       <c r="Z18" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="AA18" s="14">
@@ -11153,22 +11185,22 @@
         <v>469.05016999999998</v>
       </c>
       <c r="AB18" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>7284.9879650000021</v>
       </c>
       <c r="AC18" s="238">
         <v>30</v>
       </c>
       <c r="AD18" s="231">
-        <f>AC18*30*0.35*(I18*K18+J18*L18)</f>
+        <f t="shared" si="7"/>
         <v>8925.5249999999996</v>
       </c>
-      <c r="AE18" s="272">
-        <f>AB18/AD18</f>
+      <c r="AE18" s="247">
+        <f t="shared" si="8"/>
         <v>0.81619713854367137</v>
       </c>
       <c r="AG18" s="227">
-        <f>AD18-AB18</f>
+        <f t="shared" si="9"/>
         <v>1640.5370349999976</v>
       </c>
     </row>
@@ -11178,7 +11210,7 @@
       <c r="C19" s="26"/>
       <c r="D19" s="24"/>
       <c r="F19" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="G19" s="29">
@@ -11186,7 +11218,7 @@
         <v>46.905017000000001</v>
       </c>
       <c r="H19" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>775.40381350000018</v>
       </c>
       <c r="I19" s="12">
@@ -11217,11 +11249,11 @@
         <f t="shared" si="3"/>
         <v>0.75278269355856531</v>
       </c>
-      <c r="Q19" s="274">
+      <c r="Q19" s="249">
         <f>'Pesos elementos'!I51*'Pesos elementos'!K51/('Pesos elementos'!$L21+'Pesos elementos'!$M21)</f>
         <v>3.4478132206676414E-2</v>
       </c>
-      <c r="R19" s="276">
+      <c r="R19" s="251">
         <f>'Pesos elementos'!J51*'Pesos elementos'!L51/('Pesos elementos'!$L21+'Pesos elementos'!$M21)</f>
         <v>3.7250052527257223E-2</v>
       </c>
@@ -11243,7 +11275,7 @@
         <v>254.64618649999977</v>
       </c>
       <c r="Z19" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="AA19" s="14">
@@ -11251,22 +11283,22 @@
         <v>469.05016999999998</v>
       </c>
       <c r="AB19" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>7754.0381350000025</v>
       </c>
       <c r="AC19" s="239">
         <v>35</v>
       </c>
       <c r="AD19" s="231">
-        <f>AC19*30*0.35*(I19*K19+J19*L19)</f>
+        <f t="shared" si="7"/>
         <v>10413.112500000001</v>
       </c>
-      <c r="AE19" s="272">
-        <f>AB19/AD19</f>
+      <c r="AE19" s="247">
+        <f t="shared" si="8"/>
         <v>0.74464173271920397</v>
       </c>
       <c r="AG19" s="227">
-        <f>AD19-AB19</f>
+        <f t="shared" si="9"/>
         <v>2659.0743649999986</v>
       </c>
     </row>
@@ -11275,7 +11307,7 @@
       <c r="B20" s="25"/>
       <c r="D20" s="26"/>
       <c r="F20" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="G20" s="29">
@@ -11283,7 +11315,7 @@
         <v>46.905017000000001</v>
       </c>
       <c r="H20" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>822.30883050000023</v>
       </c>
       <c r="I20" s="12">
@@ -11314,11 +11346,11 @@
         <f t="shared" si="3"/>
         <v>0.79831933449832559</v>
       </c>
-      <c r="Q20" s="274">
+      <c r="Q20" s="249">
         <f>'Pesos elementos'!I52*'Pesos elementos'!K52/('Pesos elementos'!$L22+'Pesos elementos'!$M22)</f>
         <v>3.4478132206676414E-2</v>
       </c>
-      <c r="R20" s="276">
+      <c r="R20" s="251">
         <f>'Pesos elementos'!J52*'Pesos elementos'!L52/('Pesos elementos'!$L22+'Pesos elementos'!$M22)</f>
         <v>3.7250052527257223E-2</v>
       </c>
@@ -11340,7 +11372,7 @@
         <v>207.74116949999973</v>
       </c>
       <c r="Z20" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="AA20" s="14">
@@ -11348,22 +11380,22 @@
         <v>469.05016999999998</v>
       </c>
       <c r="AB20" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>8223.0883050000029</v>
       </c>
       <c r="AC20" s="239">
         <v>35</v>
       </c>
       <c r="AD20" s="231">
-        <f>AC20*30*0.35*(I20*K20+J20*L20)</f>
+        <f t="shared" si="7"/>
         <v>10413.112500000001</v>
       </c>
-      <c r="AE20" s="272">
-        <f>AB20/AD20</f>
+      <c r="AE20" s="247">
+        <f t="shared" si="8"/>
         <v>0.78968591811526112</v>
       </c>
       <c r="AG20" s="227">
-        <f>AD20-AB20</f>
+        <f t="shared" si="9"/>
         <v>2190.0241949999981</v>
       </c>
     </row>
@@ -11373,7 +11405,7 @@
       <c r="C21" s="26"/>
       <c r="D21" s="24"/>
       <c r="F21" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="G21" s="29">
@@ -11381,7 +11413,7 @@
         <v>46.905017000000001</v>
       </c>
       <c r="H21" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>869.21384750000027</v>
       </c>
       <c r="I21" s="12">
@@ -11412,11 +11444,11 @@
         <f t="shared" si="3"/>
         <v>0.84385597543808588</v>
       </c>
-      <c r="Q21" s="274">
+      <c r="Q21" s="249">
         <f>'Pesos elementos'!I53*'Pesos elementos'!K53/('Pesos elementos'!$L23+'Pesos elementos'!$M23)</f>
         <v>3.4478132206676414E-2</v>
       </c>
-      <c r="R21" s="276">
+      <c r="R21" s="251">
         <f>'Pesos elementos'!J53*'Pesos elementos'!L53/('Pesos elementos'!$L23+'Pesos elementos'!$M23)</f>
         <v>3.7250052527257223E-2</v>
       </c>
@@ -11438,7 +11470,7 @@
         <v>160.83615249999968</v>
       </c>
       <c r="Z21" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="AA21" s="14">
@@ -11446,28 +11478,28 @@
         <v>469.05016999999998</v>
       </c>
       <c r="AB21" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>8692.1384750000034</v>
       </c>
       <c r="AC21" s="239">
         <v>35</v>
       </c>
       <c r="AD21" s="231">
-        <f>AC21*30*0.35*(I21*K21+J21*L21)</f>
+        <f t="shared" si="7"/>
         <v>10413.112500000001</v>
       </c>
-      <c r="AE21" s="272">
-        <f>AB21/AD21</f>
+      <c r="AE21" s="247">
+        <f t="shared" si="8"/>
         <v>0.83473010351131827</v>
       </c>
       <c r="AG21" s="227">
-        <f>AD21-AB21</f>
+        <f t="shared" si="9"/>
         <v>1720.9740249999977</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="F22" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="G22" s="29">
@@ -11475,7 +11507,7 @@
         <v>46.905017000000001</v>
       </c>
       <c r="H22" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>916.11886450000031</v>
       </c>
       <c r="I22" s="12">
@@ -11506,11 +11538,11 @@
         <f t="shared" si="3"/>
         <v>0.88939261637784606</v>
       </c>
-      <c r="Q22" s="274">
+      <c r="Q22" s="249">
         <f>'Pesos elementos'!I54*'Pesos elementos'!K54/('Pesos elementos'!$L24+'Pesos elementos'!$M24)</f>
         <v>3.4478132206676414E-2</v>
       </c>
-      <c r="R22" s="276">
+      <c r="R22" s="251">
         <f>'Pesos elementos'!J54*'Pesos elementos'!L54/('Pesos elementos'!$L24+'Pesos elementos'!$M24)</f>
         <v>3.7250052527257223E-2</v>
       </c>
@@ -11532,7 +11564,7 @@
         <v>113.93113549999964</v>
       </c>
       <c r="Z22" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="AA22" s="14">
@@ -11540,28 +11572,28 @@
         <v>469.05016999999998</v>
       </c>
       <c r="AB22" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9161.1886450000038</v>
       </c>
       <c r="AC22" s="239">
         <v>35</v>
       </c>
       <c r="AD22" s="231">
-        <f>AC22*30*0.35*(I22*K22+J22*L22)</f>
+        <f t="shared" si="7"/>
         <v>10413.112500000001</v>
       </c>
-      <c r="AE22" s="272">
-        <f>AB22/AD22</f>
+      <c r="AE22" s="247">
+        <f t="shared" si="8"/>
         <v>0.87977428890737552</v>
       </c>
       <c r="AG22" s="227">
-        <f>AD22-AB22</f>
+        <f t="shared" si="9"/>
         <v>1251.9238549999973</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="F23" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="G23" s="29">
@@ -11569,7 +11601,7 @@
         <v>47.181497000000007</v>
       </c>
       <c r="H23" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>963.30036150000035</v>
       </c>
       <c r="I23" s="12">
@@ -11600,11 +11632,11 @@
         <f t="shared" si="3"/>
         <v>0.93519767147225896</v>
       </c>
-      <c r="Q23" s="274">
+      <c r="Q23" s="249">
         <f>'Pesos elementos'!I55*'Pesos elementos'!K55/('Pesos elementos'!$L25+'Pesos elementos'!$M25)</f>
         <v>3.6908308926089733E-2</v>
       </c>
-      <c r="R23" s="276">
+      <c r="R23" s="251">
         <f>'Pesos elementos'!J55*'Pesos elementos'!L55/('Pesos elementos'!$L25+'Pesos elementos'!$M25)</f>
         <v>3.7250052527257223E-2</v>
       </c>
@@ -11626,7 +11658,7 @@
         <v>66.749638499999605</v>
       </c>
       <c r="Z23" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="AA23" s="14">
@@ -11634,29 +11666,29 @@
         <v>471.81497000000002</v>
       </c>
       <c r="AB23" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9633.0036150000033</v>
       </c>
       <c r="AC23" s="239">
         <v>35</v>
       </c>
       <c r="AD23" s="231">
-        <f>AC23*30*0.35*(I23*K23+J23*L23)</f>
+        <f t="shared" si="7"/>
         <v>10413.112500000001</v>
       </c>
-      <c r="AE23" s="272">
-        <f>AB23/AD23</f>
+      <c r="AE23" s="247">
+        <f t="shared" si="8"/>
         <v>0.92508398569591965</v>
       </c>
       <c r="AG23" s="227">
-        <f>AD23-AB23</f>
+        <f t="shared" si="9"/>
         <v>780.10888499999783</v>
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="C24" s="4"/>
       <c r="F24" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="G24" s="29">
@@ -11664,7 +11696,7 @@
         <v>48.037664250000006</v>
       </c>
       <c r="H24" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1011.3380257500004</v>
       </c>
       <c r="I24" s="12">
@@ -11695,11 +11727,11 @@
         <f t="shared" si="3"/>
         <v>0.98183391655744912</v>
       </c>
-      <c r="Q24" s="274">
+      <c r="Q24" s="249">
         <f>'Pesos elementos'!I56*'Pesos elementos'!K56/('Pesos elementos'!$L26+'Pesos elementos'!$M26)</f>
         <v>4.1280080450360308E-2</v>
       </c>
-      <c r="R24" s="276">
+      <c r="R24" s="251">
         <f>'Pesos elementos'!J56*'Pesos elementos'!L56/('Pesos elementos'!$L26+'Pesos elementos'!$M26)</f>
         <v>3.8264455292441095E-2</v>
       </c>
@@ -11721,7 +11753,7 @@
         <v>18.711974249999571</v>
       </c>
       <c r="Z24" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="AA24" s="14">
@@ -11729,28 +11761,28 @@
         <v>480.3766425</v>
       </c>
       <c r="AB24" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>10113.380257500003</v>
       </c>
       <c r="AC24" s="239">
         <v>35</v>
       </c>
       <c r="AD24" s="231">
-        <f>AC24*30*0.35*(I24*K24+J24*L24)</f>
+        <f t="shared" si="7"/>
         <v>10765.9125</v>
       </c>
-      <c r="AE24" s="272">
-        <f>AB24/AD24</f>
+      <c r="AE24" s="247">
+        <f t="shared" si="8"/>
         <v>0.9393890445886498</v>
       </c>
       <c r="AG24" s="227">
-        <f>AD24-AB24</f>
+        <f t="shared" si="9"/>
         <v>652.53224249999766</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="F25" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G25" s="29">
@@ -11758,7 +11790,7 @@
         <v>47.535311125</v>
       </c>
       <c r="H25" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1058.8733368750004</v>
       </c>
       <c r="I25" s="12">
@@ -11789,11 +11821,11 @@
         <f t="shared" si="3"/>
         <v>0.99886172446890864</v>
       </c>
-      <c r="Q25" s="274">
+      <c r="Q25" s="249">
         <f>'Pesos elementos'!I57*'Pesos elementos'!K57/('Pesos elementos'!$L27+'Pesos elementos'!$M27)</f>
         <v>4.3016939379801215E-2</v>
       </c>
-      <c r="R25" s="276">
+      <c r="R25" s="251">
         <f>'Pesos elementos'!J57*'Pesos elementos'!L57/('Pesos elementos'!$L27+'Pesos elementos'!$M27)</f>
         <v>4.0555667226661408E-2</v>
       </c>
@@ -11815,7 +11847,7 @@
         <v>1.2066631249992952</v>
       </c>
       <c r="Z25" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AA25" s="14">
@@ -11823,22 +11855,22 @@
         <v>475.35311124999998</v>
       </c>
       <c r="AB25" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>10588.733368750003</v>
       </c>
       <c r="AC25" s="239">
         <v>35</v>
       </c>
       <c r="AD25" s="231">
-        <f>AC25*30*0.35*(I25*K25+J25*L25)</f>
+        <f t="shared" si="7"/>
         <v>11569.451249999998</v>
       </c>
-      <c r="AE25" s="272">
-        <f>AB25/AD25</f>
+      <c r="AE25" s="247">
+        <f t="shared" si="8"/>
         <v>0.91523211775061541</v>
       </c>
       <c r="AG25" s="227">
-        <f>AD25-AB25</f>
+        <f t="shared" si="9"/>
         <v>980.71788124999512</v>
       </c>
     </row>
@@ -11851,7 +11883,7 @@
         <v>67.050944750000014</v>
       </c>
       <c r="H26" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1125.9242816250005</v>
       </c>
       <c r="I26" s="36">
@@ -11882,11 +11914,11 @@
         <f t="shared" si="3"/>
         <v>0.97518082906771342</v>
       </c>
-      <c r="Q26" s="275">
+      <c r="Q26" s="250">
         <f>'Pesos elementos'!I58*'Pesos elementos'!K58/('Pesos elementos'!$L28+'Pesos elementos'!$M28)</f>
         <v>2.8790286765056721E-2</v>
       </c>
-      <c r="R26" s="277">
+      <c r="R26" s="252">
         <f>'Pesos elementos'!J58*'Pesos elementos'!L58/('Pesos elementos'!$L28+'Pesos elementos'!$M28)</f>
         <v>2.7100454023262721E-2</v>
       </c>
@@ -11915,23 +11947,519 @@
         <v>670.50944750000008</v>
       </c>
       <c r="AB26" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>11259.242816250004</v>
       </c>
       <c r="AC26" s="240">
         <v>35</v>
       </c>
       <c r="AD26" s="232">
-        <f>AC26*30*0.35*(I26*K26+J26*L26)</f>
+        <f t="shared" si="7"/>
         <v>12490.957499999999</v>
       </c>
-      <c r="AE26" s="273">
-        <f>AB26/AD26</f>
+      <c r="AE26" s="248">
+        <f t="shared" si="8"/>
         <v>0.9013914919052447</v>
       </c>
       <c r="AG26" s="227">
-        <f>AD26-AB26</f>
+        <f t="shared" si="9"/>
         <v>1231.7146837499949</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="F28" s="279" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="279" t="s">
+        <v>148</v>
+      </c>
+      <c r="H28" s="279" t="s">
+        <v>149</v>
+      </c>
+      <c r="I28" s="279" t="str">
+        <f>Q2</f>
+        <v>Densidad muro x</v>
+      </c>
+      <c r="J28" s="279" t="str">
+        <f>R2</f>
+        <v>Densidad muro y</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="F29" s="278">
+        <v>23</v>
+      </c>
+      <c r="G29" s="278">
+        <v>0.2</v>
+      </c>
+      <c r="H29" s="278">
+        <v>0.2</v>
+      </c>
+      <c r="I29" s="281">
+        <f>Q3</f>
+        <v>2.7582505765341134E-2</v>
+      </c>
+      <c r="J29" s="281">
+        <f>R3</f>
+        <v>2.9800042021805778E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="F30" s="278">
+        <v>22</v>
+      </c>
+      <c r="G30" s="278">
+        <v>0.2</v>
+      </c>
+      <c r="H30" s="278">
+        <v>0.2</v>
+      </c>
+      <c r="I30" s="281">
+        <f>Q4</f>
+        <v>2.7582505765341134E-2</v>
+      </c>
+      <c r="J30" s="281">
+        <f>R4</f>
+        <v>2.9800042021805778E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="F31" s="278">
+        <f>F30-1</f>
+        <v>21</v>
+      </c>
+      <c r="G31" s="278">
+        <v>0.2</v>
+      </c>
+      <c r="H31" s="278">
+        <v>0.2</v>
+      </c>
+      <c r="I31" s="281">
+        <f>Q5</f>
+        <v>2.7582505765341134E-2</v>
+      </c>
+      <c r="J31" s="281">
+        <f>R5</f>
+        <v>2.9800042021805778E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="F32" s="278">
+        <f t="shared" ref="F32:H51" si="14">F31-1</f>
+        <v>20</v>
+      </c>
+      <c r="G32" s="278">
+        <v>0.2</v>
+      </c>
+      <c r="H32" s="278">
+        <v>0.2</v>
+      </c>
+      <c r="I32" s="281">
+        <f>Q6</f>
+        <v>2.7582505765341134E-2</v>
+      </c>
+      <c r="J32" s="281">
+        <f>R6</f>
+        <v>2.9800042021805778E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F33" s="278">
+        <f t="shared" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="G33" s="278">
+        <v>0.2</v>
+      </c>
+      <c r="H33" s="278">
+        <v>0.2</v>
+      </c>
+      <c r="I33" s="281">
+        <f>Q7</f>
+        <v>2.7582505765341134E-2</v>
+      </c>
+      <c r="J33" s="281">
+        <f>R7</f>
+        <v>2.9800042021805778E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F34" s="278">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="G34" s="278">
+        <v>0.2</v>
+      </c>
+      <c r="H34" s="278">
+        <v>0.2</v>
+      </c>
+      <c r="I34" s="281">
+        <f>Q8</f>
+        <v>2.7582505765341134E-2</v>
+      </c>
+      <c r="J34" s="281">
+        <f>R8</f>
+        <v>2.9800042021805778E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F35" s="278">
+        <f t="shared" si="14"/>
+        <v>17</v>
+      </c>
+      <c r="G35" s="278">
+        <v>0.2</v>
+      </c>
+      <c r="H35" s="278">
+        <v>0.2</v>
+      </c>
+      <c r="I35" s="281">
+        <f>Q9</f>
+        <v>2.7582505765341134E-2</v>
+      </c>
+      <c r="J35" s="281">
+        <f>R9</f>
+        <v>2.9800042021805778E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F36" s="278">
+        <f t="shared" si="14"/>
+        <v>16</v>
+      </c>
+      <c r="G36" s="278">
+        <v>0.2</v>
+      </c>
+      <c r="H36" s="278">
+        <v>0.2</v>
+      </c>
+      <c r="I36" s="281">
+        <f>Q10</f>
+        <v>2.7582505765341134E-2</v>
+      </c>
+      <c r="J36" s="281">
+        <f>R10</f>
+        <v>2.9800042021805778E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F37" s="278">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="G37" s="278">
+        <v>0.2</v>
+      </c>
+      <c r="H37" s="278">
+        <v>0.2</v>
+      </c>
+      <c r="I37" s="281">
+        <f>Q11</f>
+        <v>2.7582505765341134E-2</v>
+      </c>
+      <c r="J37" s="281">
+        <f>R11</f>
+        <v>2.9800042021805778E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F38" s="278">
+        <f t="shared" si="14"/>
+        <v>14</v>
+      </c>
+      <c r="G38" s="278">
+        <v>0.2</v>
+      </c>
+      <c r="H38" s="278">
+        <v>0.2</v>
+      </c>
+      <c r="I38" s="281">
+        <f>Q12</f>
+        <v>3.4478132206676414E-2</v>
+      </c>
+      <c r="J38" s="281">
+        <f>R12</f>
+        <v>3.7250052527257223E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F39" s="278">
+        <f t="shared" si="14"/>
+        <v>13</v>
+      </c>
+      <c r="G39" s="278">
+        <v>0.25</v>
+      </c>
+      <c r="H39" s="278">
+        <v>0.25</v>
+      </c>
+      <c r="I39" s="281">
+        <f>Q13</f>
+        <v>3.4478132206676414E-2</v>
+      </c>
+      <c r="J39" s="281">
+        <f>R13</f>
+        <v>3.7250052527257223E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F40" s="278">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="G40" s="278">
+        <v>0.25</v>
+      </c>
+      <c r="H40" s="278">
+        <v>0.25</v>
+      </c>
+      <c r="I40" s="281">
+        <f>Q14</f>
+        <v>3.4478132206676414E-2</v>
+      </c>
+      <c r="J40" s="281">
+        <f>R14</f>
+        <v>3.7250052527257223E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F41" s="278">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="G41" s="278">
+        <v>0.25</v>
+      </c>
+      <c r="H41" s="278">
+        <v>0.25</v>
+      </c>
+      <c r="I41" s="281">
+        <f>Q15</f>
+        <v>3.4478132206676414E-2</v>
+      </c>
+      <c r="J41" s="281">
+        <f>R15</f>
+        <v>3.7250052527257223E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F42" s="278">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="G42" s="278">
+        <v>0.25</v>
+      </c>
+      <c r="H42" s="278">
+        <v>0.25</v>
+      </c>
+      <c r="I42" s="281">
+        <f>Q16</f>
+        <v>3.4478132206676414E-2</v>
+      </c>
+      <c r="J42" s="281">
+        <f>R16</f>
+        <v>3.7250052527257223E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F43" s="278">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="G43" s="278">
+        <v>0.25</v>
+      </c>
+      <c r="H43" s="278">
+        <v>0.25</v>
+      </c>
+      <c r="I43" s="281">
+        <f>Q17</f>
+        <v>3.4478132206676414E-2</v>
+      </c>
+      <c r="J43" s="281">
+        <f>R17</f>
+        <v>3.7250052527257223E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F44" s="278">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="G44" s="278">
+        <v>0.25</v>
+      </c>
+      <c r="H44" s="278">
+        <v>0.25</v>
+      </c>
+      <c r="I44" s="281">
+        <f>Q18</f>
+        <v>3.4478132206676414E-2</v>
+      </c>
+      <c r="J44" s="281">
+        <f>R18</f>
+        <v>3.7250052527257223E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F45" s="278">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="G45" s="278">
+        <v>0.25</v>
+      </c>
+      <c r="H45" s="278">
+        <v>0.25</v>
+      </c>
+      <c r="I45" s="281">
+        <f>Q19</f>
+        <v>3.4478132206676414E-2</v>
+      </c>
+      <c r="J45" s="281">
+        <f>R19</f>
+        <v>3.7250052527257223E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F46" s="278">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="G46" s="278">
+        <v>0.25</v>
+      </c>
+      <c r="H46" s="278">
+        <v>0.25</v>
+      </c>
+      <c r="I46" s="281">
+        <f>Q20</f>
+        <v>3.4478132206676414E-2</v>
+      </c>
+      <c r="J46" s="281">
+        <f>R20</f>
+        <v>3.7250052527257223E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F47" s="278">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="G47" s="278">
+        <v>0.25</v>
+      </c>
+      <c r="H47" s="278">
+        <v>0.25</v>
+      </c>
+      <c r="I47" s="281">
+        <f>Q21</f>
+        <v>3.4478132206676414E-2</v>
+      </c>
+      <c r="J47" s="281">
+        <f>R21</f>
+        <v>3.7250052527257223E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F48" s="278">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="G48" s="278">
+        <v>0.25</v>
+      </c>
+      <c r="H48" s="278">
+        <v>0.25</v>
+      </c>
+      <c r="I48" s="281">
+        <f>Q22</f>
+        <v>3.4478132206676414E-2</v>
+      </c>
+      <c r="J48" s="281">
+        <f>R22</f>
+        <v>3.7250052527257223E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F49" s="278">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="G49" s="278">
+        <v>0.25</v>
+      </c>
+      <c r="H49" s="278">
+        <v>0.25</v>
+      </c>
+      <c r="I49" s="281">
+        <f>Q23</f>
+        <v>3.6908308926089733E-2</v>
+      </c>
+      <c r="J49" s="281">
+        <f>R23</f>
+        <v>3.7250052527257223E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F50" s="278">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="G50" s="278">
+        <v>0.25</v>
+      </c>
+      <c r="H50" s="278">
+        <v>0.25</v>
+      </c>
+      <c r="I50" s="281">
+        <f>Q24</f>
+        <v>4.1280080450360308E-2</v>
+      </c>
+      <c r="J50" s="281">
+        <f>R24</f>
+        <v>3.8264455292441095E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F51" s="278">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G51" s="278">
+        <v>0.25</v>
+      </c>
+      <c r="H51" s="278">
+        <v>0.3</v>
+      </c>
+      <c r="I51" s="281">
+        <f>Q25</f>
+        <v>4.3016939379801215E-2</v>
+      </c>
+      <c r="J51" s="281">
+        <f>R25</f>
+        <v>4.0555667226661408E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="6:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F52" s="280">
+        <v>-1</v>
+      </c>
+      <c r="G52" s="280">
+        <v>0.25</v>
+      </c>
+      <c r="H52" s="280">
+        <v>0.3</v>
+      </c>
+      <c r="I52" s="282">
+        <f>Q26</f>
+        <v>2.8790286765056721E-2</v>
+      </c>
+      <c r="J52" s="282">
+        <f>R26</f>
+        <v>2.7100454023262721E-2</v>
       </c>
     </row>
   </sheetData>
@@ -11993,37 +12521,37 @@
       <c r="B1" s="142" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="264" t="s">
+      <c r="C1" s="270" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="265"/>
-      <c r="E1" s="265"/>
-      <c r="F1" s="266" t="s">
+      <c r="D1" s="271"/>
+      <c r="E1" s="271"/>
+      <c r="F1" s="272" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="267"/>
-      <c r="H1" s="267"/>
-      <c r="I1" s="264" t="s">
+      <c r="G1" s="273"/>
+      <c r="H1" s="273"/>
+      <c r="I1" s="270" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="265"/>
-      <c r="K1" s="265"/>
-      <c r="L1" s="265"/>
-      <c r="M1" s="265"/>
-      <c r="N1" s="265"/>
-      <c r="O1" s="265"/>
-      <c r="P1" s="265"/>
-      <c r="Q1" s="265"/>
-      <c r="S1" s="266" t="s">
+      <c r="J1" s="271"/>
+      <c r="K1" s="271"/>
+      <c r="L1" s="271"/>
+      <c r="M1" s="271"/>
+      <c r="N1" s="271"/>
+      <c r="O1" s="271"/>
+      <c r="P1" s="271"/>
+      <c r="Q1" s="271"/>
+      <c r="S1" s="272" t="s">
         <v>56</v>
       </c>
-      <c r="T1" s="267"/>
-      <c r="U1" s="267"/>
-      <c r="V1" s="267"/>
-      <c r="W1" s="267"/>
-      <c r="X1" s="267"/>
-      <c r="Y1" s="267"/>
-      <c r="Z1" s="267"/>
+      <c r="T1" s="273"/>
+      <c r="U1" s="273"/>
+      <c r="V1" s="273"/>
+      <c r="W1" s="273"/>
+      <c r="X1" s="273"/>
+      <c r="Y1" s="273"/>
+      <c r="Z1" s="273"/>
       <c r="AA1" s="146"/>
     </row>
     <row r="2" spans="1:27" s="132" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18609,30 +19137,30 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="268" t="s">
+      <c r="B3" s="274" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="269"/>
-      <c r="D3" s="270" t="s">
+      <c r="C3" s="275"/>
+      <c r="D3" s="276" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="271"/>
-      <c r="F3" s="269" t="s">
+      <c r="E3" s="277"/>
+      <c r="F3" s="275" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="269"/>
-      <c r="H3" s="270" t="s">
+      <c r="G3" s="275"/>
+      <c r="H3" s="276" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="271"/>
-      <c r="J3" s="269" t="s">
+      <c r="I3" s="277"/>
+      <c r="J3" s="275" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="269"/>
-      <c r="L3" s="270" t="s">
+      <c r="K3" s="275"/>
+      <c r="L3" s="276" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="271"/>
+      <c r="M3" s="277"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -28253,30 +28781,30 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="268" t="s">
+      <c r="B3" s="274" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="269"/>
-      <c r="D3" s="270" t="s">
+      <c r="C3" s="275"/>
+      <c r="D3" s="276" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="271"/>
-      <c r="F3" s="269" t="s">
+      <c r="E3" s="277"/>
+      <c r="F3" s="275" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="269"/>
-      <c r="H3" s="270" t="s">
+      <c r="G3" s="275"/>
+      <c r="H3" s="276" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="271"/>
-      <c r="J3" s="269" t="s">
+      <c r="I3" s="277"/>
+      <c r="J3" s="275" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="269"/>
-      <c r="L3" s="270" t="s">
+      <c r="K3" s="275"/>
+      <c r="L3" s="276" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="271"/>
+      <c r="M3" s="277"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
